--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C5BD5F-3976-4C8C-A73F-352EE5D553B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAE317-A474-4F1A-8264-9647FDCECD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="248">
   <si>
     <t>Country</t>
   </si>
@@ -948,6 +948,21 @@
   <si>
     <t>Carbon Fiber</t>
   </si>
+  <si>
+    <t xml:space="preserve">Intergrex I-100H / S / ST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intergrex I-200H / S / ST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intergrex 250H / S / ST </t>
+  </si>
+  <si>
+    <t>Intergrex I-350H / S / ST</t>
+  </si>
+  <si>
+    <t>Intergrex I-450H / S / ST </t>
+  </si>
 </sst>
 </file>
 
@@ -956,7 +971,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1117,20 @@
       <sz val="13"/>
       <color rgb="FF595959"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1879,7 +1908,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2277,62 +2306,62 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2388,29 +2417,39 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2752,7 +2791,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5115,20 +5154,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
-      <c r="AV1" s="151"/>
-      <c r="AW1" s="151"/>
-      <c r="AX1" s="151"/>
-      <c r="AY1" s="151"/>
-      <c r="AZ1" s="151"/>
-      <c r="BA1" s="151"/>
+      <c r="AN1" s="169"/>
+      <c r="AO1" s="169"/>
+      <c r="AP1" s="169"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="169"/>
+      <c r="AS1" s="169"/>
+      <c r="AT1" s="169"/>
+      <c r="AU1" s="169"/>
+      <c r="AV1" s="169"/>
+      <c r="AW1" s="169"/>
+      <c r="AX1" s="169"/>
+      <c r="AY1" s="169"/>
+      <c r="AZ1" s="169"/>
+      <c r="BA1" s="169"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -5147,7 +5186,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="H2" s="192" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -5169,7 +5208,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="194" t="s">
+      <c r="P2" s="192" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -5200,10 +5239,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="197" t="s">
+      <c r="AC2" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="192" t="s">
+      <c r="AD2" s="198" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -5215,26 +5254,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="151"/>
-      <c r="AO2" s="151"/>
-      <c r="AP2" s="151"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="151"/>
-      <c r="AS2" s="151"/>
-      <c r="AT2" s="151"/>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="151"/>
-      <c r="AW2" s="151"/>
-      <c r="AX2" s="151"/>
-      <c r="AY2" s="151"/>
-      <c r="AZ2" s="151"/>
-      <c r="BA2" s="151"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="169"/>
+      <c r="AV2" s="169"/>
+      <c r="AW2" s="169"/>
+      <c r="AX2" s="169"/>
+      <c r="AY2" s="169"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="169"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -5255,7 +5294,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="195"/>
+      <c r="H3" s="193"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -5275,7 +5314,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="195"/>
+      <c r="P3" s="193"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -5296,8 +5335,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="155"/>
+      <c r="AC3" s="196"/>
+      <c r="AD3" s="161"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -5342,7 +5381,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="195"/>
+      <c r="H4" s="193"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -5362,7 +5401,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="196"/>
+      <c r="P4" s="194"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -5382,8 +5421,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="155"/>
+      <c r="AC4" s="196"/>
+      <c r="AD4" s="161"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -5431,7 +5470,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="195"/>
+      <c r="H5" s="193"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -5456,8 +5495,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="155"/>
+      <c r="AC5" s="196"/>
+      <c r="AD5" s="161"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -5490,7 +5529,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="195"/>
+      <c r="H6" s="193"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -5517,8 +5556,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="155"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="161"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -5556,7 +5595,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="195"/>
+      <c r="H7" s="193"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -5583,8 +5622,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="155"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="161"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -5619,7 +5658,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="195"/>
+      <c r="H8" s="193"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -5646,8 +5685,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="155"/>
+      <c r="AC8" s="196"/>
+      <c r="AD8" s="161"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -5682,7 +5721,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="196"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -5709,8 +5748,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="155" t="s">
+      <c r="AC9" s="196"/>
+      <c r="AD9" s="161" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -5753,8 +5792,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="155"/>
+      <c r="AC10" s="196"/>
+      <c r="AD10" s="161"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -5787,7 +5826,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="197" t="s">
+      <c r="H11" s="195" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -5808,8 +5847,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="155"/>
+      <c r="AC11" s="196"/>
+      <c r="AD11" s="161"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -5828,7 +5867,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="198"/>
+      <c r="H12" s="196"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -5847,8 +5886,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="155"/>
+      <c r="AC12" s="196"/>
+      <c r="AD12" s="161"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -5867,7 +5906,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="198"/>
+      <c r="H13" s="196"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -5886,8 +5925,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="155"/>
+      <c r="AC13" s="196"/>
+      <c r="AD13" s="161"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -5906,7 +5945,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="198"/>
+      <c r="H14" s="196"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -5925,8 +5964,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="155"/>
+      <c r="AC14" s="196"/>
+      <c r="AD14" s="161"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -5945,7 +5984,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="198"/>
+      <c r="H15" s="196"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -5964,8 +6003,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="155" t="s">
+      <c r="AC15" s="196"/>
+      <c r="AD15" s="161" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -5983,7 +6022,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="198"/>
+      <c r="H16" s="196"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -6002,8 +6041,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="155"/>
+      <c r="AC16" s="196"/>
+      <c r="AD16" s="161"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -6022,7 +6061,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="198"/>
+      <c r="H17" s="196"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -6041,8 +6080,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="198"/>
-      <c r="AD17" s="155"/>
+      <c r="AC17" s="196"/>
+      <c r="AD17" s="161"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -6061,7 +6100,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="199"/>
+      <c r="H18" s="197"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -6080,8 +6119,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="198"/>
-      <c r="AD18" s="155"/>
+      <c r="AC18" s="196"/>
+      <c r="AD18" s="161"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -6100,8 +6139,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="198"/>
-      <c r="AD19" s="155"/>
+      <c r="AC19" s="196"/>
+      <c r="AD19" s="161"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -6120,8 +6159,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="198"/>
-      <c r="AD20" s="155" t="s">
+      <c r="AC20" s="196"/>
+      <c r="AD20" s="161" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -6142,8 +6181,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="198"/>
-      <c r="AD21" s="155"/>
+      <c r="AC21" s="196"/>
+      <c r="AD21" s="161"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -6162,8 +6201,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="198"/>
-      <c r="AD22" s="155"/>
+      <c r="AC22" s="196"/>
+      <c r="AD22" s="161"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -6182,8 +6221,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="198"/>
-      <c r="AD23" s="155" t="s">
+      <c r="AC23" s="196"/>
+      <c r="AD23" s="161" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -6204,8 +6243,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="198"/>
-      <c r="AD24" s="155"/>
+      <c r="AC24" s="196"/>
+      <c r="AD24" s="161"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -6218,8 +6257,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="199"/>
-      <c r="AD25" s="193"/>
+      <c r="AC25" s="197"/>
+      <c r="AD25" s="199"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -6236,10 +6275,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="197" t="s">
+      <c r="AC27" s="195" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="192" t="s">
+      <c r="AD27" s="198" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -6256,8 +6295,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="198"/>
-      <c r="AD28" s="155"/>
+      <c r="AC28" s="196"/>
+      <c r="AD28" s="161"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -6272,8 +6311,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="198"/>
-      <c r="AD29" s="155"/>
+      <c r="AC29" s="196"/>
+      <c r="AD29" s="161"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -6285,8 +6324,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="198"/>
-      <c r="AD30" s="155"/>
+      <c r="AC30" s="196"/>
+      <c r="AD30" s="161"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -6300,8 +6339,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="198"/>
-      <c r="AD31" s="155"/>
+      <c r="AC31" s="196"/>
+      <c r="AD31" s="161"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -6313,8 +6352,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="198"/>
-      <c r="AD32" s="155"/>
+      <c r="AC32" s="196"/>
+      <c r="AD32" s="161"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -6327,8 +6366,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="198"/>
-      <c r="AD33" s="155"/>
+      <c r="AC33" s="196"/>
+      <c r="AD33" s="161"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -6345,8 +6384,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="198"/>
-      <c r="AD34" s="155" t="s">
+      <c r="AC34" s="196"/>
+      <c r="AD34" s="161" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -6365,8 +6404,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="198"/>
-      <c r="AD35" s="155"/>
+      <c r="AC35" s="196"/>
+      <c r="AD35" s="161"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -6383,8 +6422,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="198"/>
-      <c r="AD36" s="155"/>
+      <c r="AC36" s="196"/>
+      <c r="AD36" s="161"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -6401,8 +6440,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="198"/>
-      <c r="AD37" s="155"/>
+      <c r="AC37" s="196"/>
+      <c r="AD37" s="161"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -6419,8 +6458,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="198"/>
-      <c r="AD38" s="155"/>
+      <c r="AC38" s="196"/>
+      <c r="AD38" s="161"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -6437,8 +6476,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="198"/>
-      <c r="AD39" s="155"/>
+      <c r="AC39" s="196"/>
+      <c r="AD39" s="161"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -6455,8 +6494,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="198"/>
-      <c r="AD40" s="155"/>
+      <c r="AC40" s="196"/>
+      <c r="AD40" s="161"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -6473,8 +6512,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="198"/>
-      <c r="AD41" s="155" t="s">
+      <c r="AC41" s="196"/>
+      <c r="AD41" s="161" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -6493,8 +6532,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="198"/>
-      <c r="AD42" s="155"/>
+      <c r="AC42" s="196"/>
+      <c r="AD42" s="161"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -6511,8 +6550,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="198"/>
-      <c r="AD43" s="155"/>
+      <c r="AC43" s="196"/>
+      <c r="AD43" s="161"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -6529,8 +6568,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="198"/>
-      <c r="AD44" s="155"/>
+      <c r="AC44" s="196"/>
+      <c r="AD44" s="161"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -6547,8 +6586,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="198"/>
-      <c r="AD45" s="155"/>
+      <c r="AC45" s="196"/>
+      <c r="AD45" s="161"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -6565,8 +6604,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="198"/>
-      <c r="AD46" s="155"/>
+      <c r="AC46" s="196"/>
+      <c r="AD46" s="161"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -6583,8 +6622,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="198"/>
-      <c r="AD47" s="155"/>
+      <c r="AC47" s="196"/>
+      <c r="AD47" s="161"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -6601,8 +6640,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="198"/>
-      <c r="AD48" s="155" t="s">
+      <c r="AC48" s="196"/>
+      <c r="AD48" s="161" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -6621,8 +6660,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="198"/>
-      <c r="AD49" s="155"/>
+      <c r="AC49" s="196"/>
+      <c r="AD49" s="161"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -6639,8 +6678,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="198"/>
-      <c r="AD50" s="155"/>
+      <c r="AC50" s="196"/>
+      <c r="AD50" s="161"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -6657,8 +6696,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="198"/>
-      <c r="AD51" s="155" t="s">
+      <c r="AC51" s="196"/>
+      <c r="AD51" s="161" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -6677,8 +6716,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="198"/>
-      <c r="AD52" s="155"/>
+      <c r="AC52" s="196"/>
+      <c r="AD52" s="161"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -6695,8 +6734,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="198"/>
-      <c r="AD53" s="155"/>
+      <c r="AC53" s="196"/>
+      <c r="AD53" s="161"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -6713,7 +6752,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="198"/>
+      <c r="AC54" s="196"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -6733,7 +6772,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="199"/>
+      <c r="AC55" s="197"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -6966,11 +7005,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -6987,11 +7026,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7036,7 +7075,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="192" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -7056,7 +7095,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -7074,7 +7113,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="195"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -7092,7 +7131,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -7160,7 +7199,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="192" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -7183,7 +7222,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -7204,7 +7243,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="195"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -7225,7 +7264,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="195"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -7246,7 +7285,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="195"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -7267,7 +7306,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="195"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -7288,7 +7327,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="195"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -7309,7 +7348,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -7330,7 +7369,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="192" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -7353,7 +7392,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="195"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -7374,7 +7413,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="195"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -7395,7 +7434,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="195"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -7416,7 +7455,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="195"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -7437,7 +7476,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="195"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -7458,7 +7497,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="195"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -7479,7 +7518,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -7549,7 +7588,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="192" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7568,7 +7607,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -7585,7 +7624,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -7675,10 +7714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="163" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -7692,8 +7731,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="195"/>
-      <c r="B2" s="158"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -7705,8 +7744,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
-      <c r="B3" s="158"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -7718,8 +7757,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="195"/>
-      <c r="B4" s="158"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -7731,8 +7770,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="195"/>
-      <c r="B5" s="158"/>
+      <c r="A5" s="193"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -7744,8 +7783,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="195"/>
-      <c r="B6" s="158"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -7757,8 +7796,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="195"/>
-      <c r="B7" s="158"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -7770,8 +7809,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="195"/>
-      <c r="B8" s="158" t="s">
+      <c r="A8" s="193"/>
+      <c r="B8" s="164" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -7785,8 +7824,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="195"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="193"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -7798,8 +7837,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="195"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -7811,8 +7850,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="195"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -7824,8 +7863,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="195"/>
-      <c r="B12" s="158"/>
+      <c r="A12" s="193"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -7837,8 +7876,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="195"/>
-      <c r="B13" s="158"/>
+      <c r="A13" s="193"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -7850,8 +7889,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="195"/>
-      <c r="B14" s="158" t="s">
+      <c r="A14" s="193"/>
+      <c r="B14" s="164" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -7865,8 +7904,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="195"/>
-      <c r="B15" s="158"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -7878,8 +7917,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="195"/>
-      <c r="B16" s="158"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -7891,8 +7930,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="195"/>
-      <c r="B17" s="158"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -7904,8 +7943,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="195"/>
-      <c r="B18" s="158"/>
+      <c r="A18" s="193"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -7917,8 +7956,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
-      <c r="B19" s="158" t="s">
+      <c r="A19" s="193"/>
+      <c r="B19" s="164" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -7932,8 +7971,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="195"/>
-      <c r="B20" s="158"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -7945,8 +7984,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="195"/>
-      <c r="B21" s="158"/>
+      <c r="A21" s="193"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -7958,8 +7997,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="195"/>
-      <c r="B22" s="158" t="s">
+      <c r="A22" s="193"/>
+      <c r="B22" s="164" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -7973,8 +8012,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="195"/>
-      <c r="B23" s="158"/>
+      <c r="A23" s="193"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -7986,8 +8025,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
-      <c r="B24" s="159"/>
+      <c r="A24" s="194"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -7999,10 +8038,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="195" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="163" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -8016,8 +8055,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="198"/>
-      <c r="B26" s="158"/>
+      <c r="A26" s="196"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -8029,8 +8068,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="198"/>
-      <c r="B27" s="158"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -8042,8 +8081,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="198"/>
-      <c r="B28" s="158"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -8055,8 +8094,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="198"/>
-      <c r="B29" s="158"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -8068,8 +8107,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="198"/>
-      <c r="B30" s="158"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -8081,8 +8120,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="198"/>
-      <c r="B31" s="158"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -8094,8 +8133,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="198"/>
-      <c r="B32" s="158" t="s">
+      <c r="A32" s="196"/>
+      <c r="B32" s="164" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -8109,8 +8148,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="198"/>
-      <c r="B33" s="158"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -8122,8 +8161,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="198"/>
-      <c r="B34" s="158"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -8135,8 +8174,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="198"/>
-      <c r="B35" s="158"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -8148,8 +8187,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="198"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -8161,8 +8200,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="198"/>
-      <c r="B37" s="158"/>
+      <c r="A37" s="196"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -8174,8 +8213,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="198"/>
-      <c r="B38" s="158"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -8187,8 +8226,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="198"/>
-      <c r="B39" s="158" t="s">
+      <c r="A39" s="196"/>
+      <c r="B39" s="164" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -8202,8 +8241,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="198"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="196"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -8215,8 +8254,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="198"/>
-      <c r="B41" s="158"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -8228,8 +8267,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="198"/>
-      <c r="B42" s="158"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -8241,8 +8280,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="198"/>
-      <c r="B43" s="158"/>
+      <c r="A43" s="196"/>
+      <c r="B43" s="164"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -8254,8 +8293,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="198"/>
-      <c r="B44" s="158"/>
+      <c r="A44" s="196"/>
+      <c r="B44" s="164"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -8267,8 +8306,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="198"/>
-      <c r="B45" s="158"/>
+      <c r="A45" s="196"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -8280,8 +8319,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="198"/>
-      <c r="B46" s="158" t="s">
+      <c r="A46" s="196"/>
+      <c r="B46" s="164" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -8295,8 +8334,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="198"/>
-      <c r="B47" s="158"/>
+      <c r="A47" s="196"/>
+      <c r="B47" s="164"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -8308,8 +8347,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="198"/>
-      <c r="B48" s="158"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="164"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -8321,8 +8360,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="198"/>
-      <c r="B49" s="158" t="s">
+      <c r="A49" s="196"/>
+      <c r="B49" s="164" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -8336,8 +8375,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="198"/>
-      <c r="B50" s="158"/>
+      <c r="A50" s="196"/>
+      <c r="B50" s="164"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -8349,8 +8388,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="198"/>
-      <c r="B51" s="158"/>
+      <c r="A51" s="196"/>
+      <c r="B51" s="164"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -8362,7 +8401,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="198"/>
+      <c r="A52" s="196"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -8377,7 +8416,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="199"/>
+      <c r="A53" s="197"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -8414,8 +8453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8462,7 +8501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD098515-21DA-4E34-8208-57D76FDC375B}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -8538,50 +8577,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="154"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
-      <c r="AV1" s="151"/>
-      <c r="AW1" s="151"/>
-      <c r="AX1" s="151"/>
-      <c r="AY1" s="151"/>
-      <c r="AZ1" s="151"/>
-      <c r="BA1" s="151"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="169"/>
+      <c r="AO1" s="169"/>
+      <c r="AP1" s="169"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="169"/>
+      <c r="AS1" s="169"/>
+      <c r="AT1" s="169"/>
+      <c r="AU1" s="169"/>
+      <c r="AV1" s="169"/>
+      <c r="AW1" s="169"/>
+      <c r="AX1" s="169"/>
+      <c r="AY1" s="169"/>
+      <c r="AZ1" s="169"/>
+      <c r="BA1" s="169"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="154" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -8618,33 +8657,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="153"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="151"/>
-      <c r="AO2" s="151"/>
-      <c r="AP2" s="151"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="151"/>
-      <c r="AS2" s="151"/>
-      <c r="AT2" s="151"/>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="151"/>
-      <c r="AW2" s="151"/>
-      <c r="AX2" s="151"/>
-      <c r="AY2" s="151"/>
-      <c r="AZ2" s="151"/>
-      <c r="BA2" s="151"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="169"/>
+      <c r="AV2" s="169"/>
+      <c r="AW2" s="169"/>
+      <c r="AX2" s="169"/>
+      <c r="AY2" s="169"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="169"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="165"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -8702,7 +8741,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -8763,7 +8802,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="166"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -8913,7 +8952,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="154" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -8968,7 +9007,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="165"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -9019,7 +9058,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="165"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -9066,7 +9105,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="165"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -9090,7 +9129,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="165"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -9114,7 +9153,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="165"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -9138,7 +9177,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="165"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -9162,7 +9201,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="166"/>
+      <c r="A15" s="156"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -9195,7 +9234,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="151" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -9221,7 +9260,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="162"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -9245,7 +9284,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="162"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -9269,7 +9308,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="162"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -9293,7 +9332,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -9317,7 +9356,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -9341,7 +9380,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -9365,7 +9404,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="163"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -9409,7 +9448,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="164" t="s">
+      <c r="A27" s="154" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -9432,7 +9471,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="165"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -9453,7 +9492,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="166"/>
+      <c r="A29" s="156"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -9503,10 +9542,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="157" t="str">
+      <c r="B34" s="163" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -9527,8 +9566,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="158"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -9543,8 +9582,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="162"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -9559,8 +9598,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="162"/>
-      <c r="B37" s="158"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -9575,8 +9614,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="162"/>
-      <c r="B38" s="158"/>
+      <c r="A38" s="152"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -9591,8 +9630,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="158"/>
+      <c r="A39" s="152"/>
+      <c r="B39" s="164"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -9604,8 +9643,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="162"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -9617,8 +9656,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="162"/>
-      <c r="B41" s="158" t="str">
+      <c r="A41" s="152"/>
+      <c r="B41" s="164" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -9633,8 +9672,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="162"/>
-      <c r="B42" s="158"/>
+      <c r="A42" s="152"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -9646,8 +9685,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="162"/>
-      <c r="B43" s="158"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="164"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -9659,8 +9698,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="162"/>
-      <c r="B44" s="158"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="164"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -9672,8 +9711,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="162"/>
-      <c r="B45" s="158"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -9685,8 +9724,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="162"/>
-      <c r="B46" s="158"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="164"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -9698,8 +9737,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="162"/>
-      <c r="B47" s="158" t="str">
+      <c r="A47" s="152"/>
+      <c r="B47" s="164" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -9714,8 +9753,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="162"/>
-      <c r="B48" s="158"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="164"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -9727,8 +9766,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="162"/>
-      <c r="B49" s="158"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="164"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -9740,8 +9779,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="162"/>
-      <c r="B50" s="158"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="164"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -9753,8 +9792,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="162"/>
-      <c r="B51" s="158"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="164"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -9766,8 +9805,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="162"/>
-      <c r="B52" s="158" t="str">
+      <c r="A52" s="152"/>
+      <c r="B52" s="164" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -9782,8 +9821,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="162"/>
-      <c r="B53" s="158"/>
+      <c r="A53" s="152"/>
+      <c r="B53" s="164"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -9795,8 +9834,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="162"/>
-      <c r="B54" s="158"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="164"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -9808,8 +9847,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="162"/>
-      <c r="B55" s="158" t="str">
+      <c r="A55" s="152"/>
+      <c r="B55" s="164" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -9824,8 +9863,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="162"/>
-      <c r="B56" s="158"/>
+      <c r="A56" s="152"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -9837,8 +9876,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="163"/>
-      <c r="B57" s="159"/>
+      <c r="A57" s="153"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -9853,10 +9892,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="167" t="s">
+      <c r="A59" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="160" t="s">
+      <c r="B59" s="166" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -9873,8 +9912,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="168"/>
-      <c r="B60" s="155"/>
+      <c r="A60" s="158"/>
+      <c r="B60" s="161"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -9892,8 +9931,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="168"/>
-      <c r="B61" s="155"/>
+      <c r="A61" s="158"/>
+      <c r="B61" s="161"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -9908,8 +9947,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="168"/>
-      <c r="B62" s="155"/>
+      <c r="A62" s="158"/>
+      <c r="B62" s="161"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -9924,8 +9963,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
-      <c r="B63" s="155"/>
+      <c r="A63" s="158"/>
+      <c r="B63" s="161"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -9940,8 +9979,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="168"/>
-      <c r="B64" s="155"/>
+      <c r="A64" s="158"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -9956,8 +9995,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="155"/>
+      <c r="A65" s="158"/>
+      <c r="B65" s="161"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -9970,8 +10009,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="168"/>
-      <c r="B66" s="155" t="str">
+      <c r="A66" s="158"/>
+      <c r="B66" s="161" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -9987,8 +10026,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="168"/>
-      <c r="B67" s="155"/>
+      <c r="A67" s="158"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -10000,8 +10039,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="168"/>
-      <c r="B68" s="155"/>
+      <c r="A68" s="158"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -10013,8 +10052,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="168"/>
-      <c r="B69" s="155"/>
+      <c r="A69" s="158"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -10026,8 +10065,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="168"/>
-      <c r="B70" s="155"/>
+      <c r="A70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -10039,8 +10078,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="168"/>
-      <c r="B71" s="155"/>
+      <c r="A71" s="158"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -10052,8 +10091,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="168"/>
-      <c r="B72" s="155"/>
+      <c r="A72" s="158"/>
+      <c r="B72" s="161"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -10065,8 +10104,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="168"/>
-      <c r="B73" s="155" t="str">
+      <c r="A73" s="158"/>
+      <c r="B73" s="161" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -10081,8 +10120,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="168"/>
-      <c r="B74" s="155"/>
+      <c r="A74" s="158"/>
+      <c r="B74" s="161"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -10094,8 +10133,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="168"/>
-      <c r="B75" s="155"/>
+      <c r="A75" s="158"/>
+      <c r="B75" s="161"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -10107,8 +10146,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="168"/>
-      <c r="B76" s="155"/>
+      <c r="A76" s="158"/>
+      <c r="B76" s="161"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -10120,8 +10159,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="168"/>
-      <c r="B77" s="155"/>
+      <c r="A77" s="158"/>
+      <c r="B77" s="161"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -10133,8 +10172,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="168"/>
-      <c r="B78" s="155"/>
+      <c r="A78" s="158"/>
+      <c r="B78" s="161"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -10146,8 +10185,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="168"/>
-      <c r="B79" s="155"/>
+      <c r="A79" s="158"/>
+      <c r="B79" s="161"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -10159,8 +10198,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="168"/>
-      <c r="B80" s="155" t="str">
+      <c r="A80" s="158"/>
+      <c r="B80" s="161" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -10175,8 +10214,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="168"/>
-      <c r="B81" s="155"/>
+      <c r="A81" s="158"/>
+      <c r="B81" s="161"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -10188,8 +10227,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="168"/>
-      <c r="B82" s="155"/>
+      <c r="A82" s="158"/>
+      <c r="B82" s="161"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -10201,8 +10240,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="168"/>
-      <c r="B83" s="155" t="str">
+      <c r="A83" s="158"/>
+      <c r="B83" s="161" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -10217,8 +10256,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="168"/>
-      <c r="B84" s="155"/>
+      <c r="A84" s="158"/>
+      <c r="B84" s="161"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -10230,8 +10269,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="169"/>
-      <c r="B85" s="156"/>
+      <c r="A85" s="159"/>
+      <c r="B85" s="162"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -10258,13 +10297,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -10277,21 +10324,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10303,7 +10342,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10361,13 +10400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8E84A5-9A90-4D44-86DE-A8D719EB4875}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10436,48 +10475,68 @@
       <c r="C7" s="171"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="122"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="200">
+        <v>7.5</v>
+      </c>
       <c r="C8" s="171"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="123">
+        <v>15</v>
+      </c>
       <c r="C9" s="171"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="118"/>
+      <c r="A10" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="203">
+        <v>15</v>
+      </c>
       <c r="C10" s="171"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="201">
+        <v>22</v>
+      </c>
       <c r="C11" s="171"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="125"/>
-      <c r="B12" s="118"/>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="202" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="201">
+        <v>30</v>
+      </c>
       <c r="C12" s="171"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
-      <c r="B13" s="118"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="171"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
+      <c r="B14" s="200"/>
       <c r="C14" s="171"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
-      <c r="B15" s="116"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="171"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
-      <c r="B16" s="118"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="171"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10595,6 +10654,7 @@
     <mergeCell ref="C23:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15998,14 +16058,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -16226,6 +16278,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16236,16 +16296,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16264,6 +16314,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>

--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E8059-4950-434B-8EF5-68CC35EFB057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9679D86-2709-4399-BA24-DB6E72717AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Usage Types" sheetId="21" r:id="rId8"/>
     <sheet name="Facilities" sheetId="20" r:id="rId9"/>
     <sheet name="Process" sheetId="19" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId11"/>
+    <sheet name="Machine_Process" sheetId="24" r:id="rId11"/>
     <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId12"/>
     <sheet name="Packaging" sheetId="16" r:id="rId13"/>
     <sheet name="Manufacturing" sheetId="15" r:id="rId14"/>
@@ -3529,36 +3529,7 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3585,6 +3556,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3640,12 +3641,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3664,7 +3659,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -6270,7 +6270,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6279,7 +6279,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="161" t="s">
         <v>622</v>
       </c>
     </row>
@@ -12730,65 +12730,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="199" t="s">
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="199" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="199" t="s">
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="200" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="199" t="s">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="200"/>
-      <c r="V1" s="196" t="s">
+      <c r="U1" s="201"/>
+      <c r="V1" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="193" t="s">
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="194" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="194"/>
-      <c r="AH1" s="194"/>
-      <c r="AI1" s="194"/>
-      <c r="AJ1" s="194"/>
-      <c r="AK1" s="194"/>
-      <c r="AL1" s="194"/>
-      <c r="AM1" s="194"/>
-      <c r="AN1" s="194"/>
-      <c r="AO1" s="194"/>
-      <c r="AP1" s="194"/>
-      <c r="AQ1" s="194"/>
-      <c r="AR1" s="194"/>
-      <c r="AS1" s="195"/>
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="195"/>
+      <c r="AJ1" s="195"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="195"/>
+      <c r="AN1" s="195"/>
+      <c r="AO1" s="195"/>
+      <c r="AP1" s="195"/>
+      <c r="AQ1" s="195"/>
+      <c r="AR1" s="195"/>
+      <c r="AS1" s="196"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -13851,20 +13851,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="161"/>
-      <c r="AT1" s="161"/>
-      <c r="AU1" s="161"/>
-      <c r="AV1" s="161"/>
-      <c r="AW1" s="161"/>
-      <c r="AX1" s="161"/>
-      <c r="AY1" s="161"/>
-      <c r="AZ1" s="161"/>
-      <c r="BA1" s="161"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -13883,7 +13883,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="203" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -13905,7 +13905,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="204" t="s">
+      <c r="P2" s="203" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -13936,10 +13936,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="207" t="s">
+      <c r="AC2" s="206" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="202" t="s">
+      <c r="AD2" s="209" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -13951,26 +13951,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="161"/>
-      <c r="AJ2" s="161"/>
-      <c r="AK2" s="161"/>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="161"/>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="161"/>
-      <c r="AT2" s="161"/>
-      <c r="AU2" s="161"/>
-      <c r="AV2" s="161"/>
-      <c r="AW2" s="161"/>
-      <c r="AX2" s="161"/>
-      <c r="AY2" s="161"/>
-      <c r="AZ2" s="161"/>
-      <c r="BA2" s="161"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="180"/>
+      <c r="AJ2" s="180"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="180"/>
+      <c r="AV2" s="180"/>
+      <c r="AW2" s="180"/>
+      <c r="AX2" s="180"/>
+      <c r="AY2" s="180"/>
+      <c r="AZ2" s="180"/>
+      <c r="BA2" s="180"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -13991,7 +13991,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="205"/>
+      <c r="H3" s="204"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="205"/>
+      <c r="P3" s="204"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -14032,8 +14032,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="165"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="172"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -14078,7 +14078,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="205"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="206"/>
+      <c r="P4" s="205"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -14118,8 +14118,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="165"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="172"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -14167,7 +14167,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="205"/>
+      <c r="H5" s="204"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -14192,8 +14192,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="208"/>
-      <c r="AD5" s="165"/>
+      <c r="AC5" s="207"/>
+      <c r="AD5" s="172"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -14226,7 +14226,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="205"/>
+      <c r="H6" s="204"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -14253,8 +14253,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="208"/>
-      <c r="AD6" s="165"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="172"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -14292,7 +14292,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="205"/>
+      <c r="H7" s="204"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -14319,8 +14319,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="208"/>
-      <c r="AD7" s="165"/>
+      <c r="AC7" s="207"/>
+      <c r="AD7" s="172"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -14355,7 +14355,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="205"/>
+      <c r="H8" s="204"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -14382,8 +14382,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="208"/>
-      <c r="AD8" s="165"/>
+      <c r="AC8" s="207"/>
+      <c r="AD8" s="172"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -14418,7 +14418,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="206"/>
+      <c r="H9" s="205"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -14445,8 +14445,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="165" t="s">
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="172" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -14489,8 +14489,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="165"/>
+      <c r="AC10" s="207"/>
+      <c r="AD10" s="172"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -14523,7 +14523,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="207" t="s">
+      <c r="H11" s="206" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -14544,8 +14544,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="208"/>
-      <c r="AD11" s="165"/>
+      <c r="AC11" s="207"/>
+      <c r="AD11" s="172"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="208"/>
+      <c r="H12" s="207"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -14583,8 +14583,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="208"/>
-      <c r="AD12" s="165"/>
+      <c r="AC12" s="207"/>
+      <c r="AD12" s="172"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -14603,7 +14603,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="208"/>
+      <c r="H13" s="207"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -14622,8 +14622,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="208"/>
-      <c r="AD13" s="165"/>
+      <c r="AC13" s="207"/>
+      <c r="AD13" s="172"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="208"/>
+      <c r="H14" s="207"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -14661,8 +14661,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="208"/>
-      <c r="AD14" s="165"/>
+      <c r="AC14" s="207"/>
+      <c r="AD14" s="172"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -14681,7 +14681,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="208"/>
+      <c r="H15" s="207"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -14700,8 +14700,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="165" t="s">
+      <c r="AC15" s="207"/>
+      <c r="AD15" s="172" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -14719,7 +14719,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="208"/>
+      <c r="H16" s="207"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -14738,8 +14738,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="208"/>
-      <c r="AD16" s="165"/>
+      <c r="AC16" s="207"/>
+      <c r="AD16" s="172"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -14758,7 +14758,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="208"/>
+      <c r="H17" s="207"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -14777,8 +14777,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="208"/>
-      <c r="AD17" s="165"/>
+      <c r="AC17" s="207"/>
+      <c r="AD17" s="172"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -14797,7 +14797,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="209"/>
+      <c r="H18" s="208"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -14816,8 +14816,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="165"/>
+      <c r="AC18" s="207"/>
+      <c r="AD18" s="172"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -14836,8 +14836,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="165"/>
+      <c r="AC19" s="207"/>
+      <c r="AD19" s="172"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -14856,8 +14856,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="208"/>
-      <c r="AD20" s="165" t="s">
+      <c r="AC20" s="207"/>
+      <c r="AD20" s="172" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -14878,8 +14878,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="208"/>
-      <c r="AD21" s="165"/>
+      <c r="AC21" s="207"/>
+      <c r="AD21" s="172"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -14898,8 +14898,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="208"/>
-      <c r="AD22" s="165"/>
+      <c r="AC22" s="207"/>
+      <c r="AD22" s="172"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -14918,8 +14918,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="208"/>
-      <c r="AD23" s="165" t="s">
+      <c r="AC23" s="207"/>
+      <c r="AD23" s="172" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -14940,8 +14940,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="208"/>
-      <c r="AD24" s="165"/>
+      <c r="AC24" s="207"/>
+      <c r="AD24" s="172"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -14954,8 +14954,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="209"/>
-      <c r="AD25" s="203"/>
+      <c r="AC25" s="208"/>
+      <c r="AD25" s="210"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -14972,10 +14972,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="207" t="s">
+      <c r="AC27" s="206" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="202" t="s">
+      <c r="AD27" s="209" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -14992,8 +14992,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="165"/>
+      <c r="AC28" s="207"/>
+      <c r="AD28" s="172"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -15008,8 +15008,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="208"/>
-      <c r="AD29" s="165"/>
+      <c r="AC29" s="207"/>
+      <c r="AD29" s="172"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -15021,8 +15021,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="208"/>
-      <c r="AD30" s="165"/>
+      <c r="AC30" s="207"/>
+      <c r="AD30" s="172"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -15036,8 +15036,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="208"/>
-      <c r="AD31" s="165"/>
+      <c r="AC31" s="207"/>
+      <c r="AD31" s="172"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -15049,8 +15049,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="208"/>
-      <c r="AD32" s="165"/>
+      <c r="AC32" s="207"/>
+      <c r="AD32" s="172"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -15063,8 +15063,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="208"/>
-      <c r="AD33" s="165"/>
+      <c r="AC33" s="207"/>
+      <c r="AD33" s="172"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -15081,8 +15081,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="208"/>
-      <c r="AD34" s="165" t="s">
+      <c r="AC34" s="207"/>
+      <c r="AD34" s="172" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -15101,8 +15101,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="208"/>
-      <c r="AD35" s="165"/>
+      <c r="AC35" s="207"/>
+      <c r="AD35" s="172"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -15119,8 +15119,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="208"/>
-      <c r="AD36" s="165"/>
+      <c r="AC36" s="207"/>
+      <c r="AD36" s="172"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -15137,8 +15137,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="208"/>
-      <c r="AD37" s="165"/>
+      <c r="AC37" s="207"/>
+      <c r="AD37" s="172"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -15155,8 +15155,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="208"/>
-      <c r="AD38" s="165"/>
+      <c r="AC38" s="207"/>
+      <c r="AD38" s="172"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -15173,8 +15173,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="208"/>
-      <c r="AD39" s="165"/>
+      <c r="AC39" s="207"/>
+      <c r="AD39" s="172"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -15191,8 +15191,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="208"/>
-      <c r="AD40" s="165"/>
+      <c r="AC40" s="207"/>
+      <c r="AD40" s="172"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -15209,8 +15209,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="208"/>
-      <c r="AD41" s="165" t="s">
+      <c r="AC41" s="207"/>
+      <c r="AD41" s="172" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -15229,8 +15229,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="208"/>
-      <c r="AD42" s="165"/>
+      <c r="AC42" s="207"/>
+      <c r="AD42" s="172"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -15247,8 +15247,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="208"/>
-      <c r="AD43" s="165"/>
+      <c r="AC43" s="207"/>
+      <c r="AD43" s="172"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -15265,8 +15265,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="208"/>
-      <c r="AD44" s="165"/>
+      <c r="AC44" s="207"/>
+      <c r="AD44" s="172"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -15283,8 +15283,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="208"/>
-      <c r="AD45" s="165"/>
+      <c r="AC45" s="207"/>
+      <c r="AD45" s="172"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -15301,8 +15301,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="208"/>
-      <c r="AD46" s="165"/>
+      <c r="AC46" s="207"/>
+      <c r="AD46" s="172"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -15319,8 +15319,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="208"/>
-      <c r="AD47" s="165"/>
+      <c r="AC47" s="207"/>
+      <c r="AD47" s="172"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -15337,8 +15337,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="208"/>
-      <c r="AD48" s="165" t="s">
+      <c r="AC48" s="207"/>
+      <c r="AD48" s="172" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -15357,8 +15357,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="208"/>
-      <c r="AD49" s="165"/>
+      <c r="AC49" s="207"/>
+      <c r="AD49" s="172"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -15375,8 +15375,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="208"/>
-      <c r="AD50" s="165"/>
+      <c r="AC50" s="207"/>
+      <c r="AD50" s="172"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -15393,8 +15393,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="208"/>
-      <c r="AD51" s="165" t="s">
+      <c r="AC51" s="207"/>
+      <c r="AD51" s="172" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -15413,8 +15413,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="208"/>
-      <c r="AD52" s="165"/>
+      <c r="AC52" s="207"/>
+      <c r="AD52" s="172"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -15431,8 +15431,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="208"/>
-      <c r="AD53" s="165"/>
+      <c r="AC53" s="207"/>
+      <c r="AD53" s="172"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -15449,7 +15449,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="208"/>
+      <c r="AC54" s="207"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -15469,7 +15469,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="209"/>
+      <c r="AC55" s="208"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -15702,11 +15702,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -15723,11 +15723,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15772,7 +15772,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="203" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -15792,7 +15792,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="205"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -15810,7 +15810,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="205"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -15828,7 +15828,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="206"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -15896,7 +15896,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="203" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -15919,7 +15919,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="205"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -15940,7 +15940,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="205"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -15961,7 +15961,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="205"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -15982,7 +15982,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="205"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -16003,7 +16003,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="205"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -16024,7 +16024,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="205"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -16045,7 +16045,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="206"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -16066,7 +16066,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="204" t="s">
+      <c r="A10" s="203" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -16089,7 +16089,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="205"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -16110,7 +16110,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="205"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -16131,7 +16131,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -16152,7 +16152,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="205"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -16173,7 +16173,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="205"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -16194,7 +16194,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="205"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -16215,7 +16215,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="206"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -16285,7 +16285,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="203" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -16304,7 +16304,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="205"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16321,7 +16321,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="206"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16457,10 +16457,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="174" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -16474,8 +16474,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="205"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -16487,8 +16487,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="205"/>
-      <c r="B3" s="168"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="175"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -16500,8 +16500,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="205"/>
-      <c r="B4" s="168"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -16513,8 +16513,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="205"/>
-      <c r="B5" s="168"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -16526,8 +16526,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="205"/>
-      <c r="B6" s="168"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -16539,8 +16539,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="205"/>
-      <c r="B7" s="168"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -16552,8 +16552,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="205"/>
-      <c r="B8" s="168" t="s">
+      <c r="A8" s="204"/>
+      <c r="B8" s="175" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -16567,8 +16567,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="205"/>
-      <c r="B9" s="168"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -16580,8 +16580,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="205"/>
-      <c r="B10" s="168"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -16593,8 +16593,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="205"/>
-      <c r="B11" s="168"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -16606,8 +16606,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="205"/>
-      <c r="B12" s="168"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -16619,8 +16619,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
-      <c r="B13" s="168"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -16632,8 +16632,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="205"/>
-      <c r="B14" s="168" t="s">
+      <c r="A14" s="204"/>
+      <c r="B14" s="175" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -16647,8 +16647,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="205"/>
-      <c r="B15" s="168"/>
+      <c r="A15" s="204"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -16660,8 +16660,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="205"/>
-      <c r="B16" s="168"/>
+      <c r="A16" s="204"/>
+      <c r="B16" s="175"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -16673,8 +16673,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="205"/>
-      <c r="B17" s="168"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -16686,8 +16686,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="205"/>
-      <c r="B18" s="168"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="175"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -16699,8 +16699,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="205"/>
-      <c r="B19" s="168" t="s">
+      <c r="A19" s="204"/>
+      <c r="B19" s="175" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -16714,8 +16714,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="205"/>
-      <c r="B20" s="168"/>
+      <c r="A20" s="204"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -16727,8 +16727,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="205"/>
-      <c r="B21" s="168"/>
+      <c r="A21" s="204"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -16740,8 +16740,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="205"/>
-      <c r="B22" s="168" t="s">
+      <c r="A22" s="204"/>
+      <c r="B22" s="175" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -16755,8 +16755,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="205"/>
-      <c r="B23" s="168"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -16768,8 +16768,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="206"/>
-      <c r="B24" s="169"/>
+      <c r="A24" s="205"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -16781,10 +16781,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="206" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="174" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -16798,8 +16798,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="208"/>
-      <c r="B26" s="168"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="175"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -16811,8 +16811,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="208"/>
-      <c r="B27" s="168"/>
+      <c r="A27" s="207"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -16824,8 +16824,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="208"/>
-      <c r="B28" s="168"/>
+      <c r="A28" s="207"/>
+      <c r="B28" s="175"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -16837,8 +16837,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="208"/>
-      <c r="B29" s="168"/>
+      <c r="A29" s="207"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -16850,8 +16850,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="208"/>
-      <c r="B30" s="168"/>
+      <c r="A30" s="207"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -16863,8 +16863,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="208"/>
-      <c r="B31" s="168"/>
+      <c r="A31" s="207"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -16876,8 +16876,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="208"/>
-      <c r="B32" s="168" t="s">
+      <c r="A32" s="207"/>
+      <c r="B32" s="175" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -16891,8 +16891,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="208"/>
-      <c r="B33" s="168"/>
+      <c r="A33" s="207"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -16904,8 +16904,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="208"/>
-      <c r="B34" s="168"/>
+      <c r="A34" s="207"/>
+      <c r="B34" s="175"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -16917,8 +16917,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="208"/>
-      <c r="B35" s="168"/>
+      <c r="A35" s="207"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -16930,8 +16930,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="208"/>
-      <c r="B36" s="168"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -16943,8 +16943,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="208"/>
-      <c r="B37" s="168"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="175"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -16956,8 +16956,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="208"/>
-      <c r="B38" s="168"/>
+      <c r="A38" s="207"/>
+      <c r="B38" s="175"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -16969,8 +16969,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="208"/>
-      <c r="B39" s="168" t="s">
+      <c r="A39" s="207"/>
+      <c r="B39" s="175" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -16984,8 +16984,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="208"/>
-      <c r="B40" s="168"/>
+      <c r="A40" s="207"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -16997,8 +16997,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="208"/>
-      <c r="B41" s="168"/>
+      <c r="A41" s="207"/>
+      <c r="B41" s="175"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -17010,8 +17010,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="208"/>
-      <c r="B42" s="168"/>
+      <c r="A42" s="207"/>
+      <c r="B42" s="175"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -17023,8 +17023,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="208"/>
-      <c r="B43" s="168"/>
+      <c r="A43" s="207"/>
+      <c r="B43" s="175"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -17036,8 +17036,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="208"/>
-      <c r="B44" s="168"/>
+      <c r="A44" s="207"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -17049,8 +17049,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="208"/>
-      <c r="B45" s="168"/>
+      <c r="A45" s="207"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -17062,8 +17062,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="208"/>
-      <c r="B46" s="168" t="s">
+      <c r="A46" s="207"/>
+      <c r="B46" s="175" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -17077,8 +17077,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="208"/>
-      <c r="B47" s="168"/>
+      <c r="A47" s="207"/>
+      <c r="B47" s="175"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -17090,8 +17090,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="208"/>
-      <c r="B48" s="168"/>
+      <c r="A48" s="207"/>
+      <c r="B48" s="175"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -17103,8 +17103,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="208"/>
-      <c r="B49" s="168" t="s">
+      <c r="A49" s="207"/>
+      <c r="B49" s="175" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -17118,8 +17118,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="208"/>
-      <c r="B50" s="168"/>
+      <c r="A50" s="207"/>
+      <c r="B50" s="175"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -17131,8 +17131,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="208"/>
-      <c r="B51" s="168"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="175"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -17144,7 +17144,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="208"/>
+      <c r="A52" s="207"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -17159,7 +17159,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="209"/>
+      <c r="A53" s="208"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -17286,50 +17286,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="161"/>
-      <c r="AT1" s="161"/>
-      <c r="AU1" s="161"/>
-      <c r="AV1" s="161"/>
-      <c r="AW1" s="161"/>
-      <c r="AX1" s="161"/>
-      <c r="AY1" s="161"/>
-      <c r="AZ1" s="161"/>
-      <c r="BA1" s="161"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="179"/>
+      <c r="AG1" s="179"/>
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="179"/>
+      <c r="AJ1" s="179"/>
+      <c r="AK1" s="179"/>
+      <c r="AL1" s="179"/>
+      <c r="AM1" s="179"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="165" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -17366,33 +17366,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="161"/>
-      <c r="AJ2" s="161"/>
-      <c r="AK2" s="161"/>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="161"/>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="161"/>
-      <c r="AT2" s="161"/>
-      <c r="AU2" s="161"/>
-      <c r="AV2" s="161"/>
-      <c r="AW2" s="161"/>
-      <c r="AX2" s="161"/>
-      <c r="AY2" s="161"/>
-      <c r="AZ2" s="161"/>
-      <c r="BA2" s="161"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="180"/>
+      <c r="AJ2" s="180"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="180"/>
+      <c r="AV2" s="180"/>
+      <c r="AW2" s="180"/>
+      <c r="AX2" s="180"/>
+      <c r="AY2" s="180"/>
+      <c r="AZ2" s="180"/>
+      <c r="BA2" s="180"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="175"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -17511,7 +17511,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -17661,7 +17661,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="165" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -17716,7 +17716,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="175"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -17767,7 +17767,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="175"/>
+      <c r="A10" s="166"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -17814,7 +17814,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="175"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -17838,7 +17838,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="175"/>
+      <c r="A12" s="166"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -17862,7 +17862,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="175"/>
+      <c r="A13" s="166"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -17886,7 +17886,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="175"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -17910,7 +17910,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="176"/>
+      <c r="A15" s="167"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -17943,7 +17943,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="162" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -17969,7 +17969,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -17993,7 +17993,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -18017,7 +18017,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -18041,7 +18041,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -18065,7 +18065,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="172"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -18089,7 +18089,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="172"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -18113,7 +18113,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -18157,7 +18157,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="174" t="s">
+      <c r="A27" s="165" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -18180,7 +18180,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="175"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -18201,7 +18201,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="176"/>
+      <c r="A29" s="167"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -18251,10 +18251,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="167" t="str">
+      <c r="B34" s="174" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -18275,8 +18275,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="172"/>
-      <c r="B35" s="168"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -18291,8 +18291,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="172"/>
-      <c r="B36" s="168"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -18307,8 +18307,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="172"/>
-      <c r="B37" s="168"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="175"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -18323,8 +18323,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="172"/>
-      <c r="B38" s="168"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="175"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -18339,8 +18339,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="172"/>
-      <c r="B39" s="168"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="175"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -18352,8 +18352,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="172"/>
-      <c r="B40" s="168"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -18365,8 +18365,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="172"/>
-      <c r="B41" s="168" t="str">
+      <c r="A41" s="163"/>
+      <c r="B41" s="175" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -18381,8 +18381,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="172"/>
-      <c r="B42" s="168"/>
+      <c r="A42" s="163"/>
+      <c r="B42" s="175"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -18394,8 +18394,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="172"/>
-      <c r="B43" s="168"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="175"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -18407,8 +18407,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="172"/>
-      <c r="B44" s="168"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -18420,8 +18420,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="172"/>
-      <c r="B45" s="168"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -18433,8 +18433,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="172"/>
-      <c r="B46" s="168"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="175"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -18446,8 +18446,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="172"/>
-      <c r="B47" s="168" t="str">
+      <c r="A47" s="163"/>
+      <c r="B47" s="175" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -18462,8 +18462,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="172"/>
-      <c r="B48" s="168"/>
+      <c r="A48" s="163"/>
+      <c r="B48" s="175"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -18475,8 +18475,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="172"/>
-      <c r="B49" s="168"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="175"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -18488,8 +18488,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="172"/>
-      <c r="B50" s="168"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="175"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -18501,8 +18501,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="172"/>
-      <c r="B51" s="168"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="175"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -18514,8 +18514,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="172"/>
-      <c r="B52" s="168" t="str">
+      <c r="A52" s="163"/>
+      <c r="B52" s="175" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -18530,8 +18530,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="172"/>
-      <c r="B53" s="168"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="175"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -18543,8 +18543,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="172"/>
-      <c r="B54" s="168"/>
+      <c r="A54" s="163"/>
+      <c r="B54" s="175"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -18556,8 +18556,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="172"/>
-      <c r="B55" s="168" t="str">
+      <c r="A55" s="163"/>
+      <c r="B55" s="175" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -18572,8 +18572,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="172"/>
-      <c r="B56" s="168"/>
+      <c r="A56" s="163"/>
+      <c r="B56" s="175"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -18585,8 +18585,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="173"/>
-      <c r="B57" s="169"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="176"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -18601,10 +18601,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="177" t="s">
+      <c r="A59" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="170" t="s">
+      <c r="B59" s="177" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -18621,8 +18621,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="178"/>
-      <c r="B60" s="165"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -18640,8 +18640,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="178"/>
-      <c r="B61" s="165"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="172"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -18656,8 +18656,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="178"/>
-      <c r="B62" s="165"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -18672,8 +18672,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="178"/>
-      <c r="B63" s="165"/>
+      <c r="A63" s="169"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -18688,8 +18688,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="178"/>
-      <c r="B64" s="165"/>
+      <c r="A64" s="169"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -18704,8 +18704,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="178"/>
-      <c r="B65" s="165"/>
+      <c r="A65" s="169"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -18718,8 +18718,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="178"/>
-      <c r="B66" s="165" t="str">
+      <c r="A66" s="169"/>
+      <c r="B66" s="172" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -18735,8 +18735,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="178"/>
-      <c r="B67" s="165"/>
+      <c r="A67" s="169"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -18748,8 +18748,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="178"/>
-      <c r="B68" s="165"/>
+      <c r="A68" s="169"/>
+      <c r="B68" s="172"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -18761,8 +18761,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="178"/>
-      <c r="B69" s="165"/>
+      <c r="A69" s="169"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -18774,8 +18774,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="178"/>
-      <c r="B70" s="165"/>
+      <c r="A70" s="169"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -18787,8 +18787,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="178"/>
-      <c r="B71" s="165"/>
+      <c r="A71" s="169"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -18800,8 +18800,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="178"/>
-      <c r="B72" s="165"/>
+      <c r="A72" s="169"/>
+      <c r="B72" s="172"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -18813,8 +18813,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="178"/>
-      <c r="B73" s="165" t="str">
+      <c r="A73" s="169"/>
+      <c r="B73" s="172" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -18829,8 +18829,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="178"/>
-      <c r="B74" s="165"/>
+      <c r="A74" s="169"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -18842,8 +18842,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="178"/>
-      <c r="B75" s="165"/>
+      <c r="A75" s="169"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -18855,8 +18855,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="178"/>
-      <c r="B76" s="165"/>
+      <c r="A76" s="169"/>
+      <c r="B76" s="172"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -18868,8 +18868,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="178"/>
-      <c r="B77" s="165"/>
+      <c r="A77" s="169"/>
+      <c r="B77" s="172"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -18881,8 +18881,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="178"/>
-      <c r="B78" s="165"/>
+      <c r="A78" s="169"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -18894,8 +18894,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="178"/>
-      <c r="B79" s="165"/>
+      <c r="A79" s="169"/>
+      <c r="B79" s="172"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -18907,8 +18907,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="178"/>
-      <c r="B80" s="165" t="str">
+      <c r="A80" s="169"/>
+      <c r="B80" s="172" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -18923,8 +18923,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="178"/>
-      <c r="B81" s="165"/>
+      <c r="A81" s="169"/>
+      <c r="B81" s="172"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -18936,8 +18936,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="178"/>
-      <c r="B82" s="165"/>
+      <c r="A82" s="169"/>
+      <c r="B82" s="172"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -18949,8 +18949,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="178"/>
-      <c r="B83" s="165" t="str">
+      <c r="A83" s="169"/>
+      <c r="B83" s="172" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -18965,8 +18965,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="178"/>
-      <c r="B84" s="165"/>
+      <c r="A84" s="169"/>
+      <c r="B84" s="172"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -18978,8 +18978,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="179"/>
-      <c r="B85" s="166"/>
+      <c r="A85" s="170"/>
+      <c r="B85" s="173"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -19006,13 +19006,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -19025,21 +19033,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -19136,7 +19136,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="181"/>
+      <c r="C2" s="182"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -19145,7 +19145,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="182"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -19154,7 +19154,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="182"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -19163,7 +19163,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="182"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -19172,7 +19172,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="182"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -19181,7 +19181,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="182"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -19190,7 +19190,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="182"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -19199,7 +19199,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="181"/>
+      <c r="C9" s="182"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -19208,7 +19208,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="181"/>
+      <c r="C10" s="182"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -19217,7 +19217,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="181"/>
+      <c r="C11" s="182"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -19226,112 +19226,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="181"/>
+      <c r="C12" s="182"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="181"/>
+      <c r="C13" s="182"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="181"/>
+      <c r="C14" s="182"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="181"/>
+      <c r="C15" s="182"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="181"/>
+      <c r="C16" s="182"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="181"/>
+      <c r="C17" s="182"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="181"/>
+      <c r="C18" s="182"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="181"/>
+      <c r="C19" s="182"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="181"/>
+      <c r="C20" s="182"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="181"/>
+      <c r="C21" s="182"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="181"/>
+      <c r="C22" s="182"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="182"/>
+      <c r="C23" s="183"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="182"/>
+      <c r="C24" s="183"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="182"/>
+      <c r="C25" s="183"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="182"/>
+      <c r="C26" s="183"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="182"/>
+      <c r="C27" s="183"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="182"/>
+      <c r="C28" s="183"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="180"/>
+      <c r="C29" s="181"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="180"/>
+      <c r="C30" s="181"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="180"/>
+      <c r="C31" s="181"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="180"/>
+      <c r="C32" s="181"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="180"/>
+      <c r="C33" s="181"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -19404,13 +19404,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="183"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -19419,79 +19419,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="183"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="184"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="183"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="184"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="183"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="184"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="183"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="184"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="183"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="184"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="183"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="184"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="183"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="184"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -19758,11 +19758,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19987,20 +19988,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20025,9 +20023,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D1D19-01D0-4CBB-97AE-3A99B7655762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA81F2B-8202-4AA0-AA77-F0D4485EE4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="11" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -3847,7 +3847,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4274,144 +4274,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4472,21 +4334,6 @@
     <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4502,35 +4349,11 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4554,6 +4377,144 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7159,8 +7120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40758563-BC2E-44F0-BF67-4E97AC986071}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7174,42 +7135,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="249" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="249" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="249" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="249" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="249" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="249" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="211" t="s">
+      <c r="A8" s="249" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="249" t="s">
         <v>625</v>
       </c>
     </row>
@@ -7222,1109 +7183,1114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="162" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="162" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="212" t="s">
+      <c r="C1" s="162" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="164" t="s">
         <v>629</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="177" t="s">
         <v>630</v>
       </c>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="167" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="164" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="177" t="s">
         <v>630</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="164" t="s">
         <v>633</v>
       </c>
-      <c r="B4" s="227" t="s">
+      <c r="B4" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="164" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="164" t="s">
         <v>636</v>
       </c>
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="164" t="s">
         <v>637</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="C7" s="215" t="s">
+      <c r="C7" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="164" t="s">
         <v>638</v>
       </c>
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="177" t="s">
         <v>639</v>
       </c>
-      <c r="C8" s="215" t="s">
+      <c r="C8" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="214" t="s">
+      <c r="A9" s="164" t="s">
         <v>640</v>
       </c>
-      <c r="B9" s="227" t="s">
+      <c r="B9" s="177" t="s">
         <v>641</v>
       </c>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="214" t="s">
+      <c r="A10" s="164" t="s">
         <v>642</v>
       </c>
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="177" t="s">
         <v>641</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="164" t="s">
         <v>643</v>
       </c>
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="177" t="s">
         <v>644</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="164" t="s">
         <v>645</v>
       </c>
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="177" t="s">
         <v>646</v>
       </c>
-      <c r="C12" s="215" t="s">
+      <c r="C12" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="214" t="s">
+      <c r="A13" s="164" t="s">
         <v>647</v>
       </c>
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="177" t="s">
         <v>648</v>
       </c>
-      <c r="C13" s="215" t="s">
+      <c r="C13" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="164" t="s">
         <v>649</v>
       </c>
-      <c r="B14" s="227" t="s">
+      <c r="B14" s="177" t="s">
         <v>650</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="164" t="s">
         <v>651</v>
       </c>
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="177" t="s">
         <v>652</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="164" t="s">
         <v>653</v>
       </c>
-      <c r="B16" s="227">
+      <c r="B16" s="177">
         <v>18.5</v>
       </c>
-      <c r="C16" s="215" t="s">
+      <c r="C16" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="164" t="s">
         <v>654</v>
       </c>
-      <c r="B17" s="227">
+      <c r="B17" s="177">
         <v>18.5</v>
       </c>
-      <c r="C17" s="215" t="s">
+      <c r="C17" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="164" t="s">
         <v>655</v>
       </c>
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="165" t="s">
         <v>656</v>
       </c>
-      <c r="C18" s="215" t="s">
+      <c r="C18" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="164" t="s">
         <v>657</v>
       </c>
-      <c r="B19" s="215" t="s">
+      <c r="B19" s="165" t="s">
         <v>658</v>
       </c>
-      <c r="C19" s="215" t="s">
+      <c r="C19" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="164" t="s">
         <v>659</v>
       </c>
-      <c r="B20" s="215" t="s">
+      <c r="B20" s="165" t="s">
         <v>660</v>
       </c>
-      <c r="C20" s="215" t="s">
+      <c r="C20" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="164" t="s">
         <v>661</v>
       </c>
-      <c r="B21" s="215" t="s">
+      <c r="B21" s="165" t="s">
         <v>662</v>
       </c>
-      <c r="C21" s="215" t="s">
+      <c r="C21" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="164" t="s">
         <v>663</v>
       </c>
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="177" t="s">
         <v>664</v>
       </c>
-      <c r="C22" s="215" t="s">
+      <c r="C22" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="164" t="s">
         <v>665</v>
       </c>
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="177" t="s">
         <v>666</v>
       </c>
-      <c r="C23" s="215" t="s">
+      <c r="C23" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="164" t="s">
         <v>667</v>
       </c>
-      <c r="B24" s="215" t="s">
+      <c r="B24" s="165" t="s">
         <v>668</v>
       </c>
-      <c r="C24" s="215" t="s">
+      <c r="C24" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="164" t="s">
         <v>669</v>
       </c>
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="166" t="s">
         <v>668</v>
       </c>
-      <c r="C25" s="216" t="s">
+      <c r="C25" s="166" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="214" t="s">
+      <c r="A26" s="164" t="s">
         <v>670</v>
       </c>
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="165" t="s">
         <v>671</v>
       </c>
-      <c r="C26" s="215" t="s">
+      <c r="C26" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="214" t="s">
+      <c r="A27" s="164" t="s">
         <v>672</v>
       </c>
-      <c r="B27" s="227" t="s">
+      <c r="B27" s="177" t="s">
         <v>673</v>
       </c>
-      <c r="C27" s="215" t="s">
+      <c r="C27" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="214" t="s">
+      <c r="A28" s="164" t="s">
         <v>674</v>
       </c>
-      <c r="B28" s="227" t="s">
+      <c r="B28" s="177" t="s">
         <v>673</v>
       </c>
-      <c r="C28" s="215" t="s">
+      <c r="C28" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="214" t="s">
+      <c r="A29" s="164" t="s">
         <v>675</v>
       </c>
-      <c r="B29" s="227" t="s">
+      <c r="B29" s="177" t="s">
         <v>673</v>
       </c>
-      <c r="C29" s="215" t="s">
+      <c r="C29" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="214" t="s">
+      <c r="A30" s="164" t="s">
         <v>676</v>
       </c>
-      <c r="B30" s="215" t="s">
+      <c r="B30" s="165" t="s">
         <v>677</v>
       </c>
-      <c r="C30" s="215" t="s">
+      <c r="C30" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="214" t="s">
+      <c r="A31" s="164" t="s">
         <v>678</v>
       </c>
-      <c r="B31" s="227" t="s">
+      <c r="B31" s="177" t="s">
         <v>673</v>
       </c>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="164" t="s">
         <v>679</v>
       </c>
-      <c r="B32" s="227" t="s">
+      <c r="B32" s="177" t="s">
         <v>673</v>
       </c>
-      <c r="C32" s="215" t="s">
+      <c r="C32" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="214" t="s">
+      <c r="A33" s="164" t="s">
         <v>680</v>
       </c>
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="177" t="s">
         <v>673</v>
       </c>
-      <c r="C33" s="215" t="s">
+      <c r="C33" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="164" t="s">
         <v>681</v>
       </c>
-      <c r="B34" s="215" t="s">
+      <c r="B34" s="165" t="s">
         <v>682</v>
       </c>
-      <c r="C34" s="215" t="s">
+      <c r="C34" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="164" t="s">
         <v>683</v>
       </c>
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="165" t="s">
         <v>684</v>
       </c>
-      <c r="C35" s="215" t="s">
+      <c r="C35" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="214" t="s">
+      <c r="A36" s="164" t="s">
         <v>685</v>
       </c>
-      <c r="B36" s="228" t="s">
+      <c r="B36" s="178" t="s">
         <v>686</v>
       </c>
-      <c r="C36" s="228" t="s">
+      <c r="C36" s="178" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="213" t="s">
+      <c r="A37" s="163" t="s">
         <v>687</v>
       </c>
-      <c r="B37" s="219" t="s">
+      <c r="B37" s="169" t="s">
         <v>688</v>
       </c>
-      <c r="C37" s="218" t="s">
+      <c r="C37" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="213" t="s">
+      <c r="A38" s="163" t="s">
         <v>689</v>
       </c>
-      <c r="B38" s="219">
+      <c r="B38" s="169">
         <v>22</v>
       </c>
-      <c r="C38" s="219" t="s">
+      <c r="C38" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="213" t="s">
+      <c r="A39" s="163" t="s">
         <v>690</v>
       </c>
-      <c r="B39" s="219">
+      <c r="B39" s="169">
         <v>45</v>
       </c>
-      <c r="C39" s="219" t="s">
+      <c r="C39" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="213" t="s">
+      <c r="A40" s="163" t="s">
         <v>691</v>
       </c>
-      <c r="B40" s="219">
+      <c r="B40" s="169">
         <v>70</v>
       </c>
-      <c r="C40" s="219" t="s">
+      <c r="C40" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="163" t="s">
         <v>692</v>
       </c>
-      <c r="B41" s="219" t="s">
+      <c r="B41" s="169" t="s">
         <v>693</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="213" t="s">
+      <c r="A42" s="163" t="s">
         <v>694</v>
       </c>
-      <c r="B42" s="219">
+      <c r="B42" s="169">
         <v>70</v>
       </c>
-      <c r="C42" s="219" t="s">
+      <c r="C42" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="213" t="s">
+      <c r="A43" s="163" t="s">
         <v>695</v>
       </c>
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="169" t="s">
         <v>693</v>
       </c>
-      <c r="C43" s="219" t="s">
+      <c r="C43" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="213" t="s">
+      <c r="A44" s="163" t="s">
         <v>696</v>
       </c>
-      <c r="B44" s="219" t="s">
+      <c r="B44" s="169" t="s">
         <v>697</v>
       </c>
-      <c r="C44" s="219" t="s">
+      <c r="C44" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="213" t="s">
+      <c r="A45" s="163" t="s">
         <v>698</v>
       </c>
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="169" t="s">
         <v>693</v>
       </c>
-      <c r="C45" s="219" t="s">
+      <c r="C45" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="213" t="s">
+      <c r="A46" s="163" t="s">
         <v>699</v>
       </c>
-      <c r="B46" s="219">
+      <c r="B46" s="169">
         <v>70</v>
       </c>
-      <c r="C46" s="219" t="s">
+      <c r="C46" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="213" t="s">
+      <c r="A47" s="163" t="s">
         <v>700</v>
       </c>
-      <c r="B47" s="219" t="s">
+      <c r="B47" s="169" t="s">
         <v>697</v>
       </c>
-      <c r="C47" s="219" t="s">
+      <c r="C47" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="213" t="s">
+      <c r="A48" s="163" t="s">
         <v>701</v>
       </c>
-      <c r="B48" s="219" t="s">
+      <c r="B48" s="169" t="s">
         <v>697</v>
       </c>
-      <c r="C48" s="219" t="s">
+      <c r="C48" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="213" t="s">
+      <c r="A49" s="163" t="s">
         <v>702</v>
       </c>
-      <c r="B49" s="219">
+      <c r="B49" s="169">
         <v>43</v>
       </c>
-      <c r="C49" s="219" t="s">
+      <c r="C49" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="213" t="s">
+      <c r="A50" s="163" t="s">
         <v>703</v>
       </c>
-      <c r="B50" s="219">
+      <c r="B50" s="169">
         <v>46</v>
       </c>
-      <c r="C50" s="219" t="s">
+      <c r="C50" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="213" t="s">
+      <c r="A51" s="163" t="s">
         <v>704</v>
       </c>
-      <c r="B51" s="219">
+      <c r="B51" s="169">
         <v>22</v>
       </c>
-      <c r="C51" s="219" t="s">
+      <c r="C51" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="213" t="s">
+      <c r="A52" s="163" t="s">
         <v>705</v>
       </c>
-      <c r="B52" s="219" t="s">
+      <c r="B52" s="169" t="s">
         <v>697</v>
       </c>
-      <c r="C52" s="219" t="s">
+      <c r="C52" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="213" t="s">
+      <c r="A53" s="163" t="s">
         <v>706</v>
       </c>
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="169" t="s">
         <v>697</v>
       </c>
-      <c r="C53" s="219" t="s">
+      <c r="C53" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="213" t="s">
+      <c r="A54" s="163" t="s">
         <v>707</v>
       </c>
-      <c r="B54" s="219" t="s">
+      <c r="B54" s="169" t="s">
         <v>697</v>
       </c>
-      <c r="C54" s="219" t="s">
+      <c r="C54" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="213" t="s">
+      <c r="A55" s="163" t="s">
         <v>708</v>
       </c>
-      <c r="B55" s="219">
+      <c r="B55" s="169">
         <v>46</v>
       </c>
-      <c r="C55" s="219" t="s">
+      <c r="C55" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="213" t="s">
+      <c r="A56" s="163" t="s">
         <v>709</v>
       </c>
-      <c r="B56" s="219">
+      <c r="B56" s="169">
         <v>46</v>
       </c>
-      <c r="C56" s="219" t="s">
+      <c r="C56" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="213" t="s">
+      <c r="A57" s="163" t="s">
         <v>710</v>
       </c>
-      <c r="B57" s="219" t="s">
+      <c r="B57" s="169" t="s">
         <v>697</v>
       </c>
-      <c r="C57" s="219" t="s">
+      <c r="C57" s="169" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="213" t="s">
+      <c r="A58" s="163" t="s">
         <v>711</v>
       </c>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="168" t="s">
         <v>712</v>
       </c>
-      <c r="C58" s="218" t="s">
+      <c r="C58" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="213" t="s">
+      <c r="A59" s="163" t="s">
         <v>713</v>
       </c>
-      <c r="B59" s="218" t="s">
+      <c r="B59" s="168" t="s">
         <v>714</v>
       </c>
-      <c r="C59" s="218" t="s">
+      <c r="C59" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="213" t="s">
+      <c r="A60" s="163" t="s">
         <v>715</v>
       </c>
-      <c r="B60" s="218" t="s">
+      <c r="B60" s="168" t="s">
         <v>712</v>
       </c>
-      <c r="C60" s="218" t="s">
+      <c r="C60" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="213" t="s">
+      <c r="A61" s="163" t="s">
         <v>716</v>
       </c>
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="168" t="s">
         <v>714</v>
       </c>
-      <c r="C61" s="218" t="s">
+      <c r="C61" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="213" t="s">
+      <c r="A62" s="163" t="s">
         <v>717</v>
       </c>
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="168" t="s">
         <v>718</v>
       </c>
-      <c r="C62" s="218" t="s">
+      <c r="C62" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="213" t="s">
+      <c r="A63" s="163" t="s">
         <v>719</v>
       </c>
-      <c r="B63" s="218" t="s">
+      <c r="B63" s="168" t="s">
         <v>712</v>
       </c>
-      <c r="C63" s="218" t="s">
+      <c r="C63" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="213" t="s">
+      <c r="A64" s="163" t="s">
         <v>720</v>
       </c>
-      <c r="B64" s="218" t="s">
+      <c r="B64" s="168" t="s">
         <v>714</v>
       </c>
-      <c r="C64" s="218" t="s">
+      <c r="C64" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="213" t="s">
+      <c r="A65" s="163" t="s">
         <v>721</v>
       </c>
-      <c r="B65" s="218" t="s">
+      <c r="B65" s="168" t="s">
         <v>712</v>
       </c>
-      <c r="C65" s="218" t="s">
+      <c r="C65" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="213" t="s">
+      <c r="A66" s="163" t="s">
         <v>722</v>
       </c>
-      <c r="B66" s="218" t="s">
+      <c r="B66" s="168" t="s">
         <v>714</v>
       </c>
-      <c r="C66" s="218" t="s">
+      <c r="C66" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="213" t="s">
+      <c r="A67" s="163" t="s">
         <v>723</v>
       </c>
-      <c r="B67" s="219" t="s">
+      <c r="B67" s="169" t="s">
         <v>724</v>
       </c>
-      <c r="C67" s="218" t="s">
+      <c r="C67" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="213" t="s">
+      <c r="A68" s="163" t="s">
         <v>725</v>
       </c>
-      <c r="B68" s="219" t="s">
+      <c r="B68" s="169" t="s">
         <v>726</v>
       </c>
-      <c r="C68" s="218" t="s">
+      <c r="C68" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="213" t="s">
+      <c r="A69" s="163" t="s">
         <v>727</v>
       </c>
-      <c r="B69" s="219" t="s">
+      <c r="B69" s="169" t="s">
         <v>728</v>
       </c>
-      <c r="C69" s="218" t="s">
+      <c r="C69" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="225" t="s">
+      <c r="A70" s="175" t="s">
         <v>729</v>
       </c>
-      <c r="B70" s="220" t="s">
+      <c r="B70" s="170" t="s">
         <v>656</v>
       </c>
-      <c r="C70" s="220" t="s">
+      <c r="C70" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="225" t="s">
+      <c r="A71" s="175" t="s">
         <v>730</v>
       </c>
-      <c r="B71" s="220" t="s">
+      <c r="B71" s="170" t="s">
         <v>731</v>
       </c>
-      <c r="C71" s="220" t="s">
+      <c r="C71" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="225" t="s">
+      <c r="A72" s="175" t="s">
         <v>732</v>
       </c>
-      <c r="B72" s="220" t="s">
+      <c r="B72" s="170" t="s">
         <v>731</v>
       </c>
-      <c r="C72" s="220" t="s">
+      <c r="C72" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="226" t="s">
+      <c r="A73" s="176" t="s">
         <v>733</v>
       </c>
-      <c r="B73" s="229" t="s">
+      <c r="B73" s="179" t="s">
         <v>734</v>
       </c>
-      <c r="C73" s="221" t="s">
+      <c r="C73" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="226" t="s">
+      <c r="A74" s="176" t="s">
         <v>735</v>
       </c>
-      <c r="B74" s="229" t="s">
+      <c r="B74" s="179" t="s">
         <v>736</v>
       </c>
-      <c r="C74" s="221" t="s">
+      <c r="C74" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="226" t="s">
+      <c r="A75" s="176" t="s">
         <v>737</v>
       </c>
-      <c r="B75" s="229" t="s">
+      <c r="B75" s="179" t="s">
         <v>738</v>
       </c>
-      <c r="C75" s="221" t="s">
+      <c r="C75" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="226" t="s">
+      <c r="A76" s="176" t="s">
         <v>739</v>
       </c>
-      <c r="B76" s="229" t="s">
+      <c r="B76" s="179" t="s">
         <v>740</v>
       </c>
-      <c r="C76" s="221" t="s">
+      <c r="C76" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="226" t="s">
+      <c r="A77" s="176" t="s">
         <v>741</v>
       </c>
-      <c r="B77" s="229" t="s">
+      <c r="B77" s="179" t="s">
         <v>734</v>
       </c>
-      <c r="C77" s="221" t="s">
+      <c r="C77" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="226" t="s">
+      <c r="A78" s="176" t="s">
         <v>742</v>
       </c>
-      <c r="B78" s="229" t="s">
+      <c r="B78" s="179" t="s">
         <v>738</v>
       </c>
-      <c r="C78" s="221" t="s">
+      <c r="C78" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="226" t="s">
+      <c r="A79" s="176" t="s">
         <v>743</v>
       </c>
-      <c r="B79" s="221" t="s">
+      <c r="B79" s="171" t="s">
         <v>744</v>
       </c>
-      <c r="C79" s="221" t="s">
+      <c r="C79" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="226" t="s">
+      <c r="A80" s="176" t="s">
         <v>745</v>
       </c>
-      <c r="B80" s="230" t="s">
+      <c r="B80" s="180" t="s">
         <v>744</v>
       </c>
-      <c r="C80" s="221" t="s">
+      <c r="C80" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="226" t="s">
+      <c r="A81" s="176" t="s">
         <v>746</v>
       </c>
-      <c r="B81" s="231" t="s">
+      <c r="B81" s="181" t="s">
         <v>744</v>
       </c>
-      <c r="C81" s="221" t="s">
+      <c r="C81" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="226" t="s">
+      <c r="A82" s="176" t="s">
         <v>747</v>
       </c>
-      <c r="B82" s="221" t="s">
+      <c r="B82" s="171" t="s">
         <v>748</v>
       </c>
-      <c r="C82" s="221" t="s">
+      <c r="C82" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="226" t="s">
+      <c r="A83" s="176" t="s">
         <v>749</v>
       </c>
-      <c r="B83" s="221" t="s">
+      <c r="B83" s="171" t="s">
         <v>750</v>
       </c>
-      <c r="C83" s="221" t="s">
+      <c r="C83" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="226" t="s">
+      <c r="A84" s="176" t="s">
         <v>751</v>
       </c>
-      <c r="B84" s="221" t="s">
+      <c r="B84" s="171" t="s">
         <v>750</v>
       </c>
-      <c r="C84" s="221" t="s">
+      <c r="C84" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="226" t="s">
+      <c r="A85" s="176" t="s">
         <v>752</v>
       </c>
-      <c r="B85" s="221" t="s">
+      <c r="B85" s="171" t="s">
         <v>750</v>
       </c>
-      <c r="C85" s="221" t="s">
+      <c r="C85" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="226" t="s">
+      <c r="A86" s="176" t="s">
         <v>753</v>
       </c>
-      <c r="B86" s="221" t="s">
+      <c r="B86" s="171" t="s">
         <v>750</v>
       </c>
-      <c r="C86" s="221" t="s">
+      <c r="C86" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="226" t="s">
+      <c r="A87" s="176" t="s">
         <v>754</v>
       </c>
-      <c r="B87" s="221" t="s">
+      <c r="B87" s="171" t="s">
         <v>755</v>
       </c>
-      <c r="C87" s="221" t="s">
+      <c r="C87" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="226" t="s">
+      <c r="A88" s="176" t="s">
         <v>756</v>
       </c>
-      <c r="B88" s="230" t="s">
+      <c r="B88" s="180" t="s">
         <v>757</v>
       </c>
-      <c r="C88" s="221" t="s">
+      <c r="C88" s="171" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="226" t="s">
+      <c r="A89" s="176" t="s">
         <v>758</v>
       </c>
-      <c r="B89" s="221" t="s">
+      <c r="B89" s="171" t="s">
         <v>757</v>
       </c>
-      <c r="C89" s="230" t="s">
+      <c r="C89" s="180" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="226" t="s">
+      <c r="A90" s="176" t="s">
         <v>760</v>
       </c>
-      <c r="B90" s="221" t="s">
+      <c r="B90" s="171" t="s">
         <v>761</v>
       </c>
-      <c r="C90" s="221" t="s">
+      <c r="C90" s="171" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="224" t="s">
+      <c r="A91" s="174" t="s">
         <v>661</v>
       </c>
-      <c r="B91" s="222">
+      <c r="B91" s="172">
         <v>18.5</v>
       </c>
-      <c r="C91" s="222" t="s">
+      <c r="C91" s="172" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="224" t="s">
+      <c r="A92" s="174" t="s">
         <v>763</v>
       </c>
-      <c r="B92" s="223">
+      <c r="B92" s="173">
         <v>17</v>
       </c>
-      <c r="C92" s="223" t="s">
+      <c r="C92" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="224" t="s">
+      <c r="A93" s="174" t="s">
         <v>691</v>
       </c>
-      <c r="B93" s="223">
+      <c r="B93" s="173">
         <v>70</v>
       </c>
-      <c r="C93" s="223" t="s">
+      <c r="C93" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="224" t="s">
+      <c r="A94" s="174" t="s">
         <v>764</v>
       </c>
-      <c r="B94" s="223">
+      <c r="B94" s="173">
         <v>70</v>
       </c>
-      <c r="C94" s="223" t="s">
+      <c r="C94" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="224" t="s">
+      <c r="A95" s="174" t="s">
         <v>699</v>
       </c>
-      <c r="B95" s="223">
+      <c r="B95" s="173">
         <v>70</v>
       </c>
-      <c r="C95" s="223" t="s">
+      <c r="C95" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="224" t="s">
+      <c r="A96" s="174" t="s">
         <v>702</v>
       </c>
-      <c r="B96" s="223">
+      <c r="B96" s="173">
         <v>43</v>
       </c>
-      <c r="C96" s="223" t="s">
+      <c r="C96" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="224" t="s">
+      <c r="A97" s="174" t="s">
         <v>703</v>
       </c>
-      <c r="B97" s="223">
+      <c r="B97" s="173">
         <v>46</v>
       </c>
-      <c r="C97" s="223" t="s">
+      <c r="C97" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="224" t="s">
+      <c r="A98" s="174" t="s">
         <v>708</v>
       </c>
-      <c r="B98" s="223">
+      <c r="B98" s="173">
         <v>46</v>
       </c>
-      <c r="C98" s="223" t="s">
+      <c r="C98" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="224" t="s">
+      <c r="A99" s="174" t="s">
         <v>709</v>
       </c>
-      <c r="B99" s="223">
+      <c r="B99" s="173">
         <v>46</v>
       </c>
-      <c r="C99" s="223" t="s">
+      <c r="C99" s="173" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="224" t="s">
+      <c r="A100" s="174" t="s">
         <v>765</v>
       </c>
-      <c r="B100" s="222" t="s">
+      <c r="B100" s="172" t="s">
         <v>671</v>
       </c>
-      <c r="C100" s="222" t="s">
+      <c r="C100" s="172" t="s">
         <v>631</v>
       </c>
     </row>
@@ -8338,206 +8304,211 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="162" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="162" t="s">
         <v>766</v>
       </c>
-      <c r="C1" s="232" t="s">
+      <c r="C1" s="162" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="182" t="s">
         <v>768</v>
       </c>
-      <c r="B2" s="242" t="s">
+      <c r="B2" s="178" t="s">
         <v>686</v>
       </c>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="178" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="182" t="s">
         <v>769</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="187" t="s">
         <v>770</v>
       </c>
-      <c r="C3" s="233" t="s">
+      <c r="C3" s="165" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="182" t="s">
         <v>771</v>
       </c>
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="165" t="s">
         <v>772</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="165" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="182" t="s">
         <v>774</v>
       </c>
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="165" t="s">
         <v>772</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="165" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="182" t="s">
         <v>775</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="178" t="s">
         <v>686</v>
       </c>
-      <c r="C6" s="242" t="s">
+      <c r="C6" s="178" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="183" t="s">
         <v>776</v>
       </c>
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="168" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="234" t="s">
+      <c r="C7" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="183" t="s">
         <v>777</v>
       </c>
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="168" t="s">
         <v>684</v>
       </c>
-      <c r="C8" s="234" t="s">
+      <c r="C8" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="183" t="s">
         <v>778</v>
       </c>
-      <c r="B9" s="234" t="s">
+      <c r="B9" s="168" t="s">
         <v>684</v>
       </c>
-      <c r="C9" s="241" t="s">
+      <c r="C9" s="186" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="183" t="s">
         <v>779</v>
       </c>
-      <c r="B10" s="234" t="s">
+      <c r="B10" s="168" t="s">
         <v>780</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="183" t="s">
         <v>781</v>
       </c>
-      <c r="B11" s="234">
+      <c r="B11" s="168">
         <v>1.5</v>
       </c>
-      <c r="C11" s="234" t="s">
+      <c r="C11" s="168" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="239" t="s">
+      <c r="A12" s="184" t="s">
         <v>782</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="170" t="s">
         <v>783</v>
       </c>
-      <c r="C12" s="235" t="s">
+      <c r="C12" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="239" t="s">
+      <c r="A13" s="184" t="s">
         <v>784</v>
       </c>
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="170" t="s">
         <v>785</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="239" t="s">
+      <c r="A14" s="184" t="s">
         <v>786</v>
       </c>
-      <c r="B14" s="235" t="s">
+      <c r="B14" s="170" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="184" t="s">
         <v>788</v>
       </c>
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="170" t="s">
         <v>789</v>
       </c>
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="184" t="s">
         <v>790</v>
       </c>
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="170" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="235" t="s">
+      <c r="C16" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="184" t="s">
         <v>792</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="170" t="s">
         <v>793</v>
       </c>
-      <c r="C17" s="235" t="s">
+      <c r="C17" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="240" t="s">
+      <c r="A18" s="185" t="s">
         <v>794</v>
       </c>
-      <c r="B18" s="244" t="s">
+      <c r="B18" s="188" t="s">
         <v>795</v>
       </c>
-      <c r="C18" s="236" t="s">
+      <c r="C18" s="171" t="s">
         <v>631</v>
       </c>
     </row>
@@ -8561,464 +8532,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="162" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="162" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="162" t="s">
         <v>796</v>
       </c>
-      <c r="D1" s="245" t="s">
+      <c r="D1" s="162" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="164" t="s">
         <v>798</v>
       </c>
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="189" t="s">
         <v>799</v>
       </c>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="189" t="s">
         <v>631</v>
       </c>
-      <c r="D2" s="252" t="s">
+      <c r="D2" s="189" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="164" t="s">
         <v>801</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="164" t="s">
         <v>802</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="164" t="s">
         <v>803</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="247" t="s">
+      <c r="A6" s="164" t="s">
         <v>804</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="164" t="s">
         <v>805</v>
       </c>
-      <c r="B7" s="252"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="247" t="s">
+      <c r="A8" s="164" t="s">
         <v>806</v>
       </c>
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="252"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="247" t="s">
+      <c r="A9" s="164" t="s">
         <v>807</v>
       </c>
-      <c r="B9" s="252"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="252"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="247" t="s">
+      <c r="A10" s="164" t="s">
         <v>808</v>
       </c>
-      <c r="B10" s="252"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="252"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="164" t="s">
         <v>809</v>
       </c>
-      <c r="B11" s="252"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="252"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="164" t="s">
         <v>810</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="253" t="s">
+      <c r="A13" s="190" t="s">
         <v>811</v>
       </c>
-      <c r="B13" s="254"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="246" t="s">
+      <c r="A14" s="163" t="s">
         <v>811</v>
       </c>
-      <c r="B14" s="254"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="254"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="163" t="s">
         <v>812</v>
       </c>
-      <c r="B15" s="254"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="246" t="s">
+      <c r="A16" s="163" t="s">
         <v>813</v>
       </c>
-      <c r="B16" s="254"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="254"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="163" t="s">
         <v>814</v>
       </c>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="246" t="s">
+      <c r="A18" s="163" t="s">
         <v>815</v>
       </c>
-      <c r="B18" s="254"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="163" t="s">
         <v>816</v>
       </c>
-      <c r="B19" s="254"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="254"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="246" t="s">
+      <c r="A20" s="163" t="s">
         <v>817</v>
       </c>
-      <c r="B20" s="254"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="254"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="246" t="s">
+      <c r="A21" s="163" t="s">
         <v>818</v>
       </c>
-      <c r="B21" s="254"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="254"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="246" t="s">
+      <c r="A22" s="163" t="s">
         <v>819</v>
       </c>
-      <c r="B22" s="254"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="254"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="246" t="s">
+      <c r="A23" s="163" t="s">
         <v>820</v>
       </c>
-      <c r="B23" s="254"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="246" t="s">
+      <c r="A24" s="163" t="s">
         <v>821</v>
       </c>
-      <c r="B24" s="254"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="254"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="246" t="s">
+      <c r="A25" s="163" t="s">
         <v>822</v>
       </c>
-      <c r="B25" s="254"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="254"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="255" t="s">
+      <c r="A26" s="192" t="s">
         <v>823</v>
       </c>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="249" t="s">
+      <c r="A27" s="175" t="s">
         <v>824</v>
       </c>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="249" t="s">
+      <c r="A28" s="175" t="s">
         <v>825</v>
       </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="249" t="s">
+      <c r="A29" s="175" t="s">
         <v>826</v>
       </c>
-      <c r="B29" s="256"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="193"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="249" t="s">
+      <c r="A30" s="175" t="s">
         <v>827</v>
       </c>
-      <c r="B30" s="256"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="256"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="249" t="s">
+      <c r="A31" s="175" t="s">
         <v>828</v>
       </c>
-      <c r="B31" s="256"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="256"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="249" t="s">
+      <c r="A32" s="175" t="s">
         <v>829</v>
       </c>
-      <c r="B32" s="256"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="256"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="249" t="s">
+      <c r="A33" s="175" t="s">
         <v>830</v>
       </c>
-      <c r="B33" s="256"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="256"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="249" t="s">
+      <c r="A34" s="175" t="s">
         <v>831</v>
       </c>
-      <c r="B34" s="256"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="256"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="249" t="s">
+      <c r="A35" s="175" t="s">
         <v>832</v>
       </c>
-      <c r="B35" s="256"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="193"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="249" t="s">
+      <c r="A36" s="175" t="s">
         <v>833</v>
       </c>
-      <c r="B36" s="256"/>
-      <c r="C36" s="256"/>
-      <c r="D36" s="256"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="249" t="s">
+      <c r="A37" s="175" t="s">
         <v>834</v>
       </c>
-      <c r="B37" s="256"/>
-      <c r="C37" s="256"/>
-      <c r="D37" s="256"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="193"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="257" t="s">
+      <c r="A38" s="194" t="s">
         <v>835</v>
       </c>
-      <c r="B38" s="251"/>
-      <c r="C38" s="251"/>
-      <c r="D38" s="251"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="250" t="s">
+      <c r="A39" s="176" t="s">
         <v>836</v>
       </c>
-      <c r="B39" s="251"/>
-      <c r="C39" s="251"/>
-      <c r="D39" s="251"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="250" t="s">
+      <c r="A40" s="176" t="s">
         <v>837</v>
       </c>
-      <c r="B40" s="251"/>
-      <c r="C40" s="251"/>
-      <c r="D40" s="251"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="250" t="s">
+      <c r="A41" s="176" t="s">
         <v>838</v>
       </c>
-      <c r="B41" s="251"/>
-      <c r="C41" s="251"/>
-      <c r="D41" s="251"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="250" t="s">
+      <c r="A42" s="176" t="s">
         <v>817</v>
       </c>
-      <c r="B42" s="251"/>
-      <c r="C42" s="251"/>
-      <c r="D42" s="251"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="250" t="s">
+      <c r="A43" s="176" t="s">
         <v>839</v>
       </c>
-      <c r="B43" s="251"/>
-      <c r="C43" s="251"/>
-      <c r="D43" s="251"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="250" t="s">
+      <c r="A44" s="176" t="s">
         <v>840</v>
       </c>
-      <c r="B44" s="251"/>
-      <c r="C44" s="251"/>
-      <c r="D44" s="251"/>
+      <c r="B44" s="180"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="250" t="s">
+      <c r="A45" s="176" t="s">
         <v>841</v>
       </c>
-      <c r="B45" s="251"/>
-      <c r="C45" s="251"/>
-      <c r="D45" s="251"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="258" t="s">
+      <c r="A46" s="195" t="s">
         <v>842</v>
       </c>
-      <c r="B46" s="259"/>
-      <c r="C46" s="259"/>
-      <c r="D46" s="259"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="260" t="s">
+      <c r="A47" s="197" t="s">
         <v>843</v>
       </c>
-      <c r="B47" s="259"/>
-      <c r="C47" s="259"/>
-      <c r="D47" s="259"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="260" t="s">
+      <c r="A48" s="197" t="s">
         <v>844</v>
       </c>
-      <c r="B48" s="259"/>
-      <c r="C48" s="259"/>
-      <c r="D48" s="259"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="260" t="s">
+      <c r="A49" s="197" t="s">
         <v>845</v>
       </c>
-      <c r="B49" s="259"/>
-      <c r="C49" s="259"/>
-      <c r="D49" s="259"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="260" t="s">
+      <c r="A50" s="197" t="s">
         <v>822</v>
       </c>
-      <c r="B50" s="259"/>
-      <c r="C50" s="259"/>
-      <c r="D50" s="259"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="261" t="s">
+      <c r="A51" s="198" t="s">
         <v>846</v>
       </c>
-      <c r="B51" s="262"/>
-      <c r="C51" s="262"/>
-      <c r="D51" s="262"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="248" t="s">
+      <c r="A52" s="174" t="s">
         <v>847</v>
       </c>
-      <c r="B52" s="262"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="262"/>
+      <c r="B52" s="199"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="199"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="248" t="s">
+      <c r="A53" s="174" t="s">
         <v>848</v>
       </c>
-      <c r="B53" s="262"/>
-      <c r="C53" s="262"/>
-      <c r="D53" s="262"/>
+      <c r="B53" s="199"/>
+      <c r="C53" s="199"/>
+      <c r="D53" s="199"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="248" t="s">
+      <c r="A54" s="174" t="s">
         <v>834</v>
       </c>
-      <c r="B54" s="262"/>
-      <c r="C54" s="262"/>
-      <c r="D54" s="262"/>
+      <c r="B54" s="199"/>
+      <c r="C54" s="199"/>
+      <c r="D54" s="199"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="248" t="s">
+      <c r="A55" s="174" t="s">
         <v>849</v>
       </c>
-      <c r="B55" s="262"/>
-      <c r="C55" s="262"/>
-      <c r="D55" s="262"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="261" t="s">
+      <c r="A56" s="198" t="s">
         <v>850</v>
       </c>
-      <c r="B56" s="262"/>
-      <c r="C56" s="262"/>
-      <c r="D56" s="262"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15442,65 +15413,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="229" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="200" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="200" t="s">
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="200" t="s">
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="200" t="s">
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="201"/>
-      <c r="V1" s="197" t="s">
+      <c r="U1" s="239"/>
+      <c r="V1" s="235" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="199"/>
-      <c r="AF1" s="194" t="s">
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="196"/>
+      <c r="AG1" s="233"/>
+      <c r="AH1" s="233"/>
+      <c r="AI1" s="233"/>
+      <c r="AJ1" s="233"/>
+      <c r="AK1" s="233"/>
+      <c r="AL1" s="233"/>
+      <c r="AM1" s="233"/>
+      <c r="AN1" s="233"/>
+      <c r="AO1" s="233"/>
+      <c r="AP1" s="233"/>
+      <c r="AQ1" s="233"/>
+      <c r="AR1" s="233"/>
+      <c r="AS1" s="234"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -16563,20 +16534,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="162"/>
+      <c r="AN1" s="218"/>
+      <c r="AO1" s="218"/>
+      <c r="AP1" s="218"/>
+      <c r="AQ1" s="218"/>
+      <c r="AR1" s="218"/>
+      <c r="AS1" s="218"/>
+      <c r="AT1" s="218"/>
+      <c r="AU1" s="218"/>
+      <c r="AV1" s="218"/>
+      <c r="AW1" s="218"/>
+      <c r="AX1" s="218"/>
+      <c r="AY1" s="218"/>
+      <c r="AZ1" s="218"/>
+      <c r="BA1" s="218"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -16595,7 +16566,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="205" t="s">
+      <c r="H2" s="241" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -16617,7 +16588,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="205" t="s">
+      <c r="P2" s="241" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -16648,10 +16619,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="208" t="s">
+      <c r="AC2" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="203" t="s">
+      <c r="AD2" s="247" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -16663,26 +16634,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="162"/>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="162"/>
-      <c r="AM2" s="162"/>
-      <c r="AN2" s="162"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="162"/>
-      <c r="AR2" s="162"/>
-      <c r="AS2" s="162"/>
-      <c r="AT2" s="162"/>
-      <c r="AU2" s="162"/>
-      <c r="AV2" s="162"/>
-      <c r="AW2" s="162"/>
-      <c r="AX2" s="162"/>
-      <c r="AY2" s="162"/>
-      <c r="AZ2" s="162"/>
-      <c r="BA2" s="162"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="218"/>
+      <c r="AJ2" s="218"/>
+      <c r="AK2" s="218"/>
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="218"/>
+      <c r="AN2" s="218"/>
+      <c r="AO2" s="218"/>
+      <c r="AP2" s="218"/>
+      <c r="AQ2" s="218"/>
+      <c r="AR2" s="218"/>
+      <c r="AS2" s="218"/>
+      <c r="AT2" s="218"/>
+      <c r="AU2" s="218"/>
+      <c r="AV2" s="218"/>
+      <c r="AW2" s="218"/>
+      <c r="AX2" s="218"/>
+      <c r="AY2" s="218"/>
+      <c r="AZ2" s="218"/>
+      <c r="BA2" s="218"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -16703,7 +16674,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="206"/>
+      <c r="H3" s="242"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -16723,7 +16694,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="206"/>
+      <c r="P3" s="242"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16744,8 +16715,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="166"/>
+      <c r="AC3" s="245"/>
+      <c r="AD3" s="210"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -16790,7 +16761,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="206"/>
+      <c r="H4" s="242"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -16810,7 +16781,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="207"/>
+      <c r="P4" s="243"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16830,8 +16801,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="166"/>
+      <c r="AC4" s="245"/>
+      <c r="AD4" s="210"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -16879,7 +16850,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="206"/>
+      <c r="H5" s="242"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -16904,8 +16875,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="209"/>
-      <c r="AD5" s="166"/>
+      <c r="AC5" s="245"/>
+      <c r="AD5" s="210"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -16938,7 +16909,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="206"/>
+      <c r="H6" s="242"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -16965,8 +16936,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="209"/>
-      <c r="AD6" s="166"/>
+      <c r="AC6" s="245"/>
+      <c r="AD6" s="210"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -17004,7 +16975,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="206"/>
+      <c r="H7" s="242"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -17031,8 +17002,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="209"/>
-      <c r="AD7" s="166"/>
+      <c r="AC7" s="245"/>
+      <c r="AD7" s="210"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -17067,7 +17038,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="206"/>
+      <c r="H8" s="242"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -17094,8 +17065,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="209"/>
-      <c r="AD8" s="166"/>
+      <c r="AC8" s="245"/>
+      <c r="AD8" s="210"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -17130,7 +17101,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="207"/>
+      <c r="H9" s="243"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -17157,8 +17128,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="209"/>
-      <c r="AD9" s="166" t="s">
+      <c r="AC9" s="245"/>
+      <c r="AD9" s="210" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -17201,8 +17172,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="209"/>
-      <c r="AD10" s="166"/>
+      <c r="AC10" s="245"/>
+      <c r="AD10" s="210"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -17235,7 +17206,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="208" t="s">
+      <c r="H11" s="244" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -17256,8 +17227,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="209"/>
-      <c r="AD11" s="166"/>
+      <c r="AC11" s="245"/>
+      <c r="AD11" s="210"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -17276,7 +17247,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="209"/>
+      <c r="H12" s="245"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -17295,8 +17266,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="209"/>
-      <c r="AD12" s="166"/>
+      <c r="AC12" s="245"/>
+      <c r="AD12" s="210"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -17315,7 +17286,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="209"/>
+      <c r="H13" s="245"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -17334,8 +17305,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="209"/>
-      <c r="AD13" s="166"/>
+      <c r="AC13" s="245"/>
+      <c r="AD13" s="210"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -17354,7 +17325,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="209"/>
+      <c r="H14" s="245"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -17373,8 +17344,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="209"/>
-      <c r="AD14" s="166"/>
+      <c r="AC14" s="245"/>
+      <c r="AD14" s="210"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -17393,7 +17364,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="209"/>
+      <c r="H15" s="245"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -17412,8 +17383,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="209"/>
-      <c r="AD15" s="166" t="s">
+      <c r="AC15" s="245"/>
+      <c r="AD15" s="210" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -17431,7 +17402,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="209"/>
+      <c r="H16" s="245"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -17450,8 +17421,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="209"/>
-      <c r="AD16" s="166"/>
+      <c r="AC16" s="245"/>
+      <c r="AD16" s="210"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -17470,7 +17441,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="209"/>
+      <c r="H17" s="245"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -17489,8 +17460,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="209"/>
-      <c r="AD17" s="166"/>
+      <c r="AC17" s="245"/>
+      <c r="AD17" s="210"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -17509,7 +17480,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="210"/>
+      <c r="H18" s="246"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -17528,8 +17499,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="209"/>
-      <c r="AD18" s="166"/>
+      <c r="AC18" s="245"/>
+      <c r="AD18" s="210"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -17548,8 +17519,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="209"/>
-      <c r="AD19" s="166"/>
+      <c r="AC19" s="245"/>
+      <c r="AD19" s="210"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -17568,8 +17539,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="209"/>
-      <c r="AD20" s="166" t="s">
+      <c r="AC20" s="245"/>
+      <c r="AD20" s="210" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -17590,8 +17561,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="209"/>
-      <c r="AD21" s="166"/>
+      <c r="AC21" s="245"/>
+      <c r="AD21" s="210"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -17610,8 +17581,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="209"/>
-      <c r="AD22" s="166"/>
+      <c r="AC22" s="245"/>
+      <c r="AD22" s="210"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -17630,8 +17601,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="209"/>
-      <c r="AD23" s="166" t="s">
+      <c r="AC23" s="245"/>
+      <c r="AD23" s="210" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -17652,8 +17623,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="209"/>
-      <c r="AD24" s="166"/>
+      <c r="AC24" s="245"/>
+      <c r="AD24" s="210"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -17666,8 +17637,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="210"/>
-      <c r="AD25" s="204"/>
+      <c r="AC25" s="246"/>
+      <c r="AD25" s="248"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -17684,10 +17655,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="208" t="s">
+      <c r="AC27" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="203" t="s">
+      <c r="AD27" s="247" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -17704,8 +17675,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="209"/>
-      <c r="AD28" s="166"/>
+      <c r="AC28" s="245"/>
+      <c r="AD28" s="210"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -17720,8 +17691,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="209"/>
-      <c r="AD29" s="166"/>
+      <c r="AC29" s="245"/>
+      <c r="AD29" s="210"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -17733,8 +17704,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="209"/>
-      <c r="AD30" s="166"/>
+      <c r="AC30" s="245"/>
+      <c r="AD30" s="210"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -17748,8 +17719,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="209"/>
-      <c r="AD31" s="166"/>
+      <c r="AC31" s="245"/>
+      <c r="AD31" s="210"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -17761,8 +17732,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="209"/>
-      <c r="AD32" s="166"/>
+      <c r="AC32" s="245"/>
+      <c r="AD32" s="210"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -17775,8 +17746,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="209"/>
-      <c r="AD33" s="166"/>
+      <c r="AC33" s="245"/>
+      <c r="AD33" s="210"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -17793,8 +17764,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="209"/>
-      <c r="AD34" s="166" t="s">
+      <c r="AC34" s="245"/>
+      <c r="AD34" s="210" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -17813,8 +17784,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="209"/>
-      <c r="AD35" s="166"/>
+      <c r="AC35" s="245"/>
+      <c r="AD35" s="210"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -17831,8 +17802,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="209"/>
-      <c r="AD36" s="166"/>
+      <c r="AC36" s="245"/>
+      <c r="AD36" s="210"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -17849,8 +17820,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="209"/>
-      <c r="AD37" s="166"/>
+      <c r="AC37" s="245"/>
+      <c r="AD37" s="210"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -17867,8 +17838,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="209"/>
-      <c r="AD38" s="166"/>
+      <c r="AC38" s="245"/>
+      <c r="AD38" s="210"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -17885,8 +17856,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="209"/>
-      <c r="AD39" s="166"/>
+      <c r="AC39" s="245"/>
+      <c r="AD39" s="210"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -17903,8 +17874,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="209"/>
-      <c r="AD40" s="166"/>
+      <c r="AC40" s="245"/>
+      <c r="AD40" s="210"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -17921,8 +17892,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="209"/>
-      <c r="AD41" s="166" t="s">
+      <c r="AC41" s="245"/>
+      <c r="AD41" s="210" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -17941,8 +17912,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="209"/>
-      <c r="AD42" s="166"/>
+      <c r="AC42" s="245"/>
+      <c r="AD42" s="210"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -17959,8 +17930,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="209"/>
-      <c r="AD43" s="166"/>
+      <c r="AC43" s="245"/>
+      <c r="AD43" s="210"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -17977,8 +17948,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="209"/>
-      <c r="AD44" s="166"/>
+      <c r="AC44" s="245"/>
+      <c r="AD44" s="210"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -17995,8 +17966,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="209"/>
-      <c r="AD45" s="166"/>
+      <c r="AC45" s="245"/>
+      <c r="AD45" s="210"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -18013,8 +17984,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="209"/>
-      <c r="AD46" s="166"/>
+      <c r="AC46" s="245"/>
+      <c r="AD46" s="210"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -18031,8 +18002,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="209"/>
-      <c r="AD47" s="166"/>
+      <c r="AC47" s="245"/>
+      <c r="AD47" s="210"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -18049,8 +18020,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="209"/>
-      <c r="AD48" s="166" t="s">
+      <c r="AC48" s="245"/>
+      <c r="AD48" s="210" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -18069,8 +18040,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="209"/>
-      <c r="AD49" s="166"/>
+      <c r="AC49" s="245"/>
+      <c r="AD49" s="210"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -18087,8 +18058,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="209"/>
-      <c r="AD50" s="166"/>
+      <c r="AC50" s="245"/>
+      <c r="AD50" s="210"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -18105,8 +18076,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="209"/>
-      <c r="AD51" s="166" t="s">
+      <c r="AC51" s="245"/>
+      <c r="AD51" s="210" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -18125,8 +18096,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="209"/>
-      <c r="AD52" s="166"/>
+      <c r="AC52" s="245"/>
+      <c r="AD52" s="210"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -18143,8 +18114,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="209"/>
-      <c r="AD53" s="166"/>
+      <c r="AC53" s="245"/>
+      <c r="AD53" s="210"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -18161,7 +18132,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="209"/>
+      <c r="AC54" s="245"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -18181,7 +18152,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="210"/>
+      <c r="AC55" s="246"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -18414,11 +18385,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -18435,11 +18406,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18530,7 +18501,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="241" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18550,7 +18521,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="206"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -18568,7 +18539,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="206"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -18586,7 +18557,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="207"/>
+      <c r="A5" s="243"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -18654,7 +18625,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="241" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18677,7 +18648,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="206"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -18698,7 +18669,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="206"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -18719,7 +18690,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="206"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -18740,7 +18711,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="206"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -18761,7 +18732,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -18782,7 +18753,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="206"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -18803,7 +18774,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="207"/>
+      <c r="A9" s="243"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -18824,7 +18795,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="205" t="s">
+      <c r="A10" s="241" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -18847,7 +18818,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="206"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -18868,7 +18839,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="206"/>
+      <c r="A12" s="242"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -18889,7 +18860,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="206"/>
+      <c r="A13" s="242"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -18910,7 +18881,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="206"/>
+      <c r="A14" s="242"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -18931,7 +18902,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="206"/>
+      <c r="A15" s="242"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -18952,7 +18923,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
+      <c r="A16" s="242"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -18973,7 +18944,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="207"/>
+      <c r="A17" s="243"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -19043,7 +19014,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="241" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -19062,7 +19033,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="206"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -19079,7 +19050,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="207"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -19169,10 +19140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="212" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -19186,8 +19157,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="206"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="242"/>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -19199,8 +19170,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="206"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="213"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -19212,8 +19183,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="206"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="242"/>
+      <c r="B4" s="213"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -19225,8 +19196,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="206"/>
-      <c r="B5" s="169"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="213"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -19238,8 +19209,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="206"/>
-      <c r="B6" s="169"/>
+      <c r="A6" s="242"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -19251,8 +19222,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
-      <c r="B7" s="169"/>
+      <c r="A7" s="242"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -19264,8 +19235,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="206"/>
-      <c r="B8" s="169" t="s">
+      <c r="A8" s="242"/>
+      <c r="B8" s="213" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -19279,8 +19250,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="206"/>
-      <c r="B9" s="169"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -19292,8 +19263,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="206"/>
-      <c r="B10" s="169"/>
+      <c r="A10" s="242"/>
+      <c r="B10" s="213"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -19305,8 +19276,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="206"/>
-      <c r="B11" s="169"/>
+      <c r="A11" s="242"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -19318,8 +19289,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="206"/>
-      <c r="B12" s="169"/>
+      <c r="A12" s="242"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -19331,8 +19302,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="206"/>
-      <c r="B13" s="169"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -19344,8 +19315,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="206"/>
-      <c r="B14" s="169" t="s">
+      <c r="A14" s="242"/>
+      <c r="B14" s="213" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -19359,8 +19330,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="206"/>
-      <c r="B15" s="169"/>
+      <c r="A15" s="242"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -19372,8 +19343,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
-      <c r="B16" s="169"/>
+      <c r="A16" s="242"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -19385,8 +19356,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="206"/>
-      <c r="B17" s="169"/>
+      <c r="A17" s="242"/>
+      <c r="B17" s="213"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -19398,8 +19369,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="206"/>
-      <c r="B18" s="169"/>
+      <c r="A18" s="242"/>
+      <c r="B18" s="213"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -19411,8 +19382,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="206"/>
-      <c r="B19" s="169" t="s">
+      <c r="A19" s="242"/>
+      <c r="B19" s="213" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -19426,8 +19397,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="206"/>
-      <c r="B20" s="169"/>
+      <c r="A20" s="242"/>
+      <c r="B20" s="213"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -19439,8 +19410,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="206"/>
-      <c r="B21" s="169"/>
+      <c r="A21" s="242"/>
+      <c r="B21" s="213"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -19452,8 +19423,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="206"/>
-      <c r="B22" s="169" t="s">
+      <c r="A22" s="242"/>
+      <c r="B22" s="213" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -19467,8 +19438,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="206"/>
-      <c r="B23" s="169"/>
+      <c r="A23" s="242"/>
+      <c r="B23" s="213"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -19480,8 +19451,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="207"/>
-      <c r="B24" s="170"/>
+      <c r="A24" s="243"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -19493,10 +19464,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="208" t="s">
+      <c r="A25" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="212" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -19510,8 +19481,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="209"/>
-      <c r="B26" s="169"/>
+      <c r="A26" s="245"/>
+      <c r="B26" s="213"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -19523,8 +19494,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="209"/>
-      <c r="B27" s="169"/>
+      <c r="A27" s="245"/>
+      <c r="B27" s="213"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -19536,8 +19507,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="209"/>
-      <c r="B28" s="169"/>
+      <c r="A28" s="245"/>
+      <c r="B28" s="213"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -19549,8 +19520,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="209"/>
-      <c r="B29" s="169"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -19562,8 +19533,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="209"/>
-      <c r="B30" s="169"/>
+      <c r="A30" s="245"/>
+      <c r="B30" s="213"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -19575,8 +19546,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="209"/>
-      <c r="B31" s="169"/>
+      <c r="A31" s="245"/>
+      <c r="B31" s="213"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -19588,8 +19559,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="209"/>
-      <c r="B32" s="169" t="s">
+      <c r="A32" s="245"/>
+      <c r="B32" s="213" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -19603,8 +19574,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="209"/>
-      <c r="B33" s="169"/>
+      <c r="A33" s="245"/>
+      <c r="B33" s="213"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -19616,8 +19587,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="209"/>
-      <c r="B34" s="169"/>
+      <c r="A34" s="245"/>
+      <c r="B34" s="213"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -19629,8 +19600,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="209"/>
-      <c r="B35" s="169"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -19642,8 +19613,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="209"/>
-      <c r="B36" s="169"/>
+      <c r="A36" s="245"/>
+      <c r="B36" s="213"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -19655,8 +19626,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="209"/>
-      <c r="B37" s="169"/>
+      <c r="A37" s="245"/>
+      <c r="B37" s="213"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -19668,8 +19639,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="209"/>
-      <c r="B38" s="169"/>
+      <c r="A38" s="245"/>
+      <c r="B38" s="213"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -19681,8 +19652,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="209"/>
-      <c r="B39" s="169" t="s">
+      <c r="A39" s="245"/>
+      <c r="B39" s="213" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -19696,8 +19667,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="209"/>
-      <c r="B40" s="169"/>
+      <c r="A40" s="245"/>
+      <c r="B40" s="213"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -19709,8 +19680,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="209"/>
-      <c r="B41" s="169"/>
+      <c r="A41" s="245"/>
+      <c r="B41" s="213"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -19722,8 +19693,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="209"/>
-      <c r="B42" s="169"/>
+      <c r="A42" s="245"/>
+      <c r="B42" s="213"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -19735,8 +19706,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="209"/>
-      <c r="B43" s="169"/>
+      <c r="A43" s="245"/>
+      <c r="B43" s="213"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -19748,8 +19719,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="209"/>
-      <c r="B44" s="169"/>
+      <c r="A44" s="245"/>
+      <c r="B44" s="213"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -19761,8 +19732,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="209"/>
-      <c r="B45" s="169"/>
+      <c r="A45" s="245"/>
+      <c r="B45" s="213"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -19774,8 +19745,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="209"/>
-      <c r="B46" s="169" t="s">
+      <c r="A46" s="245"/>
+      <c r="B46" s="213" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -19789,8 +19760,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="209"/>
-      <c r="B47" s="169"/>
+      <c r="A47" s="245"/>
+      <c r="B47" s="213"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -19802,8 +19773,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="209"/>
-      <c r="B48" s="169"/>
+      <c r="A48" s="245"/>
+      <c r="B48" s="213"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -19815,8 +19786,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="209"/>
-      <c r="B49" s="169" t="s">
+      <c r="A49" s="245"/>
+      <c r="B49" s="213" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -19830,8 +19801,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="209"/>
-      <c r="B50" s="169"/>
+      <c r="A50" s="245"/>
+      <c r="B50" s="213"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -19843,8 +19814,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="209"/>
-      <c r="B51" s="169"/>
+      <c r="A51" s="245"/>
+      <c r="B51" s="213"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -19856,7 +19827,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="209"/>
+      <c r="A52" s="245"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -19871,7 +19842,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="210"/>
+      <c r="A53" s="246"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -19998,50 +19969,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="162"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="217"/>
+      <c r="AG1" s="217"/>
+      <c r="AH1" s="217"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="217"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="217"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="218"/>
+      <c r="AO1" s="218"/>
+      <c r="AP1" s="218"/>
+      <c r="AQ1" s="218"/>
+      <c r="AR1" s="218"/>
+      <c r="AS1" s="218"/>
+      <c r="AT1" s="218"/>
+      <c r="AU1" s="218"/>
+      <c r="AV1" s="218"/>
+      <c r="AW1" s="218"/>
+      <c r="AX1" s="218"/>
+      <c r="AY1" s="218"/>
+      <c r="AZ1" s="218"/>
+      <c r="BA1" s="218"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="203" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -20078,33 +20049,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="162"/>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="162"/>
-      <c r="AM2" s="162"/>
-      <c r="AN2" s="162"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="162"/>
-      <c r="AR2" s="162"/>
-      <c r="AS2" s="162"/>
-      <c r="AT2" s="162"/>
-      <c r="AU2" s="162"/>
-      <c r="AV2" s="162"/>
-      <c r="AW2" s="162"/>
-      <c r="AX2" s="162"/>
-      <c r="AY2" s="162"/>
-      <c r="AZ2" s="162"/>
-      <c r="BA2" s="162"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="218"/>
+      <c r="AJ2" s="218"/>
+      <c r="AK2" s="218"/>
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="218"/>
+      <c r="AN2" s="218"/>
+      <c r="AO2" s="218"/>
+      <c r="AP2" s="218"/>
+      <c r="AQ2" s="218"/>
+      <c r="AR2" s="218"/>
+      <c r="AS2" s="218"/>
+      <c r="AT2" s="218"/>
+      <c r="AU2" s="218"/>
+      <c r="AV2" s="218"/>
+      <c r="AW2" s="218"/>
+      <c r="AX2" s="218"/>
+      <c r="AY2" s="218"/>
+      <c r="AZ2" s="218"/>
+      <c r="BA2" s="218"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="176"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -20162,7 +20133,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="176"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -20223,7 +20194,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -20373,7 +20344,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="203" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -20428,7 +20399,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="176"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -20479,7 +20450,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="176"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -20526,7 +20497,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="176"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -20550,7 +20521,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="176"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -20574,7 +20545,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="176"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -20598,7 +20569,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="176"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -20622,7 +20593,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="177"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -20655,7 +20626,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="200" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -20681,7 +20652,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="173"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -20705,7 +20676,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -20729,7 +20700,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="173"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -20753,7 +20724,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -20777,7 +20748,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="173"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -20801,7 +20772,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -20825,7 +20796,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -20869,7 +20840,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="175" t="s">
+      <c r="A27" s="203" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -20892,7 +20863,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="176"/>
+      <c r="A28" s="204"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -20913,7 +20884,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -20963,10 +20934,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="168" t="str">
+      <c r="B34" s="212" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -20987,8 +20958,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="173"/>
-      <c r="B35" s="169"/>
+      <c r="A35" s="201"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -21003,8 +20974,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="173"/>
-      <c r="B36" s="169"/>
+      <c r="A36" s="201"/>
+      <c r="B36" s="213"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -21019,8 +20990,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="173"/>
-      <c r="B37" s="169"/>
+      <c r="A37" s="201"/>
+      <c r="B37" s="213"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -21035,8 +21006,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="173"/>
-      <c r="B38" s="169"/>
+      <c r="A38" s="201"/>
+      <c r="B38" s="213"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -21051,8 +21022,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="173"/>
-      <c r="B39" s="169"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="213"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -21064,8 +21035,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="173"/>
-      <c r="B40" s="169"/>
+      <c r="A40" s="201"/>
+      <c r="B40" s="213"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -21077,8 +21048,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="173"/>
-      <c r="B41" s="169" t="str">
+      <c r="A41" s="201"/>
+      <c r="B41" s="213" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -21093,8 +21064,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="173"/>
-      <c r="B42" s="169"/>
+      <c r="A42" s="201"/>
+      <c r="B42" s="213"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -21106,8 +21077,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="173"/>
-      <c r="B43" s="169"/>
+      <c r="A43" s="201"/>
+      <c r="B43" s="213"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -21119,8 +21090,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="173"/>
-      <c r="B44" s="169"/>
+      <c r="A44" s="201"/>
+      <c r="B44" s="213"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -21132,8 +21103,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="173"/>
-      <c r="B45" s="169"/>
+      <c r="A45" s="201"/>
+      <c r="B45" s="213"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -21145,8 +21116,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="173"/>
-      <c r="B46" s="169"/>
+      <c r="A46" s="201"/>
+      <c r="B46" s="213"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -21158,8 +21129,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="173"/>
-      <c r="B47" s="169" t="str">
+      <c r="A47" s="201"/>
+      <c r="B47" s="213" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -21174,8 +21145,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="173"/>
-      <c r="B48" s="169"/>
+      <c r="A48" s="201"/>
+      <c r="B48" s="213"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -21187,8 +21158,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="173"/>
-      <c r="B49" s="169"/>
+      <c r="A49" s="201"/>
+      <c r="B49" s="213"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -21200,8 +21171,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="173"/>
-      <c r="B50" s="169"/>
+      <c r="A50" s="201"/>
+      <c r="B50" s="213"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -21213,8 +21184,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="173"/>
-      <c r="B51" s="169"/>
+      <c r="A51" s="201"/>
+      <c r="B51" s="213"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -21226,8 +21197,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="173"/>
-      <c r="B52" s="169" t="str">
+      <c r="A52" s="201"/>
+      <c r="B52" s="213" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -21242,8 +21213,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="173"/>
-      <c r="B53" s="169"/>
+      <c r="A53" s="201"/>
+      <c r="B53" s="213"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -21255,8 +21226,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="173"/>
-      <c r="B54" s="169"/>
+      <c r="A54" s="201"/>
+      <c r="B54" s="213"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -21268,8 +21239,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="173"/>
-      <c r="B55" s="169" t="str">
+      <c r="A55" s="201"/>
+      <c r="B55" s="213" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -21284,8 +21255,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="173"/>
-      <c r="B56" s="169"/>
+      <c r="A56" s="201"/>
+      <c r="B56" s="213"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -21297,8 +21268,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="174"/>
-      <c r="B57" s="170"/>
+      <c r="A57" s="202"/>
+      <c r="B57" s="214"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -21313,10 +21284,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="178" t="s">
+      <c r="A59" s="206" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="171" t="s">
+      <c r="B59" s="215" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -21333,8 +21304,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="179"/>
-      <c r="B60" s="166"/>
+      <c r="A60" s="207"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -21352,8 +21323,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="179"/>
-      <c r="B61" s="166"/>
+      <c r="A61" s="207"/>
+      <c r="B61" s="210"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -21368,8 +21339,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="179"/>
-      <c r="B62" s="166"/>
+      <c r="A62" s="207"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -21384,8 +21355,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="179"/>
-      <c r="B63" s="166"/>
+      <c r="A63" s="207"/>
+      <c r="B63" s="210"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -21400,8 +21371,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="179"/>
-      <c r="B64" s="166"/>
+      <c r="A64" s="207"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -21416,8 +21387,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="179"/>
-      <c r="B65" s="166"/>
+      <c r="A65" s="207"/>
+      <c r="B65" s="210"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -21430,8 +21401,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="179"/>
-      <c r="B66" s="166" t="str">
+      <c r="A66" s="207"/>
+      <c r="B66" s="210" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -21447,8 +21418,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="179"/>
-      <c r="B67" s="166"/>
+      <c r="A67" s="207"/>
+      <c r="B67" s="210"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -21460,8 +21431,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="179"/>
-      <c r="B68" s="166"/>
+      <c r="A68" s="207"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -21473,8 +21444,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="179"/>
-      <c r="B69" s="166"/>
+      <c r="A69" s="207"/>
+      <c r="B69" s="210"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -21486,8 +21457,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="179"/>
-      <c r="B70" s="166"/>
+      <c r="A70" s="207"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -21499,8 +21470,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="179"/>
-      <c r="B71" s="166"/>
+      <c r="A71" s="207"/>
+      <c r="B71" s="210"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -21512,8 +21483,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="179"/>
-      <c r="B72" s="166"/>
+      <c r="A72" s="207"/>
+      <c r="B72" s="210"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -21525,8 +21496,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="179"/>
-      <c r="B73" s="166" t="str">
+      <c r="A73" s="207"/>
+      <c r="B73" s="210" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -21541,8 +21512,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="179"/>
-      <c r="B74" s="166"/>
+      <c r="A74" s="207"/>
+      <c r="B74" s="210"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -21554,8 +21525,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="179"/>
-      <c r="B75" s="166"/>
+      <c r="A75" s="207"/>
+      <c r="B75" s="210"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -21567,8 +21538,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="179"/>
-      <c r="B76" s="166"/>
+      <c r="A76" s="207"/>
+      <c r="B76" s="210"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -21580,8 +21551,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="179"/>
-      <c r="B77" s="166"/>
+      <c r="A77" s="207"/>
+      <c r="B77" s="210"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -21593,8 +21564,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="179"/>
-      <c r="B78" s="166"/>
+      <c r="A78" s="207"/>
+      <c r="B78" s="210"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -21606,8 +21577,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="179"/>
-      <c r="B79" s="166"/>
+      <c r="A79" s="207"/>
+      <c r="B79" s="210"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -21619,8 +21590,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="179"/>
-      <c r="B80" s="166" t="str">
+      <c r="A80" s="207"/>
+      <c r="B80" s="210" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -21635,8 +21606,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="179"/>
-      <c r="B81" s="166"/>
+      <c r="A81" s="207"/>
+      <c r="B81" s="210"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -21648,8 +21619,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="179"/>
-      <c r="B82" s="166"/>
+      <c r="A82" s="207"/>
+      <c r="B82" s="210"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -21661,8 +21632,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="179"/>
-      <c r="B83" s="166" t="str">
+      <c r="A83" s="207"/>
+      <c r="B83" s="210" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -21677,8 +21648,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="179"/>
-      <c r="B84" s="166"/>
+      <c r="A84" s="207"/>
+      <c r="B84" s="210"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -21690,8 +21661,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="180"/>
-      <c r="B85" s="167"/>
+      <c r="A85" s="208"/>
+      <c r="B85" s="211"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -21718,13 +21689,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -21737,21 +21716,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21848,7 +21819,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="182"/>
+      <c r="C2" s="220"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -21857,7 +21828,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="182"/>
+      <c r="C3" s="220"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -21866,7 +21837,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="220"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -21875,7 +21846,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="182"/>
+      <c r="C5" s="220"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -21884,7 +21855,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="182"/>
+      <c r="C6" s="220"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -21893,7 +21864,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="182"/>
+      <c r="C7" s="220"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -21902,7 +21873,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="182"/>
+      <c r="C8" s="220"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -21911,7 +21882,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="182"/>
+      <c r="C9" s="220"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -21920,7 +21891,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="182"/>
+      <c r="C10" s="220"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -21929,7 +21900,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="182"/>
+      <c r="C11" s="220"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -21938,112 +21909,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="182"/>
+      <c r="C12" s="220"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="182"/>
+      <c r="C13" s="220"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="182"/>
+      <c r="C14" s="220"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="182"/>
+      <c r="C15" s="220"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="182"/>
+      <c r="C16" s="220"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="182"/>
+      <c r="C17" s="220"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="182"/>
+      <c r="C18" s="220"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="182"/>
+      <c r="C19" s="220"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="182"/>
+      <c r="C20" s="220"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="182"/>
+      <c r="C21" s="220"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="182"/>
+      <c r="C22" s="220"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="183"/>
+      <c r="C23" s="221"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="183"/>
+      <c r="C24" s="221"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="183"/>
+      <c r="C25" s="221"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="183"/>
+      <c r="C26" s="221"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="183"/>
+      <c r="C27" s="221"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="183"/>
+      <c r="C28" s="221"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="181"/>
+      <c r="C29" s="219"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="181"/>
+      <c r="C30" s="219"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="181"/>
+      <c r="C31" s="219"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="181"/>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="181"/>
+      <c r="C33" s="219"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -22116,13 +22087,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="184"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="222"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -22131,79 +22102,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="184"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="222"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="184"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="184"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="222"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="184"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="184"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="184"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="222"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="184"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="222"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -22470,11 +22441,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22699,20 +22671,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22737,9 +22706,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA81F2B-8202-4AA0-AA77-F0D4485EE4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EAABF8-A2A5-4005-947A-25E0FC1609A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="11" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -4378,6 +4378,39 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4404,36 +4437,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4489,6 +4492,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4506,15 +4515,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4855,8 +4855,8 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7135,42 +7135,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="200" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="200" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="200" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="200" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="200" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="200" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="249" t="s">
+      <c r="A8" s="200" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249" t="s">
+      <c r="A9" s="200" t="s">
         <v>625</v>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -8521,8 +8521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC407A-E4C2-4651-A59D-6A61F758042C}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15413,65 +15413,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="238" t="s">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="238" t="s">
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="238" t="s">
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="238" t="s">
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="240"/>
+      <c r="T1" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="239"/>
-      <c r="V1" s="235" t="s">
+      <c r="U1" s="240"/>
+      <c r="V1" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="232" t="s">
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="233"/>
-      <c r="AH1" s="233"/>
-      <c r="AI1" s="233"/>
-      <c r="AJ1" s="233"/>
-      <c r="AK1" s="233"/>
-      <c r="AL1" s="233"/>
-      <c r="AM1" s="233"/>
-      <c r="AN1" s="233"/>
-      <c r="AO1" s="233"/>
-      <c r="AP1" s="233"/>
-      <c r="AQ1" s="233"/>
-      <c r="AR1" s="233"/>
-      <c r="AS1" s="234"/>
+      <c r="AG1" s="234"/>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="234"/>
+      <c r="AJ1" s="234"/>
+      <c r="AK1" s="234"/>
+      <c r="AL1" s="234"/>
+      <c r="AM1" s="234"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -16534,20 +16534,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="218"/>
-      <c r="AO1" s="218"/>
-      <c r="AP1" s="218"/>
-      <c r="AQ1" s="218"/>
-      <c r="AR1" s="218"/>
-      <c r="AS1" s="218"/>
-      <c r="AT1" s="218"/>
-      <c r="AU1" s="218"/>
-      <c r="AV1" s="218"/>
-      <c r="AW1" s="218"/>
-      <c r="AX1" s="218"/>
-      <c r="AY1" s="218"/>
-      <c r="AZ1" s="218"/>
-      <c r="BA1" s="218"/>
+      <c r="AN1" s="201"/>
+      <c r="AO1" s="201"/>
+      <c r="AP1" s="201"/>
+      <c r="AQ1" s="201"/>
+      <c r="AR1" s="201"/>
+      <c r="AS1" s="201"/>
+      <c r="AT1" s="201"/>
+      <c r="AU1" s="201"/>
+      <c r="AV1" s="201"/>
+      <c r="AW1" s="201"/>
+      <c r="AX1" s="201"/>
+      <c r="AY1" s="201"/>
+      <c r="AZ1" s="201"/>
+      <c r="BA1" s="201"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -16566,7 +16566,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="241" t="s">
+      <c r="H2" s="244" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -16588,7 +16588,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="241" t="s">
+      <c r="P2" s="244" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -16619,10 +16619,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="244" t="s">
+      <c r="AC2" s="247" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="247" t="s">
+      <c r="AD2" s="242" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -16634,26 +16634,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="218"/>
-      <c r="AJ2" s="218"/>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="218"/>
-      <c r="AO2" s="218"/>
-      <c r="AP2" s="218"/>
-      <c r="AQ2" s="218"/>
-      <c r="AR2" s="218"/>
-      <c r="AS2" s="218"/>
-      <c r="AT2" s="218"/>
-      <c r="AU2" s="218"/>
-      <c r="AV2" s="218"/>
-      <c r="AW2" s="218"/>
-      <c r="AX2" s="218"/>
-      <c r="AY2" s="218"/>
-      <c r="AZ2" s="218"/>
-      <c r="BA2" s="218"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -16674,7 +16674,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="242"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="242"/>
+      <c r="P3" s="245"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16715,8 +16715,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="245"/>
-      <c r="AD3" s="210"/>
+      <c r="AC3" s="248"/>
+      <c r="AD3" s="205"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -16761,7 +16761,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="242"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="243"/>
+      <c r="P4" s="246"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16801,8 +16801,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="245"/>
-      <c r="AD4" s="210"/>
+      <c r="AC4" s="248"/>
+      <c r="AD4" s="205"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -16850,7 +16850,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="242"/>
+      <c r="H5" s="245"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -16875,8 +16875,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="245"/>
-      <c r="AD5" s="210"/>
+      <c r="AC5" s="248"/>
+      <c r="AD5" s="205"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -16909,7 +16909,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="242"/>
+      <c r="H6" s="245"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -16936,8 +16936,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="245"/>
-      <c r="AD6" s="210"/>
+      <c r="AC6" s="248"/>
+      <c r="AD6" s="205"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -16975,7 +16975,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="242"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -17002,8 +17002,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="245"/>
-      <c r="AD7" s="210"/>
+      <c r="AC7" s="248"/>
+      <c r="AD7" s="205"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -17038,7 +17038,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="242"/>
+      <c r="H8" s="245"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -17065,8 +17065,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="245"/>
-      <c r="AD8" s="210"/>
+      <c r="AC8" s="248"/>
+      <c r="AD8" s="205"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -17101,7 +17101,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="243"/>
+      <c r="H9" s="246"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -17128,8 +17128,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="245"/>
-      <c r="AD9" s="210" t="s">
+      <c r="AC9" s="248"/>
+      <c r="AD9" s="205" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -17172,8 +17172,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="245"/>
-      <c r="AD10" s="210"/>
+      <c r="AC10" s="248"/>
+      <c r="AD10" s="205"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -17206,7 +17206,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="244" t="s">
+      <c r="H11" s="247" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -17227,8 +17227,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="245"/>
-      <c r="AD11" s="210"/>
+      <c r="AC11" s="248"/>
+      <c r="AD11" s="205"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -17247,7 +17247,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="245"/>
+      <c r="H12" s="248"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -17266,8 +17266,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="245"/>
-      <c r="AD12" s="210"/>
+      <c r="AC12" s="248"/>
+      <c r="AD12" s="205"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -17286,7 +17286,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="245"/>
+      <c r="H13" s="248"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -17305,8 +17305,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="245"/>
-      <c r="AD13" s="210"/>
+      <c r="AC13" s="248"/>
+      <c r="AD13" s="205"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -17325,7 +17325,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="245"/>
+      <c r="H14" s="248"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -17344,8 +17344,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="245"/>
-      <c r="AD14" s="210"/>
+      <c r="AC14" s="248"/>
+      <c r="AD14" s="205"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -17364,7 +17364,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="245"/>
+      <c r="H15" s="248"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -17383,8 +17383,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="245"/>
-      <c r="AD15" s="210" t="s">
+      <c r="AC15" s="248"/>
+      <c r="AD15" s="205" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -17402,7 +17402,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="245"/>
+      <c r="H16" s="248"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -17421,8 +17421,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="245"/>
-      <c r="AD16" s="210"/>
+      <c r="AC16" s="248"/>
+      <c r="AD16" s="205"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -17441,7 +17441,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="245"/>
+      <c r="H17" s="248"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -17460,8 +17460,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="245"/>
-      <c r="AD17" s="210"/>
+      <c r="AC17" s="248"/>
+      <c r="AD17" s="205"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -17480,7 +17480,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="246"/>
+      <c r="H18" s="249"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -17499,8 +17499,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="245"/>
-      <c r="AD18" s="210"/>
+      <c r="AC18" s="248"/>
+      <c r="AD18" s="205"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -17519,8 +17519,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="245"/>
-      <c r="AD19" s="210"/>
+      <c r="AC19" s="248"/>
+      <c r="AD19" s="205"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -17539,8 +17539,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="245"/>
-      <c r="AD20" s="210" t="s">
+      <c r="AC20" s="248"/>
+      <c r="AD20" s="205" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -17561,8 +17561,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="245"/>
-      <c r="AD21" s="210"/>
+      <c r="AC21" s="248"/>
+      <c r="AD21" s="205"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -17581,8 +17581,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="245"/>
-      <c r="AD22" s="210"/>
+      <c r="AC22" s="248"/>
+      <c r="AD22" s="205"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -17601,8 +17601,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="245"/>
-      <c r="AD23" s="210" t="s">
+      <c r="AC23" s="248"/>
+      <c r="AD23" s="205" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -17623,8 +17623,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="245"/>
-      <c r="AD24" s="210"/>
+      <c r="AC24" s="248"/>
+      <c r="AD24" s="205"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -17637,8 +17637,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="246"/>
-      <c r="AD25" s="248"/>
+      <c r="AC25" s="249"/>
+      <c r="AD25" s="243"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -17655,10 +17655,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="244" t="s">
+      <c r="AC27" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="247" t="s">
+      <c r="AD27" s="242" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -17675,8 +17675,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="245"/>
-      <c r="AD28" s="210"/>
+      <c r="AC28" s="248"/>
+      <c r="AD28" s="205"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -17691,8 +17691,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="245"/>
-      <c r="AD29" s="210"/>
+      <c r="AC29" s="248"/>
+      <c r="AD29" s="205"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -17704,8 +17704,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="245"/>
-      <c r="AD30" s="210"/>
+      <c r="AC30" s="248"/>
+      <c r="AD30" s="205"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -17719,8 +17719,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="245"/>
-      <c r="AD31" s="210"/>
+      <c r="AC31" s="248"/>
+      <c r="AD31" s="205"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -17732,8 +17732,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="245"/>
-      <c r="AD32" s="210"/>
+      <c r="AC32" s="248"/>
+      <c r="AD32" s="205"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -17746,8 +17746,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="245"/>
-      <c r="AD33" s="210"/>
+      <c r="AC33" s="248"/>
+      <c r="AD33" s="205"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -17764,8 +17764,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="245"/>
-      <c r="AD34" s="210" t="s">
+      <c r="AC34" s="248"/>
+      <c r="AD34" s="205" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -17784,8 +17784,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="245"/>
-      <c r="AD35" s="210"/>
+      <c r="AC35" s="248"/>
+      <c r="AD35" s="205"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -17802,8 +17802,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="245"/>
-      <c r="AD36" s="210"/>
+      <c r="AC36" s="248"/>
+      <c r="AD36" s="205"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -17820,8 +17820,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="245"/>
-      <c r="AD37" s="210"/>
+      <c r="AC37" s="248"/>
+      <c r="AD37" s="205"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -17838,8 +17838,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="245"/>
-      <c r="AD38" s="210"/>
+      <c r="AC38" s="248"/>
+      <c r="AD38" s="205"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -17856,8 +17856,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="245"/>
-      <c r="AD39" s="210"/>
+      <c r="AC39" s="248"/>
+      <c r="AD39" s="205"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -17874,8 +17874,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="245"/>
-      <c r="AD40" s="210"/>
+      <c r="AC40" s="248"/>
+      <c r="AD40" s="205"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -17892,8 +17892,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="245"/>
-      <c r="AD41" s="210" t="s">
+      <c r="AC41" s="248"/>
+      <c r="AD41" s="205" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -17912,8 +17912,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="245"/>
-      <c r="AD42" s="210"/>
+      <c r="AC42" s="248"/>
+      <c r="AD42" s="205"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -17930,8 +17930,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="245"/>
-      <c r="AD43" s="210"/>
+      <c r="AC43" s="248"/>
+      <c r="AD43" s="205"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -17948,8 +17948,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="245"/>
-      <c r="AD44" s="210"/>
+      <c r="AC44" s="248"/>
+      <c r="AD44" s="205"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -17966,8 +17966,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="245"/>
-      <c r="AD45" s="210"/>
+      <c r="AC45" s="248"/>
+      <c r="AD45" s="205"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -17984,8 +17984,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="245"/>
-      <c r="AD46" s="210"/>
+      <c r="AC46" s="248"/>
+      <c r="AD46" s="205"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -18002,8 +18002,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="245"/>
-      <c r="AD47" s="210"/>
+      <c r="AC47" s="248"/>
+      <c r="AD47" s="205"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -18020,8 +18020,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="245"/>
-      <c r="AD48" s="210" t="s">
+      <c r="AC48" s="248"/>
+      <c r="AD48" s="205" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -18040,8 +18040,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="245"/>
-      <c r="AD49" s="210"/>
+      <c r="AC49" s="248"/>
+      <c r="AD49" s="205"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -18058,8 +18058,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="245"/>
-      <c r="AD50" s="210"/>
+      <c r="AC50" s="248"/>
+      <c r="AD50" s="205"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -18076,8 +18076,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="245"/>
-      <c r="AD51" s="210" t="s">
+      <c r="AC51" s="248"/>
+      <c r="AD51" s="205" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -18096,8 +18096,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="245"/>
-      <c r="AD52" s="210"/>
+      <c r="AC52" s="248"/>
+      <c r="AD52" s="205"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -18114,8 +18114,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="245"/>
-      <c r="AD53" s="210"/>
+      <c r="AC53" s="248"/>
+      <c r="AD53" s="205"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -18132,7 +18132,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="245"/>
+      <c r="AC54" s="248"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -18152,7 +18152,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="246"/>
+      <c r="AC55" s="249"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -18385,11 +18385,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -18406,11 +18406,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18501,7 +18501,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="244" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18521,7 +18521,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="242"/>
+      <c r="A3" s="245"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -18539,7 +18539,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="242"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -18557,7 +18557,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="243"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -18625,7 +18625,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="244" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18648,7 +18648,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="242"/>
+      <c r="A3" s="245"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -18669,7 +18669,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="242"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -18690,7 +18690,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="242"/>
+      <c r="A5" s="245"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -18711,7 +18711,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="242"/>
+      <c r="A6" s="245"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -18732,7 +18732,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
+      <c r="A7" s="245"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -18753,7 +18753,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="245"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -18774,7 +18774,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
+      <c r="A9" s="246"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -18795,7 +18795,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="241" t="s">
+      <c r="A10" s="244" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -18818,7 +18818,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="242"/>
+      <c r="A11" s="245"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -18839,7 +18839,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="242"/>
+      <c r="A12" s="245"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -18860,7 +18860,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="242"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -18881,7 +18881,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="242"/>
+      <c r="A14" s="245"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -18902,7 +18902,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="242"/>
+      <c r="A15" s="245"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -18923,7 +18923,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="242"/>
+      <c r="A16" s="245"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -18944,7 +18944,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="243"/>
+      <c r="A17" s="246"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -19014,7 +19014,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="244" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -19033,7 +19033,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="242"/>
+      <c r="A3" s="245"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -19050,7 +19050,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="243"/>
+      <c r="A4" s="246"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -19140,10 +19140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="207" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -19157,8 +19157,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="242"/>
-      <c r="B2" s="213"/>
+      <c r="A2" s="245"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -19170,8 +19170,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="242"/>
-      <c r="B3" s="213"/>
+      <c r="A3" s="245"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -19183,8 +19183,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="242"/>
-      <c r="B4" s="213"/>
+      <c r="A4" s="245"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -19196,8 +19196,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="242"/>
-      <c r="B5" s="213"/>
+      <c r="A5" s="245"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -19209,8 +19209,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="242"/>
-      <c r="B6" s="213"/>
+      <c r="A6" s="245"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -19222,8 +19222,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
-      <c r="B7" s="213"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -19235,8 +19235,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
-      <c r="B8" s="213" t="s">
+      <c r="A8" s="245"/>
+      <c r="B8" s="208" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -19250,8 +19250,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
-      <c r="B9" s="213"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -19263,8 +19263,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
-      <c r="B10" s="213"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -19276,8 +19276,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="242"/>
-      <c r="B11" s="213"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -19289,8 +19289,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="242"/>
-      <c r="B12" s="213"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -19302,8 +19302,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="242"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -19315,8 +19315,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="242"/>
-      <c r="B14" s="213" t="s">
+      <c r="A14" s="245"/>
+      <c r="B14" s="208" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -19330,8 +19330,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="242"/>
-      <c r="B15" s="213"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -19343,8 +19343,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="242"/>
-      <c r="B16" s="213"/>
+      <c r="A16" s="245"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -19356,8 +19356,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="242"/>
-      <c r="B17" s="213"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="208"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -19369,8 +19369,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="242"/>
-      <c r="B18" s="213"/>
+      <c r="A18" s="245"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -19382,8 +19382,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="242"/>
-      <c r="B19" s="213" t="s">
+      <c r="A19" s="245"/>
+      <c r="B19" s="208" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -19397,8 +19397,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="242"/>
-      <c r="B20" s="213"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -19410,8 +19410,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="242"/>
-      <c r="B21" s="213"/>
+      <c r="A21" s="245"/>
+      <c r="B21" s="208"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -19423,8 +19423,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="242"/>
-      <c r="B22" s="213" t="s">
+      <c r="A22" s="245"/>
+      <c r="B22" s="208" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -19438,8 +19438,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="242"/>
-      <c r="B23" s="213"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -19451,8 +19451,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="243"/>
-      <c r="B24" s="214"/>
+      <c r="A24" s="246"/>
+      <c r="B24" s="209"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -19464,10 +19464,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="244" t="s">
+      <c r="A25" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="212" t="s">
+      <c r="B25" s="207" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -19481,8 +19481,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="245"/>
-      <c r="B26" s="213"/>
+      <c r="A26" s="248"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -19494,8 +19494,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="245"/>
-      <c r="B27" s="213"/>
+      <c r="A27" s="248"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -19507,8 +19507,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="245"/>
-      <c r="B28" s="213"/>
+      <c r="A28" s="248"/>
+      <c r="B28" s="208"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -19520,8 +19520,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="245"/>
-      <c r="B29" s="213"/>
+      <c r="A29" s="248"/>
+      <c r="B29" s="208"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -19533,8 +19533,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="245"/>
-      <c r="B30" s="213"/>
+      <c r="A30" s="248"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -19546,8 +19546,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="245"/>
-      <c r="B31" s="213"/>
+      <c r="A31" s="248"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -19559,8 +19559,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="245"/>
-      <c r="B32" s="213" t="s">
+      <c r="A32" s="248"/>
+      <c r="B32" s="208" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -19574,8 +19574,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="245"/>
-      <c r="B33" s="213"/>
+      <c r="A33" s="248"/>
+      <c r="B33" s="208"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -19587,8 +19587,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="245"/>
-      <c r="B34" s="213"/>
+      <c r="A34" s="248"/>
+      <c r="B34" s="208"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -19600,8 +19600,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="245"/>
-      <c r="B35" s="213"/>
+      <c r="A35" s="248"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -19613,8 +19613,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="245"/>
-      <c r="B36" s="213"/>
+      <c r="A36" s="248"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -19626,8 +19626,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="245"/>
-      <c r="B37" s="213"/>
+      <c r="A37" s="248"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -19639,8 +19639,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="245"/>
-      <c r="B38" s="213"/>
+      <c r="A38" s="248"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -19652,8 +19652,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="245"/>
-      <c r="B39" s="213" t="s">
+      <c r="A39" s="248"/>
+      <c r="B39" s="208" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -19667,8 +19667,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="245"/>
-      <c r="B40" s="213"/>
+      <c r="A40" s="248"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -19680,8 +19680,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="245"/>
-      <c r="B41" s="213"/>
+      <c r="A41" s="248"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -19693,8 +19693,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="245"/>
-      <c r="B42" s="213"/>
+      <c r="A42" s="248"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -19706,8 +19706,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="245"/>
-      <c r="B43" s="213"/>
+      <c r="A43" s="248"/>
+      <c r="B43" s="208"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -19719,8 +19719,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="245"/>
-      <c r="B44" s="213"/>
+      <c r="A44" s="248"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -19732,8 +19732,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="245"/>
-      <c r="B45" s="213"/>
+      <c r="A45" s="248"/>
+      <c r="B45" s="208"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -19745,8 +19745,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="245"/>
-      <c r="B46" s="213" t="s">
+      <c r="A46" s="248"/>
+      <c r="B46" s="208" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -19760,8 +19760,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="245"/>
-      <c r="B47" s="213"/>
+      <c r="A47" s="248"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -19773,8 +19773,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="245"/>
-      <c r="B48" s="213"/>
+      <c r="A48" s="248"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -19786,8 +19786,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="245"/>
-      <c r="B49" s="213" t="s">
+      <c r="A49" s="248"/>
+      <c r="B49" s="208" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -19801,8 +19801,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="245"/>
-      <c r="B50" s="213"/>
+      <c r="A50" s="248"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -19814,8 +19814,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="245"/>
-      <c r="B51" s="213"/>
+      <c r="A51" s="248"/>
+      <c r="B51" s="208"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -19827,7 +19827,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="245"/>
+      <c r="A52" s="248"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -19842,7 +19842,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="246"/>
+      <c r="A53" s="249"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -19969,50 +19969,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="209"/>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="217"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="217"/>
-      <c r="AG1" s="217"/>
-      <c r="AH1" s="217"/>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="217"/>
-      <c r="AK1" s="217"/>
-      <c r="AL1" s="217"/>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="218"/>
-      <c r="AO1" s="218"/>
-      <c r="AP1" s="218"/>
-      <c r="AQ1" s="218"/>
-      <c r="AR1" s="218"/>
-      <c r="AS1" s="218"/>
-      <c r="AT1" s="218"/>
-      <c r="AU1" s="218"/>
-      <c r="AV1" s="218"/>
-      <c r="AW1" s="218"/>
-      <c r="AX1" s="218"/>
-      <c r="AY1" s="218"/>
-      <c r="AZ1" s="218"/>
-      <c r="BA1" s="218"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
+      <c r="AK1" s="204"/>
+      <c r="AL1" s="204"/>
+      <c r="AM1" s="204"/>
+      <c r="AN1" s="201"/>
+      <c r="AO1" s="201"/>
+      <c r="AP1" s="201"/>
+      <c r="AQ1" s="201"/>
+      <c r="AR1" s="201"/>
+      <c r="AS1" s="201"/>
+      <c r="AT1" s="201"/>
+      <c r="AU1" s="201"/>
+      <c r="AV1" s="201"/>
+      <c r="AW1" s="201"/>
+      <c r="AX1" s="201"/>
+      <c r="AY1" s="201"/>
+      <c r="AZ1" s="201"/>
+      <c r="BA1" s="201"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="214" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -20049,33 +20049,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="216"/>
-      <c r="AE2" s="216"/>
-      <c r="AF2" s="216"/>
-      <c r="AG2" s="216"/>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="218"/>
-      <c r="AJ2" s="218"/>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="218"/>
-      <c r="AO2" s="218"/>
-      <c r="AP2" s="218"/>
-      <c r="AQ2" s="218"/>
-      <c r="AR2" s="218"/>
-      <c r="AS2" s="218"/>
-      <c r="AT2" s="218"/>
-      <c r="AU2" s="218"/>
-      <c r="AV2" s="218"/>
-      <c r="AW2" s="218"/>
-      <c r="AX2" s="218"/>
-      <c r="AY2" s="218"/>
-      <c r="AZ2" s="218"/>
-      <c r="BA2" s="218"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="204"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -20133,7 +20133,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -20194,7 +20194,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="205"/>
+      <c r="A5" s="216"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -20344,7 +20344,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="214" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -20399,7 +20399,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -20450,7 +20450,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -20497,7 +20497,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -20521,7 +20521,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -20545,7 +20545,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="204"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -20569,7 +20569,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -20593,7 +20593,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="205"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -20626,7 +20626,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="211" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -20652,7 +20652,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="201"/>
+      <c r="A18" s="212"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -20676,7 +20676,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="201"/>
+      <c r="A19" s="212"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -20700,7 +20700,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="201"/>
+      <c r="A20" s="212"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -20724,7 +20724,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="201"/>
+      <c r="A21" s="212"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -20748,7 +20748,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -20772,7 +20772,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="201"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -20796,7 +20796,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="202"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -20840,7 +20840,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="214" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -20863,7 +20863,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="204"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -20884,7 +20884,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="205"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -20934,10 +20934,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="212" t="str">
+      <c r="B34" s="207" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -20958,8 +20958,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="201"/>
-      <c r="B35" s="213"/>
+      <c r="A35" s="212"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -20974,8 +20974,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="201"/>
-      <c r="B36" s="213"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -20990,8 +20990,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="201"/>
-      <c r="B37" s="213"/>
+      <c r="A37" s="212"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -21006,8 +21006,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="201"/>
-      <c r="B38" s="213"/>
+      <c r="A38" s="212"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -21022,8 +21022,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="201"/>
-      <c r="B39" s="213"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -21035,8 +21035,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="201"/>
-      <c r="B40" s="213"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -21048,8 +21048,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="201"/>
-      <c r="B41" s="213" t="str">
+      <c r="A41" s="212"/>
+      <c r="B41" s="208" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -21064,8 +21064,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="201"/>
-      <c r="B42" s="213"/>
+      <c r="A42" s="212"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -21077,8 +21077,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="201"/>
-      <c r="B43" s="213"/>
+      <c r="A43" s="212"/>
+      <c r="B43" s="208"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -21090,8 +21090,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="201"/>
-      <c r="B44" s="213"/>
+      <c r="A44" s="212"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -21103,8 +21103,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="201"/>
-      <c r="B45" s="213"/>
+      <c r="A45" s="212"/>
+      <c r="B45" s="208"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -21116,8 +21116,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="201"/>
-      <c r="B46" s="213"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -21129,8 +21129,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="201"/>
-      <c r="B47" s="213" t="str">
+      <c r="A47" s="212"/>
+      <c r="B47" s="208" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -21145,8 +21145,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="201"/>
-      <c r="B48" s="213"/>
+      <c r="A48" s="212"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -21158,8 +21158,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="201"/>
-      <c r="B49" s="213"/>
+      <c r="A49" s="212"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -21171,8 +21171,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="201"/>
-      <c r="B50" s="213"/>
+      <c r="A50" s="212"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -21184,8 +21184,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="201"/>
-      <c r="B51" s="213"/>
+      <c r="A51" s="212"/>
+      <c r="B51" s="208"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -21197,8 +21197,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="201"/>
-      <c r="B52" s="213" t="str">
+      <c r="A52" s="212"/>
+      <c r="B52" s="208" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -21213,8 +21213,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="201"/>
-      <c r="B53" s="213"/>
+      <c r="A53" s="212"/>
+      <c r="B53" s="208"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -21226,8 +21226,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="201"/>
-      <c r="B54" s="213"/>
+      <c r="A54" s="212"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -21239,8 +21239,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="201"/>
-      <c r="B55" s="213" t="str">
+      <c r="A55" s="212"/>
+      <c r="B55" s="208" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -21255,8 +21255,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="201"/>
-      <c r="B56" s="213"/>
+      <c r="A56" s="212"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -21268,8 +21268,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="202"/>
-      <c r="B57" s="214"/>
+      <c r="A57" s="213"/>
+      <c r="B57" s="209"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -21284,10 +21284,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="206" t="s">
+      <c r="A59" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="215" t="s">
+      <c r="B59" s="210" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -21304,8 +21304,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="207"/>
-      <c r="B60" s="210"/>
+      <c r="A60" s="218"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -21323,8 +21323,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="207"/>
-      <c r="B61" s="210"/>
+      <c r="A61" s="218"/>
+      <c r="B61" s="205"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -21339,8 +21339,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="207"/>
-      <c r="B62" s="210"/>
+      <c r="A62" s="218"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -21355,8 +21355,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="207"/>
-      <c r="B63" s="210"/>
+      <c r="A63" s="218"/>
+      <c r="B63" s="205"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -21371,8 +21371,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="207"/>
-      <c r="B64" s="210"/>
+      <c r="A64" s="218"/>
+      <c r="B64" s="205"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -21387,8 +21387,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="207"/>
-      <c r="B65" s="210"/>
+      <c r="A65" s="218"/>
+      <c r="B65" s="205"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -21401,8 +21401,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="207"/>
-      <c r="B66" s="210" t="str">
+      <c r="A66" s="218"/>
+      <c r="B66" s="205" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -21418,8 +21418,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="207"/>
-      <c r="B67" s="210"/>
+      <c r="A67" s="218"/>
+      <c r="B67" s="205"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -21431,8 +21431,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="207"/>
-      <c r="B68" s="210"/>
+      <c r="A68" s="218"/>
+      <c r="B68" s="205"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -21444,8 +21444,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="207"/>
-      <c r="B69" s="210"/>
+      <c r="A69" s="218"/>
+      <c r="B69" s="205"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -21457,8 +21457,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="207"/>
-      <c r="B70" s="210"/>
+      <c r="A70" s="218"/>
+      <c r="B70" s="205"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -21470,8 +21470,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="207"/>
-      <c r="B71" s="210"/>
+      <c r="A71" s="218"/>
+      <c r="B71" s="205"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -21483,8 +21483,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="207"/>
-      <c r="B72" s="210"/>
+      <c r="A72" s="218"/>
+      <c r="B72" s="205"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -21496,8 +21496,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="207"/>
-      <c r="B73" s="210" t="str">
+      <c r="A73" s="218"/>
+      <c r="B73" s="205" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -21512,8 +21512,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="207"/>
-      <c r="B74" s="210"/>
+      <c r="A74" s="218"/>
+      <c r="B74" s="205"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -21525,8 +21525,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="207"/>
-      <c r="B75" s="210"/>
+      <c r="A75" s="218"/>
+      <c r="B75" s="205"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -21538,8 +21538,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="207"/>
-      <c r="B76" s="210"/>
+      <c r="A76" s="218"/>
+      <c r="B76" s="205"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -21551,8 +21551,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="207"/>
-      <c r="B77" s="210"/>
+      <c r="A77" s="218"/>
+      <c r="B77" s="205"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -21564,8 +21564,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="207"/>
-      <c r="B78" s="210"/>
+      <c r="A78" s="218"/>
+      <c r="B78" s="205"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -21577,8 +21577,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="207"/>
-      <c r="B79" s="210"/>
+      <c r="A79" s="218"/>
+      <c r="B79" s="205"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -21590,8 +21590,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="207"/>
-      <c r="B80" s="210" t="str">
+      <c r="A80" s="218"/>
+      <c r="B80" s="205" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -21606,8 +21606,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="207"/>
-      <c r="B81" s="210"/>
+      <c r="A81" s="218"/>
+      <c r="B81" s="205"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -21619,8 +21619,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="207"/>
-      <c r="B82" s="210"/>
+      <c r="A82" s="218"/>
+      <c r="B82" s="205"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -21632,8 +21632,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="207"/>
-      <c r="B83" s="210" t="str">
+      <c r="A83" s="218"/>
+      <c r="B83" s="205" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -21648,8 +21648,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="207"/>
-      <c r="B84" s="210"/>
+      <c r="A84" s="218"/>
+      <c r="B84" s="205"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -21661,8 +21661,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="208"/>
-      <c r="B85" s="211"/>
+      <c r="A85" s="219"/>
+      <c r="B85" s="206"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -21689,21 +21689,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -21716,13 +21708,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21819,7 +21819,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="220"/>
+      <c r="C2" s="221"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -21828,7 +21828,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="220"/>
+      <c r="C3" s="221"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -21837,7 +21837,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="220"/>
+      <c r="C4" s="221"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -21846,7 +21846,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="220"/>
+      <c r="C5" s="221"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -21855,7 +21855,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="220"/>
+      <c r="C6" s="221"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -21864,7 +21864,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="220"/>
+      <c r="C7" s="221"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -21873,7 +21873,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="220"/>
+      <c r="C8" s="221"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -21882,7 +21882,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="220"/>
+      <c r="C9" s="221"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -21891,7 +21891,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="220"/>
+      <c r="C10" s="221"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -21900,7 +21900,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="220"/>
+      <c r="C11" s="221"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -21909,112 +21909,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="221"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="220"/>
+      <c r="C13" s="221"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="220"/>
+      <c r="C14" s="221"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="220"/>
+      <c r="C15" s="221"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="220"/>
+      <c r="C16" s="221"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="220"/>
+      <c r="C17" s="221"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="220"/>
+      <c r="C18" s="221"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="220"/>
+      <c r="C19" s="221"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="220"/>
+      <c r="C20" s="221"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="220"/>
+      <c r="C21" s="221"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="220"/>
+      <c r="C22" s="221"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="221"/>
+      <c r="C23" s="222"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="221"/>
+      <c r="C24" s="222"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="221"/>
+      <c r="C25" s="222"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="221"/>
+      <c r="C26" s="222"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="221"/>
+      <c r="C27" s="222"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="221"/>
+      <c r="C28" s="222"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="219"/>
+      <c r="C29" s="220"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="219"/>
+      <c r="C30" s="220"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="219"/>
+      <c r="C31" s="220"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="219"/>
+      <c r="C32" s="220"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="219"/>
+      <c r="C33" s="220"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -22087,13 +22087,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="222"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="223"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -22102,79 +22102,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="222"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="223"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="222"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="223"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="222"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="223"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="222"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="223"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="222"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="223"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="222"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="223"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="222"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="223"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -22441,12 +22441,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22671,17 +22670,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22706,11 +22708,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EAABF8-A2A5-4005-947A-25E0FC1609A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282B5EA-ABC1-4667-86E9-3D88B90D35E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="851">
   <si>
     <t>Country</t>
   </si>
@@ -4381,36 +4381,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4437,6 +4407,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4492,12 +4492,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4515,6 +4509,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4854,9 +4854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044920B-C09C-4E88-827F-04E6A256EC2A}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6311,7 +6311,9 @@
       <c r="B56" s="15">
         <v>11775</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>631</v>
+      </c>
       <c r="D56" s="5">
         <v>8.5</v>
       </c>
@@ -8304,7 +8306,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8521,7 +8523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC407A-E4C2-4651-A59D-6A61F758042C}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16534,20 +16536,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="201"/>
-      <c r="AS1" s="201"/>
-      <c r="AT1" s="201"/>
-      <c r="AU1" s="201"/>
-      <c r="AV1" s="201"/>
-      <c r="AW1" s="201"/>
-      <c r="AX1" s="201"/>
-      <c r="AY1" s="201"/>
-      <c r="AZ1" s="201"/>
-      <c r="BA1" s="201"/>
+      <c r="AN1" s="219"/>
+      <c r="AO1" s="219"/>
+      <c r="AP1" s="219"/>
+      <c r="AQ1" s="219"/>
+      <c r="AR1" s="219"/>
+      <c r="AS1" s="219"/>
+      <c r="AT1" s="219"/>
+      <c r="AU1" s="219"/>
+      <c r="AV1" s="219"/>
+      <c r="AW1" s="219"/>
+      <c r="AX1" s="219"/>
+      <c r="AY1" s="219"/>
+      <c r="AZ1" s="219"/>
+      <c r="BA1" s="219"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -16566,7 +16568,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="242" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -16588,7 +16590,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="244" t="s">
+      <c r="P2" s="242" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -16619,10 +16621,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="247" t="s">
+      <c r="AC2" s="245" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="242" t="s">
+      <c r="AD2" s="248" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -16634,26 +16636,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="201"/>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="219"/>
+      <c r="AJ2" s="219"/>
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="219"/>
+      <c r="AR2" s="219"/>
+      <c r="AS2" s="219"/>
+      <c r="AT2" s="219"/>
+      <c r="AU2" s="219"/>
+      <c r="AV2" s="219"/>
+      <c r="AW2" s="219"/>
+      <c r="AX2" s="219"/>
+      <c r="AY2" s="219"/>
+      <c r="AZ2" s="219"/>
+      <c r="BA2" s="219"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -16674,7 +16676,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="245"/>
+      <c r="H3" s="243"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -16694,7 +16696,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="245"/>
+      <c r="P3" s="243"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16715,8 +16717,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="205"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="211"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -16761,7 +16763,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="245"/>
+      <c r="H4" s="243"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -16781,7 +16783,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="246"/>
+      <c r="P4" s="244"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16801,8 +16803,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="248"/>
-      <c r="AD4" s="205"/>
+      <c r="AC4" s="246"/>
+      <c r="AD4" s="211"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -16850,7 +16852,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="245"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -16875,8 +16877,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="248"/>
-      <c r="AD5" s="205"/>
+      <c r="AC5" s="246"/>
+      <c r="AD5" s="211"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -16909,7 +16911,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="245"/>
+      <c r="H6" s="243"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -16936,8 +16938,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="248"/>
-      <c r="AD6" s="205"/>
+      <c r="AC6" s="246"/>
+      <c r="AD6" s="211"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -16975,7 +16977,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="245"/>
+      <c r="H7" s="243"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -17002,8 +17004,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="248"/>
-      <c r="AD7" s="205"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="211"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -17038,7 +17040,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="245"/>
+      <c r="H8" s="243"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -17065,8 +17067,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="248"/>
-      <c r="AD8" s="205"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="211"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -17101,7 +17103,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="246"/>
+      <c r="H9" s="244"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -17128,8 +17130,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="248"/>
-      <c r="AD9" s="205" t="s">
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="211" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -17172,8 +17174,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="248"/>
-      <c r="AD10" s="205"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="211"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -17206,7 +17208,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="247" t="s">
+      <c r="H11" s="245" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -17227,8 +17229,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="248"/>
-      <c r="AD11" s="205"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="211"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -17247,7 +17249,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="248"/>
+      <c r="H12" s="246"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -17266,8 +17268,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="248"/>
-      <c r="AD12" s="205"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="211"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -17286,7 +17288,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="248"/>
+      <c r="H13" s="246"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -17305,8 +17307,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="248"/>
-      <c r="AD13" s="205"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="211"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -17325,7 +17327,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="248"/>
+      <c r="H14" s="246"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -17344,8 +17346,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="248"/>
-      <c r="AD14" s="205"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="211"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -17364,7 +17366,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="248"/>
+      <c r="H15" s="246"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -17383,8 +17385,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="248"/>
-      <c r="AD15" s="205" t="s">
+      <c r="AC15" s="246"/>
+      <c r="AD15" s="211" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -17402,7 +17404,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="248"/>
+      <c r="H16" s="246"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -17421,8 +17423,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="248"/>
-      <c r="AD16" s="205"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="211"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -17441,7 +17443,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="248"/>
+      <c r="H17" s="246"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -17460,8 +17462,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="248"/>
-      <c r="AD17" s="205"/>
+      <c r="AC17" s="246"/>
+      <c r="AD17" s="211"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -17480,7 +17482,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="249"/>
+      <c r="H18" s="247"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -17499,8 +17501,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="248"/>
-      <c r="AD18" s="205"/>
+      <c r="AC18" s="246"/>
+      <c r="AD18" s="211"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -17519,8 +17521,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="248"/>
-      <c r="AD19" s="205"/>
+      <c r="AC19" s="246"/>
+      <c r="AD19" s="211"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -17539,8 +17541,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="248"/>
-      <c r="AD20" s="205" t="s">
+      <c r="AC20" s="246"/>
+      <c r="AD20" s="211" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -17561,8 +17563,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="248"/>
-      <c r="AD21" s="205"/>
+      <c r="AC21" s="246"/>
+      <c r="AD21" s="211"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -17581,8 +17583,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="248"/>
-      <c r="AD22" s="205"/>
+      <c r="AC22" s="246"/>
+      <c r="AD22" s="211"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -17601,8 +17603,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="248"/>
-      <c r="AD23" s="205" t="s">
+      <c r="AC23" s="246"/>
+      <c r="AD23" s="211" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -17623,8 +17625,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="248"/>
-      <c r="AD24" s="205"/>
+      <c r="AC24" s="246"/>
+      <c r="AD24" s="211"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -17637,8 +17639,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="249"/>
-      <c r="AD25" s="243"/>
+      <c r="AC25" s="247"/>
+      <c r="AD25" s="249"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -17655,10 +17657,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="247" t="s">
+      <c r="AC27" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="242" t="s">
+      <c r="AD27" s="248" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -17675,8 +17677,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="248"/>
-      <c r="AD28" s="205"/>
+      <c r="AC28" s="246"/>
+      <c r="AD28" s="211"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -17691,8 +17693,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="248"/>
-      <c r="AD29" s="205"/>
+      <c r="AC29" s="246"/>
+      <c r="AD29" s="211"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -17704,8 +17706,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="248"/>
-      <c r="AD30" s="205"/>
+      <c r="AC30" s="246"/>
+      <c r="AD30" s="211"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -17719,8 +17721,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="248"/>
-      <c r="AD31" s="205"/>
+      <c r="AC31" s="246"/>
+      <c r="AD31" s="211"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -17732,8 +17734,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="248"/>
-      <c r="AD32" s="205"/>
+      <c r="AC32" s="246"/>
+      <c r="AD32" s="211"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -17746,8 +17748,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="248"/>
-      <c r="AD33" s="205"/>
+      <c r="AC33" s="246"/>
+      <c r="AD33" s="211"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -17764,8 +17766,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="248"/>
-      <c r="AD34" s="205" t="s">
+      <c r="AC34" s="246"/>
+      <c r="AD34" s="211" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -17784,8 +17786,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="248"/>
-      <c r="AD35" s="205"/>
+      <c r="AC35" s="246"/>
+      <c r="AD35" s="211"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -17802,8 +17804,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="248"/>
-      <c r="AD36" s="205"/>
+      <c r="AC36" s="246"/>
+      <c r="AD36" s="211"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -17820,8 +17822,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="248"/>
-      <c r="AD37" s="205"/>
+      <c r="AC37" s="246"/>
+      <c r="AD37" s="211"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -17838,8 +17840,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="248"/>
-      <c r="AD38" s="205"/>
+      <c r="AC38" s="246"/>
+      <c r="AD38" s="211"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -17856,8 +17858,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="248"/>
-      <c r="AD39" s="205"/>
+      <c r="AC39" s="246"/>
+      <c r="AD39" s="211"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -17874,8 +17876,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="248"/>
-      <c r="AD40" s="205"/>
+      <c r="AC40" s="246"/>
+      <c r="AD40" s="211"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -17892,8 +17894,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="248"/>
-      <c r="AD41" s="205" t="s">
+      <c r="AC41" s="246"/>
+      <c r="AD41" s="211" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -17912,8 +17914,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="248"/>
-      <c r="AD42" s="205"/>
+      <c r="AC42" s="246"/>
+      <c r="AD42" s="211"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -17930,8 +17932,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="248"/>
-      <c r="AD43" s="205"/>
+      <c r="AC43" s="246"/>
+      <c r="AD43" s="211"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -17948,8 +17950,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="248"/>
-      <c r="AD44" s="205"/>
+      <c r="AC44" s="246"/>
+      <c r="AD44" s="211"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -17966,8 +17968,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="248"/>
-      <c r="AD45" s="205"/>
+      <c r="AC45" s="246"/>
+      <c r="AD45" s="211"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -17984,8 +17986,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="248"/>
-      <c r="AD46" s="205"/>
+      <c r="AC46" s="246"/>
+      <c r="AD46" s="211"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -18002,8 +18004,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="248"/>
-      <c r="AD47" s="205"/>
+      <c r="AC47" s="246"/>
+      <c r="AD47" s="211"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -18020,8 +18022,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="248"/>
-      <c r="AD48" s="205" t="s">
+      <c r="AC48" s="246"/>
+      <c r="AD48" s="211" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -18040,8 +18042,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="248"/>
-      <c r="AD49" s="205"/>
+      <c r="AC49" s="246"/>
+      <c r="AD49" s="211"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -18058,8 +18060,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="248"/>
-      <c r="AD50" s="205"/>
+      <c r="AC50" s="246"/>
+      <c r="AD50" s="211"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -18076,8 +18078,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="248"/>
-      <c r="AD51" s="205" t="s">
+      <c r="AC51" s="246"/>
+      <c r="AD51" s="211" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -18096,8 +18098,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="248"/>
-      <c r="AD52" s="205"/>
+      <c r="AC52" s="246"/>
+      <c r="AD52" s="211"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -18114,8 +18116,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="248"/>
-      <c r="AD53" s="205"/>
+      <c r="AC53" s="246"/>
+      <c r="AD53" s="211"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -18132,7 +18134,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="248"/>
+      <c r="AC54" s="246"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -18152,7 +18154,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="249"/>
+      <c r="AC55" s="247"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -18385,11 +18387,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -18406,11 +18408,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18420,11 +18422,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -18501,7 +18506,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="242" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18521,7 +18526,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -18539,7 +18544,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -18557,7 +18562,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="246"/>
+      <c r="A5" s="244"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -18625,7 +18630,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="242" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18648,7 +18653,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -18669,7 +18674,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -18690,7 +18695,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="245"/>
+      <c r="A5" s="243"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -18711,7 +18716,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="245"/>
+      <c r="A6" s="243"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -18732,7 +18737,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -18753,7 +18758,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -18774,7 +18779,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="246"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -18795,7 +18800,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="244" t="s">
+      <c r="A10" s="242" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -18818,7 +18823,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="245"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -18839,7 +18844,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="245"/>
+      <c r="A12" s="243"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -18860,7 +18865,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="245"/>
+      <c r="A13" s="243"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -18881,7 +18886,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="245"/>
+      <c r="A14" s="243"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -18902,7 +18907,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
+      <c r="A15" s="243"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -18923,7 +18928,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="245"/>
+      <c r="A16" s="243"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -18944,7 +18949,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -19014,7 +19019,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="242" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -19033,7 +19038,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -19050,7 +19055,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="246"/>
+      <c r="A4" s="244"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -19140,10 +19145,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="213" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -19157,8 +19162,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="245"/>
-      <c r="B2" s="208"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -19170,8 +19175,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
-      <c r="B3" s="208"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -19183,8 +19188,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
-      <c r="B4" s="208"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -19196,8 +19201,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="245"/>
-      <c r="B5" s="208"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -19209,8 +19214,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="245"/>
-      <c r="B6" s="208"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -19222,8 +19227,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
-      <c r="B7" s="208"/>
+      <c r="A7" s="243"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -19235,8 +19240,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
-      <c r="B8" s="208" t="s">
+      <c r="A8" s="243"/>
+      <c r="B8" s="214" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -19250,8 +19255,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="208"/>
+      <c r="A9" s="243"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -19263,8 +19268,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="245"/>
-      <c r="B10" s="208"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -19276,8 +19281,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="245"/>
-      <c r="B11" s="208"/>
+      <c r="A11" s="243"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -19289,8 +19294,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="245"/>
-      <c r="B12" s="208"/>
+      <c r="A12" s="243"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -19302,8 +19307,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="245"/>
-      <c r="B13" s="208"/>
+      <c r="A13" s="243"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -19315,8 +19320,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="245"/>
-      <c r="B14" s="208" t="s">
+      <c r="A14" s="243"/>
+      <c r="B14" s="214" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -19330,8 +19335,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
-      <c r="B15" s="208"/>
+      <c r="A15" s="243"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -19343,8 +19348,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="245"/>
-      <c r="B16" s="208"/>
+      <c r="A16" s="243"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -19356,8 +19361,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="245"/>
-      <c r="B17" s="208"/>
+      <c r="A17" s="243"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -19369,8 +19374,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="245"/>
-      <c r="B18" s="208"/>
+      <c r="A18" s="243"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -19382,8 +19387,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="245"/>
-      <c r="B19" s="208" t="s">
+      <c r="A19" s="243"/>
+      <c r="B19" s="214" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -19397,8 +19402,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="245"/>
-      <c r="B20" s="208"/>
+      <c r="A20" s="243"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -19410,8 +19415,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="245"/>
-      <c r="B21" s="208"/>
+      <c r="A21" s="243"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -19423,8 +19428,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="245"/>
-      <c r="B22" s="208" t="s">
+      <c r="A22" s="243"/>
+      <c r="B22" s="214" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -19438,8 +19443,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="245"/>
-      <c r="B23" s="208"/>
+      <c r="A23" s="243"/>
+      <c r="B23" s="214"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -19451,8 +19456,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="246"/>
-      <c r="B24" s="209"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -19464,10 +19469,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="247" t="s">
+      <c r="A25" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="207" t="s">
+      <c r="B25" s="213" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -19481,8 +19486,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="248"/>
-      <c r="B26" s="208"/>
+      <c r="A26" s="246"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -19494,8 +19499,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="248"/>
-      <c r="B27" s="208"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -19507,8 +19512,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="248"/>
-      <c r="B28" s="208"/>
+      <c r="A28" s="246"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -19520,8 +19525,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="248"/>
-      <c r="B29" s="208"/>
+      <c r="A29" s="246"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -19533,8 +19538,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="248"/>
-      <c r="B30" s="208"/>
+      <c r="A30" s="246"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -19546,8 +19551,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="248"/>
-      <c r="B31" s="208"/>
+      <c r="A31" s="246"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -19559,8 +19564,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="248"/>
-      <c r="B32" s="208" t="s">
+      <c r="A32" s="246"/>
+      <c r="B32" s="214" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -19574,8 +19579,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="248"/>
-      <c r="B33" s="208"/>
+      <c r="A33" s="246"/>
+      <c r="B33" s="214"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -19587,8 +19592,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="248"/>
-      <c r="B34" s="208"/>
+      <c r="A34" s="246"/>
+      <c r="B34" s="214"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -19600,8 +19605,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="248"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -19613,8 +19618,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="248"/>
-      <c r="B36" s="208"/>
+      <c r="A36" s="246"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -19626,8 +19631,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="248"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="246"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -19639,8 +19644,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="248"/>
-      <c r="B38" s="208"/>
+      <c r="A38" s="246"/>
+      <c r="B38" s="214"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -19652,8 +19657,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="248"/>
-      <c r="B39" s="208" t="s">
+      <c r="A39" s="246"/>
+      <c r="B39" s="214" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -19667,8 +19672,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="248"/>
-      <c r="B40" s="208"/>
+      <c r="A40" s="246"/>
+      <c r="B40" s="214"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -19680,8 +19685,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="248"/>
-      <c r="B41" s="208"/>
+      <c r="A41" s="246"/>
+      <c r="B41" s="214"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -19693,8 +19698,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="248"/>
-      <c r="B42" s="208"/>
+      <c r="A42" s="246"/>
+      <c r="B42" s="214"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -19706,8 +19711,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="248"/>
-      <c r="B43" s="208"/>
+      <c r="A43" s="246"/>
+      <c r="B43" s="214"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -19719,8 +19724,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="248"/>
-      <c r="B44" s="208"/>
+      <c r="A44" s="246"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -19732,8 +19737,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="248"/>
-      <c r="B45" s="208"/>
+      <c r="A45" s="246"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -19745,8 +19750,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="248"/>
-      <c r="B46" s="208" t="s">
+      <c r="A46" s="246"/>
+      <c r="B46" s="214" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -19760,8 +19765,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="248"/>
-      <c r="B47" s="208"/>
+      <c r="A47" s="246"/>
+      <c r="B47" s="214"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -19773,8 +19778,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="248"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="246"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -19786,8 +19791,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="248"/>
-      <c r="B49" s="208" t="s">
+      <c r="A49" s="246"/>
+      <c r="B49" s="214" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -19801,8 +19806,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="248"/>
-      <c r="B50" s="208"/>
+      <c r="A50" s="246"/>
+      <c r="B50" s="214"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -19814,8 +19819,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="248"/>
-      <c r="B51" s="208"/>
+      <c r="A51" s="246"/>
+      <c r="B51" s="214"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -19827,7 +19832,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="248"/>
+      <c r="A52" s="246"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -19842,7 +19847,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="249"/>
+      <c r="A53" s="247"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -19893,8 +19898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD098515-21DA-4E34-8208-57D76FDC375B}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19950,7 +19955,7 @@
     <col min="53" max="53" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
@@ -19969,50 +19974,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="201"/>
-      <c r="AS1" s="201"/>
-      <c r="AT1" s="201"/>
-      <c r="AU1" s="201"/>
-      <c r="AV1" s="201"/>
-      <c r="AW1" s="201"/>
-      <c r="AX1" s="201"/>
-      <c r="AY1" s="201"/>
-      <c r="AZ1" s="201"/>
-      <c r="BA1" s="201"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="210"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="218"/>
+      <c r="AK1" s="218"/>
+      <c r="AL1" s="218"/>
+      <c r="AM1" s="218"/>
+      <c r="AN1" s="219"/>
+      <c r="AO1" s="219"/>
+      <c r="AP1" s="219"/>
+      <c r="AQ1" s="219"/>
+      <c r="AR1" s="219"/>
+      <c r="AS1" s="219"/>
+      <c r="AT1" s="219"/>
+      <c r="AU1" s="219"/>
+      <c r="AV1" s="219"/>
+      <c r="AW1" s="219"/>
+      <c r="AX1" s="219"/>
+      <c r="AY1" s="219"/>
+      <c r="AZ1" s="219"/>
+      <c r="BA1" s="219"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="204" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -20049,33 +20054,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="201"/>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="217"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="219"/>
+      <c r="AJ2" s="219"/>
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="219"/>
+      <c r="AR2" s="219"/>
+      <c r="AS2" s="219"/>
+      <c r="AT2" s="219"/>
+      <c r="AU2" s="219"/>
+      <c r="AV2" s="219"/>
+      <c r="AW2" s="219"/>
+      <c r="AX2" s="219"/>
+      <c r="AY2" s="219"/>
+      <c r="AZ2" s="219"/>
+      <c r="BA2" s="219"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="215"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -20133,7 +20138,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="215"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -20193,8 +20198,8 @@
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="216"/>
+    <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="206"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -20344,7 +20349,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="204" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -20399,7 +20404,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="215"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -20450,7 +20455,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="215"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -20497,7 +20502,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="215"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -20521,7 +20526,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="215"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -20545,7 +20550,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -20569,7 +20574,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="215"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -20593,7 +20598,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="216"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -20626,7 +20631,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="211" t="s">
+      <c r="A17" s="201" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -20652,7 +20657,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -20676,7 +20681,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="212"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -20700,7 +20705,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="212"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -20724,7 +20729,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="212"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -20748,7 +20753,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="212"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -20772,7 +20777,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="212"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -20796,7 +20801,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="213"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -20840,7 +20845,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="214" t="s">
+      <c r="A27" s="204" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -20863,7 +20868,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="215"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -20884,7 +20889,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="216"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -20934,10 +20939,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="211" t="s">
+      <c r="A34" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="207" t="str">
+      <c r="B34" s="213" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -20958,8 +20963,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="212"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="202"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -20974,8 +20979,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="212"/>
-      <c r="B36" s="208"/>
+      <c r="A36" s="202"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -20990,8 +20995,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="212"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="202"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -21006,8 +21011,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="212"/>
-      <c r="B38" s="208"/>
+      <c r="A38" s="202"/>
+      <c r="B38" s="214"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -21022,8 +21027,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="212"/>
-      <c r="B39" s="208"/>
+      <c r="A39" s="202"/>
+      <c r="B39" s="214"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -21035,8 +21040,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="212"/>
-      <c r="B40" s="208"/>
+      <c r="A40" s="202"/>
+      <c r="B40" s="214"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -21048,8 +21053,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="212"/>
-      <c r="B41" s="208" t="str">
+      <c r="A41" s="202"/>
+      <c r="B41" s="214" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -21064,8 +21069,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="212"/>
-      <c r="B42" s="208"/>
+      <c r="A42" s="202"/>
+      <c r="B42" s="214"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -21077,8 +21082,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="212"/>
-      <c r="B43" s="208"/>
+      <c r="A43" s="202"/>
+      <c r="B43" s="214"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -21090,8 +21095,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="212"/>
-      <c r="B44" s="208"/>
+      <c r="A44" s="202"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -21103,8 +21108,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="212"/>
-      <c r="B45" s="208"/>
+      <c r="A45" s="202"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -21116,8 +21121,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="212"/>
-      <c r="B46" s="208"/>
+      <c r="A46" s="202"/>
+      <c r="B46" s="214"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -21129,8 +21134,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="212"/>
-      <c r="B47" s="208" t="str">
+      <c r="A47" s="202"/>
+      <c r="B47" s="214" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -21145,8 +21150,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="212"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="202"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -21158,8 +21163,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="212"/>
-      <c r="B49" s="208"/>
+      <c r="A49" s="202"/>
+      <c r="B49" s="214"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -21171,8 +21176,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="212"/>
-      <c r="B50" s="208"/>
+      <c r="A50" s="202"/>
+      <c r="B50" s="214"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -21184,8 +21189,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="212"/>
-      <c r="B51" s="208"/>
+      <c r="A51" s="202"/>
+      <c r="B51" s="214"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -21197,8 +21202,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="212"/>
-      <c r="B52" s="208" t="str">
+      <c r="A52" s="202"/>
+      <c r="B52" s="214" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -21213,8 +21218,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="212"/>
-      <c r="B53" s="208"/>
+      <c r="A53" s="202"/>
+      <c r="B53" s="214"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -21226,8 +21231,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="212"/>
-      <c r="B54" s="208"/>
+      <c r="A54" s="202"/>
+      <c r="B54" s="214"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -21239,8 +21244,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="212"/>
-      <c r="B55" s="208" t="str">
+      <c r="A55" s="202"/>
+      <c r="B55" s="214" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -21255,8 +21260,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="212"/>
-      <c r="B56" s="208"/>
+      <c r="A56" s="202"/>
+      <c r="B56" s="214"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -21268,8 +21273,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="213"/>
-      <c r="B57" s="209"/>
+      <c r="A57" s="203"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -21284,10 +21289,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="217" t="s">
+      <c r="A59" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="210" t="s">
+      <c r="B59" s="216" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -21304,8 +21309,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="218"/>
-      <c r="B60" s="205"/>
+      <c r="A60" s="208"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -21323,8 +21328,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="218"/>
-      <c r="B61" s="205"/>
+      <c r="A61" s="208"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -21339,8 +21344,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="218"/>
-      <c r="B62" s="205"/>
+      <c r="A62" s="208"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -21355,8 +21360,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="218"/>
-      <c r="B63" s="205"/>
+      <c r="A63" s="208"/>
+      <c r="B63" s="211"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -21371,8 +21376,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="218"/>
-      <c r="B64" s="205"/>
+      <c r="A64" s="208"/>
+      <c r="B64" s="211"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -21387,8 +21392,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="218"/>
-      <c r="B65" s="205"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="211"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -21401,8 +21406,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="218"/>
-      <c r="B66" s="205" t="str">
+      <c r="A66" s="208"/>
+      <c r="B66" s="211" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -21418,8 +21423,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="218"/>
-      <c r="B67" s="205"/>
+      <c r="A67" s="208"/>
+      <c r="B67" s="211"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -21431,8 +21436,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="218"/>
-      <c r="B68" s="205"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -21444,8 +21449,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="218"/>
-      <c r="B69" s="205"/>
+      <c r="A69" s="208"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -21457,8 +21462,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="218"/>
-      <c r="B70" s="205"/>
+      <c r="A70" s="208"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -21470,8 +21475,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="218"/>
-      <c r="B71" s="205"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -21483,8 +21488,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="218"/>
-      <c r="B72" s="205"/>
+      <c r="A72" s="208"/>
+      <c r="B72" s="211"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -21496,8 +21501,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="218"/>
-      <c r="B73" s="205" t="str">
+      <c r="A73" s="208"/>
+      <c r="B73" s="211" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -21512,8 +21517,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="218"/>
-      <c r="B74" s="205"/>
+      <c r="A74" s="208"/>
+      <c r="B74" s="211"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -21525,8 +21530,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="218"/>
-      <c r="B75" s="205"/>
+      <c r="A75" s="208"/>
+      <c r="B75" s="211"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -21538,8 +21543,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="218"/>
-      <c r="B76" s="205"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="211"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -21551,8 +21556,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="218"/>
-      <c r="B77" s="205"/>
+      <c r="A77" s="208"/>
+      <c r="B77" s="211"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -21564,8 +21569,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="218"/>
-      <c r="B78" s="205"/>
+      <c r="A78" s="208"/>
+      <c r="B78" s="211"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -21577,8 +21582,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="218"/>
-      <c r="B79" s="205"/>
+      <c r="A79" s="208"/>
+      <c r="B79" s="211"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -21590,8 +21595,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="218"/>
-      <c r="B80" s="205" t="str">
+      <c r="A80" s="208"/>
+      <c r="B80" s="211" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -21606,8 +21611,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="218"/>
-      <c r="B81" s="205"/>
+      <c r="A81" s="208"/>
+      <c r="B81" s="211"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -21619,8 +21624,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="218"/>
-      <c r="B82" s="205"/>
+      <c r="A82" s="208"/>
+      <c r="B82" s="211"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -21632,8 +21637,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="218"/>
-      <c r="B83" s="205" t="str">
+      <c r="A83" s="208"/>
+      <c r="B83" s="211" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -21648,8 +21653,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="218"/>
-      <c r="B84" s="205"/>
+      <c r="A84" s="208"/>
+      <c r="B84" s="211"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -21661,8 +21666,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="219"/>
-      <c r="B85" s="206"/>
+      <c r="A85" s="209"/>
+      <c r="B85" s="212"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -21689,13 +21694,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -21708,21 +21721,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22441,11 +22446,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22670,20 +22676,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22708,9 +22711,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282B5EA-ABC1-4667-86E9-3D88B90D35E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31079517-9B25-43D3-A13E-B79C32B72919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="14" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -4381,6 +4381,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4407,36 +4437,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4492,6 +4492,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4509,12 +4515,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4854,7 +4854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044920B-C09C-4E88-827F-04E6A256EC2A}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
@@ -9002,11 +9002,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A86444-194D-475C-A119-79201F84CD65}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:XFD409"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A1" s="156" t="s">
@@ -16536,20 +16541,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="219"/>
-      <c r="AO1" s="219"/>
-      <c r="AP1" s="219"/>
-      <c r="AQ1" s="219"/>
-      <c r="AR1" s="219"/>
-      <c r="AS1" s="219"/>
-      <c r="AT1" s="219"/>
-      <c r="AU1" s="219"/>
-      <c r="AV1" s="219"/>
-      <c r="AW1" s="219"/>
-      <c r="AX1" s="219"/>
-      <c r="AY1" s="219"/>
-      <c r="AZ1" s="219"/>
-      <c r="BA1" s="219"/>
+      <c r="AN1" s="201"/>
+      <c r="AO1" s="201"/>
+      <c r="AP1" s="201"/>
+      <c r="AQ1" s="201"/>
+      <c r="AR1" s="201"/>
+      <c r="AS1" s="201"/>
+      <c r="AT1" s="201"/>
+      <c r="AU1" s="201"/>
+      <c r="AV1" s="201"/>
+      <c r="AW1" s="201"/>
+      <c r="AX1" s="201"/>
+      <c r="AY1" s="201"/>
+      <c r="AZ1" s="201"/>
+      <c r="BA1" s="201"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -16568,7 +16573,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="242" t="s">
+      <c r="H2" s="244" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -16590,7 +16595,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="242" t="s">
+      <c r="P2" s="244" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -16621,10 +16626,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="245" t="s">
+      <c r="AC2" s="247" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="248" t="s">
+      <c r="AD2" s="242" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -16636,26 +16641,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="219"/>
-      <c r="AJ2" s="219"/>
-      <c r="AK2" s="219"/>
-      <c r="AL2" s="219"/>
-      <c r="AM2" s="219"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="219"/>
-      <c r="AP2" s="219"/>
-      <c r="AQ2" s="219"/>
-      <c r="AR2" s="219"/>
-      <c r="AS2" s="219"/>
-      <c r="AT2" s="219"/>
-      <c r="AU2" s="219"/>
-      <c r="AV2" s="219"/>
-      <c r="AW2" s="219"/>
-      <c r="AX2" s="219"/>
-      <c r="AY2" s="219"/>
-      <c r="AZ2" s="219"/>
-      <c r="BA2" s="219"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -16676,7 +16681,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="243"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -16696,7 +16701,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="243"/>
+      <c r="P3" s="245"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16717,8 +16722,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="246"/>
-      <c r="AD3" s="211"/>
+      <c r="AC3" s="248"/>
+      <c r="AD3" s="205"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -16763,7 +16768,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="243"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -16783,7 +16788,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="244"/>
+      <c r="P4" s="246"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16803,8 +16808,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="246"/>
-      <c r="AD4" s="211"/>
+      <c r="AC4" s="248"/>
+      <c r="AD4" s="205"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -16852,7 +16857,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="243"/>
+      <c r="H5" s="245"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -16877,8 +16882,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="246"/>
-      <c r="AD5" s="211"/>
+      <c r="AC5" s="248"/>
+      <c r="AD5" s="205"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -16911,7 +16916,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="243"/>
+      <c r="H6" s="245"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -16938,8 +16943,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="246"/>
-      <c r="AD6" s="211"/>
+      <c r="AC6" s="248"/>
+      <c r="AD6" s="205"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -16977,7 +16982,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="243"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -17004,8 +17009,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="246"/>
-      <c r="AD7" s="211"/>
+      <c r="AC7" s="248"/>
+      <c r="AD7" s="205"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -17040,7 +17045,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="243"/>
+      <c r="H8" s="245"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -17067,8 +17072,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="211"/>
+      <c r="AC8" s="248"/>
+      <c r="AD8" s="205"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -17103,7 +17108,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="244"/>
+      <c r="H9" s="246"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -17130,8 +17135,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="211" t="s">
+      <c r="AC9" s="248"/>
+      <c r="AD9" s="205" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -17174,8 +17179,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="211"/>
+      <c r="AC10" s="248"/>
+      <c r="AD10" s="205"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -17208,7 +17213,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="245" t="s">
+      <c r="H11" s="247" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -17229,8 +17234,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="246"/>
-      <c r="AD11" s="211"/>
+      <c r="AC11" s="248"/>
+      <c r="AD11" s="205"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -17249,7 +17254,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="246"/>
+      <c r="H12" s="248"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -17268,8 +17273,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="211"/>
+      <c r="AC12" s="248"/>
+      <c r="AD12" s="205"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -17288,7 +17293,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="246"/>
+      <c r="H13" s="248"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -17307,8 +17312,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="211"/>
+      <c r="AC13" s="248"/>
+      <c r="AD13" s="205"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -17327,7 +17332,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="246"/>
+      <c r="H14" s="248"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -17346,8 +17351,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="211"/>
+      <c r="AC14" s="248"/>
+      <c r="AD14" s="205"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -17366,7 +17371,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="246"/>
+      <c r="H15" s="248"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -17385,8 +17390,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="246"/>
-      <c r="AD15" s="211" t="s">
+      <c r="AC15" s="248"/>
+      <c r="AD15" s="205" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -17404,7 +17409,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="246"/>
+      <c r="H16" s="248"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -17423,8 +17428,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="211"/>
+      <c r="AC16" s="248"/>
+      <c r="AD16" s="205"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -17443,7 +17448,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="246"/>
+      <c r="H17" s="248"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -17462,8 +17467,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="246"/>
-      <c r="AD17" s="211"/>
+      <c r="AC17" s="248"/>
+      <c r="AD17" s="205"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -17482,7 +17487,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="247"/>
+      <c r="H18" s="249"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -17501,8 +17506,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="246"/>
-      <c r="AD18" s="211"/>
+      <c r="AC18" s="248"/>
+      <c r="AD18" s="205"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -17521,8 +17526,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="246"/>
-      <c r="AD19" s="211"/>
+      <c r="AC19" s="248"/>
+      <c r="AD19" s="205"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -17541,8 +17546,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="246"/>
-      <c r="AD20" s="211" t="s">
+      <c r="AC20" s="248"/>
+      <c r="AD20" s="205" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -17563,8 +17568,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="246"/>
-      <c r="AD21" s="211"/>
+      <c r="AC21" s="248"/>
+      <c r="AD21" s="205"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -17583,8 +17588,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="246"/>
-      <c r="AD22" s="211"/>
+      <c r="AC22" s="248"/>
+      <c r="AD22" s="205"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -17603,8 +17608,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="246"/>
-      <c r="AD23" s="211" t="s">
+      <c r="AC23" s="248"/>
+      <c r="AD23" s="205" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -17625,8 +17630,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="246"/>
-      <c r="AD24" s="211"/>
+      <c r="AC24" s="248"/>
+      <c r="AD24" s="205"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -17639,8 +17644,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="247"/>
-      <c r="AD25" s="249"/>
+      <c r="AC25" s="249"/>
+      <c r="AD25" s="243"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -17657,10 +17662,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="245" t="s">
+      <c r="AC27" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="248" t="s">
+      <c r="AD27" s="242" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -17677,8 +17682,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="246"/>
-      <c r="AD28" s="211"/>
+      <c r="AC28" s="248"/>
+      <c r="AD28" s="205"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -17693,8 +17698,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="246"/>
-      <c r="AD29" s="211"/>
+      <c r="AC29" s="248"/>
+      <c r="AD29" s="205"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -17706,8 +17711,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="246"/>
-      <c r="AD30" s="211"/>
+      <c r="AC30" s="248"/>
+      <c r="AD30" s="205"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -17721,8 +17726,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="246"/>
-      <c r="AD31" s="211"/>
+      <c r="AC31" s="248"/>
+      <c r="AD31" s="205"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -17734,8 +17739,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="246"/>
-      <c r="AD32" s="211"/>
+      <c r="AC32" s="248"/>
+      <c r="AD32" s="205"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -17748,8 +17753,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="246"/>
-      <c r="AD33" s="211"/>
+      <c r="AC33" s="248"/>
+      <c r="AD33" s="205"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -17766,8 +17771,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="246"/>
-      <c r="AD34" s="211" t="s">
+      <c r="AC34" s="248"/>
+      <c r="AD34" s="205" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -17786,8 +17791,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="246"/>
-      <c r="AD35" s="211"/>
+      <c r="AC35" s="248"/>
+      <c r="AD35" s="205"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -17804,8 +17809,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="246"/>
-      <c r="AD36" s="211"/>
+      <c r="AC36" s="248"/>
+      <c r="AD36" s="205"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -17822,8 +17827,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="246"/>
-      <c r="AD37" s="211"/>
+      <c r="AC37" s="248"/>
+      <c r="AD37" s="205"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -17840,8 +17845,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="246"/>
-      <c r="AD38" s="211"/>
+      <c r="AC38" s="248"/>
+      <c r="AD38" s="205"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -17858,8 +17863,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="246"/>
-      <c r="AD39" s="211"/>
+      <c r="AC39" s="248"/>
+      <c r="AD39" s="205"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -17876,8 +17881,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="246"/>
-      <c r="AD40" s="211"/>
+      <c r="AC40" s="248"/>
+      <c r="AD40" s="205"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -17894,8 +17899,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="246"/>
-      <c r="AD41" s="211" t="s">
+      <c r="AC41" s="248"/>
+      <c r="AD41" s="205" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -17914,8 +17919,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="246"/>
-      <c r="AD42" s="211"/>
+      <c r="AC42" s="248"/>
+      <c r="AD42" s="205"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -17932,8 +17937,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="246"/>
-      <c r="AD43" s="211"/>
+      <c r="AC43" s="248"/>
+      <c r="AD43" s="205"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -17950,8 +17955,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="246"/>
-      <c r="AD44" s="211"/>
+      <c r="AC44" s="248"/>
+      <c r="AD44" s="205"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -17968,8 +17973,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="246"/>
-      <c r="AD45" s="211"/>
+      <c r="AC45" s="248"/>
+      <c r="AD45" s="205"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -17986,8 +17991,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="246"/>
-      <c r="AD46" s="211"/>
+      <c r="AC46" s="248"/>
+      <c r="AD46" s="205"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -18004,8 +18009,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="246"/>
-      <c r="AD47" s="211"/>
+      <c r="AC47" s="248"/>
+      <c r="AD47" s="205"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -18022,8 +18027,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="246"/>
-      <c r="AD48" s="211" t="s">
+      <c r="AC48" s="248"/>
+      <c r="AD48" s="205" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -18042,8 +18047,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="246"/>
-      <c r="AD49" s="211"/>
+      <c r="AC49" s="248"/>
+      <c r="AD49" s="205"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -18060,8 +18065,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="246"/>
-      <c r="AD50" s="211"/>
+      <c r="AC50" s="248"/>
+      <c r="AD50" s="205"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -18078,8 +18083,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="246"/>
-      <c r="AD51" s="211" t="s">
+      <c r="AC51" s="248"/>
+      <c r="AD51" s="205" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -18098,8 +18103,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="246"/>
-      <c r="AD52" s="211"/>
+      <c r="AC52" s="248"/>
+      <c r="AD52" s="205"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -18116,8 +18121,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="246"/>
-      <c r="AD53" s="211"/>
+      <c r="AC53" s="248"/>
+      <c r="AD53" s="205"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -18134,7 +18139,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="246"/>
+      <c r="AC54" s="248"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -18154,7 +18159,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="247"/>
+      <c r="AC55" s="249"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -18387,11 +18392,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -18408,11 +18413,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18506,7 +18511,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="244" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18526,7 +18531,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="243"/>
+      <c r="A3" s="245"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -18544,7 +18549,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="243"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -18562,7 +18567,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="244"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -18630,7 +18635,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="244" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18653,7 +18658,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="243"/>
+      <c r="A3" s="245"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -18674,7 +18679,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="243"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -18695,7 +18700,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="243"/>
+      <c r="A5" s="245"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -18716,7 +18721,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="243"/>
+      <c r="A6" s="245"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -18737,7 +18742,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="243"/>
+      <c r="A7" s="245"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -18758,7 +18763,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="243"/>
+      <c r="A8" s="245"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -18779,7 +18784,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
+      <c r="A9" s="246"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -18800,7 +18805,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="242" t="s">
+      <c r="A10" s="244" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -18823,7 +18828,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="243"/>
+      <c r="A11" s="245"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -18844,7 +18849,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="243"/>
+      <c r="A12" s="245"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -18865,7 +18870,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="243"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -18886,7 +18891,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="243"/>
+      <c r="A14" s="245"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -18907,7 +18912,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="243"/>
+      <c r="A15" s="245"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -18928,7 +18933,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="243"/>
+      <c r="A16" s="245"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -18949,7 +18954,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="244"/>
+      <c r="A17" s="246"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -19019,7 +19024,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="244" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -19038,7 +19043,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="243"/>
+      <c r="A3" s="245"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -19055,7 +19060,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="244"/>
+      <c r="A4" s="246"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -19145,10 +19150,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="207" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -19162,8 +19167,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="243"/>
-      <c r="B2" s="214"/>
+      <c r="A2" s="245"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -19175,8 +19180,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="243"/>
-      <c r="B3" s="214"/>
+      <c r="A3" s="245"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -19188,8 +19193,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="243"/>
-      <c r="B4" s="214"/>
+      <c r="A4" s="245"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -19201,8 +19206,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="243"/>
-      <c r="B5" s="214"/>
+      <c r="A5" s="245"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -19214,8 +19219,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="243"/>
-      <c r="B6" s="214"/>
+      <c r="A6" s="245"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -19227,8 +19232,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="243"/>
-      <c r="B7" s="214"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -19240,8 +19245,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="243"/>
-      <c r="B8" s="214" t="s">
+      <c r="A8" s="245"/>
+      <c r="B8" s="208" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -19255,8 +19260,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
-      <c r="B9" s="214"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -19268,8 +19273,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
-      <c r="B10" s="214"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -19281,8 +19286,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="243"/>
-      <c r="B11" s="214"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -19294,8 +19299,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="243"/>
-      <c r="B12" s="214"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -19307,8 +19312,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="243"/>
-      <c r="B13" s="214"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -19320,8 +19325,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="243"/>
-      <c r="B14" s="214" t="s">
+      <c r="A14" s="245"/>
+      <c r="B14" s="208" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -19335,8 +19340,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="243"/>
-      <c r="B15" s="214"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -19348,8 +19353,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="243"/>
-      <c r="B16" s="214"/>
+      <c r="A16" s="245"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -19361,8 +19366,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="243"/>
-      <c r="B17" s="214"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="208"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -19374,8 +19379,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="243"/>
-      <c r="B18" s="214"/>
+      <c r="A18" s="245"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -19387,8 +19392,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="243"/>
-      <c r="B19" s="214" t="s">
+      <c r="A19" s="245"/>
+      <c r="B19" s="208" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -19402,8 +19407,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="243"/>
-      <c r="B20" s="214"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -19415,8 +19420,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="243"/>
-      <c r="B21" s="214"/>
+      <c r="A21" s="245"/>
+      <c r="B21" s="208"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -19428,8 +19433,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="243"/>
-      <c r="B22" s="214" t="s">
+      <c r="A22" s="245"/>
+      <c r="B22" s="208" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -19443,8 +19448,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="243"/>
-      <c r="B23" s="214"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -19456,8 +19461,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="244"/>
-      <c r="B24" s="215"/>
+      <c r="A24" s="246"/>
+      <c r="B24" s="209"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -19469,10 +19474,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="245" t="s">
+      <c r="A25" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="207" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -19486,8 +19491,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="246"/>
-      <c r="B26" s="214"/>
+      <c r="A26" s="248"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -19499,8 +19504,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="246"/>
-      <c r="B27" s="214"/>
+      <c r="A27" s="248"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -19512,8 +19517,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="246"/>
-      <c r="B28" s="214"/>
+      <c r="A28" s="248"/>
+      <c r="B28" s="208"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -19525,8 +19530,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="246"/>
-      <c r="B29" s="214"/>
+      <c r="A29" s="248"/>
+      <c r="B29" s="208"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -19538,8 +19543,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="246"/>
-      <c r="B30" s="214"/>
+      <c r="A30" s="248"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -19551,8 +19556,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="246"/>
-      <c r="B31" s="214"/>
+      <c r="A31" s="248"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -19564,8 +19569,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="246"/>
-      <c r="B32" s="214" t="s">
+      <c r="A32" s="248"/>
+      <c r="B32" s="208" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -19579,8 +19584,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="246"/>
-      <c r="B33" s="214"/>
+      <c r="A33" s="248"/>
+      <c r="B33" s="208"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -19592,8 +19597,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="246"/>
-      <c r="B34" s="214"/>
+      <c r="A34" s="248"/>
+      <c r="B34" s="208"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -19605,8 +19610,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="246"/>
-      <c r="B35" s="214"/>
+      <c r="A35" s="248"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -19618,8 +19623,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="246"/>
-      <c r="B36" s="214"/>
+      <c r="A36" s="248"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -19631,8 +19636,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="246"/>
-      <c r="B37" s="214"/>
+      <c r="A37" s="248"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -19644,8 +19649,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="246"/>
-      <c r="B38" s="214"/>
+      <c r="A38" s="248"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -19657,8 +19662,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="246"/>
-      <c r="B39" s="214" t="s">
+      <c r="A39" s="248"/>
+      <c r="B39" s="208" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -19672,8 +19677,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="246"/>
-      <c r="B40" s="214"/>
+      <c r="A40" s="248"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -19685,8 +19690,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="246"/>
-      <c r="B41" s="214"/>
+      <c r="A41" s="248"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -19698,8 +19703,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="246"/>
-      <c r="B42" s="214"/>
+      <c r="A42" s="248"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -19711,8 +19716,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="246"/>
-      <c r="B43" s="214"/>
+      <c r="A43" s="248"/>
+      <c r="B43" s="208"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -19724,8 +19729,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="246"/>
-      <c r="B44" s="214"/>
+      <c r="A44" s="248"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -19737,8 +19742,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="246"/>
-      <c r="B45" s="214"/>
+      <c r="A45" s="248"/>
+      <c r="B45" s="208"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -19750,8 +19755,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="246"/>
-      <c r="B46" s="214" t="s">
+      <c r="A46" s="248"/>
+      <c r="B46" s="208" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -19765,8 +19770,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="246"/>
-      <c r="B47" s="214"/>
+      <c r="A47" s="248"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -19778,8 +19783,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="246"/>
-      <c r="B48" s="214"/>
+      <c r="A48" s="248"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -19791,8 +19796,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="246"/>
-      <c r="B49" s="214" t="s">
+      <c r="A49" s="248"/>
+      <c r="B49" s="208" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -19806,8 +19811,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="246"/>
-      <c r="B50" s="214"/>
+      <c r="A50" s="248"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -19819,8 +19824,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="246"/>
-      <c r="B51" s="214"/>
+      <c r="A51" s="248"/>
+      <c r="B51" s="208"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -19832,7 +19837,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="246"/>
+      <c r="A52" s="248"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -19847,7 +19852,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="247"/>
+      <c r="A53" s="249"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -19898,7 +19903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD098515-21DA-4E34-8208-57D76FDC375B}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
@@ -19974,50 +19979,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="218"/>
-      <c r="AF1" s="218"/>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="218"/>
-      <c r="AJ1" s="218"/>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="218"/>
-      <c r="AN1" s="219"/>
-      <c r="AO1" s="219"/>
-      <c r="AP1" s="219"/>
-      <c r="AQ1" s="219"/>
-      <c r="AR1" s="219"/>
-      <c r="AS1" s="219"/>
-      <c r="AT1" s="219"/>
-      <c r="AU1" s="219"/>
-      <c r="AV1" s="219"/>
-      <c r="AW1" s="219"/>
-      <c r="AX1" s="219"/>
-      <c r="AY1" s="219"/>
-      <c r="AZ1" s="219"/>
-      <c r="BA1" s="219"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
+      <c r="AK1" s="204"/>
+      <c r="AL1" s="204"/>
+      <c r="AM1" s="204"/>
+      <c r="AN1" s="201"/>
+      <c r="AO1" s="201"/>
+      <c r="AP1" s="201"/>
+      <c r="AQ1" s="201"/>
+      <c r="AR1" s="201"/>
+      <c r="AS1" s="201"/>
+      <c r="AT1" s="201"/>
+      <c r="AU1" s="201"/>
+      <c r="AV1" s="201"/>
+      <c r="AW1" s="201"/>
+      <c r="AX1" s="201"/>
+      <c r="AY1" s="201"/>
+      <c r="AZ1" s="201"/>
+      <c r="BA1" s="201"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="214" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -20054,33 +20059,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="217"/>
-      <c r="AE2" s="217"/>
-      <c r="AF2" s="217"/>
-      <c r="AG2" s="217"/>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="219"/>
-      <c r="AJ2" s="219"/>
-      <c r="AK2" s="219"/>
-      <c r="AL2" s="219"/>
-      <c r="AM2" s="219"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="219"/>
-      <c r="AP2" s="219"/>
-      <c r="AQ2" s="219"/>
-      <c r="AR2" s="219"/>
-      <c r="AS2" s="219"/>
-      <c r="AT2" s="219"/>
-      <c r="AU2" s="219"/>
-      <c r="AV2" s="219"/>
-      <c r="AW2" s="219"/>
-      <c r="AX2" s="219"/>
-      <c r="AY2" s="219"/>
-      <c r="AZ2" s="219"/>
-      <c r="BA2" s="219"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="205"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -20138,7 +20143,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="205"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -20199,7 +20204,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="206"/>
+      <c r="A5" s="216"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -20349,7 +20354,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="204" t="s">
+      <c r="A8" s="214" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -20404,7 +20409,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="205"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -20455,7 +20460,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="205"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -20502,7 +20507,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="205"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -20526,7 +20531,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="205"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -20550,7 +20555,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -20574,7 +20579,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="205"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -20598,7 +20603,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="206"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -20631,7 +20636,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="211" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -20657,7 +20662,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="202"/>
+      <c r="A18" s="212"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -20681,7 +20686,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="202"/>
+      <c r="A19" s="212"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -20705,7 +20710,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="202"/>
+      <c r="A20" s="212"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -20729,7 +20734,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="202"/>
+      <c r="A21" s="212"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -20753,7 +20758,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="202"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -20777,7 +20782,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="202"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -20801,7 +20806,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -20845,7 +20850,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="204" t="s">
+      <c r="A27" s="214" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -20868,7 +20873,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="205"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -20889,7 +20894,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="206"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -20939,10 +20944,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="201" t="s">
+      <c r="A34" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="213" t="str">
+      <c r="B34" s="207" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -20963,8 +20968,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="202"/>
-      <c r="B35" s="214"/>
+      <c r="A35" s="212"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -20979,8 +20984,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="202"/>
-      <c r="B36" s="214"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -20995,8 +21000,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="202"/>
-      <c r="B37" s="214"/>
+      <c r="A37" s="212"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -21011,8 +21016,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="202"/>
-      <c r="B38" s="214"/>
+      <c r="A38" s="212"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -21027,8 +21032,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="202"/>
-      <c r="B39" s="214"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -21040,8 +21045,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="202"/>
-      <c r="B40" s="214"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -21053,8 +21058,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="202"/>
-      <c r="B41" s="214" t="str">
+      <c r="A41" s="212"/>
+      <c r="B41" s="208" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -21069,8 +21074,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="202"/>
-      <c r="B42" s="214"/>
+      <c r="A42" s="212"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -21082,8 +21087,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="202"/>
-      <c r="B43" s="214"/>
+      <c r="A43" s="212"/>
+      <c r="B43" s="208"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -21095,8 +21100,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="202"/>
-      <c r="B44" s="214"/>
+      <c r="A44" s="212"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -21108,8 +21113,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="202"/>
-      <c r="B45" s="214"/>
+      <c r="A45" s="212"/>
+      <c r="B45" s="208"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -21121,8 +21126,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="202"/>
-      <c r="B46" s="214"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -21134,8 +21139,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="202"/>
-      <c r="B47" s="214" t="str">
+      <c r="A47" s="212"/>
+      <c r="B47" s="208" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -21150,8 +21155,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="202"/>
-      <c r="B48" s="214"/>
+      <c r="A48" s="212"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -21163,8 +21168,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="202"/>
-      <c r="B49" s="214"/>
+      <c r="A49" s="212"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -21176,8 +21181,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="202"/>
-      <c r="B50" s="214"/>
+      <c r="A50" s="212"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -21189,8 +21194,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="202"/>
-      <c r="B51" s="214"/>
+      <c r="A51" s="212"/>
+      <c r="B51" s="208"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -21202,8 +21207,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="202"/>
-      <c r="B52" s="214" t="str">
+      <c r="A52" s="212"/>
+      <c r="B52" s="208" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -21218,8 +21223,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="202"/>
-      <c r="B53" s="214"/>
+      <c r="A53" s="212"/>
+      <c r="B53" s="208"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -21231,8 +21236,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="202"/>
-      <c r="B54" s="214"/>
+      <c r="A54" s="212"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -21244,8 +21249,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="202"/>
-      <c r="B55" s="214" t="str">
+      <c r="A55" s="212"/>
+      <c r="B55" s="208" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -21260,8 +21265,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="202"/>
-      <c r="B56" s="214"/>
+      <c r="A56" s="212"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -21273,8 +21278,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="203"/>
-      <c r="B57" s="215"/>
+      <c r="A57" s="213"/>
+      <c r="B57" s="209"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -21289,10 +21294,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="207" t="s">
+      <c r="A59" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="216" t="s">
+      <c r="B59" s="210" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -21309,8 +21314,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="208"/>
-      <c r="B60" s="211"/>
+      <c r="A60" s="218"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -21328,8 +21333,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="208"/>
-      <c r="B61" s="211"/>
+      <c r="A61" s="218"/>
+      <c r="B61" s="205"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -21344,8 +21349,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="208"/>
-      <c r="B62" s="211"/>
+      <c r="A62" s="218"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -21360,8 +21365,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="208"/>
-      <c r="B63" s="211"/>
+      <c r="A63" s="218"/>
+      <c r="B63" s="205"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -21376,8 +21381,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="208"/>
-      <c r="B64" s="211"/>
+      <c r="A64" s="218"/>
+      <c r="B64" s="205"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -21392,8 +21397,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="208"/>
-      <c r="B65" s="211"/>
+      <c r="A65" s="218"/>
+      <c r="B65" s="205"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -21406,8 +21411,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="208"/>
-      <c r="B66" s="211" t="str">
+      <c r="A66" s="218"/>
+      <c r="B66" s="205" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -21423,8 +21428,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="208"/>
-      <c r="B67" s="211"/>
+      <c r="A67" s="218"/>
+      <c r="B67" s="205"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -21436,8 +21441,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="208"/>
-      <c r="B68" s="211"/>
+      <c r="A68" s="218"/>
+      <c r="B68" s="205"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -21449,8 +21454,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="208"/>
-      <c r="B69" s="211"/>
+      <c r="A69" s="218"/>
+      <c r="B69" s="205"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -21462,8 +21467,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="208"/>
-      <c r="B70" s="211"/>
+      <c r="A70" s="218"/>
+      <c r="B70" s="205"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -21475,8 +21480,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="208"/>
-      <c r="B71" s="211"/>
+      <c r="A71" s="218"/>
+      <c r="B71" s="205"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -21488,8 +21493,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="208"/>
-      <c r="B72" s="211"/>
+      <c r="A72" s="218"/>
+      <c r="B72" s="205"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -21501,8 +21506,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="208"/>
-      <c r="B73" s="211" t="str">
+      <c r="A73" s="218"/>
+      <c r="B73" s="205" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -21517,8 +21522,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="208"/>
-      <c r="B74" s="211"/>
+      <c r="A74" s="218"/>
+      <c r="B74" s="205"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -21530,8 +21535,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="208"/>
-      <c r="B75" s="211"/>
+      <c r="A75" s="218"/>
+      <c r="B75" s="205"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -21543,8 +21548,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="208"/>
-      <c r="B76" s="211"/>
+      <c r="A76" s="218"/>
+      <c r="B76" s="205"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -21556,8 +21561,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="208"/>
-      <c r="B77" s="211"/>
+      <c r="A77" s="218"/>
+      <c r="B77" s="205"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -21569,8 +21574,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="208"/>
-      <c r="B78" s="211"/>
+      <c r="A78" s="218"/>
+      <c r="B78" s="205"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -21582,8 +21587,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="208"/>
-      <c r="B79" s="211"/>
+      <c r="A79" s="218"/>
+      <c r="B79" s="205"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -21595,8 +21600,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="208"/>
-      <c r="B80" s="211" t="str">
+      <c r="A80" s="218"/>
+      <c r="B80" s="205" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -21611,8 +21616,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="208"/>
-      <c r="B81" s="211"/>
+      <c r="A81" s="218"/>
+      <c r="B81" s="205"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -21624,8 +21629,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="208"/>
-      <c r="B82" s="211"/>
+      <c r="A82" s="218"/>
+      <c r="B82" s="205"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -21637,8 +21642,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="208"/>
-      <c r="B83" s="211" t="str">
+      <c r="A83" s="218"/>
+      <c r="B83" s="205" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -21653,8 +21658,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="208"/>
-      <c r="B84" s="211"/>
+      <c r="A84" s="218"/>
+      <c r="B84" s="205"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -21666,8 +21671,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="209"/>
-      <c r="B85" s="212"/>
+      <c r="A85" s="219"/>
+      <c r="B85" s="206"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -21694,21 +21699,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -21721,13 +21718,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22446,12 +22451,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22676,17 +22680,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22711,11 +22718,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31079517-9B25-43D3-A13E-B79C32B72919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF475BB0-6116-4B3D-A3DD-F5B0ADE0C880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="14" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
@@ -4381,36 +4381,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4437,6 +4407,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4492,12 +4492,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4515,6 +4509,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9002,8 +9002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A86444-194D-475C-A119-79201F84CD65}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9013,7 +9013,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="156" t="s">
         <v>248</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="159" t="s">
         <v>317</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="159" t="s">
         <v>317</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="159" t="s">
         <v>317</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="159" t="s">
         <v>317</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="159" t="s">
         <v>317</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="159" t="s">
         <v>317</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="159" t="s">
         <v>317</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
         <v>317</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
         <v>317</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="159" t="s">
         <v>317</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="159" t="s">
         <v>317</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="159" t="s">
         <v>317</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="159" t="s">
         <v>317</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="159" t="s">
         <v>317</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="159" t="s">
         <v>317</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="159" t="s">
         <v>317</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="159" t="s">
         <v>317</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="159" t="s">
         <v>317</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
         <v>317</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A21" s="159" t="s">
         <v>317</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="159" t="s">
         <v>317</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="159" t="s">
         <v>317</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="159" t="s">
         <v>317</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="159" t="s">
         <v>317</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="159" t="s">
         <v>317</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
         <v>317</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="159" t="s">
         <v>317</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="159" t="s">
         <v>317</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="159" t="s">
         <v>317</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="159" t="s">
         <v>317</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="159" t="s">
         <v>317</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="159" t="s">
         <v>317</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="159" t="s">
         <v>317</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="159" t="s">
         <v>317</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="159" t="s">
         <v>317</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
         <v>317</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="91.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="51" x14ac:dyDescent="0.3">
       <c r="A38" s="159" t="s">
         <v>317</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="159" t="s">
         <v>317</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="159" t="s">
         <v>317</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="159" t="s">
         <v>317</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="159" t="s">
         <v>317</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="159" t="s">
         <v>317</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A44" s="159" t="s">
         <v>317</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="159" t="s">
         <v>317</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A46" s="159" t="s">
         <v>317</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="159" t="s">
         <v>317</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="159" t="s">
         <v>317</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="159" t="s">
         <v>317</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="159" t="s">
         <v>317</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="159" t="s">
         <v>317</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="159" t="s">
         <v>317</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="159" t="s">
         <v>317</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="159" t="s">
         <v>317</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="159" t="s">
         <v>317</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="159" t="s">
         <v>317</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="159" t="s">
         <v>317</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="159" t="s">
         <v>317</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="159" t="s">
         <v>317</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="159" t="s">
         <v>317</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="159" t="s">
         <v>317</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="159" t="s">
         <v>317</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="159" t="s">
         <v>317</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="159" t="s">
         <v>317</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="159" t="s">
         <v>317</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="159" t="s">
         <v>317</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="159" t="s">
         <v>317</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A77" s="159" t="s">
         <v>317</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="159" t="s">
         <v>317</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A79" s="159" t="s">
         <v>317</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A80" s="159" t="s">
         <v>317</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="159" t="s">
         <v>317</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="159" t="s">
         <v>317</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="159" t="s">
         <v>317</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="159" t="s">
         <v>317</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="159" t="s">
         <v>317</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="159" t="s">
         <v>317</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="159" t="s">
         <v>317</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="159" t="s">
         <v>317</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="159" t="s">
         <v>317</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="159" t="s">
         <v>317</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="159" t="s">
         <v>317</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="159" t="s">
         <v>317</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="159" t="s">
         <v>317</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="159" t="s">
         <v>317</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="159" t="s">
         <v>317</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="159" t="s">
         <v>317</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="159" t="s">
         <v>317</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="159" t="s">
         <v>317</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="159" t="s">
         <v>317</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A160" s="159" t="s">
         <v>317</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162" s="159" t="s">
         <v>317</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163" s="159" t="s">
         <v>317</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="159" t="s">
         <v>317</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="159" t="s">
         <v>317</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="159" t="s">
         <v>317</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="159" t="s">
         <v>317</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="159" t="s">
         <v>317</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="159" t="s">
         <v>317</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="159" t="s">
         <v>317</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="159" t="s">
         <v>317</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="159" t="s">
         <v>317</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="159" t="s">
         <v>317</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="159" t="s">
         <v>317</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="159" t="s">
         <v>317</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="159" t="s">
         <v>317</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="159" t="s">
         <v>317</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="159" t="s">
         <v>317</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="159" t="s">
         <v>317</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="159" t="s">
         <v>317</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="159" t="s">
         <v>317</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="159" t="s">
         <v>317</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="159" t="s">
         <v>317</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="159" t="s">
         <v>317</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="159" t="s">
         <v>317</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="159" t="s">
         <v>317</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="159" t="s">
         <v>317</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A189" s="159" t="s">
         <v>317</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="159" t="s">
         <v>317</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="159" t="s">
         <v>317</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="159" t="s">
         <v>317</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="159" t="s">
         <v>317</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="159" t="s">
         <v>317</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="159" t="s">
         <v>317</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="159" t="s">
         <v>317</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="159" t="s">
         <v>317</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="159" t="s">
         <v>317</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="159" t="s">
         <v>317</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="159" t="s">
         <v>317</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="159" t="s">
         <v>317</v>
       </c>
@@ -16541,20 +16541,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="201"/>
-      <c r="AS1" s="201"/>
-      <c r="AT1" s="201"/>
-      <c r="AU1" s="201"/>
-      <c r="AV1" s="201"/>
-      <c r="AW1" s="201"/>
-      <c r="AX1" s="201"/>
-      <c r="AY1" s="201"/>
-      <c r="AZ1" s="201"/>
-      <c r="BA1" s="201"/>
+      <c r="AN1" s="219"/>
+      <c r="AO1" s="219"/>
+      <c r="AP1" s="219"/>
+      <c r="AQ1" s="219"/>
+      <c r="AR1" s="219"/>
+      <c r="AS1" s="219"/>
+      <c r="AT1" s="219"/>
+      <c r="AU1" s="219"/>
+      <c r="AV1" s="219"/>
+      <c r="AW1" s="219"/>
+      <c r="AX1" s="219"/>
+      <c r="AY1" s="219"/>
+      <c r="AZ1" s="219"/>
+      <c r="BA1" s="219"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -16573,7 +16573,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="242" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -16595,7 +16595,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="244" t="s">
+      <c r="P2" s="242" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -16626,10 +16626,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="247" t="s">
+      <c r="AC2" s="245" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="242" t="s">
+      <c r="AD2" s="248" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -16641,26 +16641,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="201"/>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="219"/>
+      <c r="AJ2" s="219"/>
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="219"/>
+      <c r="AR2" s="219"/>
+      <c r="AS2" s="219"/>
+      <c r="AT2" s="219"/>
+      <c r="AU2" s="219"/>
+      <c r="AV2" s="219"/>
+      <c r="AW2" s="219"/>
+      <c r="AX2" s="219"/>
+      <c r="AY2" s="219"/>
+      <c r="AZ2" s="219"/>
+      <c r="BA2" s="219"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -16681,7 +16681,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="245"/>
+      <c r="H3" s="243"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="245"/>
+      <c r="P3" s="243"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16722,8 +16722,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="205"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="211"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="245"/>
+      <c r="H4" s="243"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="246"/>
+      <c r="P4" s="244"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16808,8 +16808,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="248"/>
-      <c r="AD4" s="205"/>
+      <c r="AC4" s="246"/>
+      <c r="AD4" s="211"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -16857,7 +16857,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="245"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -16882,8 +16882,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="248"/>
-      <c r="AD5" s="205"/>
+      <c r="AC5" s="246"/>
+      <c r="AD5" s="211"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -16916,7 +16916,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="245"/>
+      <c r="H6" s="243"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -16943,8 +16943,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="248"/>
-      <c r="AD6" s="205"/>
+      <c r="AC6" s="246"/>
+      <c r="AD6" s="211"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -16982,7 +16982,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="245"/>
+      <c r="H7" s="243"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -17009,8 +17009,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="248"/>
-      <c r="AD7" s="205"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="211"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -17045,7 +17045,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="245"/>
+      <c r="H8" s="243"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -17072,8 +17072,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="248"/>
-      <c r="AD8" s="205"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="211"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -17108,7 +17108,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="246"/>
+      <c r="H9" s="244"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -17135,8 +17135,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="248"/>
-      <c r="AD9" s="205" t="s">
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="211" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -17179,8 +17179,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="248"/>
-      <c r="AD10" s="205"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="211"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -17213,7 +17213,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="247" t="s">
+      <c r="H11" s="245" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -17234,8 +17234,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="248"/>
-      <c r="AD11" s="205"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="211"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -17254,7 +17254,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="248"/>
+      <c r="H12" s="246"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -17273,8 +17273,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="248"/>
-      <c r="AD12" s="205"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="211"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -17293,7 +17293,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="248"/>
+      <c r="H13" s="246"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -17312,8 +17312,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="248"/>
-      <c r="AD13" s="205"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="211"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -17332,7 +17332,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="248"/>
+      <c r="H14" s="246"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -17351,8 +17351,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="248"/>
-      <c r="AD14" s="205"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="211"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -17371,7 +17371,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="248"/>
+      <c r="H15" s="246"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -17390,8 +17390,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="248"/>
-      <c r="AD15" s="205" t="s">
+      <c r="AC15" s="246"/>
+      <c r="AD15" s="211" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -17409,7 +17409,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="248"/>
+      <c r="H16" s="246"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -17428,8 +17428,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="248"/>
-      <c r="AD16" s="205"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="211"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -17448,7 +17448,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="248"/>
+      <c r="H17" s="246"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -17467,8 +17467,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="248"/>
-      <c r="AD17" s="205"/>
+      <c r="AC17" s="246"/>
+      <c r="AD17" s="211"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -17487,7 +17487,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="249"/>
+      <c r="H18" s="247"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -17506,8 +17506,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="248"/>
-      <c r="AD18" s="205"/>
+      <c r="AC18" s="246"/>
+      <c r="AD18" s="211"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -17526,8 +17526,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="248"/>
-      <c r="AD19" s="205"/>
+      <c r="AC19" s="246"/>
+      <c r="AD19" s="211"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -17546,8 +17546,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="248"/>
-      <c r="AD20" s="205" t="s">
+      <c r="AC20" s="246"/>
+      <c r="AD20" s="211" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -17568,8 +17568,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="248"/>
-      <c r="AD21" s="205"/>
+      <c r="AC21" s="246"/>
+      <c r="AD21" s="211"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -17588,8 +17588,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="248"/>
-      <c r="AD22" s="205"/>
+      <c r="AC22" s="246"/>
+      <c r="AD22" s="211"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -17608,8 +17608,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="248"/>
-      <c r="AD23" s="205" t="s">
+      <c r="AC23" s="246"/>
+      <c r="AD23" s="211" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -17630,8 +17630,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="248"/>
-      <c r="AD24" s="205"/>
+      <c r="AC24" s="246"/>
+      <c r="AD24" s="211"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -17644,8 +17644,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="249"/>
-      <c r="AD25" s="243"/>
+      <c r="AC25" s="247"/>
+      <c r="AD25" s="249"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -17662,10 +17662,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="247" t="s">
+      <c r="AC27" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="242" t="s">
+      <c r="AD27" s="248" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -17682,8 +17682,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="248"/>
-      <c r="AD28" s="205"/>
+      <c r="AC28" s="246"/>
+      <c r="AD28" s="211"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -17698,8 +17698,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="248"/>
-      <c r="AD29" s="205"/>
+      <c r="AC29" s="246"/>
+      <c r="AD29" s="211"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -17711,8 +17711,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="248"/>
-      <c r="AD30" s="205"/>
+      <c r="AC30" s="246"/>
+      <c r="AD30" s="211"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -17726,8 +17726,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="248"/>
-      <c r="AD31" s="205"/>
+      <c r="AC31" s="246"/>
+      <c r="AD31" s="211"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -17739,8 +17739,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="248"/>
-      <c r="AD32" s="205"/>
+      <c r="AC32" s="246"/>
+      <c r="AD32" s="211"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -17753,8 +17753,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="248"/>
-      <c r="AD33" s="205"/>
+      <c r="AC33" s="246"/>
+      <c r="AD33" s="211"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -17771,8 +17771,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="248"/>
-      <c r="AD34" s="205" t="s">
+      <c r="AC34" s="246"/>
+      <c r="AD34" s="211" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -17791,8 +17791,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="248"/>
-      <c r="AD35" s="205"/>
+      <c r="AC35" s="246"/>
+      <c r="AD35" s="211"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -17809,8 +17809,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="248"/>
-      <c r="AD36" s="205"/>
+      <c r="AC36" s="246"/>
+      <c r="AD36" s="211"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -17827,8 +17827,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="248"/>
-      <c r="AD37" s="205"/>
+      <c r="AC37" s="246"/>
+      <c r="AD37" s="211"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -17845,8 +17845,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="248"/>
-      <c r="AD38" s="205"/>
+      <c r="AC38" s="246"/>
+      <c r="AD38" s="211"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -17863,8 +17863,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="248"/>
-      <c r="AD39" s="205"/>
+      <c r="AC39" s="246"/>
+      <c r="AD39" s="211"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -17881,8 +17881,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="248"/>
-      <c r="AD40" s="205"/>
+      <c r="AC40" s="246"/>
+      <c r="AD40" s="211"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -17899,8 +17899,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="248"/>
-      <c r="AD41" s="205" t="s">
+      <c r="AC41" s="246"/>
+      <c r="AD41" s="211" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -17919,8 +17919,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="248"/>
-      <c r="AD42" s="205"/>
+      <c r="AC42" s="246"/>
+      <c r="AD42" s="211"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -17937,8 +17937,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="248"/>
-      <c r="AD43" s="205"/>
+      <c r="AC43" s="246"/>
+      <c r="AD43" s="211"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -17955,8 +17955,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="248"/>
-      <c r="AD44" s="205"/>
+      <c r="AC44" s="246"/>
+      <c r="AD44" s="211"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -17973,8 +17973,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="248"/>
-      <c r="AD45" s="205"/>
+      <c r="AC45" s="246"/>
+      <c r="AD45" s="211"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -17991,8 +17991,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="248"/>
-      <c r="AD46" s="205"/>
+      <c r="AC46" s="246"/>
+      <c r="AD46" s="211"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -18009,8 +18009,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="248"/>
-      <c r="AD47" s="205"/>
+      <c r="AC47" s="246"/>
+      <c r="AD47" s="211"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -18027,8 +18027,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="248"/>
-      <c r="AD48" s="205" t="s">
+      <c r="AC48" s="246"/>
+      <c r="AD48" s="211" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -18047,8 +18047,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="248"/>
-      <c r="AD49" s="205"/>
+      <c r="AC49" s="246"/>
+      <c r="AD49" s="211"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -18065,8 +18065,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="248"/>
-      <c r="AD50" s="205"/>
+      <c r="AC50" s="246"/>
+      <c r="AD50" s="211"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -18083,8 +18083,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="248"/>
-      <c r="AD51" s="205" t="s">
+      <c r="AC51" s="246"/>
+      <c r="AD51" s="211" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -18103,8 +18103,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="248"/>
-      <c r="AD52" s="205"/>
+      <c r="AC52" s="246"/>
+      <c r="AD52" s="211"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -18121,8 +18121,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="248"/>
-      <c r="AD53" s="205"/>
+      <c r="AC53" s="246"/>
+      <c r="AD53" s="211"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -18139,7 +18139,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="248"/>
+      <c r="AC54" s="246"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -18159,7 +18159,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="249"/>
+      <c r="AC55" s="247"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -18392,11 +18392,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -18413,11 +18413,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18511,7 +18511,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="242" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18531,7 +18531,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -18549,7 +18549,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -18567,7 +18567,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="246"/>
+      <c r="A5" s="244"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -18635,7 +18635,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="242" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -18658,7 +18658,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -18679,7 +18679,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -18700,7 +18700,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="245"/>
+      <c r="A5" s="243"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -18721,7 +18721,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="245"/>
+      <c r="A6" s="243"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -18742,7 +18742,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -18763,7 +18763,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -18784,7 +18784,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="246"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -18805,7 +18805,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="244" t="s">
+      <c r="A10" s="242" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -18828,7 +18828,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="245"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -18849,7 +18849,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="245"/>
+      <c r="A12" s="243"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -18870,7 +18870,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="245"/>
+      <c r="A13" s="243"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -18891,7 +18891,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="245"/>
+      <c r="A14" s="243"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -18912,7 +18912,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
+      <c r="A15" s="243"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="245"/>
+      <c r="A16" s="243"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -18954,7 +18954,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -19024,7 +19024,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="242" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -19043,7 +19043,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -19060,7 +19060,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="246"/>
+      <c r="A4" s="244"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -19150,10 +19150,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="213" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -19167,8 +19167,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="245"/>
-      <c r="B2" s="208"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -19180,8 +19180,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="245"/>
-      <c r="B3" s="208"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -19193,8 +19193,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
-      <c r="B4" s="208"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -19206,8 +19206,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="245"/>
-      <c r="B5" s="208"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -19219,8 +19219,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="245"/>
-      <c r="B6" s="208"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -19232,8 +19232,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
-      <c r="B7" s="208"/>
+      <c r="A7" s="243"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -19245,8 +19245,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
-      <c r="B8" s="208" t="s">
+      <c r="A8" s="243"/>
+      <c r="B8" s="214" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -19260,8 +19260,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="208"/>
+      <c r="A9" s="243"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -19273,8 +19273,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="245"/>
-      <c r="B10" s="208"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -19286,8 +19286,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="245"/>
-      <c r="B11" s="208"/>
+      <c r="A11" s="243"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -19299,8 +19299,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="245"/>
-      <c r="B12" s="208"/>
+      <c r="A12" s="243"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -19312,8 +19312,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="245"/>
-      <c r="B13" s="208"/>
+      <c r="A13" s="243"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -19325,8 +19325,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="245"/>
-      <c r="B14" s="208" t="s">
+      <c r="A14" s="243"/>
+      <c r="B14" s="214" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -19340,8 +19340,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
-      <c r="B15" s="208"/>
+      <c r="A15" s="243"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -19353,8 +19353,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="245"/>
-      <c r="B16" s="208"/>
+      <c r="A16" s="243"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -19366,8 +19366,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="245"/>
-      <c r="B17" s="208"/>
+      <c r="A17" s="243"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -19379,8 +19379,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="245"/>
-      <c r="B18" s="208"/>
+      <c r="A18" s="243"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -19392,8 +19392,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="245"/>
-      <c r="B19" s="208" t="s">
+      <c r="A19" s="243"/>
+      <c r="B19" s="214" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -19407,8 +19407,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="245"/>
-      <c r="B20" s="208"/>
+      <c r="A20" s="243"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -19420,8 +19420,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="245"/>
-      <c r="B21" s="208"/>
+      <c r="A21" s="243"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -19433,8 +19433,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="245"/>
-      <c r="B22" s="208" t="s">
+      <c r="A22" s="243"/>
+      <c r="B22" s="214" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -19448,8 +19448,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="245"/>
-      <c r="B23" s="208"/>
+      <c r="A23" s="243"/>
+      <c r="B23" s="214"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -19461,8 +19461,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="246"/>
-      <c r="B24" s="209"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -19474,10 +19474,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="247" t="s">
+      <c r="A25" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="207" t="s">
+      <c r="B25" s="213" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -19491,8 +19491,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="248"/>
-      <c r="B26" s="208"/>
+      <c r="A26" s="246"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -19504,8 +19504,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="248"/>
-      <c r="B27" s="208"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -19517,8 +19517,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="248"/>
-      <c r="B28" s="208"/>
+      <c r="A28" s="246"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -19530,8 +19530,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="248"/>
-      <c r="B29" s="208"/>
+      <c r="A29" s="246"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -19543,8 +19543,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="248"/>
-      <c r="B30" s="208"/>
+      <c r="A30" s="246"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -19556,8 +19556,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="248"/>
-      <c r="B31" s="208"/>
+      <c r="A31" s="246"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -19569,8 +19569,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="248"/>
-      <c r="B32" s="208" t="s">
+      <c r="A32" s="246"/>
+      <c r="B32" s="214" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -19584,8 +19584,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="248"/>
-      <c r="B33" s="208"/>
+      <c r="A33" s="246"/>
+      <c r="B33" s="214"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -19597,8 +19597,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="248"/>
-      <c r="B34" s="208"/>
+      <c r="A34" s="246"/>
+      <c r="B34" s="214"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -19610,8 +19610,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="248"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -19623,8 +19623,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="248"/>
-      <c r="B36" s="208"/>
+      <c r="A36" s="246"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -19636,8 +19636,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="248"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="246"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -19649,8 +19649,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="248"/>
-      <c r="B38" s="208"/>
+      <c r="A38" s="246"/>
+      <c r="B38" s="214"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -19662,8 +19662,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="248"/>
-      <c r="B39" s="208" t="s">
+      <c r="A39" s="246"/>
+      <c r="B39" s="214" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -19677,8 +19677,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="248"/>
-      <c r="B40" s="208"/>
+      <c r="A40" s="246"/>
+      <c r="B40" s="214"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -19690,8 +19690,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="248"/>
-      <c r="B41" s="208"/>
+      <c r="A41" s="246"/>
+      <c r="B41" s="214"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -19703,8 +19703,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="248"/>
-      <c r="B42" s="208"/>
+      <c r="A42" s="246"/>
+      <c r="B42" s="214"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -19716,8 +19716,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="248"/>
-      <c r="B43" s="208"/>
+      <c r="A43" s="246"/>
+      <c r="B43" s="214"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -19729,8 +19729,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="248"/>
-      <c r="B44" s="208"/>
+      <c r="A44" s="246"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -19742,8 +19742,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="248"/>
-      <c r="B45" s="208"/>
+      <c r="A45" s="246"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -19755,8 +19755,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="248"/>
-      <c r="B46" s="208" t="s">
+      <c r="A46" s="246"/>
+      <c r="B46" s="214" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -19770,8 +19770,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="248"/>
-      <c r="B47" s="208"/>
+      <c r="A47" s="246"/>
+      <c r="B47" s="214"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -19783,8 +19783,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="248"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="246"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -19796,8 +19796,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="248"/>
-      <c r="B49" s="208" t="s">
+      <c r="A49" s="246"/>
+      <c r="B49" s="214" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -19811,8 +19811,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="248"/>
-      <c r="B50" s="208"/>
+      <c r="A50" s="246"/>
+      <c r="B50" s="214"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -19824,8 +19824,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="248"/>
-      <c r="B51" s="208"/>
+      <c r="A51" s="246"/>
+      <c r="B51" s="214"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -19837,7 +19837,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="248"/>
+      <c r="A52" s="246"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -19852,7 +19852,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="249"/>
+      <c r="A53" s="247"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -19979,50 +19979,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="201"/>
-      <c r="AS1" s="201"/>
-      <c r="AT1" s="201"/>
-      <c r="AU1" s="201"/>
-      <c r="AV1" s="201"/>
-      <c r="AW1" s="201"/>
-      <c r="AX1" s="201"/>
-      <c r="AY1" s="201"/>
-      <c r="AZ1" s="201"/>
-      <c r="BA1" s="201"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="210"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="218"/>
+      <c r="AK1" s="218"/>
+      <c r="AL1" s="218"/>
+      <c r="AM1" s="218"/>
+      <c r="AN1" s="219"/>
+      <c r="AO1" s="219"/>
+      <c r="AP1" s="219"/>
+      <c r="AQ1" s="219"/>
+      <c r="AR1" s="219"/>
+      <c r="AS1" s="219"/>
+      <c r="AT1" s="219"/>
+      <c r="AU1" s="219"/>
+      <c r="AV1" s="219"/>
+      <c r="AW1" s="219"/>
+      <c r="AX1" s="219"/>
+      <c r="AY1" s="219"/>
+      <c r="AZ1" s="219"/>
+      <c r="BA1" s="219"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="204" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -20059,33 +20059,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="201"/>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="217"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="219"/>
+      <c r="AJ2" s="219"/>
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="219"/>
+      <c r="AR2" s="219"/>
+      <c r="AS2" s="219"/>
+      <c r="AT2" s="219"/>
+      <c r="AU2" s="219"/>
+      <c r="AV2" s="219"/>
+      <c r="AW2" s="219"/>
+      <c r="AX2" s="219"/>
+      <c r="AY2" s="219"/>
+      <c r="AZ2" s="219"/>
+      <c r="BA2" s="219"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="215"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -20143,7 +20143,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="215"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -20204,7 +20204,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="216"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -20354,7 +20354,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="204" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -20409,7 +20409,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="215"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -20460,7 +20460,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="215"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -20507,7 +20507,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="215"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -20531,7 +20531,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="215"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -20555,7 +20555,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -20579,7 +20579,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="215"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -20603,7 +20603,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="216"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -20636,7 +20636,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="211" t="s">
+      <c r="A17" s="201" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -20662,7 +20662,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -20686,7 +20686,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="212"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -20710,7 +20710,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="212"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -20734,7 +20734,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="212"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="212"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -20782,7 +20782,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="212"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -20806,7 +20806,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="213"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -20850,7 +20850,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="214" t="s">
+      <c r="A27" s="204" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -20873,7 +20873,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="215"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -20894,7 +20894,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="216"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -20944,10 +20944,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="211" t="s">
+      <c r="A34" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="207" t="str">
+      <c r="B34" s="213" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -20968,8 +20968,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="212"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="202"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -20984,8 +20984,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="212"/>
-      <c r="B36" s="208"/>
+      <c r="A36" s="202"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -21000,8 +21000,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="212"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="202"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -21016,8 +21016,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="212"/>
-      <c r="B38" s="208"/>
+      <c r="A38" s="202"/>
+      <c r="B38" s="214"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -21032,8 +21032,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="212"/>
-      <c r="B39" s="208"/>
+      <c r="A39" s="202"/>
+      <c r="B39" s="214"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -21045,8 +21045,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="212"/>
-      <c r="B40" s="208"/>
+      <c r="A40" s="202"/>
+      <c r="B40" s="214"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -21058,8 +21058,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="212"/>
-      <c r="B41" s="208" t="str">
+      <c r="A41" s="202"/>
+      <c r="B41" s="214" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -21074,8 +21074,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="212"/>
-      <c r="B42" s="208"/>
+      <c r="A42" s="202"/>
+      <c r="B42" s="214"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -21087,8 +21087,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="212"/>
-      <c r="B43" s="208"/>
+      <c r="A43" s="202"/>
+      <c r="B43" s="214"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -21100,8 +21100,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="212"/>
-      <c r="B44" s="208"/>
+      <c r="A44" s="202"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -21113,8 +21113,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="212"/>
-      <c r="B45" s="208"/>
+      <c r="A45" s="202"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -21126,8 +21126,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="212"/>
-      <c r="B46" s="208"/>
+      <c r="A46" s="202"/>
+      <c r="B46" s="214"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -21139,8 +21139,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="212"/>
-      <c r="B47" s="208" t="str">
+      <c r="A47" s="202"/>
+      <c r="B47" s="214" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -21155,8 +21155,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="212"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="202"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -21168,8 +21168,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="212"/>
-      <c r="B49" s="208"/>
+      <c r="A49" s="202"/>
+      <c r="B49" s="214"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -21181,8 +21181,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="212"/>
-      <c r="B50" s="208"/>
+      <c r="A50" s="202"/>
+      <c r="B50" s="214"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -21194,8 +21194,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="212"/>
-      <c r="B51" s="208"/>
+      <c r="A51" s="202"/>
+      <c r="B51" s="214"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -21207,8 +21207,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="212"/>
-      <c r="B52" s="208" t="str">
+      <c r="A52" s="202"/>
+      <c r="B52" s="214" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -21223,8 +21223,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="212"/>
-      <c r="B53" s="208"/>
+      <c r="A53" s="202"/>
+      <c r="B53" s="214"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -21236,8 +21236,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="212"/>
-      <c r="B54" s="208"/>
+      <c r="A54" s="202"/>
+      <c r="B54" s="214"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -21249,8 +21249,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="212"/>
-      <c r="B55" s="208" t="str">
+      <c r="A55" s="202"/>
+      <c r="B55" s="214" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -21265,8 +21265,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="212"/>
-      <c r="B56" s="208"/>
+      <c r="A56" s="202"/>
+      <c r="B56" s="214"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -21278,8 +21278,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="213"/>
-      <c r="B57" s="209"/>
+      <c r="A57" s="203"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -21294,10 +21294,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="217" t="s">
+      <c r="A59" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="210" t="s">
+      <c r="B59" s="216" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -21314,8 +21314,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="218"/>
-      <c r="B60" s="205"/>
+      <c r="A60" s="208"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -21333,8 +21333,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="218"/>
-      <c r="B61" s="205"/>
+      <c r="A61" s="208"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -21349,8 +21349,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="218"/>
-      <c r="B62" s="205"/>
+      <c r="A62" s="208"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -21365,8 +21365,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="218"/>
-      <c r="B63" s="205"/>
+      <c r="A63" s="208"/>
+      <c r="B63" s="211"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -21381,8 +21381,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="218"/>
-      <c r="B64" s="205"/>
+      <c r="A64" s="208"/>
+      <c r="B64" s="211"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -21397,8 +21397,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="218"/>
-      <c r="B65" s="205"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="211"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -21411,8 +21411,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="218"/>
-      <c r="B66" s="205" t="str">
+      <c r="A66" s="208"/>
+      <c r="B66" s="211" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -21428,8 +21428,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="218"/>
-      <c r="B67" s="205"/>
+      <c r="A67" s="208"/>
+      <c r="B67" s="211"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -21441,8 +21441,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="218"/>
-      <c r="B68" s="205"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -21454,8 +21454,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="218"/>
-      <c r="B69" s="205"/>
+      <c r="A69" s="208"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -21467,8 +21467,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="218"/>
-      <c r="B70" s="205"/>
+      <c r="A70" s="208"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -21480,8 +21480,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="218"/>
-      <c r="B71" s="205"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -21493,8 +21493,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="218"/>
-      <c r="B72" s="205"/>
+      <c r="A72" s="208"/>
+      <c r="B72" s="211"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -21506,8 +21506,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="218"/>
-      <c r="B73" s="205" t="str">
+      <c r="A73" s="208"/>
+      <c r="B73" s="211" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -21522,8 +21522,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="218"/>
-      <c r="B74" s="205"/>
+      <c r="A74" s="208"/>
+      <c r="B74" s="211"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -21535,8 +21535,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="218"/>
-      <c r="B75" s="205"/>
+      <c r="A75" s="208"/>
+      <c r="B75" s="211"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -21548,8 +21548,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="218"/>
-      <c r="B76" s="205"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="211"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -21561,8 +21561,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="218"/>
-      <c r="B77" s="205"/>
+      <c r="A77" s="208"/>
+      <c r="B77" s="211"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -21574,8 +21574,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="218"/>
-      <c r="B78" s="205"/>
+      <c r="A78" s="208"/>
+      <c r="B78" s="211"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -21587,8 +21587,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="218"/>
-      <c r="B79" s="205"/>
+      <c r="A79" s="208"/>
+      <c r="B79" s="211"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -21600,8 +21600,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="218"/>
-      <c r="B80" s="205" t="str">
+      <c r="A80" s="208"/>
+      <c r="B80" s="211" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -21616,8 +21616,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="218"/>
-      <c r="B81" s="205"/>
+      <c r="A81" s="208"/>
+      <c r="B81" s="211"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -21629,8 +21629,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="218"/>
-      <c r="B82" s="205"/>
+      <c r="A82" s="208"/>
+      <c r="B82" s="211"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -21642,8 +21642,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="218"/>
-      <c r="B83" s="205" t="str">
+      <c r="A83" s="208"/>
+      <c r="B83" s="211" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -21658,8 +21658,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="218"/>
-      <c r="B84" s="205"/>
+      <c r="A84" s="208"/>
+      <c r="B84" s="211"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -21671,8 +21671,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="219"/>
-      <c r="B85" s="206"/>
+      <c r="A85" s="209"/>
+      <c r="B85" s="212"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -21699,13 +21699,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -21718,21 +21726,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22451,11 +22451,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22680,20 +22681,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22718,9 +22716,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72AF21-2381-4384-87DE-35BB1C91BBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E552CF2-BAAE-48C7-AC31-0C89EAA376B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="19" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -5446,35 +5446,36 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5502,6 +5503,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5557,12 +5588,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5581,39 +5606,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -20877,65 +20877,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="268" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="266" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="277" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="266" t="s">
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="266" t="s">
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="277" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="267"/>
-      <c r="T1" s="266" t="s">
+      <c r="P1" s="279"/>
+      <c r="Q1" s="279"/>
+      <c r="R1" s="279"/>
+      <c r="S1" s="278"/>
+      <c r="T1" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="267"/>
-      <c r="V1" s="263" t="s">
+      <c r="U1" s="278"/>
+      <c r="V1" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="264"/>
-      <c r="X1" s="264"/>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="264"/>
-      <c r="AD1" s="264"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="260" t="s">
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="271" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="261"/>
-      <c r="AH1" s="261"/>
-      <c r="AI1" s="261"/>
-      <c r="AJ1" s="261"/>
-      <c r="AK1" s="261"/>
-      <c r="AL1" s="261"/>
-      <c r="AM1" s="261"/>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AG1" s="272"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="272"/>
+      <c r="AJ1" s="272"/>
+      <c r="AK1" s="272"/>
+      <c r="AL1" s="272"/>
+      <c r="AM1" s="272"/>
+      <c r="AN1" s="272"/>
+      <c r="AO1" s="272"/>
+      <c r="AP1" s="272"/>
+      <c r="AQ1" s="272"/>
+      <c r="AR1" s="272"/>
+      <c r="AS1" s="273"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -21998,20 +21998,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="228"/>
-      <c r="AO1" s="228"/>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="228"/>
-      <c r="AR1" s="228"/>
-      <c r="AS1" s="228"/>
-      <c r="AT1" s="228"/>
-      <c r="AU1" s="228"/>
-      <c r="AV1" s="228"/>
-      <c r="AW1" s="228"/>
-      <c r="AX1" s="228"/>
-      <c r="AY1" s="228"/>
-      <c r="AZ1" s="228"/>
-      <c r="BA1" s="228"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="257"/>
+      <c r="AT1" s="257"/>
+      <c r="AU1" s="257"/>
+      <c r="AV1" s="257"/>
+      <c r="AW1" s="257"/>
+      <c r="AX1" s="257"/>
+      <c r="AY1" s="257"/>
+      <c r="AZ1" s="257"/>
+      <c r="BA1" s="257"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22030,7 +22030,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="271" t="s">
+      <c r="H2" s="280" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22052,7 +22052,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="271" t="s">
+      <c r="P2" s="280" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22083,10 +22083,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="274" t="s">
+      <c r="AC2" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="269" t="s">
+      <c r="AD2" s="286" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22098,26 +22098,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="228"/>
-      <c r="AJ2" s="228"/>
-      <c r="AK2" s="228"/>
-      <c r="AL2" s="228"/>
-      <c r="AM2" s="228"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="228"/>
-      <c r="AP2" s="228"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="228"/>
-      <c r="AS2" s="228"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="228"/>
-      <c r="AW2" s="228"/>
-      <c r="AX2" s="228"/>
-      <c r="AY2" s="228"/>
-      <c r="AZ2" s="228"/>
-      <c r="BA2" s="228"/>
+      <c r="AH2" s="257"/>
+      <c r="AI2" s="257"/>
+      <c r="AJ2" s="257"/>
+      <c r="AK2" s="257"/>
+      <c r="AL2" s="257"/>
+      <c r="AM2" s="257"/>
+      <c r="AN2" s="257"/>
+      <c r="AO2" s="257"/>
+      <c r="AP2" s="257"/>
+      <c r="AQ2" s="257"/>
+      <c r="AR2" s="257"/>
+      <c r="AS2" s="257"/>
+      <c r="AT2" s="257"/>
+      <c r="AU2" s="257"/>
+      <c r="AV2" s="257"/>
+      <c r="AW2" s="257"/>
+      <c r="AX2" s="257"/>
+      <c r="AY2" s="257"/>
+      <c r="AZ2" s="257"/>
+      <c r="BA2" s="257"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22138,7 +22138,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="272"/>
+      <c r="H3" s="281"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="272"/>
+      <c r="P3" s="281"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22179,8 +22179,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="275"/>
-      <c r="AD3" s="232"/>
+      <c r="AC3" s="284"/>
+      <c r="AD3" s="249"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22225,7 +22225,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="272"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="273"/>
+      <c r="P4" s="282"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22265,8 +22265,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="275"/>
-      <c r="AD4" s="232"/>
+      <c r="AC4" s="284"/>
+      <c r="AD4" s="249"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22314,7 +22314,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="272"/>
+      <c r="H5" s="281"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22339,8 +22339,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="275"/>
-      <c r="AD5" s="232"/>
+      <c r="AC5" s="284"/>
+      <c r="AD5" s="249"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22373,7 +22373,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="272"/>
+      <c r="H6" s="281"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22400,8 +22400,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="275"/>
-      <c r="AD6" s="232"/>
+      <c r="AC6" s="284"/>
+      <c r="AD6" s="249"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22439,7 +22439,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="272"/>
+      <c r="H7" s="281"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22466,8 +22466,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="275"/>
-      <c r="AD7" s="232"/>
+      <c r="AC7" s="284"/>
+      <c r="AD7" s="249"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22502,7 +22502,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="272"/>
+      <c r="H8" s="281"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22529,8 +22529,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="232"/>
+      <c r="AC8" s="284"/>
+      <c r="AD8" s="249"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22565,7 +22565,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="273"/>
+      <c r="H9" s="282"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22592,8 +22592,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="275"/>
-      <c r="AD9" s="232" t="s">
+      <c r="AC9" s="284"/>
+      <c r="AD9" s="249" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22636,8 +22636,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="275"/>
-      <c r="AD10" s="232"/>
+      <c r="AC10" s="284"/>
+      <c r="AD10" s="249"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22670,7 +22670,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="274" t="s">
+      <c r="H11" s="283" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22691,8 +22691,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="275"/>
-      <c r="AD11" s="232"/>
+      <c r="AC11" s="284"/>
+      <c r="AD11" s="249"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="275"/>
+      <c r="H12" s="284"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22730,8 +22730,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="275"/>
-      <c r="AD12" s="232"/>
+      <c r="AC12" s="284"/>
+      <c r="AD12" s="249"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -22750,7 +22750,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="275"/>
+      <c r="H13" s="284"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -22769,8 +22769,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="275"/>
-      <c r="AD13" s="232"/>
+      <c r="AC13" s="284"/>
+      <c r="AD13" s="249"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -22789,7 +22789,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="275"/>
+      <c r="H14" s="284"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -22808,8 +22808,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="275"/>
-      <c r="AD14" s="232"/>
+      <c r="AC14" s="284"/>
+      <c r="AD14" s="249"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -22828,7 +22828,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="275"/>
+      <c r="H15" s="284"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -22847,8 +22847,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="275"/>
-      <c r="AD15" s="232" t="s">
+      <c r="AC15" s="284"/>
+      <c r="AD15" s="249" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -22866,7 +22866,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="275"/>
+      <c r="H16" s="284"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -22885,8 +22885,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="275"/>
-      <c r="AD16" s="232"/>
+      <c r="AC16" s="284"/>
+      <c r="AD16" s="249"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -22905,7 +22905,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="275"/>
+      <c r="H17" s="284"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -22924,8 +22924,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="275"/>
-      <c r="AD17" s="232"/>
+      <c r="AC17" s="284"/>
+      <c r="AD17" s="249"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -22944,7 +22944,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="276"/>
+      <c r="H18" s="285"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -22963,8 +22963,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="275"/>
-      <c r="AD18" s="232"/>
+      <c r="AC18" s="284"/>
+      <c r="AD18" s="249"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -22983,8 +22983,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="275"/>
-      <c r="AD19" s="232"/>
+      <c r="AC19" s="284"/>
+      <c r="AD19" s="249"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23003,8 +23003,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="275"/>
-      <c r="AD20" s="232" t="s">
+      <c r="AC20" s="284"/>
+      <c r="AD20" s="249" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23025,8 +23025,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="275"/>
-      <c r="AD21" s="232"/>
+      <c r="AC21" s="284"/>
+      <c r="AD21" s="249"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23045,8 +23045,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="275"/>
-      <c r="AD22" s="232"/>
+      <c r="AC22" s="284"/>
+      <c r="AD22" s="249"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23065,8 +23065,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="275"/>
-      <c r="AD23" s="232" t="s">
+      <c r="AC23" s="284"/>
+      <c r="AD23" s="249" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23087,8 +23087,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="275"/>
-      <c r="AD24" s="232"/>
+      <c r="AC24" s="284"/>
+      <c r="AD24" s="249"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23101,8 +23101,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="270"/>
+      <c r="AC25" s="285"/>
+      <c r="AD25" s="287"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23119,10 +23119,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="274" t="s">
+      <c r="AC27" s="283" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="269" t="s">
+      <c r="AD27" s="286" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23139,8 +23139,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="275"/>
-      <c r="AD28" s="232"/>
+      <c r="AC28" s="284"/>
+      <c r="AD28" s="249"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23155,8 +23155,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="275"/>
-      <c r="AD29" s="232"/>
+      <c r="AC29" s="284"/>
+      <c r="AD29" s="249"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23168,8 +23168,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="275"/>
-      <c r="AD30" s="232"/>
+      <c r="AC30" s="284"/>
+      <c r="AD30" s="249"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23183,8 +23183,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="275"/>
-      <c r="AD31" s="232"/>
+      <c r="AC31" s="284"/>
+      <c r="AD31" s="249"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23196,8 +23196,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="275"/>
-      <c r="AD32" s="232"/>
+      <c r="AC32" s="284"/>
+      <c r="AD32" s="249"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23210,8 +23210,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="275"/>
-      <c r="AD33" s="232"/>
+      <c r="AC33" s="284"/>
+      <c r="AD33" s="249"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23228,8 +23228,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="275"/>
-      <c r="AD34" s="232" t="s">
+      <c r="AC34" s="284"/>
+      <c r="AD34" s="249" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23248,8 +23248,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="275"/>
-      <c r="AD35" s="232"/>
+      <c r="AC35" s="284"/>
+      <c r="AD35" s="249"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23266,8 +23266,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="275"/>
-      <c r="AD36" s="232"/>
+      <c r="AC36" s="284"/>
+      <c r="AD36" s="249"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23284,8 +23284,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="275"/>
-      <c r="AD37" s="232"/>
+      <c r="AC37" s="284"/>
+      <c r="AD37" s="249"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23302,8 +23302,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="275"/>
-      <c r="AD38" s="232"/>
+      <c r="AC38" s="284"/>
+      <c r="AD38" s="249"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23320,8 +23320,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="275"/>
-      <c r="AD39" s="232"/>
+      <c r="AC39" s="284"/>
+      <c r="AD39" s="249"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23338,8 +23338,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="275"/>
-      <c r="AD40" s="232"/>
+      <c r="AC40" s="284"/>
+      <c r="AD40" s="249"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23356,8 +23356,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="275"/>
-      <c r="AD41" s="232" t="s">
+      <c r="AC41" s="284"/>
+      <c r="AD41" s="249" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23376,8 +23376,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="275"/>
-      <c r="AD42" s="232"/>
+      <c r="AC42" s="284"/>
+      <c r="AD42" s="249"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23394,8 +23394,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="275"/>
-      <c r="AD43" s="232"/>
+      <c r="AC43" s="284"/>
+      <c r="AD43" s="249"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23412,8 +23412,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="275"/>
-      <c r="AD44" s="232"/>
+      <c r="AC44" s="284"/>
+      <c r="AD44" s="249"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23430,8 +23430,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="275"/>
-      <c r="AD45" s="232"/>
+      <c r="AC45" s="284"/>
+      <c r="AD45" s="249"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23448,8 +23448,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="275"/>
-      <c r="AD46" s="232"/>
+      <c r="AC46" s="284"/>
+      <c r="AD46" s="249"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23466,8 +23466,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="275"/>
-      <c r="AD47" s="232"/>
+      <c r="AC47" s="284"/>
+      <c r="AD47" s="249"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23484,8 +23484,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="275"/>
-      <c r="AD48" s="232" t="s">
+      <c r="AC48" s="284"/>
+      <c r="AD48" s="249" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23504,8 +23504,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="275"/>
-      <c r="AD49" s="232"/>
+      <c r="AC49" s="284"/>
+      <c r="AD49" s="249"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23522,8 +23522,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="275"/>
-      <c r="AD50" s="232"/>
+      <c r="AC50" s="284"/>
+      <c r="AD50" s="249"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23540,8 +23540,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="275"/>
-      <c r="AD51" s="232" t="s">
+      <c r="AC51" s="284"/>
+      <c r="AD51" s="249" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23560,8 +23560,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="275"/>
-      <c r="AD52" s="232"/>
+      <c r="AC52" s="284"/>
+      <c r="AD52" s="249"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23578,8 +23578,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="275"/>
-      <c r="AD53" s="232"/>
+      <c r="AC53" s="284"/>
+      <c r="AD53" s="249"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23596,7 +23596,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="275"/>
+      <c r="AC54" s="284"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23616,7 +23616,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="276"/>
+      <c r="AC55" s="285"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -23849,11 +23849,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -23870,11 +23870,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23933,8 +23933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24194,8 +24194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24237,7 +24237,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="288" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -24260,7 +24260,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="272"/>
+      <c r="A3" s="281"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24281,7 +24281,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="272"/>
+      <c r="A4" s="281"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24302,7 +24302,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="272"/>
+      <c r="A5" s="281"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24323,7 +24323,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="272"/>
+      <c r="A6" s="281"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24344,7 +24344,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="272"/>
+      <c r="A7" s="281"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24365,7 +24365,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="272"/>
+      <c r="A8" s="281"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24386,7 +24386,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="273"/>
+      <c r="A9" s="282"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24407,7 +24407,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="271" t="s">
+      <c r="A10" s="280" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24430,7 +24430,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="272"/>
+      <c r="A11" s="281"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24451,7 +24451,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="272"/>
+      <c r="A12" s="281"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24472,7 +24472,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="272"/>
+      <c r="A13" s="281"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24493,7 +24493,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="272"/>
+      <c r="A14" s="281"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24514,7 +24514,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="272"/>
+      <c r="A15" s="281"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24535,7 +24535,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="272"/>
+      <c r="A16" s="281"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24556,7 +24556,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="273"/>
+      <c r="A17" s="282"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -24577,15 +24577,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="279" t="s">
+      <c r="A19" s="229" t="s">
         <v>1087</v>
       </c>
-      <c r="E19" s="279" t="s">
+      <c r="E19" s="229" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="277" t="s">
+      <c r="A20" s="228" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -24594,7 +24594,7 @@
       <c r="C20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="277" t="s">
+      <c r="E20" s="228" t="s">
         <v>91</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -24608,16 +24608,16 @@
       <c r="A21" s="220" t="s">
         <v>1079</v>
       </c>
-      <c r="B21" s="287" t="s">
+      <c r="B21" s="237" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="222">
         <v>0.11027000000000001</v>
       </c>
-      <c r="E21" s="280" t="s">
+      <c r="E21" s="230" t="s">
         <v>1079</v>
       </c>
-      <c r="F21" s="283" t="s">
+      <c r="F21" s="233" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="222">
@@ -24628,16 +24628,16 @@
       <c r="A22" s="223" t="s">
         <v>1080</v>
       </c>
-      <c r="B22" s="286" t="s">
+      <c r="B22" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="224">
         <v>0.13206999999999999</v>
       </c>
-      <c r="E22" s="281" t="s">
+      <c r="E22" s="231" t="s">
         <v>1080</v>
       </c>
-      <c r="F22" s="284" t="s">
+      <c r="F22" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G22" s="224">
@@ -24648,16 +24648,16 @@
       <c r="A23" s="223" t="s">
         <v>1081</v>
       </c>
-      <c r="B23" s="286" t="s">
+      <c r="B23" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="224">
         <v>0.18171999999999999</v>
       </c>
-      <c r="E23" s="281" t="s">
+      <c r="E23" s="231" t="s">
         <v>1081</v>
       </c>
-      <c r="F23" s="284" t="s">
+      <c r="F23" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G23" s="224">
@@ -24668,16 +24668,16 @@
       <c r="A24" s="223" t="s">
         <v>1082</v>
       </c>
-      <c r="B24" s="286" t="s">
+      <c r="B24" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="224">
         <v>0.16044</v>
       </c>
-      <c r="E24" s="281" t="s">
+      <c r="E24" s="231" t="s">
         <v>1082</v>
       </c>
-      <c r="F24" s="284" t="s">
+      <c r="F24" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G24" s="224">
@@ -24688,16 +24688,16 @@
       <c r="A25" s="223" t="s">
         <v>1083</v>
       </c>
-      <c r="B25" s="286" t="s">
+      <c r="B25" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="224">
         <v>0.14831</v>
       </c>
-      <c r="E25" s="281" t="s">
+      <c r="E25" s="231" t="s">
         <v>1083</v>
       </c>
-      <c r="F25" s="284" t="s">
+      <c r="F25" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="224">
@@ -24708,16 +24708,16 @@
       <c r="A26" s="223" t="s">
         <v>1084</v>
       </c>
-      <c r="B26" s="286" t="s">
+      <c r="B26" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="224">
         <v>0.15178</v>
       </c>
-      <c r="E26" s="281" t="s">
+      <c r="E26" s="231" t="s">
         <v>1084</v>
       </c>
-      <c r="F26" s="284" t="s">
+      <c r="F26" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="224">
@@ -24728,16 +24728,16 @@
       <c r="A27" s="223" t="s">
         <v>1085</v>
       </c>
-      <c r="B27" s="286" t="s">
+      <c r="B27" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="224">
         <v>0.15162</v>
       </c>
-      <c r="E27" s="281" t="s">
+      <c r="E27" s="231" t="s">
         <v>1085</v>
       </c>
-      <c r="F27" s="284" t="s">
+      <c r="F27" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G27" s="224">
@@ -24748,16 +24748,16 @@
       <c r="A28" s="223" t="s">
         <v>1086</v>
       </c>
-      <c r="B28" s="286" t="s">
+      <c r="B28" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="224">
         <v>0.15526999999999999</v>
       </c>
-      <c r="E28" s="281" t="s">
+      <c r="E28" s="231" t="s">
         <v>1086</v>
       </c>
-      <c r="F28" s="284" t="s">
+      <c r="F28" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="224">
@@ -24768,16 +24768,16 @@
       <c r="A29" s="223" t="s">
         <v>1089</v>
       </c>
-      <c r="B29" s="286" t="s">
+      <c r="B29" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C29" s="224">
         <v>0.11985</v>
       </c>
-      <c r="E29" s="281" t="s">
+      <c r="E29" s="231" t="s">
         <v>1089</v>
       </c>
-      <c r="F29" s="284" t="s">
+      <c r="F29" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="224">
@@ -24788,16 +24788,16 @@
       <c r="A30" s="223" t="s">
         <v>1090</v>
       </c>
-      <c r="B30" s="286" t="s">
+      <c r="B30" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="224">
         <v>0.15093999999999999</v>
       </c>
-      <c r="E30" s="281" t="s">
+      <c r="E30" s="231" t="s">
         <v>1090</v>
       </c>
-      <c r="F30" s="284" t="s">
+      <c r="F30" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G30" s="224">
@@ -24808,16 +24808,16 @@
       <c r="A31" s="223" t="s">
         <v>1091</v>
       </c>
-      <c r="B31" s="286" t="s">
+      <c r="B31" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="224">
         <v>0.22159999999999999</v>
       </c>
-      <c r="E31" s="281" t="s">
+      <c r="E31" s="231" t="s">
         <v>1091</v>
       </c>
-      <c r="F31" s="284" t="s">
+      <c r="F31" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G31" s="224">
@@ -24828,16 +24828,16 @@
       <c r="A32" s="223" t="s">
         <v>1092</v>
       </c>
-      <c r="B32" s="286" t="s">
+      <c r="B32" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="224">
         <v>0.19131000000000001</v>
       </c>
-      <c r="E32" s="281" t="s">
+      <c r="E32" s="231" t="s">
         <v>1092</v>
       </c>
-      <c r="F32" s="284" t="s">
+      <c r="F32" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G32" s="224">
@@ -24848,16 +24848,16 @@
       <c r="A33" s="223" t="s">
         <v>1093</v>
       </c>
-      <c r="B33" s="286" t="s">
+      <c r="B33" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="224">
         <v>0.18537999999999999</v>
       </c>
-      <c r="E33" s="281" t="s">
+      <c r="E33" s="231" t="s">
         <v>1093</v>
       </c>
-      <c r="F33" s="284" t="s">
+      <c r="F33" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G33" s="224">
@@ -24868,16 +24868,16 @@
       <c r="A34" s="223" t="s">
         <v>1094</v>
       </c>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="224">
         <v>0.20236999999999999</v>
       </c>
-      <c r="E34" s="281" t="s">
+      <c r="E34" s="231" t="s">
         <v>1094</v>
       </c>
-      <c r="F34" s="284" t="s">
+      <c r="F34" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G34" s="224">
@@ -24888,16 +24888,16 @@
       <c r="A35" s="223" t="s">
         <v>1095</v>
       </c>
-      <c r="B35" s="286" t="s">
+      <c r="B35" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="224">
         <v>0.20158999999999999</v>
       </c>
-      <c r="E35" s="281" t="s">
+      <c r="E35" s="231" t="s">
         <v>1095</v>
       </c>
-      <c r="F35" s="284" t="s">
+      <c r="F35" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G35" s="224">
@@ -24908,16 +24908,16 @@
       <c r="A36" s="223" t="s">
         <v>1096</v>
       </c>
-      <c r="B36" s="286" t="s">
+      <c r="B36" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="224">
         <v>0.19733999999999999</v>
       </c>
-      <c r="E36" s="281" t="s">
+      <c r="E36" s="231" t="s">
         <v>1096</v>
       </c>
-      <c r="F36" s="284" t="s">
+      <c r="F36" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="224">
@@ -24928,16 +24928,16 @@
       <c r="A37" s="223" t="s">
         <v>1097</v>
       </c>
-      <c r="B37" s="286" t="s">
+      <c r="B37" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="224">
         <v>0.12944</v>
       </c>
-      <c r="E37" s="281" t="s">
+      <c r="E37" s="231" t="s">
         <v>1097</v>
       </c>
-      <c r="F37" s="284" t="s">
+      <c r="F37" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G37" s="224">
@@ -24948,16 +24948,16 @@
       <c r="A38" s="223" t="s">
         <v>1098</v>
       </c>
-      <c r="B38" s="286" t="s">
+      <c r="B38" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="224">
         <v>0.16980999999999999</v>
       </c>
-      <c r="E38" s="281" t="s">
+      <c r="E38" s="231" t="s">
         <v>1098</v>
       </c>
-      <c r="F38" s="284" t="s">
+      <c r="F38" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G38" s="224">
@@ -24968,16 +24968,16 @@
       <c r="A39" s="223" t="s">
         <v>1099</v>
       </c>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="224">
         <v>0.26149</v>
       </c>
-      <c r="E39" s="281" t="s">
+      <c r="E39" s="231" t="s">
         <v>1099</v>
       </c>
-      <c r="F39" s="284" t="s">
+      <c r="F39" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="224">
@@ -24988,16 +24988,16 @@
       <c r="A40" s="223" t="s">
         <v>1100</v>
       </c>
-      <c r="B40" s="286" t="s">
+      <c r="B40" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="224">
         <v>0.22217999999999999</v>
       </c>
-      <c r="E40" s="281" t="s">
+      <c r="E40" s="231" t="s">
         <v>1100</v>
       </c>
-      <c r="F40" s="284" t="s">
+      <c r="F40" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G40" s="224">
@@ -25008,16 +25008,16 @@
       <c r="A41" s="223" t="s">
         <v>1101</v>
       </c>
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="224">
         <v>0.22245999999999999</v>
       </c>
-      <c r="E41" s="281" t="s">
+      <c r="E41" s="231" t="s">
         <v>1101</v>
       </c>
-      <c r="F41" s="284" t="s">
+      <c r="F41" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G41" s="224">
@@ -25028,16 +25028,16 @@
       <c r="A42" s="223" t="s">
         <v>1102</v>
       </c>
-      <c r="B42" s="286" t="s">
+      <c r="B42" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C42" s="224">
         <v>0.25296000000000002</v>
       </c>
-      <c r="E42" s="281" t="s">
+      <c r="E42" s="231" t="s">
         <v>1102</v>
       </c>
-      <c r="F42" s="284" t="s">
+      <c r="F42" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G42" s="224">
@@ -25048,16 +25048,16 @@
       <c r="A43" s="223" t="s">
         <v>1103</v>
       </c>
-      <c r="B43" s="286" t="s">
+      <c r="B43" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="224">
         <v>0.25157000000000002</v>
       </c>
-      <c r="E43" s="281" t="s">
+      <c r="E43" s="231" t="s">
         <v>1103</v>
       </c>
-      <c r="F43" s="284" t="s">
+      <c r="F43" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G43" s="224">
@@ -25068,16 +25068,16 @@
       <c r="A44" s="223" t="s">
         <v>1104</v>
       </c>
-      <c r="B44" s="286" t="s">
+      <c r="B44" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="224">
         <v>0.23941999999999999</v>
       </c>
-      <c r="E44" s="281" t="s">
+      <c r="E44" s="231" t="s">
         <v>1104</v>
       </c>
-      <c r="F44" s="284" t="s">
+      <c r="F44" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G44" s="224">
@@ -25088,16 +25088,16 @@
       <c r="A45" s="223" t="s">
         <v>1112</v>
       </c>
-      <c r="B45" s="286" t="s">
+      <c r="B45" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="224">
         <v>0.11851</v>
       </c>
-      <c r="E45" s="281" t="s">
+      <c r="E45" s="231" t="s">
         <v>1112</v>
       </c>
-      <c r="F45" s="284" t="s">
+      <c r="F45" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G45" s="224">
@@ -25108,16 +25108,16 @@
       <c r="A46" s="223" t="s">
         <v>1111</v>
       </c>
-      <c r="B46" s="286" t="s">
+      <c r="B46" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="224">
         <v>0.14452999999999999</v>
       </c>
-      <c r="E46" s="281" t="s">
+      <c r="E46" s="231" t="s">
         <v>1111</v>
       </c>
-      <c r="F46" s="284" t="s">
+      <c r="F46" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G46" s="224">
@@ -25128,16 +25128,16 @@
       <c r="A47" s="223" t="s">
         <v>1110</v>
       </c>
-      <c r="B47" s="286" t="s">
+      <c r="B47" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="224">
         <v>0.23755999999999999</v>
       </c>
-      <c r="E47" s="281" t="s">
+      <c r="E47" s="231" t="s">
         <v>1110</v>
       </c>
-      <c r="F47" s="284" t="s">
+      <c r="F47" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G47" s="224">
@@ -25148,16 +25148,16 @@
       <c r="A48" s="223" t="s">
         <v>1109</v>
       </c>
-      <c r="B48" s="286" t="s">
+      <c r="B48" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="224">
         <v>0.20099</v>
       </c>
-      <c r="E48" s="281" t="s">
+      <c r="E48" s="231" t="s">
         <v>1109</v>
       </c>
-      <c r="F48" s="284" t="s">
+      <c r="F48" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G48" s="224">
@@ -25168,16 +25168,16 @@
       <c r="A49" s="223" t="s">
         <v>1108</v>
       </c>
-      <c r="B49" s="286" t="s">
+      <c r="B49" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="224">
         <v>0.18537999999999999</v>
       </c>
-      <c r="E49" s="281" t="s">
+      <c r="E49" s="231" t="s">
         <v>1108</v>
       </c>
-      <c r="F49" s="284" t="s">
+      <c r="F49" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G49" s="224">
@@ -25188,16 +25188,16 @@
       <c r="A50" s="223" t="s">
         <v>1107</v>
       </c>
-      <c r="B50" s="286" t="s">
+      <c r="B50" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="224">
         <v>0.22058</v>
       </c>
-      <c r="E50" s="281" t="s">
+      <c r="E50" s="231" t="s">
         <v>1107</v>
       </c>
-      <c r="F50" s="284" t="s">
+      <c r="F50" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G50" s="224">
@@ -25208,16 +25208,16 @@
       <c r="A51" s="223" t="s">
         <v>1106</v>
       </c>
-      <c r="B51" s="286" t="s">
+      <c r="B51" s="236" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="224">
         <v>0.21898000000000001</v>
       </c>
-      <c r="E51" s="281" t="s">
+      <c r="E51" s="231" t="s">
         <v>1106</v>
       </c>
-      <c r="F51" s="284" t="s">
+      <c r="F51" s="234" t="s">
         <v>99</v>
       </c>
       <c r="G51" s="224">
@@ -25228,16 +25228,16 @@
       <c r="A52" s="225" t="s">
         <v>1105</v>
       </c>
-      <c r="B52" s="288" t="s">
+      <c r="B52" s="238" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="227">
         <v>0.21154000000000001</v>
       </c>
-      <c r="E52" s="282" t="s">
+      <c r="E52" s="232" t="s">
         <v>1105</v>
       </c>
-      <c r="F52" s="285" t="s">
+      <c r="F52" s="235" t="s">
         <v>99</v>
       </c>
       <c r="G52" s="227">
@@ -25294,7 +25294,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="280" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25313,7 +25313,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="272"/>
+      <c r="A3" s="281"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25330,7 +25330,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="273"/>
+      <c r="A4" s="282"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25516,10 +25516,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="280" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="251" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25533,8 +25533,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="272"/>
-      <c r="B2" s="235"/>
+      <c r="A2" s="281"/>
+      <c r="B2" s="252"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25546,8 +25546,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="272"/>
-      <c r="B3" s="235"/>
+      <c r="A3" s="281"/>
+      <c r="B3" s="252"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -25559,8 +25559,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="272"/>
-      <c r="B4" s="235"/>
+      <c r="A4" s="281"/>
+      <c r="B4" s="252"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -25572,8 +25572,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="272"/>
-      <c r="B5" s="235"/>
+      <c r="A5" s="281"/>
+      <c r="B5" s="252"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -25585,8 +25585,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="272"/>
-      <c r="B6" s="235"/>
+      <c r="A6" s="281"/>
+      <c r="B6" s="252"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -25598,8 +25598,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="272"/>
-      <c r="B7" s="235"/>
+      <c r="A7" s="281"/>
+      <c r="B7" s="252"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -25611,8 +25611,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="272"/>
-      <c r="B8" s="235" t="s">
+      <c r="A8" s="281"/>
+      <c r="B8" s="252" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -25626,8 +25626,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="272"/>
-      <c r="B9" s="235"/>
+      <c r="A9" s="281"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -25639,8 +25639,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="272"/>
-      <c r="B10" s="235"/>
+      <c r="A10" s="281"/>
+      <c r="B10" s="252"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -25652,8 +25652,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="272"/>
-      <c r="B11" s="235"/>
+      <c r="A11" s="281"/>
+      <c r="B11" s="252"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -25665,8 +25665,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="272"/>
-      <c r="B12" s="235"/>
+      <c r="A12" s="281"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -25678,8 +25678,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="272"/>
-      <c r="B13" s="235"/>
+      <c r="A13" s="281"/>
+      <c r="B13" s="252"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -25691,8 +25691,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="272"/>
-      <c r="B14" s="235" t="s">
+      <c r="A14" s="281"/>
+      <c r="B14" s="252" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -25706,8 +25706,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="272"/>
-      <c r="B15" s="235"/>
+      <c r="A15" s="281"/>
+      <c r="B15" s="252"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -25719,8 +25719,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="272"/>
-      <c r="B16" s="235"/>
+      <c r="A16" s="281"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -25732,8 +25732,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="272"/>
-      <c r="B17" s="235"/>
+      <c r="A17" s="281"/>
+      <c r="B17" s="252"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -25745,8 +25745,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="272"/>
-      <c r="B18" s="235"/>
+      <c r="A18" s="281"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -25758,8 +25758,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
-      <c r="B19" s="235" t="s">
+      <c r="A19" s="281"/>
+      <c r="B19" s="252" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -25773,8 +25773,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="272"/>
-      <c r="B20" s="235"/>
+      <c r="A20" s="281"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -25786,8 +25786,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="272"/>
-      <c r="B21" s="235"/>
+      <c r="A21" s="281"/>
+      <c r="B21" s="252"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -25799,8 +25799,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="272"/>
-      <c r="B22" s="235" t="s">
+      <c r="A22" s="281"/>
+      <c r="B22" s="252" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -25814,8 +25814,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="272"/>
-      <c r="B23" s="235"/>
+      <c r="A23" s="281"/>
+      <c r="B23" s="252"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -25827,8 +25827,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="273"/>
-      <c r="B24" s="236"/>
+      <c r="A24" s="282"/>
+      <c r="B24" s="253"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -25840,10 +25840,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="274" t="s">
+      <c r="A25" s="283" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="251" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -25857,8 +25857,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="275"/>
-      <c r="B26" s="235"/>
+      <c r="A26" s="284"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -25870,8 +25870,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="275"/>
-      <c r="B27" s="235"/>
+      <c r="A27" s="284"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -25883,8 +25883,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="275"/>
-      <c r="B28" s="235"/>
+      <c r="A28" s="284"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -25896,8 +25896,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="275"/>
-      <c r="B29" s="235"/>
+      <c r="A29" s="284"/>
+      <c r="B29" s="252"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -25909,8 +25909,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="275"/>
-      <c r="B30" s="235"/>
+      <c r="A30" s="284"/>
+      <c r="B30" s="252"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -25922,8 +25922,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="275"/>
-      <c r="B31" s="235"/>
+      <c r="A31" s="284"/>
+      <c r="B31" s="252"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -25935,8 +25935,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="275"/>
-      <c r="B32" s="235" t="s">
+      <c r="A32" s="284"/>
+      <c r="B32" s="252" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -25950,8 +25950,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="275"/>
-      <c r="B33" s="235"/>
+      <c r="A33" s="284"/>
+      <c r="B33" s="252"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -25963,8 +25963,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="275"/>
-      <c r="B34" s="235"/>
+      <c r="A34" s="284"/>
+      <c r="B34" s="252"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -25976,8 +25976,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="275"/>
-      <c r="B35" s="235"/>
+      <c r="A35" s="284"/>
+      <c r="B35" s="252"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -25989,8 +25989,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="275"/>
-      <c r="B36" s="235"/>
+      <c r="A36" s="284"/>
+      <c r="B36" s="252"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -26002,8 +26002,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="275"/>
-      <c r="B37" s="235"/>
+      <c r="A37" s="284"/>
+      <c r="B37" s="252"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -26015,8 +26015,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="275"/>
-      <c r="B38" s="235"/>
+      <c r="A38" s="284"/>
+      <c r="B38" s="252"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -26028,8 +26028,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="275"/>
-      <c r="B39" s="235" t="s">
+      <c r="A39" s="284"/>
+      <c r="B39" s="252" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -26043,8 +26043,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="275"/>
-      <c r="B40" s="235"/>
+      <c r="A40" s="284"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26056,8 +26056,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="275"/>
-      <c r="B41" s="235"/>
+      <c r="A41" s="284"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26069,8 +26069,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="275"/>
-      <c r="B42" s="235"/>
+      <c r="A42" s="284"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26082,8 +26082,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="275"/>
-      <c r="B43" s="235"/>
+      <c r="A43" s="284"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26095,8 +26095,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="275"/>
-      <c r="B44" s="235"/>
+      <c r="A44" s="284"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26108,8 +26108,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="275"/>
-      <c r="B45" s="235"/>
+      <c r="A45" s="284"/>
+      <c r="B45" s="252"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26121,8 +26121,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="275"/>
-      <c r="B46" s="235" t="s">
+      <c r="A46" s="284"/>
+      <c r="B46" s="252" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26136,8 +26136,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="275"/>
-      <c r="B47" s="235"/>
+      <c r="A47" s="284"/>
+      <c r="B47" s="252"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -26149,8 +26149,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="275"/>
-      <c r="B48" s="235"/>
+      <c r="A48" s="284"/>
+      <c r="B48" s="252"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -26162,8 +26162,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="275"/>
-      <c r="B49" s="235" t="s">
+      <c r="A49" s="284"/>
+      <c r="B49" s="252" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -26177,8 +26177,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="275"/>
-      <c r="B50" s="235"/>
+      <c r="A50" s="284"/>
+      <c r="B50" s="252"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -26190,8 +26190,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="275"/>
-      <c r="B51" s="235"/>
+      <c r="A51" s="284"/>
+      <c r="B51" s="252"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26203,7 +26203,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="275"/>
+      <c r="A52" s="284"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -26218,7 +26218,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="276"/>
+      <c r="A53" s="285"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -26345,50 +26345,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="231"/>
-      <c r="AG1" s="231"/>
-      <c r="AH1" s="231"/>
-      <c r="AI1" s="231"/>
-      <c r="AJ1" s="231"/>
-      <c r="AK1" s="231"/>
-      <c r="AL1" s="231"/>
-      <c r="AM1" s="231"/>
-      <c r="AN1" s="228"/>
-      <c r="AO1" s="228"/>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="228"/>
-      <c r="AR1" s="228"/>
-      <c r="AS1" s="228"/>
-      <c r="AT1" s="228"/>
-      <c r="AU1" s="228"/>
-      <c r="AV1" s="228"/>
-      <c r="AW1" s="228"/>
-      <c r="AX1" s="228"/>
-      <c r="AY1" s="228"/>
-      <c r="AZ1" s="228"/>
-      <c r="BA1" s="228"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="256"/>
+      <c r="AE1" s="256"/>
+      <c r="AF1" s="256"/>
+      <c r="AG1" s="256"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="256"/>
+      <c r="AJ1" s="256"/>
+      <c r="AK1" s="256"/>
+      <c r="AL1" s="256"/>
+      <c r="AM1" s="256"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="257"/>
+      <c r="AT1" s="257"/>
+      <c r="AU1" s="257"/>
+      <c r="AV1" s="257"/>
+      <c r="AW1" s="257"/>
+      <c r="AX1" s="257"/>
+      <c r="AY1" s="257"/>
+      <c r="AZ1" s="257"/>
+      <c r="BA1" s="257"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="242" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -26425,33 +26425,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="230"/>
-      <c r="AE2" s="230"/>
-      <c r="AF2" s="230"/>
-      <c r="AG2" s="230"/>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="228"/>
-      <c r="AJ2" s="228"/>
-      <c r="AK2" s="228"/>
-      <c r="AL2" s="228"/>
-      <c r="AM2" s="228"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="228"/>
-      <c r="AP2" s="228"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="228"/>
-      <c r="AS2" s="228"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="228"/>
-      <c r="AW2" s="228"/>
-      <c r="AX2" s="228"/>
-      <c r="AY2" s="228"/>
-      <c r="AZ2" s="228"/>
-      <c r="BA2" s="228"/>
+      <c r="AD2" s="255"/>
+      <c r="AE2" s="255"/>
+      <c r="AF2" s="255"/>
+      <c r="AG2" s="255"/>
+      <c r="AH2" s="257"/>
+      <c r="AI2" s="257"/>
+      <c r="AJ2" s="257"/>
+      <c r="AK2" s="257"/>
+      <c r="AL2" s="257"/>
+      <c r="AM2" s="257"/>
+      <c r="AN2" s="257"/>
+      <c r="AO2" s="257"/>
+      <c r="AP2" s="257"/>
+      <c r="AQ2" s="257"/>
+      <c r="AR2" s="257"/>
+      <c r="AS2" s="257"/>
+      <c r="AT2" s="257"/>
+      <c r="AU2" s="257"/>
+      <c r="AV2" s="257"/>
+      <c r="AW2" s="257"/>
+      <c r="AX2" s="257"/>
+      <c r="AY2" s="257"/>
+      <c r="AZ2" s="257"/>
+      <c r="BA2" s="257"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="242"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -26509,7 +26509,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="242"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -26570,7 +26570,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="243"/>
+      <c r="A5" s="244"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -26720,7 +26720,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="242" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -26775,7 +26775,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
+      <c r="A9" s="243"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -26826,7 +26826,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
+      <c r="A10" s="243"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -26873,7 +26873,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="242"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -26897,7 +26897,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="242"/>
+      <c r="A12" s="243"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -26921,7 +26921,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="242"/>
+      <c r="A13" s="243"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -26945,7 +26945,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="242"/>
+      <c r="A14" s="243"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -26969,7 +26969,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="243"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27002,7 +27002,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="239" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27028,7 +27028,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="239"/>
+      <c r="A18" s="240"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -27052,7 +27052,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="239"/>
+      <c r="A19" s="240"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27076,7 +27076,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="239"/>
+      <c r="A20" s="240"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27100,7 +27100,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="239"/>
+      <c r="A21" s="240"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27124,7 +27124,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="239"/>
+      <c r="A22" s="240"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27148,7 +27148,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="239"/>
+      <c r="A23" s="240"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27172,7 +27172,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="240"/>
+      <c r="A24" s="241"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27216,7 +27216,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="241" t="s">
+      <c r="A27" s="242" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27239,7 +27239,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="242"/>
+      <c r="A28" s="243"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -27260,7 +27260,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="243"/>
+      <c r="A29" s="244"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -27310,10 +27310,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="238" t="s">
+      <c r="A34" s="239" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="234" t="str">
+      <c r="B34" s="251" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -27334,8 +27334,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="239"/>
-      <c r="B35" s="235"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="252"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -27350,8 +27350,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="239"/>
-      <c r="B36" s="235"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="252"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -27366,8 +27366,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="239"/>
-      <c r="B37" s="235"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="252"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -27382,8 +27382,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="239"/>
-      <c r="B38" s="235"/>
+      <c r="A38" s="240"/>
+      <c r="B38" s="252"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -27398,8 +27398,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="239"/>
-      <c r="B39" s="235"/>
+      <c r="A39" s="240"/>
+      <c r="B39" s="252"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -27411,8 +27411,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="239"/>
-      <c r="B40" s="235"/>
+      <c r="A40" s="240"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -27424,8 +27424,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="239"/>
-      <c r="B41" s="235" t="str">
+      <c r="A41" s="240"/>
+      <c r="B41" s="252" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -27440,8 +27440,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="239"/>
-      <c r="B42" s="235"/>
+      <c r="A42" s="240"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -27453,8 +27453,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="239"/>
-      <c r="B43" s="235"/>
+      <c r="A43" s="240"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -27466,8 +27466,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="239"/>
-      <c r="B44" s="235"/>
+      <c r="A44" s="240"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -27479,8 +27479,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="239"/>
-      <c r="B45" s="235"/>
+      <c r="A45" s="240"/>
+      <c r="B45" s="252"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -27492,8 +27492,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="239"/>
-      <c r="B46" s="235"/>
+      <c r="A46" s="240"/>
+      <c r="B46" s="252"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -27505,8 +27505,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="239"/>
-      <c r="B47" s="235" t="str">
+      <c r="A47" s="240"/>
+      <c r="B47" s="252" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -27521,8 +27521,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="239"/>
-      <c r="B48" s="235"/>
+      <c r="A48" s="240"/>
+      <c r="B48" s="252"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -27534,8 +27534,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="239"/>
-      <c r="B49" s="235"/>
+      <c r="A49" s="240"/>
+      <c r="B49" s="252"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -27547,8 +27547,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="239"/>
-      <c r="B50" s="235"/>
+      <c r="A50" s="240"/>
+      <c r="B50" s="252"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -27560,8 +27560,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="239"/>
-      <c r="B51" s="235"/>
+      <c r="A51" s="240"/>
+      <c r="B51" s="252"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27573,8 +27573,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="239"/>
-      <c r="B52" s="235" t="str">
+      <c r="A52" s="240"/>
+      <c r="B52" s="252" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -27589,8 +27589,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="239"/>
-      <c r="B53" s="235"/>
+      <c r="A53" s="240"/>
+      <c r="B53" s="252"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -27602,8 +27602,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="239"/>
-      <c r="B54" s="235"/>
+      <c r="A54" s="240"/>
+      <c r="B54" s="252"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -27615,8 +27615,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="239"/>
-      <c r="B55" s="235" t="str">
+      <c r="A55" s="240"/>
+      <c r="B55" s="252" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -27631,8 +27631,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="239"/>
-      <c r="B56" s="235"/>
+      <c r="A56" s="240"/>
+      <c r="B56" s="252"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -27644,8 +27644,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="240"/>
-      <c r="B57" s="236"/>
+      <c r="A57" s="241"/>
+      <c r="B57" s="253"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -27660,10 +27660,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="244" t="s">
+      <c r="A59" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="237" t="s">
+      <c r="B59" s="254" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -27680,8 +27680,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="245"/>
-      <c r="B60" s="232"/>
+      <c r="A60" s="246"/>
+      <c r="B60" s="249"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -27699,8 +27699,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="245"/>
-      <c r="B61" s="232"/>
+      <c r="A61" s="246"/>
+      <c r="B61" s="249"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -27715,8 +27715,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="245"/>
-      <c r="B62" s="232"/>
+      <c r="A62" s="246"/>
+      <c r="B62" s="249"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -27731,8 +27731,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="245"/>
-      <c r="B63" s="232"/>
+      <c r="A63" s="246"/>
+      <c r="B63" s="249"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -27747,8 +27747,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="245"/>
-      <c r="B64" s="232"/>
+      <c r="A64" s="246"/>
+      <c r="B64" s="249"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -27763,8 +27763,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="245"/>
-      <c r="B65" s="232"/>
+      <c r="A65" s="246"/>
+      <c r="B65" s="249"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -27777,8 +27777,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="245"/>
-      <c r="B66" s="232" t="str">
+      <c r="A66" s="246"/>
+      <c r="B66" s="249" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -27794,8 +27794,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="245"/>
-      <c r="B67" s="232"/>
+      <c r="A67" s="246"/>
+      <c r="B67" s="249"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -27807,8 +27807,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="245"/>
-      <c r="B68" s="232"/>
+      <c r="A68" s="246"/>
+      <c r="B68" s="249"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -27820,8 +27820,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="245"/>
-      <c r="B69" s="232"/>
+      <c r="A69" s="246"/>
+      <c r="B69" s="249"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -27833,8 +27833,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="245"/>
-      <c r="B70" s="232"/>
+      <c r="A70" s="246"/>
+      <c r="B70" s="249"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -27846,8 +27846,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="245"/>
-      <c r="B71" s="232"/>
+      <c r="A71" s="246"/>
+      <c r="B71" s="249"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -27859,8 +27859,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="245"/>
-      <c r="B72" s="232"/>
+      <c r="A72" s="246"/>
+      <c r="B72" s="249"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -27872,8 +27872,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="245"/>
-      <c r="B73" s="232" t="str">
+      <c r="A73" s="246"/>
+      <c r="B73" s="249" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -27888,8 +27888,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="245"/>
-      <c r="B74" s="232"/>
+      <c r="A74" s="246"/>
+      <c r="B74" s="249"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -27901,8 +27901,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="245"/>
-      <c r="B75" s="232"/>
+      <c r="A75" s="246"/>
+      <c r="B75" s="249"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -27914,8 +27914,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="245"/>
-      <c r="B76" s="232"/>
+      <c r="A76" s="246"/>
+      <c r="B76" s="249"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -27927,8 +27927,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="245"/>
-      <c r="B77" s="232"/>
+      <c r="A77" s="246"/>
+      <c r="B77" s="249"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -27940,8 +27940,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="245"/>
-      <c r="B78" s="232"/>
+      <c r="A78" s="246"/>
+      <c r="B78" s="249"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -27953,8 +27953,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="245"/>
-      <c r="B79" s="232"/>
+      <c r="A79" s="246"/>
+      <c r="B79" s="249"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -27966,8 +27966,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="245"/>
-      <c r="B80" s="232" t="str">
+      <c r="A80" s="246"/>
+      <c r="B80" s="249" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -27982,8 +27982,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="245"/>
-      <c r="B81" s="232"/>
+      <c r="A81" s="246"/>
+      <c r="B81" s="249"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -27995,8 +27995,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="245"/>
-      <c r="B82" s="232"/>
+      <c r="A82" s="246"/>
+      <c r="B82" s="249"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28008,8 +28008,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="245"/>
-      <c r="B83" s="232" t="str">
+      <c r="A83" s="246"/>
+      <c r="B83" s="249" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28024,8 +28024,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="245"/>
-      <c r="B84" s="232"/>
+      <c r="A84" s="246"/>
+      <c r="B84" s="249"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28037,8 +28037,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="246"/>
-      <c r="B85" s="233"/>
+      <c r="A85" s="247"/>
+      <c r="B85" s="250"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28065,13 +28065,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28084,21 +28092,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28195,7 +28195,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="248"/>
+      <c r="C2" s="259"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -28204,7 +28204,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="248"/>
+      <c r="C3" s="259"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -28213,7 +28213,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="248"/>
+      <c r="C4" s="259"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -28222,7 +28222,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="248"/>
+      <c r="C5" s="259"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -28231,7 +28231,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="248"/>
+      <c r="C6" s="259"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -28240,7 +28240,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="248"/>
+      <c r="C7" s="259"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -28249,7 +28249,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="248"/>
+      <c r="C8" s="259"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -28258,7 +28258,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="248"/>
+      <c r="C9" s="259"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -28267,7 +28267,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="248"/>
+      <c r="C10" s="259"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -28276,7 +28276,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="248"/>
+      <c r="C11" s="259"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -28285,112 +28285,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="248"/>
+      <c r="C12" s="259"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="248"/>
+      <c r="C13" s="259"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="248"/>
+      <c r="C14" s="259"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="248"/>
+      <c r="C15" s="259"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="248"/>
+      <c r="C16" s="259"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="248"/>
+      <c r="C17" s="259"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="248"/>
+      <c r="C18" s="259"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="248"/>
+      <c r="C19" s="259"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="248"/>
+      <c r="C20" s="259"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="248"/>
+      <c r="C21" s="259"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="248"/>
+      <c r="C22" s="259"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="249"/>
+      <c r="C23" s="260"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="249"/>
+      <c r="C24" s="260"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="249"/>
+      <c r="C25" s="260"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="249"/>
+      <c r="C26" s="260"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="249"/>
+      <c r="C27" s="260"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="249"/>
+      <c r="C28" s="260"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="247"/>
+      <c r="C29" s="258"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="247"/>
+      <c r="C30" s="258"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="247"/>
+      <c r="C31" s="258"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="247"/>
+      <c r="C32" s="258"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="247"/>
+      <c r="C33" s="258"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -28463,13 +28463,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="250"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="261"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -28478,79 +28478,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="250"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="261"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="250"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="261"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="250"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="261"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="250"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="261"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="250"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="261"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="250"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="261"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="250"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="261"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -28817,11 +28817,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29046,20 +29047,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29084,9 +29082,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E552CF2-BAAE-48C7-AC31-0C89EAA376B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5887EC4-83E3-42CF-8D37-A02DDECE5FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="19" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="11" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1114">
   <si>
     <t>Country</t>
   </si>
@@ -3568,6 +3568,9 @@
   </si>
   <si>
     <t>HGV Rigid (&gt; 3500kg to 7500kg) (Average Laden)</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
   </si>
 </sst>
 </file>
@@ -3917,7 +3920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -4774,70 +4777,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5450,24 +5396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5476,6 +5404,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5503,36 +5461,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5588,6 +5516,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5606,14 +5540,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8282,10 +8216,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8293,9 +8227,10 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="162" t="s">
         <v>626</v>
       </c>
@@ -8305,8 +8240,14 @@
       <c r="C1" s="162" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="284" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1" s="284" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="164" t="s">
         <v>629</v>
       </c>
@@ -8317,7 +8258,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="164" t="s">
         <v>632</v>
       </c>
@@ -8328,7 +8269,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="164" t="s">
         <v>633</v>
       </c>
@@ -8339,7 +8280,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="164" t="s">
         <v>635</v>
       </c>
@@ -8350,7 +8291,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="164" t="s">
         <v>636</v>
       </c>
@@ -8361,7 +8302,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="164" t="s">
         <v>637</v>
       </c>
@@ -8372,7 +8313,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="164" t="s">
         <v>638</v>
       </c>
@@ -8383,7 +8324,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="164" t="s">
         <v>640</v>
       </c>
@@ -8394,7 +8335,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="164" t="s">
         <v>642</v>
       </c>
@@ -8405,7 +8346,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="164" t="s">
         <v>643</v>
       </c>
@@ -8416,7 +8357,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="164" t="s">
         <v>645</v>
       </c>
@@ -8427,7 +8368,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="164" t="s">
         <v>647</v>
       </c>
@@ -8438,7 +8379,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="164" t="s">
         <v>649</v>
       </c>
@@ -8449,7 +8390,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="164" t="s">
         <v>651</v>
       </c>
@@ -8460,7 +8401,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="164" t="s">
         <v>653</v>
       </c>
@@ -9731,7 +9672,7 @@
   <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20877,65 +20818,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="262" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="277" t="s">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="271" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="277" t="s">
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="271" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="278"/>
-      <c r="O1" s="277" t="s">
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="271" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="278"/>
-      <c r="T1" s="277" t="s">
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="272"/>
+      <c r="T1" s="271" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="278"/>
-      <c r="V1" s="274" t="s">
+      <c r="U1" s="272"/>
+      <c r="V1" s="268" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="275"/>
-      <c r="AA1" s="275"/>
-      <c r="AB1" s="275"/>
-      <c r="AC1" s="275"/>
-      <c r="AD1" s="275"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="271" t="s">
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="272"/>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="272"/>
-      <c r="AJ1" s="272"/>
-      <c r="AK1" s="272"/>
-      <c r="AL1" s="272"/>
-      <c r="AM1" s="272"/>
-      <c r="AN1" s="272"/>
-      <c r="AO1" s="272"/>
-      <c r="AP1" s="272"/>
-      <c r="AQ1" s="272"/>
-      <c r="AR1" s="272"/>
-      <c r="AS1" s="273"/>
+      <c r="AG1" s="266"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="266"/>
+      <c r="AJ1" s="266"/>
+      <c r="AK1" s="266"/>
+      <c r="AL1" s="266"/>
+      <c r="AM1" s="266"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="267"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -21998,20 +21939,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="257"/>
-      <c r="AO1" s="257"/>
-      <c r="AP1" s="257"/>
-      <c r="AQ1" s="257"/>
-      <c r="AR1" s="257"/>
-      <c r="AS1" s="257"/>
-      <c r="AT1" s="257"/>
-      <c r="AU1" s="257"/>
-      <c r="AV1" s="257"/>
-      <c r="AW1" s="257"/>
-      <c r="AX1" s="257"/>
-      <c r="AY1" s="257"/>
-      <c r="AZ1" s="257"/>
-      <c r="BA1" s="257"/>
+      <c r="AN1" s="233"/>
+      <c r="AO1" s="233"/>
+      <c r="AP1" s="233"/>
+      <c r="AQ1" s="233"/>
+      <c r="AR1" s="233"/>
+      <c r="AS1" s="233"/>
+      <c r="AT1" s="233"/>
+      <c r="AU1" s="233"/>
+      <c r="AV1" s="233"/>
+      <c r="AW1" s="233"/>
+      <c r="AX1" s="233"/>
+      <c r="AY1" s="233"/>
+      <c r="AZ1" s="233"/>
+      <c r="BA1" s="233"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22030,7 +21971,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="280" t="s">
+      <c r="H2" s="276" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22052,7 +21993,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="280" t="s">
+      <c r="P2" s="276" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22083,10 +22024,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="283" t="s">
+      <c r="AC2" s="279" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="286" t="s">
+      <c r="AD2" s="274" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22098,26 +22039,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="257"/>
-      <c r="AJ2" s="257"/>
-      <c r="AK2" s="257"/>
-      <c r="AL2" s="257"/>
-      <c r="AM2" s="257"/>
-      <c r="AN2" s="257"/>
-      <c r="AO2" s="257"/>
-      <c r="AP2" s="257"/>
-      <c r="AQ2" s="257"/>
-      <c r="AR2" s="257"/>
-      <c r="AS2" s="257"/>
-      <c r="AT2" s="257"/>
-      <c r="AU2" s="257"/>
-      <c r="AV2" s="257"/>
-      <c r="AW2" s="257"/>
-      <c r="AX2" s="257"/>
-      <c r="AY2" s="257"/>
-      <c r="AZ2" s="257"/>
-      <c r="BA2" s="257"/>
+      <c r="AH2" s="233"/>
+      <c r="AI2" s="233"/>
+      <c r="AJ2" s="233"/>
+      <c r="AK2" s="233"/>
+      <c r="AL2" s="233"/>
+      <c r="AM2" s="233"/>
+      <c r="AN2" s="233"/>
+      <c r="AO2" s="233"/>
+      <c r="AP2" s="233"/>
+      <c r="AQ2" s="233"/>
+      <c r="AR2" s="233"/>
+      <c r="AS2" s="233"/>
+      <c r="AT2" s="233"/>
+      <c r="AU2" s="233"/>
+      <c r="AV2" s="233"/>
+      <c r="AW2" s="233"/>
+      <c r="AX2" s="233"/>
+      <c r="AY2" s="233"/>
+      <c r="AZ2" s="233"/>
+      <c r="BA2" s="233"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22138,7 +22079,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="281"/>
+      <c r="H3" s="277"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22158,7 +22099,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="281"/>
+      <c r="P3" s="277"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22179,8 +22120,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="284"/>
-      <c r="AD3" s="249"/>
+      <c r="AC3" s="280"/>
+      <c r="AD3" s="237"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22225,7 +22166,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="277"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22245,7 +22186,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="282"/>
+      <c r="P4" s="278"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22265,8 +22206,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="284"/>
-      <c r="AD4" s="249"/>
+      <c r="AC4" s="280"/>
+      <c r="AD4" s="237"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22314,7 +22255,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="281"/>
+      <c r="H5" s="277"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22339,8 +22280,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="284"/>
-      <c r="AD5" s="249"/>
+      <c r="AC5" s="280"/>
+      <c r="AD5" s="237"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22373,7 +22314,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="281"/>
+      <c r="H6" s="277"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22400,8 +22341,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="284"/>
-      <c r="AD6" s="249"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="237"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22439,7 +22380,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="281"/>
+      <c r="H7" s="277"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22466,8 +22407,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="284"/>
-      <c r="AD7" s="249"/>
+      <c r="AC7" s="280"/>
+      <c r="AD7" s="237"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22502,7 +22443,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="281"/>
+      <c r="H8" s="277"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22529,8 +22470,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="284"/>
-      <c r="AD8" s="249"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="237"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22565,7 +22506,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="282"/>
+      <c r="H9" s="278"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22592,8 +22533,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="284"/>
-      <c r="AD9" s="249" t="s">
+      <c r="AC9" s="280"/>
+      <c r="AD9" s="237" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22636,8 +22577,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="284"/>
-      <c r="AD10" s="249"/>
+      <c r="AC10" s="280"/>
+      <c r="AD10" s="237"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22670,7 +22611,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="283" t="s">
+      <c r="H11" s="279" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22691,8 +22632,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="284"/>
-      <c r="AD11" s="249"/>
+      <c r="AC11" s="280"/>
+      <c r="AD11" s="237"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22711,7 +22652,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="284"/>
+      <c r="H12" s="280"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22730,8 +22671,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="284"/>
-      <c r="AD12" s="249"/>
+      <c r="AC12" s="280"/>
+      <c r="AD12" s="237"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -22750,7 +22691,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="284"/>
+      <c r="H13" s="280"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -22769,8 +22710,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="284"/>
-      <c r="AD13" s="249"/>
+      <c r="AC13" s="280"/>
+      <c r="AD13" s="237"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -22789,7 +22730,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="284"/>
+      <c r="H14" s="280"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -22808,8 +22749,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="284"/>
-      <c r="AD14" s="249"/>
+      <c r="AC14" s="280"/>
+      <c r="AD14" s="237"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -22828,7 +22769,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="284"/>
+      <c r="H15" s="280"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -22847,8 +22788,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="284"/>
-      <c r="AD15" s="249" t="s">
+      <c r="AC15" s="280"/>
+      <c r="AD15" s="237" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -22866,7 +22807,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="284"/>
+      <c r="H16" s="280"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -22885,8 +22826,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="284"/>
-      <c r="AD16" s="249"/>
+      <c r="AC16" s="280"/>
+      <c r="AD16" s="237"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -22905,7 +22846,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="284"/>
+      <c r="H17" s="280"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -22924,8 +22865,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="284"/>
-      <c r="AD17" s="249"/>
+      <c r="AC17" s="280"/>
+      <c r="AD17" s="237"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -22944,7 +22885,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="285"/>
+      <c r="H18" s="281"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -22963,8 +22904,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="284"/>
-      <c r="AD18" s="249"/>
+      <c r="AC18" s="280"/>
+      <c r="AD18" s="237"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -22983,8 +22924,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="284"/>
-      <c r="AD19" s="249"/>
+      <c r="AC19" s="280"/>
+      <c r="AD19" s="237"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23003,8 +22944,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="284"/>
-      <c r="AD20" s="249" t="s">
+      <c r="AC20" s="280"/>
+      <c r="AD20" s="237" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23025,8 +22966,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="284"/>
-      <c r="AD21" s="249"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="237"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23045,8 +22986,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="284"/>
-      <c r="AD22" s="249"/>
+      <c r="AC22" s="280"/>
+      <c r="AD22" s="237"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23065,8 +23006,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="284"/>
-      <c r="AD23" s="249" t="s">
+      <c r="AC23" s="280"/>
+      <c r="AD23" s="237" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23087,8 +23028,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="284"/>
-      <c r="AD24" s="249"/>
+      <c r="AC24" s="280"/>
+      <c r="AD24" s="237"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23101,8 +23042,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="285"/>
-      <c r="AD25" s="287"/>
+      <c r="AC25" s="281"/>
+      <c r="AD25" s="275"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23119,10 +23060,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="283" t="s">
+      <c r="AC27" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="286" t="s">
+      <c r="AD27" s="274" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23139,8 +23080,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="284"/>
-      <c r="AD28" s="249"/>
+      <c r="AC28" s="280"/>
+      <c r="AD28" s="237"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23155,8 +23096,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="284"/>
-      <c r="AD29" s="249"/>
+      <c r="AC29" s="280"/>
+      <c r="AD29" s="237"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23168,8 +23109,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="284"/>
-      <c r="AD30" s="249"/>
+      <c r="AC30" s="280"/>
+      <c r="AD30" s="237"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23183,8 +23124,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="284"/>
-      <c r="AD31" s="249"/>
+      <c r="AC31" s="280"/>
+      <c r="AD31" s="237"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23196,8 +23137,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="284"/>
-      <c r="AD32" s="249"/>
+      <c r="AC32" s="280"/>
+      <c r="AD32" s="237"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23210,8 +23151,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="284"/>
-      <c r="AD33" s="249"/>
+      <c r="AC33" s="280"/>
+      <c r="AD33" s="237"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23228,8 +23169,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="284"/>
-      <c r="AD34" s="249" t="s">
+      <c r="AC34" s="280"/>
+      <c r="AD34" s="237" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23248,8 +23189,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="284"/>
-      <c r="AD35" s="249"/>
+      <c r="AC35" s="280"/>
+      <c r="AD35" s="237"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23266,8 +23207,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="284"/>
-      <c r="AD36" s="249"/>
+      <c r="AC36" s="280"/>
+      <c r="AD36" s="237"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23284,8 +23225,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="284"/>
-      <c r="AD37" s="249"/>
+      <c r="AC37" s="280"/>
+      <c r="AD37" s="237"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23302,8 +23243,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="284"/>
-      <c r="AD38" s="249"/>
+      <c r="AC38" s="280"/>
+      <c r="AD38" s="237"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23320,8 +23261,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="284"/>
-      <c r="AD39" s="249"/>
+      <c r="AC39" s="280"/>
+      <c r="AD39" s="237"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23338,8 +23279,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="284"/>
-      <c r="AD40" s="249"/>
+      <c r="AC40" s="280"/>
+      <c r="AD40" s="237"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23356,8 +23297,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="284"/>
-      <c r="AD41" s="249" t="s">
+      <c r="AC41" s="280"/>
+      <c r="AD41" s="237" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23376,8 +23317,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="284"/>
-      <c r="AD42" s="249"/>
+      <c r="AC42" s="280"/>
+      <c r="AD42" s="237"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23394,8 +23335,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="284"/>
-      <c r="AD43" s="249"/>
+      <c r="AC43" s="280"/>
+      <c r="AD43" s="237"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23412,8 +23353,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="284"/>
-      <c r="AD44" s="249"/>
+      <c r="AC44" s="280"/>
+      <c r="AD44" s="237"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23430,8 +23371,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="284"/>
-      <c r="AD45" s="249"/>
+      <c r="AC45" s="280"/>
+      <c r="AD45" s="237"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23448,8 +23389,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="284"/>
-      <c r="AD46" s="249"/>
+      <c r="AC46" s="280"/>
+      <c r="AD46" s="237"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23466,8 +23407,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="284"/>
-      <c r="AD47" s="249"/>
+      <c r="AC47" s="280"/>
+      <c r="AD47" s="237"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23484,8 +23425,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="284"/>
-      <c r="AD48" s="249" t="s">
+      <c r="AC48" s="280"/>
+      <c r="AD48" s="237" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23504,8 +23445,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="284"/>
-      <c r="AD49" s="249"/>
+      <c r="AC49" s="280"/>
+      <c r="AD49" s="237"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23522,8 +23463,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="284"/>
-      <c r="AD50" s="249"/>
+      <c r="AC50" s="280"/>
+      <c r="AD50" s="237"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23540,8 +23481,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="284"/>
-      <c r="AD51" s="249" t="s">
+      <c r="AC51" s="280"/>
+      <c r="AD51" s="237" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23560,8 +23501,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="284"/>
-      <c r="AD52" s="249"/>
+      <c r="AC52" s="280"/>
+      <c r="AD52" s="237"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23578,8 +23519,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="284"/>
-      <c r="AD53" s="249"/>
+      <c r="AC53" s="280"/>
+      <c r="AD53" s="237"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23596,7 +23537,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="284"/>
+      <c r="AC54" s="280"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23616,7 +23557,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="285"/>
+      <c r="AC55" s="281"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -23849,11 +23790,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -23870,11 +23811,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23933,8 +23874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24194,8 +24135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24237,7 +24178,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="282" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -24260,7 +24201,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="281"/>
+      <c r="A3" s="277"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24281,7 +24222,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="281"/>
+      <c r="A4" s="277"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24302,7 +24243,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="281"/>
+      <c r="A5" s="277"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24323,7 +24264,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="281"/>
+      <c r="A6" s="277"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24344,7 +24285,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="281"/>
+      <c r="A7" s="277"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24365,7 +24306,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="281"/>
+      <c r="A8" s="277"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24386,7 +24327,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="282"/>
+      <c r="A9" s="278"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24407,7 +24348,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="276" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24430,7 +24371,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="281"/>
+      <c r="A11" s="277"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24451,7 +24392,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="281"/>
+      <c r="A12" s="277"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24472,7 +24413,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="281"/>
+      <c r="A13" s="277"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24493,7 +24434,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="281"/>
+      <c r="A14" s="277"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24514,7 +24455,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="281"/>
+      <c r="A15" s="277"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24535,7 +24476,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="281"/>
+      <c r="A16" s="277"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24556,7 +24497,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="282"/>
+      <c r="A17" s="278"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -24608,7 +24549,7 @@
       <c r="A21" s="220" t="s">
         <v>1079</v>
       </c>
-      <c r="B21" s="237" t="s">
+      <c r="B21" s="231" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="222">
@@ -24617,10 +24558,10 @@
       <c r="E21" s="230" t="s">
         <v>1079</v>
       </c>
-      <c r="F21" s="233" t="s">
+      <c r="F21" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="222">
+      <c r="G21" s="283">
         <v>0.13155</v>
       </c>
     </row>
@@ -24628,19 +24569,19 @@
       <c r="A22" s="223" t="s">
         <v>1080</v>
       </c>
-      <c r="B22" s="236" t="s">
+      <c r="B22" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="224">
         <v>0.13206999999999999</v>
       </c>
-      <c r="E22" s="231" t="s">
+      <c r="E22" s="230" t="s">
         <v>1080</v>
       </c>
-      <c r="F22" s="234" t="s">
+      <c r="F22" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="224">
+      <c r="G22" s="283">
         <v>0.15756000000000001</v>
       </c>
     </row>
@@ -24648,19 +24589,19 @@
       <c r="A23" s="223" t="s">
         <v>1081</v>
       </c>
-      <c r="B23" s="236" t="s">
+      <c r="B23" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="224">
         <v>0.18171999999999999</v>
       </c>
-      <c r="E23" s="231" t="s">
+      <c r="E23" s="230" t="s">
         <v>1081</v>
       </c>
-      <c r="F23" s="234" t="s">
+      <c r="F23" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="224">
+      <c r="G23" s="283">
         <v>0.21678</v>
       </c>
     </row>
@@ -24668,19 +24609,19 @@
       <c r="A24" s="223" t="s">
         <v>1082</v>
       </c>
-      <c r="B24" s="236" t="s">
+      <c r="B24" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="224">
         <v>0.16044</v>
       </c>
-      <c r="E24" s="231" t="s">
+      <c r="E24" s="230" t="s">
         <v>1082</v>
       </c>
-      <c r="F24" s="234" t="s">
+      <c r="F24" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="224">
+      <c r="G24" s="283">
         <v>0.19139999999999999</v>
       </c>
     </row>
@@ -24688,19 +24629,19 @@
       <c r="A25" s="223" t="s">
         <v>1083</v>
       </c>
-      <c r="B25" s="236" t="s">
+      <c r="B25" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="224">
         <v>0.14831</v>
       </c>
-      <c r="E25" s="231" t="s">
+      <c r="E25" s="230" t="s">
         <v>1083</v>
       </c>
-      <c r="F25" s="234" t="s">
+      <c r="F25" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="224">
+      <c r="G25" s="283">
         <v>0.17199</v>
       </c>
     </row>
@@ -24708,19 +24649,19 @@
       <c r="A26" s="223" t="s">
         <v>1084</v>
       </c>
-      <c r="B26" s="236" t="s">
+      <c r="B26" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="224">
         <v>0.15178</v>
       </c>
-      <c r="E26" s="231" t="s">
+      <c r="E26" s="230" t="s">
         <v>1084</v>
       </c>
-      <c r="F26" s="234" t="s">
+      <c r="F26" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="224">
+      <c r="G26" s="283">
         <v>0.17602000000000001</v>
       </c>
     </row>
@@ -24728,19 +24669,19 @@
       <c r="A27" s="223" t="s">
         <v>1085</v>
       </c>
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="224">
         <v>0.15162</v>
       </c>
-      <c r="E27" s="231" t="s">
+      <c r="E27" s="230" t="s">
         <v>1085</v>
       </c>
-      <c r="F27" s="234" t="s">
+      <c r="F27" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="224">
+      <c r="G27" s="283">
         <v>0.17582999999999999</v>
       </c>
     </row>
@@ -24748,19 +24689,19 @@
       <c r="A28" s="223" t="s">
         <v>1086</v>
       </c>
-      <c r="B28" s="236" t="s">
+      <c r="B28" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="224">
         <v>0.15526999999999999</v>
       </c>
-      <c r="E28" s="231" t="s">
+      <c r="E28" s="230" t="s">
         <v>1086</v>
       </c>
-      <c r="F28" s="234" t="s">
+      <c r="F28" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="224">
+      <c r="G28" s="283">
         <v>0.1822</v>
       </c>
     </row>
@@ -24768,19 +24709,19 @@
       <c r="A29" s="223" t="s">
         <v>1089</v>
       </c>
-      <c r="B29" s="236" t="s">
+      <c r="B29" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C29" s="224">
         <v>0.11985</v>
       </c>
-      <c r="E29" s="231" t="s">
+      <c r="E29" s="230" t="s">
         <v>1089</v>
       </c>
-      <c r="F29" s="234" t="s">
+      <c r="F29" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="224">
+      <c r="G29" s="283">
         <v>0.14299000000000001</v>
       </c>
     </row>
@@ -24788,19 +24729,19 @@
       <c r="A30" s="223" t="s">
         <v>1090</v>
       </c>
-      <c r="B30" s="236" t="s">
+      <c r="B30" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="224">
         <v>0.15093999999999999</v>
       </c>
-      <c r="E30" s="231" t="s">
+      <c r="E30" s="230" t="s">
         <v>1090</v>
       </c>
-      <c r="F30" s="234" t="s">
+      <c r="F30" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="224">
+      <c r="G30" s="283">
         <v>0.18007000000000001</v>
       </c>
     </row>
@@ -24808,19 +24749,19 @@
       <c r="A31" s="223" t="s">
         <v>1091</v>
       </c>
-      <c r="B31" s="236" t="s">
+      <c r="B31" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="224">
         <v>0.22159999999999999</v>
       </c>
-      <c r="E31" s="231" t="s">
+      <c r="E31" s="230" t="s">
         <v>1091</v>
       </c>
-      <c r="F31" s="234" t="s">
+      <c r="F31" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="224">
+      <c r="G31" s="283">
         <v>0.26436999999999999</v>
       </c>
     </row>
@@ -24828,19 +24769,19 @@
       <c r="A32" s="223" t="s">
         <v>1092</v>
       </c>
-      <c r="B32" s="236" t="s">
+      <c r="B32" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="224">
         <v>0.19131000000000001</v>
       </c>
-      <c r="E32" s="231" t="s">
+      <c r="E32" s="230" t="s">
         <v>1092</v>
       </c>
-      <c r="F32" s="234" t="s">
+      <c r="F32" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="224">
+      <c r="G32" s="283">
         <v>0.22822999999999999</v>
       </c>
     </row>
@@ -24848,19 +24789,19 @@
       <c r="A33" s="223" t="s">
         <v>1093</v>
       </c>
-      <c r="B33" s="236" t="s">
+      <c r="B33" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="224">
         <v>0.18537999999999999</v>
       </c>
-      <c r="E33" s="231" t="s">
+      <c r="E33" s="230" t="s">
         <v>1093</v>
       </c>
-      <c r="F33" s="234" t="s">
+      <c r="F33" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="224">
+      <c r="G33" s="283">
         <v>0.21498999999999999</v>
       </c>
     </row>
@@ -24868,19 +24809,19 @@
       <c r="A34" s="223" t="s">
         <v>1094</v>
       </c>
-      <c r="B34" s="236" t="s">
+      <c r="B34" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="224">
         <v>0.20236999999999999</v>
       </c>
-      <c r="E34" s="231" t="s">
+      <c r="E34" s="230" t="s">
         <v>1094</v>
       </c>
-      <c r="F34" s="234" t="s">
+      <c r="F34" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="224">
+      <c r="G34" s="283">
         <v>0.23469000000000001</v>
       </c>
     </row>
@@ -24888,19 +24829,19 @@
       <c r="A35" s="223" t="s">
         <v>1095</v>
       </c>
-      <c r="B35" s="236" t="s">
+      <c r="B35" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="224">
         <v>0.20158999999999999</v>
       </c>
-      <c r="E35" s="231" t="s">
+      <c r="E35" s="230" t="s">
         <v>1095</v>
       </c>
-      <c r="F35" s="234" t="s">
+      <c r="F35" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="224">
+      <c r="G35" s="283">
         <v>0.23379</v>
       </c>
     </row>
@@ -24908,19 +24849,19 @@
       <c r="A36" s="223" t="s">
         <v>1096</v>
       </c>
-      <c r="B36" s="236" t="s">
+      <c r="B36" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="224">
         <v>0.19733999999999999</v>
       </c>
-      <c r="E36" s="231" t="s">
+      <c r="E36" s="230" t="s">
         <v>1096</v>
       </c>
-      <c r="F36" s="234" t="s">
+      <c r="F36" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="224">
+      <c r="G36" s="283">
         <v>0.23157</v>
       </c>
     </row>
@@ -24928,19 +24869,19 @@
       <c r="A37" s="223" t="s">
         <v>1097</v>
       </c>
-      <c r="B37" s="236" t="s">
+      <c r="B37" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="224">
         <v>0.12944</v>
       </c>
-      <c r="E37" s="231" t="s">
+      <c r="E37" s="230" t="s">
         <v>1097</v>
       </c>
-      <c r="F37" s="234" t="s">
+      <c r="F37" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="224">
+      <c r="G37" s="283">
         <v>0.15442</v>
       </c>
     </row>
@@ -24948,19 +24889,19 @@
       <c r="A38" s="223" t="s">
         <v>1098</v>
       </c>
-      <c r="B38" s="236" t="s">
+      <c r="B38" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="224">
         <v>0.16980999999999999</v>
       </c>
-      <c r="E38" s="231" t="s">
+      <c r="E38" s="230" t="s">
         <v>1098</v>
       </c>
-      <c r="F38" s="234" t="s">
+      <c r="F38" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="224">
+      <c r="G38" s="283">
         <v>0.20258000000000001</v>
       </c>
     </row>
@@ -24968,19 +24909,19 @@
       <c r="A39" s="223" t="s">
         <v>1099</v>
       </c>
-      <c r="B39" s="236" t="s">
+      <c r="B39" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="224">
         <v>0.26149</v>
       </c>
-      <c r="E39" s="231" t="s">
+      <c r="E39" s="230" t="s">
         <v>1099</v>
       </c>
-      <c r="F39" s="234" t="s">
+      <c r="F39" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="224">
+      <c r="G39" s="283">
         <v>0.31196000000000002</v>
       </c>
     </row>
@@ -24988,19 +24929,19 @@
       <c r="A40" s="223" t="s">
         <v>1100</v>
       </c>
-      <c r="B40" s="236" t="s">
+      <c r="B40" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="224">
         <v>0.22217999999999999</v>
       </c>
-      <c r="E40" s="231" t="s">
+      <c r="E40" s="230" t="s">
         <v>1100</v>
       </c>
-      <c r="F40" s="234" t="s">
+      <c r="F40" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="224">
+      <c r="G40" s="283">
         <v>0.26506000000000002</v>
       </c>
     </row>
@@ -25008,19 +24949,19 @@
       <c r="A41" s="223" t="s">
         <v>1101</v>
       </c>
-      <c r="B41" s="236" t="s">
+      <c r="B41" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="224">
         <v>0.22245999999999999</v>
       </c>
-      <c r="E41" s="231" t="s">
+      <c r="E41" s="230" t="s">
         <v>1101</v>
       </c>
-      <c r="F41" s="234" t="s">
+      <c r="F41" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="224">
+      <c r="G41" s="283">
         <v>0.25799</v>
       </c>
     </row>
@@ -25028,19 +24969,19 @@
       <c r="A42" s="223" t="s">
         <v>1102</v>
       </c>
-      <c r="B42" s="236" t="s">
+      <c r="B42" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C42" s="224">
         <v>0.25296000000000002</v>
       </c>
-      <c r="E42" s="231" t="s">
+      <c r="E42" s="230" t="s">
         <v>1102</v>
       </c>
-      <c r="F42" s="234" t="s">
+      <c r="F42" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="224">
+      <c r="G42" s="283">
         <v>0.29336000000000001</v>
       </c>
     </row>
@@ -25048,19 +24989,19 @@
       <c r="A43" s="223" t="s">
         <v>1103</v>
       </c>
-      <c r="B43" s="236" t="s">
+      <c r="B43" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="224">
         <v>0.25157000000000002</v>
       </c>
-      <c r="E43" s="231" t="s">
+      <c r="E43" s="230" t="s">
         <v>1103</v>
       </c>
-      <c r="F43" s="234" t="s">
+      <c r="F43" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="224">
+      <c r="G43" s="283">
         <v>0.29175000000000001</v>
       </c>
     </row>
@@ -25068,19 +25009,19 @@
       <c r="A44" s="223" t="s">
         <v>1104</v>
       </c>
-      <c r="B44" s="236" t="s">
+      <c r="B44" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="224">
         <v>0.23941999999999999</v>
       </c>
-      <c r="E44" s="231" t="s">
+      <c r="E44" s="230" t="s">
         <v>1104</v>
       </c>
-      <c r="F44" s="234" t="s">
+      <c r="F44" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="224">
+      <c r="G44" s="283">
         <v>0.28094999999999998</v>
       </c>
     </row>
@@ -25088,19 +25029,19 @@
       <c r="A45" s="223" t="s">
         <v>1112</v>
       </c>
-      <c r="B45" s="236" t="s">
+      <c r="B45" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="224">
         <v>0.11851</v>
       </c>
-      <c r="E45" s="231" t="s">
+      <c r="E45" s="230" t="s">
         <v>1112</v>
       </c>
-      <c r="F45" s="234" t="s">
+      <c r="F45" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="224">
+      <c r="G45" s="283">
         <v>0.14138000000000001</v>
       </c>
     </row>
@@ -25108,19 +25049,19 @@
       <c r="A46" s="223" t="s">
         <v>1111</v>
       </c>
-      <c r="B46" s="236" t="s">
+      <c r="B46" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="224">
         <v>0.14452999999999999</v>
       </c>
-      <c r="E46" s="231" t="s">
+      <c r="E46" s="230" t="s">
         <v>1111</v>
       </c>
-      <c r="F46" s="234" t="s">
+      <c r="F46" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G46" s="224">
+      <c r="G46" s="283">
         <v>0.17241999999999999</v>
       </c>
     </row>
@@ -25128,19 +25069,19 @@
       <c r="A47" s="223" t="s">
         <v>1110</v>
       </c>
-      <c r="B47" s="236" t="s">
+      <c r="B47" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="224">
         <v>0.23755999999999999</v>
       </c>
-      <c r="E47" s="231" t="s">
+      <c r="E47" s="230" t="s">
         <v>1110</v>
       </c>
-      <c r="F47" s="234" t="s">
+      <c r="F47" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="224">
+      <c r="G47" s="283">
         <v>0.28339999999999999</v>
       </c>
     </row>
@@ -25148,19 +25089,19 @@
       <c r="A48" s="223" t="s">
         <v>1109</v>
       </c>
-      <c r="B48" s="236" t="s">
+      <c r="B48" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="224">
         <v>0.20099</v>
       </c>
-      <c r="E48" s="231" t="s">
+      <c r="E48" s="230" t="s">
         <v>1109</v>
       </c>
-      <c r="F48" s="234" t="s">
+      <c r="F48" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="224">
+      <c r="G48" s="283">
         <v>0.23977999999999999</v>
       </c>
     </row>
@@ -25168,19 +25109,19 @@
       <c r="A49" s="223" t="s">
         <v>1108</v>
       </c>
-      <c r="B49" s="236" t="s">
+      <c r="B49" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="224">
         <v>0.18537999999999999</v>
       </c>
-      <c r="E49" s="231" t="s">
+      <c r="E49" s="230" t="s">
         <v>1108</v>
       </c>
-      <c r="F49" s="234" t="s">
+      <c r="F49" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="224">
+      <c r="G49" s="283">
         <v>0.21498999999999999</v>
       </c>
     </row>
@@ -25188,19 +25129,19 @@
       <c r="A50" s="223" t="s">
         <v>1107</v>
       </c>
-      <c r="B50" s="236" t="s">
+      <c r="B50" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="224">
         <v>0.22058</v>
       </c>
-      <c r="E50" s="231" t="s">
+      <c r="E50" s="230" t="s">
         <v>1107</v>
       </c>
-      <c r="F50" s="234" t="s">
+      <c r="F50" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="224">
+      <c r="G50" s="283">
         <v>0.25580999999999998</v>
       </c>
     </row>
@@ -25208,19 +25149,19 @@
       <c r="A51" s="223" t="s">
         <v>1106</v>
       </c>
-      <c r="B51" s="236" t="s">
+      <c r="B51" s="230" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="224">
         <v>0.21898000000000001</v>
       </c>
-      <c r="E51" s="231" t="s">
+      <c r="E51" s="230" t="s">
         <v>1106</v>
       </c>
-      <c r="F51" s="234" t="s">
+      <c r="F51" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="224">
+      <c r="G51" s="283">
         <v>0.25395000000000001</v>
       </c>
     </row>
@@ -25228,19 +25169,19 @@
       <c r="A52" s="225" t="s">
         <v>1105</v>
       </c>
-      <c r="B52" s="238" t="s">
+      <c r="B52" s="232" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="227">
         <v>0.21154000000000001</v>
       </c>
-      <c r="E52" s="232" t="s">
+      <c r="E52" s="230" t="s">
         <v>1105</v>
       </c>
-      <c r="F52" s="235" t="s">
+      <c r="F52" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="227">
+      <c r="G52" s="283">
         <v>0.24823999999999999</v>
       </c>
     </row>
@@ -25258,7 +25199,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25294,7 +25235,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="276" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25313,7 +25254,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="281"/>
+      <c r="A3" s="277"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25330,7 +25271,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="282"/>
+      <c r="A4" s="278"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25516,10 +25457,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="276" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="239" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25533,8 +25474,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="281"/>
-      <c r="B2" s="252"/>
+      <c r="A2" s="277"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25546,8 +25487,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="281"/>
-      <c r="B3" s="252"/>
+      <c r="A3" s="277"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -25559,8 +25500,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="281"/>
-      <c r="B4" s="252"/>
+      <c r="A4" s="277"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -25572,8 +25513,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="281"/>
-      <c r="B5" s="252"/>
+      <c r="A5" s="277"/>
+      <c r="B5" s="240"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -25585,8 +25526,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="281"/>
-      <c r="B6" s="252"/>
+      <c r="A6" s="277"/>
+      <c r="B6" s="240"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -25598,8 +25539,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="281"/>
-      <c r="B7" s="252"/>
+      <c r="A7" s="277"/>
+      <c r="B7" s="240"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -25611,8 +25552,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="281"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="277"/>
+      <c r="B8" s="240" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -25626,8 +25567,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="281"/>
-      <c r="B9" s="252"/>
+      <c r="A9" s="277"/>
+      <c r="B9" s="240"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -25639,8 +25580,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="281"/>
-      <c r="B10" s="252"/>
+      <c r="A10" s="277"/>
+      <c r="B10" s="240"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -25652,8 +25593,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="281"/>
-      <c r="B11" s="252"/>
+      <c r="A11" s="277"/>
+      <c r="B11" s="240"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -25665,8 +25606,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="281"/>
-      <c r="B12" s="252"/>
+      <c r="A12" s="277"/>
+      <c r="B12" s="240"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -25678,8 +25619,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="281"/>
-      <c r="B13" s="252"/>
+      <c r="A13" s="277"/>
+      <c r="B13" s="240"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -25691,8 +25632,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="281"/>
-      <c r="B14" s="252" t="s">
+      <c r="A14" s="277"/>
+      <c r="B14" s="240" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -25706,8 +25647,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="281"/>
-      <c r="B15" s="252"/>
+      <c r="A15" s="277"/>
+      <c r="B15" s="240"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -25719,8 +25660,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="281"/>
-      <c r="B16" s="252"/>
+      <c r="A16" s="277"/>
+      <c r="B16" s="240"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -25732,8 +25673,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="281"/>
-      <c r="B17" s="252"/>
+      <c r="A17" s="277"/>
+      <c r="B17" s="240"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -25745,8 +25686,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="281"/>
-      <c r="B18" s="252"/>
+      <c r="A18" s="277"/>
+      <c r="B18" s="240"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -25758,8 +25699,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="281"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="277"/>
+      <c r="B19" s="240" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -25773,8 +25714,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="281"/>
-      <c r="B20" s="252"/>
+      <c r="A20" s="277"/>
+      <c r="B20" s="240"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -25786,8 +25727,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="281"/>
-      <c r="B21" s="252"/>
+      <c r="A21" s="277"/>
+      <c r="B21" s="240"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -25799,8 +25740,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="281"/>
-      <c r="B22" s="252" t="s">
+      <c r="A22" s="277"/>
+      <c r="B22" s="240" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -25814,8 +25755,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="281"/>
-      <c r="B23" s="252"/>
+      <c r="A23" s="277"/>
+      <c r="B23" s="240"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -25827,8 +25768,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="282"/>
-      <c r="B24" s="253"/>
+      <c r="A24" s="278"/>
+      <c r="B24" s="241"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -25840,10 +25781,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="283" t="s">
+      <c r="A25" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="251" t="s">
+      <c r="B25" s="239" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -25857,8 +25798,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="284"/>
-      <c r="B26" s="252"/>
+      <c r="A26" s="280"/>
+      <c r="B26" s="240"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -25870,8 +25811,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="284"/>
-      <c r="B27" s="252"/>
+      <c r="A27" s="280"/>
+      <c r="B27" s="240"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -25883,8 +25824,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="284"/>
-      <c r="B28" s="252"/>
+      <c r="A28" s="280"/>
+      <c r="B28" s="240"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -25896,8 +25837,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="284"/>
-      <c r="B29" s="252"/>
+      <c r="A29" s="280"/>
+      <c r="B29" s="240"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -25909,8 +25850,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="284"/>
-      <c r="B30" s="252"/>
+      <c r="A30" s="280"/>
+      <c r="B30" s="240"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -25922,8 +25863,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="284"/>
-      <c r="B31" s="252"/>
+      <c r="A31" s="280"/>
+      <c r="B31" s="240"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -25935,8 +25876,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="284"/>
-      <c r="B32" s="252" t="s">
+      <c r="A32" s="280"/>
+      <c r="B32" s="240" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -25950,8 +25891,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="284"/>
-      <c r="B33" s="252"/>
+      <c r="A33" s="280"/>
+      <c r="B33" s="240"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -25963,8 +25904,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="284"/>
-      <c r="B34" s="252"/>
+      <c r="A34" s="280"/>
+      <c r="B34" s="240"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -25976,8 +25917,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="284"/>
-      <c r="B35" s="252"/>
+      <c r="A35" s="280"/>
+      <c r="B35" s="240"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -25989,8 +25930,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="284"/>
-      <c r="B36" s="252"/>
+      <c r="A36" s="280"/>
+      <c r="B36" s="240"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -26002,8 +25943,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="284"/>
-      <c r="B37" s="252"/>
+      <c r="A37" s="280"/>
+      <c r="B37" s="240"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -26015,8 +25956,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="284"/>
-      <c r="B38" s="252"/>
+      <c r="A38" s="280"/>
+      <c r="B38" s="240"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -26028,8 +25969,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="284"/>
-      <c r="B39" s="252" t="s">
+      <c r="A39" s="280"/>
+      <c r="B39" s="240" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -26043,8 +25984,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="284"/>
-      <c r="B40" s="252"/>
+      <c r="A40" s="280"/>
+      <c r="B40" s="240"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26056,8 +25997,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="284"/>
-      <c r="B41" s="252"/>
+      <c r="A41" s="280"/>
+      <c r="B41" s="240"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26069,8 +26010,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="284"/>
-      <c r="B42" s="252"/>
+      <c r="A42" s="280"/>
+      <c r="B42" s="240"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26082,8 +26023,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="284"/>
-      <c r="B43" s="252"/>
+      <c r="A43" s="280"/>
+      <c r="B43" s="240"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26095,8 +26036,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="284"/>
-      <c r="B44" s="252"/>
+      <c r="A44" s="280"/>
+      <c r="B44" s="240"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26108,8 +26049,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="284"/>
-      <c r="B45" s="252"/>
+      <c r="A45" s="280"/>
+      <c r="B45" s="240"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26121,8 +26062,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="284"/>
-      <c r="B46" s="252" t="s">
+      <c r="A46" s="280"/>
+      <c r="B46" s="240" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26136,8 +26077,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="284"/>
-      <c r="B47" s="252"/>
+      <c r="A47" s="280"/>
+      <c r="B47" s="240"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -26149,8 +26090,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="284"/>
-      <c r="B48" s="252"/>
+      <c r="A48" s="280"/>
+      <c r="B48" s="240"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -26162,8 +26103,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="284"/>
-      <c r="B49" s="252" t="s">
+      <c r="A49" s="280"/>
+      <c r="B49" s="240" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -26177,8 +26118,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="284"/>
-      <c r="B50" s="252"/>
+      <c r="A50" s="280"/>
+      <c r="B50" s="240"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -26190,8 +26131,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="284"/>
-      <c r="B51" s="252"/>
+      <c r="A51" s="280"/>
+      <c r="B51" s="240"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26203,7 +26144,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="284"/>
+      <c r="A52" s="280"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -26218,7 +26159,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="285"/>
+      <c r="A53" s="281"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -26345,50 +26286,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="248"/>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="248"/>
-      <c r="AA1" s="248"/>
-      <c r="AB1" s="248"/>
-      <c r="AC1" s="248"/>
-      <c r="AD1" s="256"/>
-      <c r="AE1" s="256"/>
-      <c r="AF1" s="256"/>
-      <c r="AG1" s="256"/>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="256"/>
-      <c r="AJ1" s="256"/>
-      <c r="AK1" s="256"/>
-      <c r="AL1" s="256"/>
-      <c r="AM1" s="256"/>
-      <c r="AN1" s="257"/>
-      <c r="AO1" s="257"/>
-      <c r="AP1" s="257"/>
-      <c r="AQ1" s="257"/>
-      <c r="AR1" s="257"/>
-      <c r="AS1" s="257"/>
-      <c r="AT1" s="257"/>
-      <c r="AU1" s="257"/>
-      <c r="AV1" s="257"/>
-      <c r="AW1" s="257"/>
-      <c r="AX1" s="257"/>
-      <c r="AY1" s="257"/>
-      <c r="AZ1" s="257"/>
-      <c r="BA1" s="257"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="233"/>
+      <c r="AO1" s="233"/>
+      <c r="AP1" s="233"/>
+      <c r="AQ1" s="233"/>
+      <c r="AR1" s="233"/>
+      <c r="AS1" s="233"/>
+      <c r="AT1" s="233"/>
+      <c r="AU1" s="233"/>
+      <c r="AV1" s="233"/>
+      <c r="AW1" s="233"/>
+      <c r="AX1" s="233"/>
+      <c r="AY1" s="233"/>
+      <c r="AZ1" s="233"/>
+      <c r="BA1" s="233"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="246" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -26425,33 +26366,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="255"/>
-      <c r="AE2" s="255"/>
-      <c r="AF2" s="255"/>
-      <c r="AG2" s="255"/>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="257"/>
-      <c r="AJ2" s="257"/>
-      <c r="AK2" s="257"/>
-      <c r="AL2" s="257"/>
-      <c r="AM2" s="257"/>
-      <c r="AN2" s="257"/>
-      <c r="AO2" s="257"/>
-      <c r="AP2" s="257"/>
-      <c r="AQ2" s="257"/>
-      <c r="AR2" s="257"/>
-      <c r="AS2" s="257"/>
-      <c r="AT2" s="257"/>
-      <c r="AU2" s="257"/>
-      <c r="AV2" s="257"/>
-      <c r="AW2" s="257"/>
-      <c r="AX2" s="257"/>
-      <c r="AY2" s="257"/>
-      <c r="AZ2" s="257"/>
-      <c r="BA2" s="257"/>
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="235"/>
+      <c r="AG2" s="235"/>
+      <c r="AH2" s="233"/>
+      <c r="AI2" s="233"/>
+      <c r="AJ2" s="233"/>
+      <c r="AK2" s="233"/>
+      <c r="AL2" s="233"/>
+      <c r="AM2" s="233"/>
+      <c r="AN2" s="233"/>
+      <c r="AO2" s="233"/>
+      <c r="AP2" s="233"/>
+      <c r="AQ2" s="233"/>
+      <c r="AR2" s="233"/>
+      <c r="AS2" s="233"/>
+      <c r="AT2" s="233"/>
+      <c r="AU2" s="233"/>
+      <c r="AV2" s="233"/>
+      <c r="AW2" s="233"/>
+      <c r="AX2" s="233"/>
+      <c r="AY2" s="233"/>
+      <c r="AZ2" s="233"/>
+      <c r="BA2" s="233"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="243"/>
+      <c r="A3" s="247"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -26509,7 +26450,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="243"/>
+      <c r="A4" s="247"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -26570,7 +26511,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="244"/>
+      <c r="A5" s="248"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -26720,7 +26661,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="246" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -26775,7 +26716,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
+      <c r="A9" s="247"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -26826,7 +26767,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
+      <c r="A10" s="247"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -26873,7 +26814,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="243"/>
+      <c r="A11" s="247"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -26897,7 +26838,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="243"/>
+      <c r="A12" s="247"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -26921,7 +26862,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="243"/>
+      <c r="A13" s="247"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -26945,7 +26886,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="243"/>
+      <c r="A14" s="247"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -26969,7 +26910,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
+      <c r="A15" s="248"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27002,7 +26943,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="243" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27028,7 +26969,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="240"/>
+      <c r="A18" s="244"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -27052,7 +26993,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="240"/>
+      <c r="A19" s="244"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27076,7 +27017,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="240"/>
+      <c r="A20" s="244"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27100,7 +27041,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="240"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27124,7 +27065,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="240"/>
+      <c r="A22" s="244"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27148,7 +27089,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="240"/>
+      <c r="A23" s="244"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27172,7 +27113,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="241"/>
+      <c r="A24" s="245"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27216,7 +27157,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="246" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27239,7 +27180,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="243"/>
+      <c r="A28" s="247"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -27260,7 +27201,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="244"/>
+      <c r="A29" s="248"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -27310,10 +27251,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="239" t="s">
+      <c r="A34" s="243" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="251" t="str">
+      <c r="B34" s="239" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -27334,8 +27275,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="240"/>
-      <c r="B35" s="252"/>
+      <c r="A35" s="244"/>
+      <c r="B35" s="240"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -27350,8 +27291,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="240"/>
-      <c r="B36" s="252"/>
+      <c r="A36" s="244"/>
+      <c r="B36" s="240"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -27366,8 +27307,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="240"/>
-      <c r="B37" s="252"/>
+      <c r="A37" s="244"/>
+      <c r="B37" s="240"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -27382,8 +27323,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="240"/>
-      <c r="B38" s="252"/>
+      <c r="A38" s="244"/>
+      <c r="B38" s="240"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -27398,8 +27339,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="240"/>
-      <c r="B39" s="252"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="240"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -27411,8 +27352,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="240"/>
-      <c r="B40" s="252"/>
+      <c r="A40" s="244"/>
+      <c r="B40" s="240"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -27424,8 +27365,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="240"/>
-      <c r="B41" s="252" t="str">
+      <c r="A41" s="244"/>
+      <c r="B41" s="240" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -27440,8 +27381,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="240"/>
-      <c r="B42" s="252"/>
+      <c r="A42" s="244"/>
+      <c r="B42" s="240"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -27453,8 +27394,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="240"/>
-      <c r="B43" s="252"/>
+      <c r="A43" s="244"/>
+      <c r="B43" s="240"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -27466,8 +27407,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="240"/>
-      <c r="B44" s="252"/>
+      <c r="A44" s="244"/>
+      <c r="B44" s="240"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -27479,8 +27420,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="240"/>
-      <c r="B45" s="252"/>
+      <c r="A45" s="244"/>
+      <c r="B45" s="240"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -27492,8 +27433,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="240"/>
-      <c r="B46" s="252"/>
+      <c r="A46" s="244"/>
+      <c r="B46" s="240"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -27505,8 +27446,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="240"/>
-      <c r="B47" s="252" t="str">
+      <c r="A47" s="244"/>
+      <c r="B47" s="240" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -27521,8 +27462,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="240"/>
-      <c r="B48" s="252"/>
+      <c r="A48" s="244"/>
+      <c r="B48" s="240"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -27534,8 +27475,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="240"/>
-      <c r="B49" s="252"/>
+      <c r="A49" s="244"/>
+      <c r="B49" s="240"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -27547,8 +27488,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="240"/>
-      <c r="B50" s="252"/>
+      <c r="A50" s="244"/>
+      <c r="B50" s="240"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -27560,8 +27501,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="240"/>
-      <c r="B51" s="252"/>
+      <c r="A51" s="244"/>
+      <c r="B51" s="240"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27573,8 +27514,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="240"/>
-      <c r="B52" s="252" t="str">
+      <c r="A52" s="244"/>
+      <c r="B52" s="240" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -27589,8 +27530,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="240"/>
-      <c r="B53" s="252"/>
+      <c r="A53" s="244"/>
+      <c r="B53" s="240"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -27602,8 +27543,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="240"/>
-      <c r="B54" s="252"/>
+      <c r="A54" s="244"/>
+      <c r="B54" s="240"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -27615,8 +27556,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="240"/>
-      <c r="B55" s="252" t="str">
+      <c r="A55" s="244"/>
+      <c r="B55" s="240" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -27631,8 +27572,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="240"/>
-      <c r="B56" s="252"/>
+      <c r="A56" s="244"/>
+      <c r="B56" s="240"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -27644,8 +27585,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="241"/>
-      <c r="B57" s="253"/>
+      <c r="A57" s="245"/>
+      <c r="B57" s="241"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -27660,10 +27601,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="245" t="s">
+      <c r="A59" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="254" t="s">
+      <c r="B59" s="242" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -27680,8 +27621,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="246"/>
-      <c r="B60" s="249"/>
+      <c r="A60" s="250"/>
+      <c r="B60" s="237"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -27699,8 +27640,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="246"/>
-      <c r="B61" s="249"/>
+      <c r="A61" s="250"/>
+      <c r="B61" s="237"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -27715,8 +27656,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="246"/>
-      <c r="B62" s="249"/>
+      <c r="A62" s="250"/>
+      <c r="B62" s="237"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -27731,8 +27672,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="246"/>
-      <c r="B63" s="249"/>
+      <c r="A63" s="250"/>
+      <c r="B63" s="237"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -27747,8 +27688,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="246"/>
-      <c r="B64" s="249"/>
+      <c r="A64" s="250"/>
+      <c r="B64" s="237"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -27763,8 +27704,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="246"/>
-      <c r="B65" s="249"/>
+      <c r="A65" s="250"/>
+      <c r="B65" s="237"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -27777,8 +27718,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="246"/>
-      <c r="B66" s="249" t="str">
+      <c r="A66" s="250"/>
+      <c r="B66" s="237" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -27794,8 +27735,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="246"/>
-      <c r="B67" s="249"/>
+      <c r="A67" s="250"/>
+      <c r="B67" s="237"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -27807,8 +27748,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="246"/>
-      <c r="B68" s="249"/>
+      <c r="A68" s="250"/>
+      <c r="B68" s="237"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -27820,8 +27761,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="246"/>
-      <c r="B69" s="249"/>
+      <c r="A69" s="250"/>
+      <c r="B69" s="237"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -27833,8 +27774,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="246"/>
-      <c r="B70" s="249"/>
+      <c r="A70" s="250"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -27846,8 +27787,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="246"/>
-      <c r="B71" s="249"/>
+      <c r="A71" s="250"/>
+      <c r="B71" s="237"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -27859,8 +27800,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="246"/>
-      <c r="B72" s="249"/>
+      <c r="A72" s="250"/>
+      <c r="B72" s="237"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -27872,8 +27813,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="246"/>
-      <c r="B73" s="249" t="str">
+      <c r="A73" s="250"/>
+      <c r="B73" s="237" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -27888,8 +27829,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="246"/>
-      <c r="B74" s="249"/>
+      <c r="A74" s="250"/>
+      <c r="B74" s="237"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -27901,8 +27842,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="246"/>
-      <c r="B75" s="249"/>
+      <c r="A75" s="250"/>
+      <c r="B75" s="237"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -27914,8 +27855,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="246"/>
-      <c r="B76" s="249"/>
+      <c r="A76" s="250"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -27927,8 +27868,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="246"/>
-      <c r="B77" s="249"/>
+      <c r="A77" s="250"/>
+      <c r="B77" s="237"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -27940,8 +27881,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="246"/>
-      <c r="B78" s="249"/>
+      <c r="A78" s="250"/>
+      <c r="B78" s="237"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -27953,8 +27894,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="246"/>
-      <c r="B79" s="249"/>
+      <c r="A79" s="250"/>
+      <c r="B79" s="237"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -27966,8 +27907,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="246"/>
-      <c r="B80" s="249" t="str">
+      <c r="A80" s="250"/>
+      <c r="B80" s="237" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -27982,8 +27923,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="246"/>
-      <c r="B81" s="249"/>
+      <c r="A81" s="250"/>
+      <c r="B81" s="237"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -27995,8 +27936,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="246"/>
-      <c r="B82" s="249"/>
+      <c r="A82" s="250"/>
+      <c r="B82" s="237"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28008,8 +27949,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="246"/>
-      <c r="B83" s="249" t="str">
+      <c r="A83" s="250"/>
+      <c r="B83" s="237" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28024,8 +27965,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="246"/>
-      <c r="B84" s="249"/>
+      <c r="A84" s="250"/>
+      <c r="B84" s="237"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28037,8 +27978,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="247"/>
-      <c r="B85" s="250"/>
+      <c r="A85" s="251"/>
+      <c r="B85" s="238"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28065,21 +28006,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28092,13 +28025,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28195,7 +28136,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="259"/>
+      <c r="C2" s="253"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -28204,7 +28145,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="259"/>
+      <c r="C3" s="253"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -28213,7 +28154,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="259"/>
+      <c r="C4" s="253"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -28222,7 +28163,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="259"/>
+      <c r="C5" s="253"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -28231,7 +28172,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="259"/>
+      <c r="C6" s="253"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -28240,7 +28181,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="259"/>
+      <c r="C7" s="253"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -28249,7 +28190,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="259"/>
+      <c r="C8" s="253"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -28258,7 +28199,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="259"/>
+      <c r="C9" s="253"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -28267,7 +28208,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="259"/>
+      <c r="C10" s="253"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -28276,7 +28217,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="259"/>
+      <c r="C11" s="253"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -28285,112 +28226,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="259"/>
+      <c r="C12" s="253"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="259"/>
+      <c r="C13" s="253"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="259"/>
+      <c r="C14" s="253"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="259"/>
+      <c r="C15" s="253"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="259"/>
+      <c r="C16" s="253"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="259"/>
+      <c r="C17" s="253"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="259"/>
+      <c r="C18" s="253"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="259"/>
+      <c r="C19" s="253"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="259"/>
+      <c r="C20" s="253"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="259"/>
+      <c r="C21" s="253"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="259"/>
+      <c r="C22" s="253"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="260"/>
+      <c r="C23" s="254"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="260"/>
+      <c r="C24" s="254"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="260"/>
+      <c r="C25" s="254"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="260"/>
+      <c r="C26" s="254"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="260"/>
+      <c r="C27" s="254"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="260"/>
+      <c r="C28" s="254"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="258"/>
+      <c r="C29" s="252"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="258"/>
+      <c r="C30" s="252"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="258"/>
+      <c r="C31" s="252"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="258"/>
+      <c r="C32" s="252"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="258"/>
+      <c r="C33" s="252"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -28463,13 +28404,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="261"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="255"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -28478,79 +28419,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="261"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="255"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="261"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="255"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="261"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="255"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
-      <c r="G6" s="266"/>
-      <c r="H6" s="266"/>
-      <c r="I6" s="261"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="255"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="261"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="260"/>
+      <c r="H7" s="260"/>
+      <c r="I7" s="255"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="261"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="255"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="261"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="255"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -28817,12 +28758,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29047,17 +28987,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29082,11 +29025,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E2AD9A-4DFB-472E-BE49-6B5DB8EE0324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9D10AB-98E7-48E6-B07A-D7A8111DC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="21" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="23" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="1174">
   <si>
     <t>Country</t>
   </si>
@@ -3592,6 +3592,165 @@
   </si>
   <si>
     <t>Rail(Freight Train)</t>
+  </si>
+  <si>
+    <t>Crude tanker (200,000+ dwt)</t>
+  </si>
+  <si>
+    <t>Crude tanker (120,000–199,999 dwt)</t>
+  </si>
+  <si>
+    <t>Crude tanker (80,000–119,999 dwt)</t>
+  </si>
+  <si>
+    <t>Crude tanker (60,000–79,999 dwt)</t>
+  </si>
+  <si>
+    <t>Crude tanker(10,000–59,999 dwt)</t>
+  </si>
+  <si>
+    <t>Crude tanker (0–9999 dwt)</t>
+  </si>
+  <si>
+    <t>Crude tanker (Average)</t>
+  </si>
+  <si>
+    <t>Products tanker (60,000+ dwt)</t>
+  </si>
+  <si>
+    <t>Products tanker (20,000–59,999 dwt)</t>
+  </si>
+  <si>
+    <t>Products tanker (10,000–19,999 dwt)</t>
+  </si>
+  <si>
+    <t>Products tanker (5,000–9,999 dwt)</t>
+  </si>
+  <si>
+    <t>Products tanker (0–4,999 dwt)</t>
+  </si>
+  <si>
+    <t>Products tanker (Average)</t>
+  </si>
+  <si>
+    <t>Chemical tanker (20,000+ dwt)</t>
+  </si>
+  <si>
+    <t>Chemical tanker (10,000–19,999 dwt)</t>
+  </si>
+  <si>
+    <t>Chemical tanker (5,000–9,999 dwt)</t>
+  </si>
+  <si>
+    <t>Chemical tanker (0–4,999 dwt)</t>
+  </si>
+  <si>
+    <t>Chemical tanker (Average)</t>
+  </si>
+  <si>
+    <t>LNG tanker (200,000+ m3)</t>
+  </si>
+  <si>
+    <t>LNG tanker (0–199,999 m3)</t>
+  </si>
+  <si>
+    <t>LNG tanker (Average)</t>
+  </si>
+  <si>
+    <t>LPG tanker (50,000+ m3)</t>
+  </si>
+  <si>
+    <t>LPG tanker (0–49,999 m3)</t>
+  </si>
+  <si>
+    <t>LPG tanker (Average)</t>
+  </si>
+  <si>
+    <t>Bulk carrier (200,000+ dwt)</t>
+  </si>
+  <si>
+    <t>Bulk carrier (100,000–199,999 dwt)</t>
+  </si>
+  <si>
+    <t>Bulk carrier (60,000–99,999 dwt)</t>
+  </si>
+  <si>
+    <t>Bulk carrier (Average)</t>
+  </si>
+  <si>
+    <t>Bulk carrier (35,000–59,999 dwt)</t>
+  </si>
+  <si>
+    <t>Bulk carrier (10,000-34,999 dwt)</t>
+  </si>
+  <si>
+    <t>Bulk carrier (0–9999 dwt)</t>
+  </si>
+  <si>
+    <t>General cargo (10,000+ dwt)</t>
+  </si>
+  <si>
+    <t>General cargo (5,000–9,999 dwt)</t>
+  </si>
+  <si>
+    <t>General cargo (0–4,999 dwt)</t>
+  </si>
+  <si>
+    <t>General cargo (10,000+ dwt 100+ TEU)</t>
+  </si>
+  <si>
+    <t>General cargo (5,000–9,999 dwt 100+ TEU)</t>
+  </si>
+  <si>
+    <t>General cargo (0–4,999 dwt 100+ TEU)</t>
+  </si>
+  <si>
+    <t>General cargo (Average)</t>
+  </si>
+  <si>
+    <t>Container ship (8000+ TEU)</t>
+  </si>
+  <si>
+    <t>Container ship (5000–7999 TEU)</t>
+  </si>
+  <si>
+    <t>Container ship (3000–4999 TEU)</t>
+  </si>
+  <si>
+    <t>Container ship (2000–2999 TEU)</t>
+  </si>
+  <si>
+    <t>Container ship (1000–1999 TEU)</t>
+  </si>
+  <si>
+    <t>Container ship (0–999 TEU)</t>
+  </si>
+  <si>
+    <t>Container ship (Average)</t>
+  </si>
+  <si>
+    <t>Vehicle transport (4000+ CEU)</t>
+  </si>
+  <si>
+    <t>Vehicle transport (0–3999 CEU)</t>
+  </si>
+  <si>
+    <t>Vehicle transport (Average)</t>
+  </si>
+  <si>
+    <t>Ro-Ro ferry (2000+ LM)</t>
+  </si>
+  <si>
+    <t>Ro-Ro ferry (0–1999 LM)</t>
+  </si>
+  <si>
+    <t>Ro-Ro ferry (Average)</t>
+  </si>
+  <si>
+    <t>Large passenger ferry (Average)</t>
+  </si>
+  <si>
+    <t>Refrigerated cargo (All dwt)</t>
   </si>
 </sst>
 </file>
@@ -4895,7 +5054,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5554,6 +5713,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5580,36 +5769,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5665,6 +5824,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5683,14 +5848,23 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -22082,20 +22256,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="264"/>
-      <c r="AO1" s="264"/>
-      <c r="AP1" s="264"/>
-      <c r="AQ1" s="264"/>
-      <c r="AR1" s="264"/>
-      <c r="AS1" s="264"/>
-      <c r="AT1" s="264"/>
-      <c r="AU1" s="264"/>
-      <c r="AV1" s="264"/>
-      <c r="AW1" s="264"/>
-      <c r="AX1" s="264"/>
-      <c r="AY1" s="264"/>
-      <c r="AZ1" s="264"/>
-      <c r="BA1" s="264"/>
+      <c r="AN1" s="246"/>
+      <c r="AO1" s="246"/>
+      <c r="AP1" s="246"/>
+      <c r="AQ1" s="246"/>
+      <c r="AR1" s="246"/>
+      <c r="AS1" s="246"/>
+      <c r="AT1" s="246"/>
+      <c r="AU1" s="246"/>
+      <c r="AV1" s="246"/>
+      <c r="AW1" s="246"/>
+      <c r="AX1" s="246"/>
+      <c r="AY1" s="246"/>
+      <c r="AZ1" s="246"/>
+      <c r="BA1" s="246"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22114,7 +22288,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="287" t="s">
+      <c r="H2" s="289" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22136,7 +22310,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="287" t="s">
+      <c r="P2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22167,10 +22341,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="290" t="s">
+      <c r="AC2" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="293" t="s">
+      <c r="AD2" s="287" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22182,26 +22356,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="264"/>
-      <c r="AI2" s="264"/>
-      <c r="AJ2" s="264"/>
-      <c r="AK2" s="264"/>
-      <c r="AL2" s="264"/>
-      <c r="AM2" s="264"/>
-      <c r="AN2" s="264"/>
-      <c r="AO2" s="264"/>
-      <c r="AP2" s="264"/>
-      <c r="AQ2" s="264"/>
-      <c r="AR2" s="264"/>
-      <c r="AS2" s="264"/>
-      <c r="AT2" s="264"/>
-      <c r="AU2" s="264"/>
-      <c r="AV2" s="264"/>
-      <c r="AW2" s="264"/>
-      <c r="AX2" s="264"/>
-      <c r="AY2" s="264"/>
-      <c r="AZ2" s="264"/>
-      <c r="BA2" s="264"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="246"/>
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="246"/>
+      <c r="BA2" s="246"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22222,7 +22396,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="288"/>
+      <c r="H3" s="290"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22242,7 +22416,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="288"/>
+      <c r="P3" s="290"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22263,8 +22437,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="291"/>
-      <c r="AD3" s="256"/>
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="250"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22309,7 +22483,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="288"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22329,7 +22503,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="289"/>
+      <c r="P4" s="291"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22349,8 +22523,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="291"/>
-      <c r="AD4" s="256"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="250"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22398,7 +22572,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="288"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22423,8 +22597,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="291"/>
-      <c r="AD5" s="256"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="250"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22457,7 +22631,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="288"/>
+      <c r="H6" s="290"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22484,8 +22658,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="291"/>
-      <c r="AD6" s="256"/>
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="250"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22523,7 +22697,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="288"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22550,8 +22724,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="291"/>
-      <c r="AD7" s="256"/>
+      <c r="AC7" s="293"/>
+      <c r="AD7" s="250"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22586,7 +22760,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="288"/>
+      <c r="H8" s="290"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22613,8 +22787,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="291"/>
-      <c r="AD8" s="256"/>
+      <c r="AC8" s="293"/>
+      <c r="AD8" s="250"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22649,7 +22823,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="289"/>
+      <c r="H9" s="291"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22676,8 +22850,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="291"/>
-      <c r="AD9" s="256" t="s">
+      <c r="AC9" s="293"/>
+      <c r="AD9" s="250" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22720,8 +22894,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="291"/>
-      <c r="AD10" s="256"/>
+      <c r="AC10" s="293"/>
+      <c r="AD10" s="250"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22754,7 +22928,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="290" t="s">
+      <c r="H11" s="292" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22775,8 +22949,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="291"/>
-      <c r="AD11" s="256"/>
+      <c r="AC11" s="293"/>
+      <c r="AD11" s="250"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22795,7 +22969,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="291"/>
+      <c r="H12" s="293"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22814,8 +22988,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="291"/>
-      <c r="AD12" s="256"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="250"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -22834,7 +23008,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="291"/>
+      <c r="H13" s="293"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -22853,8 +23027,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="291"/>
-      <c r="AD13" s="256"/>
+      <c r="AC13" s="293"/>
+      <c r="AD13" s="250"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -22873,7 +23047,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="291"/>
+      <c r="H14" s="293"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -22892,8 +23066,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="291"/>
-      <c r="AD14" s="256"/>
+      <c r="AC14" s="293"/>
+      <c r="AD14" s="250"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -22912,7 +23086,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="291"/>
+      <c r="H15" s="293"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -22931,8 +23105,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="291"/>
-      <c r="AD15" s="256" t="s">
+      <c r="AC15" s="293"/>
+      <c r="AD15" s="250" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -22950,7 +23124,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="291"/>
+      <c r="H16" s="293"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -22969,8 +23143,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="291"/>
-      <c r="AD16" s="256"/>
+      <c r="AC16" s="293"/>
+      <c r="AD16" s="250"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -22989,7 +23163,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="291"/>
+      <c r="H17" s="293"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23008,8 +23182,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="291"/>
-      <c r="AD17" s="256"/>
+      <c r="AC17" s="293"/>
+      <c r="AD17" s="250"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23028,7 +23202,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="292"/>
+      <c r="H18" s="294"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23047,8 +23221,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="291"/>
-      <c r="AD18" s="256"/>
+      <c r="AC18" s="293"/>
+      <c r="AD18" s="250"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23067,8 +23241,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="291"/>
-      <c r="AD19" s="256"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="250"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23087,8 +23261,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="291"/>
-      <c r="AD20" s="256" t="s">
+      <c r="AC20" s="293"/>
+      <c r="AD20" s="250" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23109,8 +23283,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="291"/>
-      <c r="AD21" s="256"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="250"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23129,8 +23303,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="291"/>
-      <c r="AD22" s="256"/>
+      <c r="AC22" s="293"/>
+      <c r="AD22" s="250"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23149,8 +23323,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="291"/>
-      <c r="AD23" s="256" t="s">
+      <c r="AC23" s="293"/>
+      <c r="AD23" s="250" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23171,8 +23345,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="291"/>
-      <c r="AD24" s="256"/>
+      <c r="AC24" s="293"/>
+      <c r="AD24" s="250"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23185,8 +23359,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="292"/>
-      <c r="AD25" s="294"/>
+      <c r="AC25" s="294"/>
+      <c r="AD25" s="288"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23203,10 +23377,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="290" t="s">
+      <c r="AC27" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="293" t="s">
+      <c r="AD27" s="287" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23223,8 +23397,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="291"/>
-      <c r="AD28" s="256"/>
+      <c r="AC28" s="293"/>
+      <c r="AD28" s="250"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23239,8 +23413,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="291"/>
-      <c r="AD29" s="256"/>
+      <c r="AC29" s="293"/>
+      <c r="AD29" s="250"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23252,8 +23426,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="291"/>
-      <c r="AD30" s="256"/>
+      <c r="AC30" s="293"/>
+      <c r="AD30" s="250"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23267,8 +23441,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="291"/>
-      <c r="AD31" s="256"/>
+      <c r="AC31" s="293"/>
+      <c r="AD31" s="250"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23280,8 +23454,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="291"/>
-      <c r="AD32" s="256"/>
+      <c r="AC32" s="293"/>
+      <c r="AD32" s="250"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23294,8 +23468,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="291"/>
-      <c r="AD33" s="256"/>
+      <c r="AC33" s="293"/>
+      <c r="AD33" s="250"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23312,8 +23486,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="291"/>
-      <c r="AD34" s="256" t="s">
+      <c r="AC34" s="293"/>
+      <c r="AD34" s="250" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23332,8 +23506,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="291"/>
-      <c r="AD35" s="256"/>
+      <c r="AC35" s="293"/>
+      <c r="AD35" s="250"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23350,8 +23524,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="291"/>
-      <c r="AD36" s="256"/>
+      <c r="AC36" s="293"/>
+      <c r="AD36" s="250"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23368,8 +23542,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="291"/>
-      <c r="AD37" s="256"/>
+      <c r="AC37" s="293"/>
+      <c r="AD37" s="250"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23386,8 +23560,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="291"/>
-      <c r="AD38" s="256"/>
+      <c r="AC38" s="293"/>
+      <c r="AD38" s="250"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23404,8 +23578,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="291"/>
-      <c r="AD39" s="256"/>
+      <c r="AC39" s="293"/>
+      <c r="AD39" s="250"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23422,8 +23596,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="291"/>
-      <c r="AD40" s="256"/>
+      <c r="AC40" s="293"/>
+      <c r="AD40" s="250"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23440,8 +23614,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="291"/>
-      <c r="AD41" s="256" t="s">
+      <c r="AC41" s="293"/>
+      <c r="AD41" s="250" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23460,8 +23634,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="291"/>
-      <c r="AD42" s="256"/>
+      <c r="AC42" s="293"/>
+      <c r="AD42" s="250"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23478,8 +23652,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="291"/>
-      <c r="AD43" s="256"/>
+      <c r="AC43" s="293"/>
+      <c r="AD43" s="250"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23496,8 +23670,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="291"/>
-      <c r="AD44" s="256"/>
+      <c r="AC44" s="293"/>
+      <c r="AD44" s="250"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23514,8 +23688,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="291"/>
-      <c r="AD45" s="256"/>
+      <c r="AC45" s="293"/>
+      <c r="AD45" s="250"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23532,8 +23706,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="291"/>
-      <c r="AD46" s="256"/>
+      <c r="AC46" s="293"/>
+      <c r="AD46" s="250"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23550,8 +23724,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="291"/>
-      <c r="AD47" s="256"/>
+      <c r="AC47" s="293"/>
+      <c r="AD47" s="250"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23568,8 +23742,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="291"/>
-      <c r="AD48" s="256" t="s">
+      <c r="AC48" s="293"/>
+      <c r="AD48" s="250" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23588,8 +23762,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="291"/>
-      <c r="AD49" s="256"/>
+      <c r="AC49" s="293"/>
+      <c r="AD49" s="250"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23606,8 +23780,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="291"/>
-      <c r="AD50" s="256"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="250"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23624,8 +23798,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="291"/>
-      <c r="AD51" s="256" t="s">
+      <c r="AC51" s="293"/>
+      <c r="AD51" s="250" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23644,8 +23818,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="291"/>
-      <c r="AD52" s="256"/>
+      <c r="AC52" s="293"/>
+      <c r="AD52" s="250"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23662,8 +23836,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="291"/>
-      <c r="AD53" s="256"/>
+      <c r="AC53" s="293"/>
+      <c r="AD53" s="250"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23680,7 +23854,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="291"/>
+      <c r="AC54" s="293"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23700,7 +23874,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="292"/>
+      <c r="AC55" s="294"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -23933,11 +24107,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -23954,11 +24128,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24018,7 +24192,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24344,7 +24518,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="288"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24365,7 +24539,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="288"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24386,7 +24560,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="288"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24407,7 +24581,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="288"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24428,7 +24602,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="288"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24449,7 +24623,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="288"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24470,7 +24644,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="289"/>
+      <c r="A9" s="291"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24491,7 +24665,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="287" t="s">
+      <c r="A10" s="289" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24514,7 +24688,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="288"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24535,7 +24709,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="288"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24556,7 +24730,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="288"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24577,7 +24751,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="288"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24598,7 +24772,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="288"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24619,7 +24793,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="288"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24640,7 +24814,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="289"/>
+      <c r="A17" s="291"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25341,7 +25515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -25378,7 +25552,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25397,7 +25571,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="288"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25414,7 +25588,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="289"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25520,7 +25694,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25593,10 +25767,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295B0C8-B8D2-4684-B32D-14EED3B83A5D}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25605,13 +25779,15 @@
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="289" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="297" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25623,10 +25799,19 @@
       <c r="E1" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="288"/>
-      <c r="B2" s="259"/>
+      <c r="L1" s="228" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="290"/>
+      <c r="B2" s="296"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25636,10 +25821,19 @@
       <c r="E2" s="11">
         <v>1.01E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="288"/>
-      <c r="B3" s="259"/>
+      <c r="L2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="10">
+        <v>6.7000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="290"/>
+      <c r="B3" s="296"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -25649,10 +25843,19 @@
       <c r="E3" s="11">
         <v>1.3500000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="288"/>
-      <c r="B4" s="259"/>
+      <c r="L3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1.01E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="290"/>
+      <c r="B4" s="296"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -25662,10 +25865,19 @@
       <c r="E4" s="11">
         <v>1.72E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="288"/>
-      <c r="B5" s="259"/>
+      <c r="L4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="11">
+        <v>1.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="290"/>
+      <c r="B5" s="296"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -25675,10 +25887,19 @@
       <c r="E5" s="11">
         <v>2.0899999999999998E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="288"/>
-      <c r="B6" s="259"/>
+      <c r="L5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1.72E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="290"/>
+      <c r="B6" s="296"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -25688,10 +25909,19 @@
       <c r="E6" s="11">
         <v>7.6400000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="288"/>
-      <c r="B7" s="259"/>
+      <c r="L6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="11">
+        <v>2.0899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="290"/>
+      <c r="B7" s="296"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -25701,10 +25931,19 @@
       <c r="E7" s="11">
         <v>1.0399999999999999E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="288"/>
-      <c r="B8" s="259" t="s">
+      <c r="L7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="11">
+        <v>7.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="290"/>
+      <c r="B8" s="296" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -25716,10 +25955,19 @@
       <c r="E8" s="11">
         <v>1.31E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="288"/>
-      <c r="B9" s="259"/>
+      <c r="L8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.0399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="290"/>
+      <c r="B9" s="296"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -25729,10 +25977,19 @@
       <c r="E9" s="11">
         <v>2.3600000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="288"/>
-      <c r="B10" s="259"/>
+      <c r="L9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1.31E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="290"/>
+      <c r="B10" s="296"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -25742,10 +25999,19 @@
       <c r="E10" s="11">
         <v>4.2900000000000004E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="288"/>
-      <c r="B11" s="259"/>
+      <c r="L10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="290"/>
+      <c r="B11" s="296"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -25755,10 +26021,19 @@
       <c r="E11" s="11">
         <v>6.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="288"/>
-      <c r="B12" s="259"/>
+      <c r="L11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="11">
+        <v>4.2900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="290"/>
+      <c r="B12" s="296"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -25768,10 +26043,19 @@
       <c r="E12" s="11">
         <v>1.0330000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="288"/>
-      <c r="B13" s="259"/>
+      <c r="L12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="11">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="290"/>
+      <c r="B13" s="296"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -25781,10 +26065,19 @@
       <c r="E13" s="11">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="288"/>
-      <c r="B14" s="259" t="s">
+      <c r="L13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.0330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="290"/>
+      <c r="B14" s="296" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -25796,10 +26089,19 @@
       <c r="E14" s="11">
         <v>1.9300000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="288"/>
-      <c r="B15" s="259"/>
+      <c r="L14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="11">
+        <v>2.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="290"/>
+      <c r="B15" s="296"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -25809,10 +26111,19 @@
       <c r="E15" s="11">
         <v>2.48E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="288"/>
-      <c r="B16" s="259"/>
+      <c r="L15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.9300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="290"/>
+      <c r="B16" s="296"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -25822,10 +26133,19 @@
       <c r="E16" s="11">
         <v>3.47E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="288"/>
-      <c r="B17" s="259"/>
+      <c r="L16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="11">
+        <v>2.48E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="290"/>
+      <c r="B17" s="296"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -25835,10 +26155,19 @@
       <c r="E17" s="11">
         <v>5.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="288"/>
-      <c r="B18" s="259"/>
+      <c r="L17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="11">
+        <v>3.47E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="290"/>
+      <c r="B18" s="296"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -25848,10 +26177,19 @@
       <c r="E18" s="11">
         <v>2.3400000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="288"/>
-      <c r="B19" s="259" t="s">
+      <c r="L18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="11">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="290"/>
+      <c r="B19" s="296" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -25863,10 +26201,19 @@
       <c r="E19" s="11">
         <v>2.14E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="288"/>
-      <c r="B20" s="259"/>
+      <c r="L19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="11">
+        <v>2.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="290"/>
+      <c r="B20" s="296"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -25876,10 +26223,19 @@
       <c r="E20" s="11">
         <v>3.3300000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="288"/>
-      <c r="B21" s="259"/>
+      <c r="L20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="11">
+        <v>2.14E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="290"/>
+      <c r="B21" s="296"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -25889,10 +26245,19 @@
       <c r="E21" s="11">
         <v>2.6199999999999999E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="288"/>
-      <c r="B22" s="259" t="s">
+      <c r="L21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="11">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="290"/>
+      <c r="B22" s="296" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -25904,10 +26269,19 @@
       <c r="E22" s="11">
         <v>2.0699999999999998E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="288"/>
-      <c r="B23" s="259"/>
+      <c r="L22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="11">
+        <v>2.6199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="290"/>
+      <c r="B23" s="296"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -25917,10 +26291,19 @@
       <c r="E23" s="11">
         <v>9.9900000000000006E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="289"/>
-      <c r="B24" s="260"/>
+      <c r="L23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="11">
+        <v>2.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="291"/>
+      <c r="B24" s="298"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -25930,12 +26313,21 @@
       <c r="E24" s="14">
         <v>2.3500000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="290" t="s">
+      <c r="L24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="11">
+        <v>9.9900000000000006E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="258" t="s">
+      <c r="B25" s="297" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -25947,10 +26339,19 @@
       <c r="E25" s="10">
         <v>5.6999999999999998E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="291"/>
-      <c r="B26" s="259"/>
+      <c r="L25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="14">
+        <v>2.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="293"/>
+      <c r="B26" s="296"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -25960,10 +26361,19 @@
       <c r="E26" s="11">
         <v>6.8999999999999997E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="291"/>
-      <c r="B27" s="259"/>
+      <c r="L26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="10">
+        <v>5.6999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="293"/>
+      <c r="B27" s="296"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -25973,10 +26383,19 @@
       <c r="E27" s="11">
         <v>9.3999999999999997E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="291"/>
-      <c r="B28" s="259"/>
+      <c r="L27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="11">
+        <v>6.8999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="293"/>
+      <c r="B28" s="296"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -25986,10 +26405,19 @@
       <c r="E28" s="11">
         <v>1.31E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="291"/>
-      <c r="B29" s="259"/>
+      <c r="L28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="11">
+        <v>9.3999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="293"/>
+      <c r="B29" s="296"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -25999,10 +26427,19 @@
       <c r="E29" s="11">
         <v>1.81E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="291"/>
-      <c r="B30" s="259"/>
+      <c r="L29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="11">
+        <v>1.31E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="293"/>
+      <c r="B30" s="296"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -26012,10 +26449,19 @@
       <c r="E30" s="11">
         <v>6.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="291"/>
-      <c r="B31" s="259"/>
+      <c r="L30" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="11">
+        <v>1.81E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="293"/>
+      <c r="B31" s="296"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -26025,10 +26471,19 @@
       <c r="E31" s="11">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="291"/>
-      <c r="B32" s="259" t="s">
+      <c r="L31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="11">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="293"/>
+      <c r="B32" s="296" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -26040,10 +26495,19 @@
       <c r="E32" s="11">
         <v>2.7299999999999998E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="291"/>
-      <c r="B33" s="259"/>
+      <c r="L32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="11">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="293"/>
+      <c r="B33" s="296"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -26053,10 +26517,19 @@
       <c r="E33" s="11">
         <v>3.63E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="291"/>
-      <c r="B34" s="259"/>
+      <c r="L33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N33" s="11">
+        <v>2.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="293"/>
+      <c r="B34" s="296"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -26066,10 +26539,19 @@
       <c r="E34" s="11">
         <v>3.1900000000000001E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="291"/>
-      <c r="B35" s="259"/>
+      <c r="L34" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="11">
+        <v>3.63E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="293"/>
+      <c r="B35" s="296"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -26079,10 +26561,19 @@
       <c r="E35" s="11">
         <v>2.5300000000000001E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="291"/>
-      <c r="B36" s="259"/>
+      <c r="L35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="11">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="293"/>
+      <c r="B36" s="296"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -26092,10 +26583,19 @@
       <c r="E36" s="11">
         <v>4.0200000000000001E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="291"/>
-      <c r="B37" s="259"/>
+      <c r="L36" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="11">
+        <v>2.5300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="293"/>
+      <c r="B37" s="296"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -26105,10 +26605,19 @@
       <c r="E37" s="11">
         <v>4.5500000000000002E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="291"/>
-      <c r="B38" s="259"/>
+      <c r="L37" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" s="11">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="293"/>
+      <c r="B38" s="296"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -26118,10 +26627,19 @@
       <c r="E38" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="291"/>
-      <c r="B39" s="259" t="s">
+      <c r="L38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="11">
+        <v>4.5500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="293"/>
+      <c r="B39" s="296" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -26133,10 +26651,19 @@
       <c r="E39" s="11">
         <v>2.8700000000000002E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="291"/>
-      <c r="B40" s="259"/>
+      <c r="L39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="293"/>
+      <c r="B40" s="296"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26146,10 +26673,19 @@
       <c r="E40" s="11">
         <v>3.81E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="291"/>
-      <c r="B41" s="259"/>
+      <c r="L40" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" s="11">
+        <v>2.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="293"/>
+      <c r="B41" s="296"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26159,10 +26695,19 @@
       <c r="E41" s="11">
         <v>3.81E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="291"/>
-      <c r="B42" s="259"/>
+      <c r="L41" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" s="11">
+        <v>3.81E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="293"/>
+      <c r="B42" s="296"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26172,10 +26717,19 @@
       <c r="E42" s="11">
         <v>4.5900000000000003E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="291"/>
-      <c r="B43" s="259"/>
+      <c r="L42" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="11">
+        <v>3.81E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="293"/>
+      <c r="B43" s="296"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26185,10 +26739,19 @@
       <c r="E43" s="11">
         <v>7.3699999999999998E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="291"/>
-      <c r="B44" s="259"/>
+      <c r="L43" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" s="11">
+        <v>4.5900000000000003E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="293"/>
+      <c r="B44" s="296"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26198,10 +26761,19 @@
       <c r="E44" s="11">
         <v>8.3300000000000006E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="291"/>
-      <c r="B45" s="259"/>
+      <c r="L44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N44" s="11">
+        <v>7.3699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="293"/>
+      <c r="B45" s="296"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26211,10 +26783,19 @@
       <c r="E45" s="11">
         <v>3.65E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="291"/>
-      <c r="B46" s="259" t="s">
+      <c r="L45" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="11">
+        <v>8.3300000000000006E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="293"/>
+      <c r="B46" s="296" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26226,10 +26807,19 @@
       <c r="E46" s="11">
         <v>7.3499999999999998E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="291"/>
-      <c r="B47" s="259"/>
+      <c r="L46" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="11">
+        <v>3.65E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="293"/>
+      <c r="B47" s="296"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -26239,10 +26829,19 @@
       <c r="E47" s="11">
         <v>1.3220000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="291"/>
-      <c r="B48" s="259"/>
+      <c r="L47" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N47" s="11">
+        <v>7.3499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="293"/>
+      <c r="B48" s="296"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -26252,10 +26851,19 @@
       <c r="E48" s="11">
         <v>8.7299999999999999E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="291"/>
-      <c r="B49" s="259" t="s">
+      <c r="L48" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="11">
+        <v>1.3220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="293"/>
+      <c r="B49" s="296" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -26267,10 +26875,19 @@
       <c r="E49" s="11">
         <v>1.136E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="291"/>
-      <c r="B50" s="259"/>
+      <c r="L49" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="11">
+        <v>8.7299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="293"/>
+      <c r="B50" s="296"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -26280,10 +26897,19 @@
       <c r="E50" s="11">
         <v>1.384E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="291"/>
-      <c r="B51" s="259"/>
+      <c r="L50" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N50" s="11">
+        <v>1.136E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="293"/>
+      <c r="B51" s="296"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26293,10 +26919,19 @@
       <c r="E51" s="11">
         <v>1.17E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="291"/>
-      <c r="B52" s="19" t="s">
+      <c r="L51" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="11">
+        <v>1.384E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="293"/>
+      <c r="B52" s="299" t="s">
         <v>179</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -26308,10 +26943,19 @@
       <c r="E52" s="11">
         <v>8.5279999999999995E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="292"/>
-      <c r="B53" s="20" t="s">
+      <c r="L52" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N52" s="11">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="294"/>
+      <c r="B53" s="300" t="s">
         <v>180</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -26321,6 +26965,26 @@
         <v>123</v>
       </c>
       <c r="E53" s="14">
+        <v>2.96E-3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N53" s="11">
+        <v>8.5279999999999995E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L54" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N54" s="14">
         <v>2.96E-3</v>
       </c>
     </row>
@@ -26437,50 +27101,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="255"/>
-      <c r="U1" s="255"/>
-      <c r="V1" s="255"/>
-      <c r="W1" s="255"/>
-      <c r="X1" s="255"/>
-      <c r="Y1" s="255"/>
-      <c r="Z1" s="255"/>
-      <c r="AA1" s="255"/>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="255"/>
-      <c r="AD1" s="263"/>
-      <c r="AE1" s="263"/>
-      <c r="AF1" s="263"/>
-      <c r="AG1" s="263"/>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="263"/>
-      <c r="AJ1" s="263"/>
-      <c r="AK1" s="263"/>
-      <c r="AL1" s="263"/>
-      <c r="AM1" s="263"/>
-      <c r="AN1" s="264"/>
-      <c r="AO1" s="264"/>
-      <c r="AP1" s="264"/>
-      <c r="AQ1" s="264"/>
-      <c r="AR1" s="264"/>
-      <c r="AS1" s="264"/>
-      <c r="AT1" s="264"/>
-      <c r="AU1" s="264"/>
-      <c r="AV1" s="264"/>
-      <c r="AW1" s="264"/>
-      <c r="AX1" s="264"/>
-      <c r="AY1" s="264"/>
-      <c r="AZ1" s="264"/>
-      <c r="BA1" s="264"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
+      <c r="AD1" s="249"/>
+      <c r="AE1" s="249"/>
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="249"/>
+      <c r="AH1" s="249"/>
+      <c r="AI1" s="249"/>
+      <c r="AJ1" s="249"/>
+      <c r="AK1" s="249"/>
+      <c r="AL1" s="249"/>
+      <c r="AM1" s="249"/>
+      <c r="AN1" s="246"/>
+      <c r="AO1" s="246"/>
+      <c r="AP1" s="246"/>
+      <c r="AQ1" s="246"/>
+      <c r="AR1" s="246"/>
+      <c r="AS1" s="246"/>
+      <c r="AT1" s="246"/>
+      <c r="AU1" s="246"/>
+      <c r="AV1" s="246"/>
+      <c r="AW1" s="246"/>
+      <c r="AX1" s="246"/>
+      <c r="AY1" s="246"/>
+      <c r="AZ1" s="246"/>
+      <c r="BA1" s="246"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="259" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -26517,33 +27181,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="262"/>
-      <c r="AE2" s="262"/>
-      <c r="AF2" s="262"/>
-      <c r="AG2" s="262"/>
-      <c r="AH2" s="264"/>
-      <c r="AI2" s="264"/>
-      <c r="AJ2" s="264"/>
-      <c r="AK2" s="264"/>
-      <c r="AL2" s="264"/>
-      <c r="AM2" s="264"/>
-      <c r="AN2" s="264"/>
-      <c r="AO2" s="264"/>
-      <c r="AP2" s="264"/>
-      <c r="AQ2" s="264"/>
-      <c r="AR2" s="264"/>
-      <c r="AS2" s="264"/>
-      <c r="AT2" s="264"/>
-      <c r="AU2" s="264"/>
-      <c r="AV2" s="264"/>
-      <c r="AW2" s="264"/>
-      <c r="AX2" s="264"/>
-      <c r="AY2" s="264"/>
-      <c r="AZ2" s="264"/>
-      <c r="BA2" s="264"/>
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="248"/>
+      <c r="AG2" s="248"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="246"/>
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="246"/>
+      <c r="BA2" s="246"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="250"/>
+      <c r="A3" s="260"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -26601,7 +27265,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="250"/>
+      <c r="A4" s="260"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -26662,7 +27326,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="251"/>
+      <c r="A5" s="261"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -26812,7 +27476,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="249" t="s">
+      <c r="A8" s="259" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -26867,7 +27531,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="250"/>
+      <c r="A9" s="260"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -26918,7 +27582,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="250"/>
+      <c r="A10" s="260"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -26965,7 +27629,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="250"/>
+      <c r="A11" s="260"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -26989,7 +27653,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="250"/>
+      <c r="A12" s="260"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27013,7 +27677,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="250"/>
+      <c r="A13" s="260"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27037,7 +27701,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="250"/>
+      <c r="A14" s="260"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27061,7 +27725,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="251"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27094,7 +27758,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="256" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27120,7 +27784,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="247"/>
+      <c r="A18" s="257"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -27144,7 +27808,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="247"/>
+      <c r="A19" s="257"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27168,7 +27832,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="247"/>
+      <c r="A20" s="257"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27192,7 +27856,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="247"/>
+      <c r="A21" s="257"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27216,7 +27880,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="247"/>
+      <c r="A22" s="257"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27240,7 +27904,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="247"/>
+      <c r="A23" s="257"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27264,7 +27928,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="248"/>
+      <c r="A24" s="258"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27308,7 +27972,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="249" t="s">
+      <c r="A27" s="259" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27331,7 +27995,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="250"/>
+      <c r="A28" s="260"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -27352,7 +28016,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="251"/>
+      <c r="A29" s="261"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -27402,10 +28066,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="246" t="s">
+      <c r="A34" s="256" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="258" t="str">
+      <c r="B34" s="252" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -27426,8 +28090,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="247"/>
-      <c r="B35" s="259"/>
+      <c r="A35" s="257"/>
+      <c r="B35" s="253"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -27442,8 +28106,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="247"/>
-      <c r="B36" s="259"/>
+      <c r="A36" s="257"/>
+      <c r="B36" s="253"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -27458,8 +28122,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="247"/>
-      <c r="B37" s="259"/>
+      <c r="A37" s="257"/>
+      <c r="B37" s="253"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -27474,8 +28138,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="247"/>
-      <c r="B38" s="259"/>
+      <c r="A38" s="257"/>
+      <c r="B38" s="253"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -27490,8 +28154,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="247"/>
-      <c r="B39" s="259"/>
+      <c r="A39" s="257"/>
+      <c r="B39" s="253"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -27503,8 +28167,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="247"/>
-      <c r="B40" s="259"/>
+      <c r="A40" s="257"/>
+      <c r="B40" s="253"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -27516,8 +28180,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="247"/>
-      <c r="B41" s="259" t="str">
+      <c r="A41" s="257"/>
+      <c r="B41" s="253" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -27532,8 +28196,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="247"/>
-      <c r="B42" s="259"/>
+      <c r="A42" s="257"/>
+      <c r="B42" s="253"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -27545,8 +28209,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="247"/>
-      <c r="B43" s="259"/>
+      <c r="A43" s="257"/>
+      <c r="B43" s="253"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -27558,8 +28222,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="247"/>
-      <c r="B44" s="259"/>
+      <c r="A44" s="257"/>
+      <c r="B44" s="253"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -27571,8 +28235,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="247"/>
-      <c r="B45" s="259"/>
+      <c r="A45" s="257"/>
+      <c r="B45" s="253"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -27584,8 +28248,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="247"/>
-      <c r="B46" s="259"/>
+      <c r="A46" s="257"/>
+      <c r="B46" s="253"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -27597,8 +28261,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="247"/>
-      <c r="B47" s="259" t="str">
+      <c r="A47" s="257"/>
+      <c r="B47" s="253" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -27613,8 +28277,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="247"/>
-      <c r="B48" s="259"/>
+      <c r="A48" s="257"/>
+      <c r="B48" s="253"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -27626,8 +28290,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="247"/>
-      <c r="B49" s="259"/>
+      <c r="A49" s="257"/>
+      <c r="B49" s="253"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -27639,8 +28303,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="247"/>
-      <c r="B50" s="259"/>
+      <c r="A50" s="257"/>
+      <c r="B50" s="253"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -27652,8 +28316,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="247"/>
-      <c r="B51" s="259"/>
+      <c r="A51" s="257"/>
+      <c r="B51" s="253"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27665,8 +28329,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="247"/>
-      <c r="B52" s="259" t="str">
+      <c r="A52" s="257"/>
+      <c r="B52" s="253" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -27681,8 +28345,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="247"/>
-      <c r="B53" s="259"/>
+      <c r="A53" s="257"/>
+      <c r="B53" s="253"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -27694,8 +28358,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="247"/>
-      <c r="B54" s="259"/>
+      <c r="A54" s="257"/>
+      <c r="B54" s="253"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -27707,8 +28371,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="247"/>
-      <c r="B55" s="259" t="str">
+      <c r="A55" s="257"/>
+      <c r="B55" s="253" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -27723,8 +28387,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="247"/>
-      <c r="B56" s="259"/>
+      <c r="A56" s="257"/>
+      <c r="B56" s="253"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -27736,8 +28400,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="248"/>
-      <c r="B57" s="260"/>
+      <c r="A57" s="258"/>
+      <c r="B57" s="254"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -27752,10 +28416,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="252" t="s">
+      <c r="A59" s="262" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="261" t="s">
+      <c r="B59" s="255" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -27772,8 +28436,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="253"/>
-      <c r="B60" s="256"/>
+      <c r="A60" s="263"/>
+      <c r="B60" s="250"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -27791,8 +28455,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="253"/>
-      <c r="B61" s="256"/>
+      <c r="A61" s="263"/>
+      <c r="B61" s="250"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -27807,8 +28471,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="253"/>
-      <c r="B62" s="256"/>
+      <c r="A62" s="263"/>
+      <c r="B62" s="250"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -27823,8 +28487,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="253"/>
-      <c r="B63" s="256"/>
+      <c r="A63" s="263"/>
+      <c r="B63" s="250"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -27839,8 +28503,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="253"/>
-      <c r="B64" s="256"/>
+      <c r="A64" s="263"/>
+      <c r="B64" s="250"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -27855,8 +28519,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="253"/>
-      <c r="B65" s="256"/>
+      <c r="A65" s="263"/>
+      <c r="B65" s="250"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -27869,8 +28533,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="253"/>
-      <c r="B66" s="256" t="str">
+      <c r="A66" s="263"/>
+      <c r="B66" s="250" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -27886,8 +28550,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="253"/>
-      <c r="B67" s="256"/>
+      <c r="A67" s="263"/>
+      <c r="B67" s="250"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -27899,8 +28563,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="253"/>
-      <c r="B68" s="256"/>
+      <c r="A68" s="263"/>
+      <c r="B68" s="250"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -27912,8 +28576,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="253"/>
-      <c r="B69" s="256"/>
+      <c r="A69" s="263"/>
+      <c r="B69" s="250"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -27925,8 +28589,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="253"/>
-      <c r="B70" s="256"/>
+      <c r="A70" s="263"/>
+      <c r="B70" s="250"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -27938,8 +28602,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="253"/>
-      <c r="B71" s="256"/>
+      <c r="A71" s="263"/>
+      <c r="B71" s="250"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -27951,8 +28615,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="253"/>
-      <c r="B72" s="256"/>
+      <c r="A72" s="263"/>
+      <c r="B72" s="250"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -27964,8 +28628,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="253"/>
-      <c r="B73" s="256" t="str">
+      <c r="A73" s="263"/>
+      <c r="B73" s="250" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -27980,8 +28644,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="253"/>
-      <c r="B74" s="256"/>
+      <c r="A74" s="263"/>
+      <c r="B74" s="250"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -27993,8 +28657,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="253"/>
-      <c r="B75" s="256"/>
+      <c r="A75" s="263"/>
+      <c r="B75" s="250"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28006,8 +28670,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="253"/>
-      <c r="B76" s="256"/>
+      <c r="A76" s="263"/>
+      <c r="B76" s="250"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28019,8 +28683,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="253"/>
-      <c r="B77" s="256"/>
+      <c r="A77" s="263"/>
+      <c r="B77" s="250"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28032,8 +28696,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="253"/>
-      <c r="B78" s="256"/>
+      <c r="A78" s="263"/>
+      <c r="B78" s="250"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28045,8 +28709,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="253"/>
-      <c r="B79" s="256"/>
+      <c r="A79" s="263"/>
+      <c r="B79" s="250"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28058,8 +28722,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="253"/>
-      <c r="B80" s="256" t="str">
+      <c r="A80" s="263"/>
+      <c r="B80" s="250" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28074,8 +28738,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="253"/>
-      <c r="B81" s="256"/>
+      <c r="A81" s="263"/>
+      <c r="B81" s="250"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28087,8 +28751,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="253"/>
-      <c r="B82" s="256"/>
+      <c r="A82" s="263"/>
+      <c r="B82" s="250"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28100,8 +28764,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="253"/>
-      <c r="B83" s="256" t="str">
+      <c r="A83" s="263"/>
+      <c r="B83" s="250" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28116,8 +28780,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="253"/>
-      <c r="B84" s="256"/>
+      <c r="A84" s="263"/>
+      <c r="B84" s="250"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28129,8 +28793,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="254"/>
-      <c r="B85" s="257"/>
+      <c r="A85" s="264"/>
+      <c r="B85" s="251"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28157,21 +28821,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28184,13 +28840,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28909,12 +29573,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29139,17 +29802,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29174,11 +29840,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9D10AB-98E7-48E6-B07A-D7A8111DC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC465D34-B4A1-4D0E-8877-5659BEE14D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="23" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
@@ -5713,35 +5713,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5769,6 +5745,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5824,12 +5830,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5848,6 +5848,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5858,12 +5864,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21135,65 +21135,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="277" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="284" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="286" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="284" t="s">
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="284" t="s">
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="286" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="286"/>
-      <c r="Q1" s="286"/>
-      <c r="R1" s="286"/>
-      <c r="S1" s="285"/>
-      <c r="T1" s="284" t="s">
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="287"/>
+      <c r="T1" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="285"/>
-      <c r="V1" s="281" t="s">
+      <c r="U1" s="287"/>
+      <c r="V1" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="282"/>
-      <c r="AB1" s="282"/>
-      <c r="AC1" s="282"/>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="283"/>
-      <c r="AF1" s="278" t="s">
+      <c r="W1" s="284"/>
+      <c r="X1" s="284"/>
+      <c r="Y1" s="284"/>
+      <c r="Z1" s="284"/>
+      <c r="AA1" s="284"/>
+      <c r="AB1" s="284"/>
+      <c r="AC1" s="284"/>
+      <c r="AD1" s="284"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="280" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="279"/>
-      <c r="AH1" s="279"/>
-      <c r="AI1" s="279"/>
-      <c r="AJ1" s="279"/>
-      <c r="AK1" s="279"/>
-      <c r="AL1" s="279"/>
-      <c r="AM1" s="279"/>
-      <c r="AN1" s="279"/>
-      <c r="AO1" s="279"/>
-      <c r="AP1" s="279"/>
-      <c r="AQ1" s="279"/>
-      <c r="AR1" s="279"/>
-      <c r="AS1" s="280"/>
+      <c r="AG1" s="281"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="281"/>
+      <c r="AJ1" s="281"/>
+      <c r="AK1" s="281"/>
+      <c r="AL1" s="281"/>
+      <c r="AM1" s="281"/>
+      <c r="AN1" s="281"/>
+      <c r="AO1" s="281"/>
+      <c r="AP1" s="281"/>
+      <c r="AQ1" s="281"/>
+      <c r="AR1" s="281"/>
+      <c r="AS1" s="282"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -22256,20 +22256,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="246"/>
-      <c r="AP1" s="246"/>
-      <c r="AQ1" s="246"/>
-      <c r="AR1" s="246"/>
-      <c r="AS1" s="246"/>
-      <c r="AT1" s="246"/>
-      <c r="AU1" s="246"/>
-      <c r="AV1" s="246"/>
-      <c r="AW1" s="246"/>
-      <c r="AX1" s="246"/>
-      <c r="AY1" s="246"/>
-      <c r="AZ1" s="246"/>
-      <c r="BA1" s="246"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22344,7 +22344,7 @@
       <c r="AC2" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="287" t="s">
+      <c r="AD2" s="295" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22356,26 +22356,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="246"/>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="246"/>
-      <c r="AQ2" s="246"/>
-      <c r="AR2" s="246"/>
-      <c r="AS2" s="246"/>
-      <c r="AT2" s="246"/>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
-      <c r="AX2" s="246"/>
-      <c r="AY2" s="246"/>
-      <c r="AZ2" s="246"/>
-      <c r="BA2" s="246"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22438,7 +22438,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="293"/>
-      <c r="AD3" s="250"/>
+      <c r="AD3" s="258"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AC4" s="293"/>
-      <c r="AD4" s="250"/>
+      <c r="AD4" s="258"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22598,7 +22598,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AC5" s="293"/>
-      <c r="AD5" s="250"/>
+      <c r="AD5" s="258"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22659,7 +22659,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="AC6" s="293"/>
-      <c r="AD6" s="250"/>
+      <c r="AD6" s="258"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22725,7 +22725,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="AC7" s="293"/>
-      <c r="AD7" s="250"/>
+      <c r="AD7" s="258"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22788,7 +22788,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="AC8" s="293"/>
-      <c r="AD8" s="250"/>
+      <c r="AD8" s="258"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22851,7 +22851,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="AC9" s="293"/>
-      <c r="AD9" s="250" t="s">
+      <c r="AD9" s="258" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22895,7 +22895,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="AC10" s="293"/>
-      <c r="AD10" s="250"/>
+      <c r="AD10" s="258"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>0.14138000000000001</v>
       </c>
       <c r="AC11" s="293"/>
-      <c r="AD11" s="250"/>
+      <c r="AD11" s="258"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>0.17241999999999999</v>
       </c>
       <c r="AC12" s="293"/>
-      <c r="AD12" s="250"/>
+      <c r="AD12" s="258"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>0.28339999999999999</v>
       </c>
       <c r="AC13" s="293"/>
-      <c r="AD13" s="250"/>
+      <c r="AD13" s="258"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>0.23977999999999999</v>
       </c>
       <c r="AC14" s="293"/>
-      <c r="AD14" s="250"/>
+      <c r="AD14" s="258"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>0.21498999999999999</v>
       </c>
       <c r="AC15" s="293"/>
-      <c r="AD15" s="250" t="s">
+      <c r="AD15" s="258" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23144,7 +23144,7 @@
         <v>0.25580999999999998</v>
       </c>
       <c r="AC16" s="293"/>
-      <c r="AD16" s="250"/>
+      <c r="AD16" s="258"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>0.25395000000000001</v>
       </c>
       <c r="AC17" s="293"/>
-      <c r="AD17" s="250"/>
+      <c r="AD17" s="258"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>0.24823999999999999</v>
       </c>
       <c r="AC18" s="293"/>
-      <c r="AD18" s="250"/>
+      <c r="AD18" s="258"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23242,7 +23242,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="AC19" s="293"/>
-      <c r="AD19" s="250"/>
+      <c r="AD19" s="258"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23262,7 +23262,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="AC20" s="293"/>
-      <c r="AD20" s="250" t="s">
+      <c r="AD20" s="258" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23284,7 +23284,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="AC21" s="293"/>
-      <c r="AD21" s="250"/>
+      <c r="AD21" s="258"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23304,7 +23304,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="AC22" s="293"/>
-      <c r="AD22" s="250"/>
+      <c r="AD22" s="258"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23324,7 +23324,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="AC23" s="293"/>
-      <c r="AD23" s="250" t="s">
+      <c r="AD23" s="258" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23346,7 +23346,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="AC24" s="293"/>
-      <c r="AD24" s="250"/>
+      <c r="AD24" s="258"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23360,7 +23360,7 @@
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
       <c r="AC25" s="294"/>
-      <c r="AD25" s="288"/>
+      <c r="AD25" s="296"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23380,7 +23380,7 @@
       <c r="AC27" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="287" t="s">
+      <c r="AD27" s="295" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23398,7 +23398,7 @@
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
       <c r="AC28" s="293"/>
-      <c r="AD28" s="250"/>
+      <c r="AD28" s="258"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23414,7 +23414,7 @@
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
       <c r="AC29" s="293"/>
-      <c r="AD29" s="250"/>
+      <c r="AD29" s="258"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23427,7 +23427,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AC30" s="293"/>
-      <c r="AD30" s="250"/>
+      <c r="AD30" s="258"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23442,7 +23442,7 @@
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
       <c r="AC31" s="293"/>
-      <c r="AD31" s="250"/>
+      <c r="AD31" s="258"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23455,7 +23455,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AC32" s="293"/>
-      <c r="AD32" s="250"/>
+      <c r="AD32" s="258"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23469,7 +23469,7 @@
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="AC33" s="293"/>
-      <c r="AD33" s="250"/>
+      <c r="AD33" s="258"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23487,7 +23487,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="AC34" s="293"/>
-      <c r="AD34" s="250" t="s">
+      <c r="AD34" s="258" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23507,7 +23507,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="AC35" s="293"/>
-      <c r="AD35" s="250"/>
+      <c r="AD35" s="258"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23525,7 +23525,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="AC36" s="293"/>
-      <c r="AD36" s="250"/>
+      <c r="AD36" s="258"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23543,7 +23543,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="AC37" s="293"/>
-      <c r="AD37" s="250"/>
+      <c r="AD37" s="258"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23561,7 +23561,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="AC38" s="293"/>
-      <c r="AD38" s="250"/>
+      <c r="AD38" s="258"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23579,7 +23579,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="AC39" s="293"/>
-      <c r="AD39" s="250"/>
+      <c r="AD39" s="258"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23597,7 +23597,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="AC40" s="293"/>
-      <c r="AD40" s="250"/>
+      <c r="AD40" s="258"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23615,7 +23615,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="AC41" s="293"/>
-      <c r="AD41" s="250" t="s">
+      <c r="AD41" s="258" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23635,7 +23635,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="AC42" s="293"/>
-      <c r="AD42" s="250"/>
+      <c r="AD42" s="258"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23653,7 +23653,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="AC43" s="293"/>
-      <c r="AD43" s="250"/>
+      <c r="AD43" s="258"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23671,7 +23671,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="AC44" s="293"/>
-      <c r="AD44" s="250"/>
+      <c r="AD44" s="258"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23689,7 +23689,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="AC45" s="293"/>
-      <c r="AD45" s="250"/>
+      <c r="AD45" s="258"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23707,7 +23707,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="AC46" s="293"/>
-      <c r="AD46" s="250"/>
+      <c r="AD46" s="258"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23725,7 +23725,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="AC47" s="293"/>
-      <c r="AD47" s="250"/>
+      <c r="AD47" s="258"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23743,7 +23743,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="AC48" s="293"/>
-      <c r="AD48" s="250" t="s">
+      <c r="AD48" s="258" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23763,7 +23763,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="AC49" s="293"/>
-      <c r="AD49" s="250"/>
+      <c r="AD49" s="258"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23781,7 +23781,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="AC50" s="293"/>
-      <c r="AD50" s="250"/>
+      <c r="AD50" s="258"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23799,7 +23799,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="AC51" s="293"/>
-      <c r="AD51" s="250" t="s">
+      <c r="AD51" s="258" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23819,7 +23819,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="AC52" s="293"/>
-      <c r="AD52" s="250"/>
+      <c r="AD52" s="258"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23837,7 +23837,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="AC53" s="293"/>
-      <c r="AD53" s="250"/>
+      <c r="AD53" s="258"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24107,11 +24107,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24128,11 +24128,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24495,7 +24495,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="297" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -25787,7 +25787,7 @@
       <c r="A1" s="289" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="297" t="s">
+      <c r="B1" s="299" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25811,7 +25811,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="290"/>
-      <c r="B2" s="296"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25833,7 +25833,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="290"/>
-      <c r="B3" s="296"/>
+      <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -25855,7 +25855,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="290"/>
-      <c r="B4" s="296"/>
+      <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -25877,7 +25877,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="290"/>
-      <c r="B5" s="296"/>
+      <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -25899,7 +25899,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="290"/>
-      <c r="B6" s="296"/>
+      <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -25921,7 +25921,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="290"/>
-      <c r="B7" s="296"/>
+      <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -25943,7 +25943,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="290"/>
-      <c r="B8" s="296" t="s">
+      <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -25967,7 +25967,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="290"/>
-      <c r="B9" s="296"/>
+      <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -25989,7 +25989,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="290"/>
-      <c r="B10" s="296"/>
+      <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -26011,7 +26011,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="290"/>
-      <c r="B11" s="296"/>
+      <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -26033,7 +26033,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="290"/>
-      <c r="B12" s="296"/>
+      <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -26055,7 +26055,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="290"/>
-      <c r="B13" s="296"/>
+      <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -26077,7 +26077,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="290"/>
-      <c r="B14" s="296" t="s">
+      <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -26101,7 +26101,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="290"/>
-      <c r="B15" s="296"/>
+      <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -26123,7 +26123,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="290"/>
-      <c r="B16" s="296"/>
+      <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -26145,7 +26145,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="290"/>
-      <c r="B17" s="296"/>
+      <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -26167,7 +26167,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="290"/>
-      <c r="B18" s="296"/>
+      <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -26189,7 +26189,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="290"/>
-      <c r="B19" s="296" t="s">
+      <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -26213,7 +26213,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="290"/>
-      <c r="B20" s="296"/>
+      <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -26235,7 +26235,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="290"/>
-      <c r="B21" s="296"/>
+      <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -26257,7 +26257,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="290"/>
-      <c r="B22" s="296" t="s">
+      <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -26281,7 +26281,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="290"/>
-      <c r="B23" s="296"/>
+      <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -26303,7 +26303,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="291"/>
-      <c r="B24" s="298"/>
+      <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -26327,7 +26327,7 @@
       <c r="A25" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="297" t="s">
+      <c r="B25" s="299" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -26351,7 +26351,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="293"/>
-      <c r="B26" s="296"/>
+      <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -26373,7 +26373,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="293"/>
-      <c r="B27" s="296"/>
+      <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -26395,7 +26395,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="293"/>
-      <c r="B28" s="296"/>
+      <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -26417,7 +26417,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="293"/>
-      <c r="B29" s="296"/>
+      <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -26439,7 +26439,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="293"/>
-      <c r="B30" s="296"/>
+      <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -26461,7 +26461,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="293"/>
-      <c r="B31" s="296"/>
+      <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -26483,7 +26483,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="293"/>
-      <c r="B32" s="296" t="s">
+      <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -26507,7 +26507,7 @@
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="293"/>
-      <c r="B33" s="296"/>
+      <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -26529,7 +26529,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="293"/>
-      <c r="B34" s="296"/>
+      <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -26551,7 +26551,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="293"/>
-      <c r="B35" s="296"/>
+      <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -26573,7 +26573,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="293"/>
-      <c r="B36" s="296"/>
+      <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -26595,7 +26595,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="293"/>
-      <c r="B37" s="296"/>
+      <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -26617,7 +26617,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="293"/>
-      <c r="B38" s="296"/>
+      <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -26639,7 +26639,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="293"/>
-      <c r="B39" s="296" t="s">
+      <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -26663,7 +26663,7 @@
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="293"/>
-      <c r="B40" s="296"/>
+      <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26685,7 +26685,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="293"/>
-      <c r="B41" s="296"/>
+      <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26707,7 +26707,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="293"/>
-      <c r="B42" s="296"/>
+      <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26729,7 +26729,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="293"/>
-      <c r="B43" s="296"/>
+      <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26751,7 +26751,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="293"/>
-      <c r="B44" s="296"/>
+      <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26773,7 +26773,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="293"/>
-      <c r="B45" s="296"/>
+      <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26795,7 +26795,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="293"/>
-      <c r="B46" s="296" t="s">
+      <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26819,7 +26819,7 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="293"/>
-      <c r="B47" s="296"/>
+      <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -26841,7 +26841,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="293"/>
-      <c r="B48" s="296"/>
+      <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -26863,7 +26863,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="293"/>
-      <c r="B49" s="296" t="s">
+      <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -26887,7 +26887,7 @@
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="293"/>
-      <c r="B50" s="296"/>
+      <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -26909,7 +26909,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="293"/>
-      <c r="B51" s="296"/>
+      <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26931,7 +26931,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="293"/>
-      <c r="B52" s="299" t="s">
+      <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -26955,7 +26955,7 @@
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="294"/>
-      <c r="B53" s="300" t="s">
+      <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -27101,50 +27101,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="247"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="247"/>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="247"/>
-      <c r="S1" s="247"/>
-      <c r="T1" s="247"/>
-      <c r="U1" s="247"/>
-      <c r="V1" s="247"/>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="247"/>
-      <c r="AA1" s="247"/>
-      <c r="AB1" s="247"/>
-      <c r="AC1" s="247"/>
-      <c r="AD1" s="249"/>
-      <c r="AE1" s="249"/>
-      <c r="AF1" s="249"/>
-      <c r="AG1" s="249"/>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="249"/>
-      <c r="AJ1" s="249"/>
-      <c r="AK1" s="249"/>
-      <c r="AL1" s="249"/>
-      <c r="AM1" s="249"/>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="246"/>
-      <c r="AP1" s="246"/>
-      <c r="AQ1" s="246"/>
-      <c r="AR1" s="246"/>
-      <c r="AS1" s="246"/>
-      <c r="AT1" s="246"/>
-      <c r="AU1" s="246"/>
-      <c r="AV1" s="246"/>
-      <c r="AW1" s="246"/>
-      <c r="AX1" s="246"/>
-      <c r="AY1" s="246"/>
-      <c r="AZ1" s="246"/>
-      <c r="BA1" s="246"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="265"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="251" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27181,33 +27181,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="248"/>
-      <c r="AG2" s="248"/>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="246"/>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="246"/>
-      <c r="AQ2" s="246"/>
-      <c r="AR2" s="246"/>
-      <c r="AS2" s="246"/>
-      <c r="AT2" s="246"/>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
-      <c r="AX2" s="246"/>
-      <c r="AY2" s="246"/>
-      <c r="AZ2" s="246"/>
-      <c r="BA2" s="246"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="260"/>
+      <c r="A3" s="252"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27265,7 +27265,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="260"/>
+      <c r="A4" s="252"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27326,7 +27326,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="261"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27476,7 +27476,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="259" t="s">
+      <c r="A8" s="251" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27531,7 +27531,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="260"/>
+      <c r="A9" s="252"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27582,7 +27582,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="260"/>
+      <c r="A10" s="252"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27629,7 +27629,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="260"/>
+      <c r="A11" s="252"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27653,7 +27653,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="260"/>
+      <c r="A12" s="252"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27677,7 +27677,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="260"/>
+      <c r="A13" s="252"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27701,7 +27701,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="260"/>
+      <c r="A14" s="252"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27725,7 +27725,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="261"/>
+      <c r="A15" s="253"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27758,7 +27758,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="256" t="s">
+      <c r="A17" s="248" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27784,7 +27784,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="257"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -27808,7 +27808,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="257"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27832,7 +27832,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="257"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27856,7 +27856,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="257"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27880,7 +27880,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="257"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27904,7 +27904,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="257"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27928,7 +27928,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="258"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27972,7 +27972,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="259" t="s">
+      <c r="A27" s="251" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27995,7 +27995,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="260"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28016,7 +28016,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="261"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28066,10 +28066,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="256" t="s">
+      <c r="A34" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="252" t="str">
+      <c r="B34" s="260" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28090,8 +28090,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="257"/>
-      <c r="B35" s="253"/>
+      <c r="A35" s="249"/>
+      <c r="B35" s="261"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28106,8 +28106,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="257"/>
-      <c r="B36" s="253"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28122,8 +28122,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="257"/>
-      <c r="B37" s="253"/>
+      <c r="A37" s="249"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28138,8 +28138,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="257"/>
-      <c r="B38" s="253"/>
+      <c r="A38" s="249"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28154,8 +28154,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="257"/>
-      <c r="B39" s="253"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28167,8 +28167,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="257"/>
-      <c r="B40" s="253"/>
+      <c r="A40" s="249"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28180,8 +28180,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="257"/>
-      <c r="B41" s="253" t="str">
+      <c r="A41" s="249"/>
+      <c r="B41" s="261" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28196,8 +28196,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="257"/>
-      <c r="B42" s="253"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="261"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28209,8 +28209,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="257"/>
-      <c r="B43" s="253"/>
+      <c r="A43" s="249"/>
+      <c r="B43" s="261"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28222,8 +28222,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="257"/>
-      <c r="B44" s="253"/>
+      <c r="A44" s="249"/>
+      <c r="B44" s="261"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28235,8 +28235,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="257"/>
-      <c r="B45" s="253"/>
+      <c r="A45" s="249"/>
+      <c r="B45" s="261"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28248,8 +28248,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="257"/>
-      <c r="B46" s="253"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="261"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28261,8 +28261,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="257"/>
-      <c r="B47" s="253" t="str">
+      <c r="A47" s="249"/>
+      <c r="B47" s="261" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28277,8 +28277,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="257"/>
-      <c r="B48" s="253"/>
+      <c r="A48" s="249"/>
+      <c r="B48" s="261"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28290,8 +28290,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="257"/>
-      <c r="B49" s="253"/>
+      <c r="A49" s="249"/>
+      <c r="B49" s="261"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28303,8 +28303,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="257"/>
-      <c r="B50" s="253"/>
+      <c r="A50" s="249"/>
+      <c r="B50" s="261"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28316,8 +28316,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="257"/>
-      <c r="B51" s="253"/>
+      <c r="A51" s="249"/>
+      <c r="B51" s="261"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28329,8 +28329,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="257"/>
-      <c r="B52" s="253" t="str">
+      <c r="A52" s="249"/>
+      <c r="B52" s="261" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28345,8 +28345,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="257"/>
-      <c r="B53" s="253"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="261"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28358,8 +28358,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="257"/>
-      <c r="B54" s="253"/>
+      <c r="A54" s="249"/>
+      <c r="B54" s="261"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28371,8 +28371,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="257"/>
-      <c r="B55" s="253" t="str">
+      <c r="A55" s="249"/>
+      <c r="B55" s="261" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28387,8 +28387,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="257"/>
-      <c r="B56" s="253"/>
+      <c r="A56" s="249"/>
+      <c r="B56" s="261"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28400,8 +28400,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="258"/>
-      <c r="B57" s="254"/>
+      <c r="A57" s="250"/>
+      <c r="B57" s="262"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28416,10 +28416,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="262" t="s">
+      <c r="A59" s="254" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="255" t="s">
+      <c r="B59" s="263" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28436,8 +28436,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="263"/>
-      <c r="B60" s="250"/>
+      <c r="A60" s="255"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28455,8 +28455,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="263"/>
-      <c r="B61" s="250"/>
+      <c r="A61" s="255"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28471,8 +28471,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="263"/>
-      <c r="B62" s="250"/>
+      <c r="A62" s="255"/>
+      <c r="B62" s="258"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28487,8 +28487,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="263"/>
-      <c r="B63" s="250"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="258"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28503,8 +28503,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="263"/>
-      <c r="B64" s="250"/>
+      <c r="A64" s="255"/>
+      <c r="B64" s="258"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28519,8 +28519,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="263"/>
-      <c r="B65" s="250"/>
+      <c r="A65" s="255"/>
+      <c r="B65" s="258"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28533,8 +28533,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="263"/>
-      <c r="B66" s="250" t="str">
+      <c r="A66" s="255"/>
+      <c r="B66" s="258" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28550,8 +28550,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="263"/>
-      <c r="B67" s="250"/>
+      <c r="A67" s="255"/>
+      <c r="B67" s="258"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28563,8 +28563,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="263"/>
-      <c r="B68" s="250"/>
+      <c r="A68" s="255"/>
+      <c r="B68" s="258"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28576,8 +28576,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="263"/>
-      <c r="B69" s="250"/>
+      <c r="A69" s="255"/>
+      <c r="B69" s="258"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28589,8 +28589,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="263"/>
-      <c r="B70" s="250"/>
+      <c r="A70" s="255"/>
+      <c r="B70" s="258"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28602,8 +28602,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="263"/>
-      <c r="B71" s="250"/>
+      <c r="A71" s="255"/>
+      <c r="B71" s="258"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28615,8 +28615,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="263"/>
-      <c r="B72" s="250"/>
+      <c r="A72" s="255"/>
+      <c r="B72" s="258"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28628,8 +28628,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="263"/>
-      <c r="B73" s="250" t="str">
+      <c r="A73" s="255"/>
+      <c r="B73" s="258" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28644,8 +28644,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="263"/>
-      <c r="B74" s="250"/>
+      <c r="A74" s="255"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28657,8 +28657,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="263"/>
-      <c r="B75" s="250"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="258"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28670,8 +28670,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="263"/>
-      <c r="B76" s="250"/>
+      <c r="A76" s="255"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28683,8 +28683,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="263"/>
-      <c r="B77" s="250"/>
+      <c r="A77" s="255"/>
+      <c r="B77" s="258"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28696,8 +28696,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="263"/>
-      <c r="B78" s="250"/>
+      <c r="A78" s="255"/>
+      <c r="B78" s="258"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28709,8 +28709,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="263"/>
-      <c r="B79" s="250"/>
+      <c r="A79" s="255"/>
+      <c r="B79" s="258"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28722,8 +28722,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="263"/>
-      <c r="B80" s="250" t="str">
+      <c r="A80" s="255"/>
+      <c r="B80" s="258" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28738,8 +28738,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="263"/>
-      <c r="B81" s="250"/>
+      <c r="A81" s="255"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28751,8 +28751,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="263"/>
-      <c r="B82" s="250"/>
+      <c r="A82" s="255"/>
+      <c r="B82" s="258"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28764,8 +28764,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="263"/>
-      <c r="B83" s="250" t="str">
+      <c r="A83" s="255"/>
+      <c r="B83" s="258" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28780,8 +28780,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="263"/>
-      <c r="B84" s="250"/>
+      <c r="A84" s="255"/>
+      <c r="B84" s="258"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28793,8 +28793,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="264"/>
-      <c r="B85" s="251"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="259"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28821,13 +28821,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28840,21 +28848,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28951,7 +28951,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="266"/>
+      <c r="C2" s="268"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -28960,7 +28960,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="266"/>
+      <c r="C3" s="268"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -28969,7 +28969,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="266"/>
+      <c r="C4" s="268"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -28978,7 +28978,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="266"/>
+      <c r="C5" s="268"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -28987,7 +28987,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="266"/>
+      <c r="C6" s="268"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -28996,7 +28996,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="266"/>
+      <c r="C7" s="268"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -29005,7 +29005,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="266"/>
+      <c r="C8" s="268"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -29014,7 +29014,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="266"/>
+      <c r="C9" s="268"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -29023,7 +29023,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="266"/>
+      <c r="C10" s="268"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -29032,7 +29032,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="266"/>
+      <c r="C11" s="268"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -29041,112 +29041,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="268"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="266"/>
+      <c r="C13" s="268"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="266"/>
+      <c r="C14" s="268"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="266"/>
+      <c r="C15" s="268"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="266"/>
+      <c r="C16" s="268"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="266"/>
+      <c r="C17" s="268"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="266"/>
+      <c r="C18" s="268"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="266"/>
+      <c r="C19" s="268"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="266"/>
+      <c r="C20" s="268"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="266"/>
+      <c r="C21" s="268"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="266"/>
+      <c r="C22" s="268"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="267"/>
+      <c r="C23" s="269"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="267"/>
+      <c r="C24" s="269"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="267"/>
+      <c r="C25" s="269"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="267"/>
+      <c r="C26" s="269"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="267"/>
+      <c r="C27" s="269"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="267"/>
+      <c r="C28" s="269"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="265"/>
+      <c r="C29" s="267"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="265"/>
+      <c r="C30" s="267"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="265"/>
+      <c r="C31" s="267"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="265"/>
+      <c r="C33" s="267"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -29219,13 +29219,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="268"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="270"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -29234,79 +29234,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="268"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="270"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="268"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="270"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="268"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="270"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="268"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="270"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="273"/>
-      <c r="I7" s="268"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="270"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="268"/>
+      <c r="C8" s="272"/>
+      <c r="D8" s="272"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="270"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="271"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="274"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="274"/>
-      <c r="I9" s="268"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="276"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="276"/>
+      <c r="I9" s="270"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -29573,11 +29573,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29802,20 +29803,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29840,9 +29838,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE24BB-5E62-426D-A37A-CD8D42841A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663715DE-C88F-4C00-A799-D03CA14A9239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="21" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="24" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1190">
   <si>
     <t>Country</t>
   </si>
@@ -3751,6 +3751,54 @@
   </si>
   <si>
     <t>Refrigerated cargo (All dwt)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Ef</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>ffs</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Categories</t>
   </si>
 </sst>
 </file>
@@ -5719,36 +5767,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5775,6 +5793,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5830,12 +5878,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5853,6 +5895,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22100,7 +22148,7 @@
   <dimension ref="A1:BA87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22256,20 +22304,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22288,7 +22336,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="291" t="s">
+      <c r="H2" s="289" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22310,7 +22358,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="291" t="s">
+      <c r="P2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22341,10 +22389,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="294" t="s">
+      <c r="AC2" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="289" t="s">
+      <c r="AD2" s="295" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22356,26 +22404,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22396,7 +22444,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="292"/>
+      <c r="H3" s="290"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22416,7 +22464,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="292"/>
+      <c r="P3" s="290"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22437,8 +22485,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="252"/>
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="258"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22483,7 +22531,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="292"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22503,7 +22551,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="293"/>
+      <c r="P4" s="291"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22523,8 +22571,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="295"/>
-      <c r="AD4" s="252"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="258"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22572,7 +22620,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="292"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22597,8 +22645,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="252"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="258"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22631,7 +22679,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="292"/>
+      <c r="H6" s="290"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22658,8 +22706,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="252"/>
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="258"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22697,7 +22745,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="292"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22724,8 +22772,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="252"/>
+      <c r="AC7" s="293"/>
+      <c r="AD7" s="258"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22760,7 +22808,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="292"/>
+      <c r="H8" s="290"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22787,8 +22835,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="252"/>
+      <c r="AC8" s="293"/>
+      <c r="AD8" s="258"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22823,7 +22871,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="293"/>
+      <c r="H9" s="291"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22850,8 +22898,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="252" t="s">
+      <c r="AC9" s="293"/>
+      <c r="AD9" s="258" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22894,8 +22942,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="252"/>
+      <c r="AC10" s="293"/>
+      <c r="AD10" s="258"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22928,7 +22976,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="294" t="s">
+      <c r="H11" s="292" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22949,8 +22997,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="252"/>
+      <c r="AC11" s="293"/>
+      <c r="AD11" s="258"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22969,7 +23017,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="295"/>
+      <c r="H12" s="293"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22988,8 +23036,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="252"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="258"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23008,7 +23056,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="295"/>
+      <c r="H13" s="293"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23027,8 +23075,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="252"/>
+      <c r="AC13" s="293"/>
+      <c r="AD13" s="258"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23047,7 +23095,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="295"/>
+      <c r="H14" s="293"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23066,8 +23114,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="252"/>
+      <c r="AC14" s="293"/>
+      <c r="AD14" s="258"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23086,7 +23134,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="295"/>
+      <c r="H15" s="293"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23105,8 +23153,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="252" t="s">
+      <c r="AC15" s="293"/>
+      <c r="AD15" s="258" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23124,7 +23172,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="295"/>
+      <c r="H16" s="293"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23143,8 +23191,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="252"/>
+      <c r="AC16" s="293"/>
+      <c r="AD16" s="258"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23163,7 +23211,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="295"/>
+      <c r="H17" s="293"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23182,8 +23230,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="252"/>
+      <c r="AC17" s="293"/>
+      <c r="AD17" s="258"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23202,7 +23250,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="296"/>
+      <c r="H18" s="294"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23221,8 +23269,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="252"/>
+      <c r="AC18" s="293"/>
+      <c r="AD18" s="258"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23241,8 +23289,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="252"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="258"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23261,8 +23309,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="252" t="s">
+      <c r="AC20" s="293"/>
+      <c r="AD20" s="258" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23283,8 +23331,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="252"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="258"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23303,8 +23351,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="252"/>
+      <c r="AC22" s="293"/>
+      <c r="AD22" s="258"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23323,8 +23371,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="252" t="s">
+      <c r="AC23" s="293"/>
+      <c r="AD23" s="258" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23345,8 +23393,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="252"/>
+      <c r="AC24" s="293"/>
+      <c r="AD24" s="258"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23359,8 +23407,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="290"/>
+      <c r="AC25" s="294"/>
+      <c r="AD25" s="296"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23377,10 +23425,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="294" t="s">
+      <c r="AC27" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="289" t="s">
+      <c r="AD27" s="295" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23397,8 +23445,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="252"/>
+      <c r="AC28" s="293"/>
+      <c r="AD28" s="258"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23413,8 +23461,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="295"/>
-      <c r="AD29" s="252"/>
+      <c r="AC29" s="293"/>
+      <c r="AD29" s="258"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23426,8 +23474,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="295"/>
-      <c r="AD30" s="252"/>
+      <c r="AC30" s="293"/>
+      <c r="AD30" s="258"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23441,8 +23489,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="295"/>
-      <c r="AD31" s="252"/>
+      <c r="AC31" s="293"/>
+      <c r="AD31" s="258"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23454,8 +23502,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="295"/>
-      <c r="AD32" s="252"/>
+      <c r="AC32" s="293"/>
+      <c r="AD32" s="258"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23468,8 +23516,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="252"/>
+      <c r="AC33" s="293"/>
+      <c r="AD33" s="258"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23486,8 +23534,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="295"/>
-      <c r="AD34" s="252" t="s">
+      <c r="AC34" s="293"/>
+      <c r="AD34" s="258" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23506,8 +23554,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="295"/>
-      <c r="AD35" s="252"/>
+      <c r="AC35" s="293"/>
+      <c r="AD35" s="258"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23524,8 +23572,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="295"/>
-      <c r="AD36" s="252"/>
+      <c r="AC36" s="293"/>
+      <c r="AD36" s="258"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23542,8 +23590,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="295"/>
-      <c r="AD37" s="252"/>
+      <c r="AC37" s="293"/>
+      <c r="AD37" s="258"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23560,8 +23608,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="295"/>
-      <c r="AD38" s="252"/>
+      <c r="AC38" s="293"/>
+      <c r="AD38" s="258"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23578,8 +23626,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="295"/>
-      <c r="AD39" s="252"/>
+      <c r="AC39" s="293"/>
+      <c r="AD39" s="258"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23596,8 +23644,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="295"/>
-      <c r="AD40" s="252"/>
+      <c r="AC40" s="293"/>
+      <c r="AD40" s="258"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23614,8 +23662,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="295"/>
-      <c r="AD41" s="252" t="s">
+      <c r="AC41" s="293"/>
+      <c r="AD41" s="258" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23634,8 +23682,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="295"/>
-      <c r="AD42" s="252"/>
+      <c r="AC42" s="293"/>
+      <c r="AD42" s="258"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23652,8 +23700,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="295"/>
-      <c r="AD43" s="252"/>
+      <c r="AC43" s="293"/>
+      <c r="AD43" s="258"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23670,8 +23718,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="295"/>
-      <c r="AD44" s="252"/>
+      <c r="AC44" s="293"/>
+      <c r="AD44" s="258"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23688,8 +23736,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="295"/>
-      <c r="AD45" s="252"/>
+      <c r="AC45" s="293"/>
+      <c r="AD45" s="258"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23706,8 +23754,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="295"/>
-      <c r="AD46" s="252"/>
+      <c r="AC46" s="293"/>
+      <c r="AD46" s="258"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23724,8 +23772,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="295"/>
-      <c r="AD47" s="252"/>
+      <c r="AC47" s="293"/>
+      <c r="AD47" s="258"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23742,8 +23790,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="295"/>
-      <c r="AD48" s="252" t="s">
+      <c r="AC48" s="293"/>
+      <c r="AD48" s="258" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23762,8 +23810,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="295"/>
-      <c r="AD49" s="252"/>
+      <c r="AC49" s="293"/>
+      <c r="AD49" s="258"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23780,8 +23828,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="295"/>
-      <c r="AD50" s="252"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="258"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23798,8 +23846,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="295"/>
-      <c r="AD51" s="252" t="s">
+      <c r="AC51" s="293"/>
+      <c r="AD51" s="258" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23818,8 +23866,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="295"/>
-      <c r="AD52" s="252"/>
+      <c r="AC52" s="293"/>
+      <c r="AD52" s="258"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23836,8 +23884,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="295"/>
-      <c r="AD53" s="252"/>
+      <c r="AC53" s="293"/>
+      <c r="AD53" s="258"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23854,7 +23902,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="295"/>
+      <c r="AC54" s="293"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23874,7 +23922,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="296"/>
+      <c r="AC55" s="294"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24107,11 +24155,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24128,11 +24176,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24192,7 +24240,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24518,7 +24566,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24539,7 +24587,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24560,7 +24608,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24581,7 +24629,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24602,7 +24650,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24623,7 +24671,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24644,7 +24692,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="293"/>
+      <c r="A9" s="291"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24665,7 +24713,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="289" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24688,7 +24736,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24709,7 +24757,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24730,7 +24778,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24751,7 +24799,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24772,7 +24820,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24793,7 +24841,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24814,7 +24862,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="293"/>
+      <c r="A17" s="291"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25515,8 +25563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25552,7 +25600,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25571,7 +25619,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25588,7 +25636,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="293"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25784,7 +25832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="289" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25810,7 +25858,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="292"/>
+      <c r="A2" s="290"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25832,7 +25880,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25854,7 +25902,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -25876,7 +25924,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -25898,7 +25946,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -25920,7 +25968,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -25942,7 +25990,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -25966,7 +26014,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
+      <c r="A9" s="290"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -25988,7 +26036,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="292"/>
+      <c r="A10" s="290"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26010,7 +26058,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26032,7 +26080,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26054,7 +26102,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26076,7 +26124,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26100,7 +26148,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26122,7 +26170,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26144,7 +26192,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="292"/>
+      <c r="A17" s="290"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26166,7 +26214,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="292"/>
+      <c r="A18" s="290"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26188,7 +26236,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="292"/>
+      <c r="A19" s="290"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26212,7 +26260,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="292"/>
+      <c r="A20" s="290"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26234,7 +26282,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="292"/>
+      <c r="A21" s="290"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26256,7 +26304,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="292"/>
+      <c r="A22" s="290"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26280,7 +26328,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="292"/>
+      <c r="A23" s="290"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26302,7 +26350,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="293"/>
+      <c r="A24" s="291"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26324,7 +26372,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="294" t="s">
+      <c r="A25" s="292" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26350,7 +26398,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="295"/>
+      <c r="A26" s="293"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26372,7 +26420,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="295"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26394,7 +26442,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="295"/>
+      <c r="A28" s="293"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26416,7 +26464,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="295"/>
+      <c r="A29" s="293"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26438,7 +26486,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="295"/>
+      <c r="A30" s="293"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26460,7 +26508,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="295"/>
+      <c r="A31" s="293"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26482,7 +26530,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="295"/>
+      <c r="A32" s="293"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26506,7 +26554,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="295"/>
+      <c r="A33" s="293"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26528,7 +26576,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="295"/>
+      <c r="A34" s="293"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26550,7 +26598,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="295"/>
+      <c r="A35" s="293"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26572,7 +26620,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="295"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26594,7 +26642,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="295"/>
+      <c r="A37" s="293"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26616,7 +26664,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="295"/>
+      <c r="A38" s="293"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26638,7 +26686,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="295"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26662,7 +26710,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="295"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26684,7 +26732,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="295"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26706,7 +26754,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="295"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26728,7 +26776,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="295"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26750,7 +26798,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="295"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26772,7 +26820,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="295"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26794,7 +26842,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="295"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26818,7 +26866,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="295"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26840,7 +26888,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="295"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -26862,7 +26910,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="295"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -26886,7 +26934,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="295"/>
+      <c r="A50" s="293"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -26908,7 +26956,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
+      <c r="A51" s="293"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -26930,7 +26978,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="295"/>
+      <c r="A52" s="293"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -26954,7 +27002,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="296"/>
+      <c r="A53" s="294"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27009,14 +27057,170 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="218" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="str">
+        <f>A2</f>
+        <v>Electronics</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E1" t="str">
+        <f>A3</f>
+        <v>Energy</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G1" t="str">
+        <f>A4</f>
+        <v>Consumables</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I1" t="str">
+        <f>A5</f>
+        <v>Services</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27101,50 +27305,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="251"/>
-      <c r="AE1" s="251"/>
-      <c r="AF1" s="251"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="251"/>
-      <c r="AJ1" s="251"/>
-      <c r="AK1" s="251"/>
-      <c r="AL1" s="251"/>
-      <c r="AM1" s="251"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="265"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="251" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27181,33 +27385,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AG2" s="250"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="262"/>
+      <c r="A3" s="252"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27265,7 +27469,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
+      <c r="A4" s="252"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27326,7 +27530,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="263"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27476,7 +27680,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="251" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27531,7 +27735,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="262"/>
+      <c r="A9" s="252"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27582,7 +27786,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="262"/>
+      <c r="A10" s="252"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27629,7 +27833,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="262"/>
+      <c r="A11" s="252"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27653,7 +27857,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="262"/>
+      <c r="A12" s="252"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27677,7 +27881,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="262"/>
+      <c r="A13" s="252"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27701,7 +27905,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="262"/>
+      <c r="A14" s="252"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27725,7 +27929,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="263"/>
+      <c r="A15" s="253"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27758,7 +27962,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="258" t="s">
+      <c r="A17" s="248" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27784,7 +27988,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="259"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -27808,7 +28012,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="259"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27832,7 +28036,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="259"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27856,7 +28060,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="259"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27880,7 +28084,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="259"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27904,7 +28108,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="259"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27928,7 +28132,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="260"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27972,7 +28176,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="251" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27995,7 +28199,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="262"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28016,7 +28220,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="263"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28066,10 +28270,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="258" t="s">
+      <c r="A34" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="254" t="str">
+      <c r="B34" s="260" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28090,8 +28294,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="259"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="249"/>
+      <c r="B35" s="261"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28106,8 +28310,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="259"/>
-      <c r="B36" s="255"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28122,8 +28326,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="259"/>
-      <c r="B37" s="255"/>
+      <c r="A37" s="249"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28138,8 +28342,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="259"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="249"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28154,8 +28358,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="259"/>
-      <c r="B39" s="255"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28167,8 +28371,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="259"/>
-      <c r="B40" s="255"/>
+      <c r="A40" s="249"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28180,8 +28384,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="259"/>
-      <c r="B41" s="255" t="str">
+      <c r="A41" s="249"/>
+      <c r="B41" s="261" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28196,8 +28400,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="259"/>
-      <c r="B42" s="255"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="261"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28209,8 +28413,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="259"/>
-      <c r="B43" s="255"/>
+      <c r="A43" s="249"/>
+      <c r="B43" s="261"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28222,8 +28426,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="259"/>
-      <c r="B44" s="255"/>
+      <c r="A44" s="249"/>
+      <c r="B44" s="261"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28235,8 +28439,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="259"/>
-      <c r="B45" s="255"/>
+      <c r="A45" s="249"/>
+      <c r="B45" s="261"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28248,8 +28452,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="259"/>
-      <c r="B46" s="255"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="261"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28261,8 +28465,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="259"/>
-      <c r="B47" s="255" t="str">
+      <c r="A47" s="249"/>
+      <c r="B47" s="261" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28277,8 +28481,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="259"/>
-      <c r="B48" s="255"/>
+      <c r="A48" s="249"/>
+      <c r="B48" s="261"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28290,8 +28494,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="259"/>
-      <c r="B49" s="255"/>
+      <c r="A49" s="249"/>
+      <c r="B49" s="261"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28303,8 +28507,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="259"/>
-      <c r="B50" s="255"/>
+      <c r="A50" s="249"/>
+      <c r="B50" s="261"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28316,8 +28520,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="259"/>
-      <c r="B51" s="255"/>
+      <c r="A51" s="249"/>
+      <c r="B51" s="261"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28329,8 +28533,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="259"/>
-      <c r="B52" s="255" t="str">
+      <c r="A52" s="249"/>
+      <c r="B52" s="261" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28345,8 +28549,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="259"/>
-      <c r="B53" s="255"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="261"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28358,8 +28562,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="259"/>
-      <c r="B54" s="255"/>
+      <c r="A54" s="249"/>
+      <c r="B54" s="261"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28371,8 +28575,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="259"/>
-      <c r="B55" s="255" t="str">
+      <c r="A55" s="249"/>
+      <c r="B55" s="261" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28387,8 +28591,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="259"/>
-      <c r="B56" s="255"/>
+      <c r="A56" s="249"/>
+      <c r="B56" s="261"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28400,8 +28604,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="260"/>
-      <c r="B57" s="256"/>
+      <c r="A57" s="250"/>
+      <c r="B57" s="262"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28416,10 +28620,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="264" t="s">
+      <c r="A59" s="254" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="263" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28436,8 +28640,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="265"/>
-      <c r="B60" s="252"/>
+      <c r="A60" s="255"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28455,8 +28659,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="265"/>
-      <c r="B61" s="252"/>
+      <c r="A61" s="255"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28471,8 +28675,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="265"/>
-      <c r="B62" s="252"/>
+      <c r="A62" s="255"/>
+      <c r="B62" s="258"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28487,8 +28691,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="265"/>
-      <c r="B63" s="252"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="258"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28503,8 +28707,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="265"/>
-      <c r="B64" s="252"/>
+      <c r="A64" s="255"/>
+      <c r="B64" s="258"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28519,8 +28723,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="265"/>
-      <c r="B65" s="252"/>
+      <c r="A65" s="255"/>
+      <c r="B65" s="258"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28533,8 +28737,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="265"/>
-      <c r="B66" s="252" t="str">
+      <c r="A66" s="255"/>
+      <c r="B66" s="258" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28550,8 +28754,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="265"/>
-      <c r="B67" s="252"/>
+      <c r="A67" s="255"/>
+      <c r="B67" s="258"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28563,8 +28767,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="265"/>
-      <c r="B68" s="252"/>
+      <c r="A68" s="255"/>
+      <c r="B68" s="258"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28576,8 +28780,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="265"/>
-      <c r="B69" s="252"/>
+      <c r="A69" s="255"/>
+      <c r="B69" s="258"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28589,8 +28793,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="265"/>
-      <c r="B70" s="252"/>
+      <c r="A70" s="255"/>
+      <c r="B70" s="258"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28602,8 +28806,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="265"/>
-      <c r="B71" s="252"/>
+      <c r="A71" s="255"/>
+      <c r="B71" s="258"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28615,8 +28819,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="265"/>
-      <c r="B72" s="252"/>
+      <c r="A72" s="255"/>
+      <c r="B72" s="258"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28628,8 +28832,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="265"/>
-      <c r="B73" s="252" t="str">
+      <c r="A73" s="255"/>
+      <c r="B73" s="258" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28644,8 +28848,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="265"/>
-      <c r="B74" s="252"/>
+      <c r="A74" s="255"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28657,8 +28861,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="265"/>
-      <c r="B75" s="252"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="258"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28670,8 +28874,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="265"/>
-      <c r="B76" s="252"/>
+      <c r="A76" s="255"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28683,8 +28887,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="265"/>
-      <c r="B77" s="252"/>
+      <c r="A77" s="255"/>
+      <c r="B77" s="258"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28696,8 +28900,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="265"/>
-      <c r="B78" s="252"/>
+      <c r="A78" s="255"/>
+      <c r="B78" s="258"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28709,8 +28913,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="265"/>
-      <c r="B79" s="252"/>
+      <c r="A79" s="255"/>
+      <c r="B79" s="258"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28722,8 +28926,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="265"/>
-      <c r="B80" s="252" t="str">
+      <c r="A80" s="255"/>
+      <c r="B80" s="258" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28738,8 +28942,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="265"/>
-      <c r="B81" s="252"/>
+      <c r="A81" s="255"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28751,8 +28955,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="265"/>
-      <c r="B82" s="252"/>
+      <c r="A82" s="255"/>
+      <c r="B82" s="258"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28764,8 +28968,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="265"/>
-      <c r="B83" s="252" t="str">
+      <c r="A83" s="255"/>
+      <c r="B83" s="258" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28780,8 +28984,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="265"/>
-      <c r="B84" s="252"/>
+      <c r="A84" s="255"/>
+      <c r="B84" s="258"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28793,8 +28997,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="266"/>
-      <c r="B85" s="253"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="259"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28821,13 +29025,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28840,21 +29052,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29573,11 +29777,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29802,20 +30007,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29840,9 +30042,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFDE7C-87F0-4AC6-A0CD-5BBFC76D5B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362281DE-7F8E-486D-8B8F-A4026B5990E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="24" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <sheet name="Freight Flight" sheetId="8" r:id="rId22"/>
     <sheet name="Rail" sheetId="9" r:id="rId23"/>
     <sheet name="Ship" sheetId="10" r:id="rId24"/>
-    <sheet name="Usage " sheetId="23" r:id="rId25"/>
+    <sheet name="Usage" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
@@ -5767,36 +5767,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5823,6 +5793,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5878,12 +5878,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5901,6 +5895,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22304,20 +22304,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22336,7 +22336,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="291" t="s">
+      <c r="H2" s="289" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22358,7 +22358,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="291" t="s">
+      <c r="P2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22389,10 +22389,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="294" t="s">
+      <c r="AC2" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="289" t="s">
+      <c r="AD2" s="295" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22404,26 +22404,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22444,7 +22444,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="292"/>
+      <c r="H3" s="290"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="292"/>
+      <c r="P3" s="290"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22485,8 +22485,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="252"/>
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="258"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22531,7 +22531,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="292"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="293"/>
+      <c r="P4" s="291"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22571,8 +22571,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="295"/>
-      <c r="AD4" s="252"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="258"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22620,7 +22620,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="292"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22645,8 +22645,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="252"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="258"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22679,7 +22679,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="292"/>
+      <c r="H6" s="290"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22706,8 +22706,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="252"/>
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="258"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22745,7 +22745,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="292"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22772,8 +22772,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="252"/>
+      <c r="AC7" s="293"/>
+      <c r="AD7" s="258"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22808,7 +22808,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="292"/>
+      <c r="H8" s="290"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22835,8 +22835,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="252"/>
+      <c r="AC8" s="293"/>
+      <c r="AD8" s="258"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22871,7 +22871,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="293"/>
+      <c r="H9" s="291"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22898,8 +22898,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="252" t="s">
+      <c r="AC9" s="293"/>
+      <c r="AD9" s="258" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22942,8 +22942,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="252"/>
+      <c r="AC10" s="293"/>
+      <c r="AD10" s="258"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22976,7 +22976,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="294" t="s">
+      <c r="H11" s="292" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22997,8 +22997,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="252"/>
+      <c r="AC11" s="293"/>
+      <c r="AD11" s="258"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23017,7 +23017,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="295"/>
+      <c r="H12" s="293"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23036,8 +23036,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="252"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="258"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23056,7 +23056,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="295"/>
+      <c r="H13" s="293"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23075,8 +23075,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="252"/>
+      <c r="AC13" s="293"/>
+      <c r="AD13" s="258"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23095,7 +23095,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="295"/>
+      <c r="H14" s="293"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23114,8 +23114,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="252"/>
+      <c r="AC14" s="293"/>
+      <c r="AD14" s="258"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23134,7 +23134,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="295"/>
+      <c r="H15" s="293"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23153,8 +23153,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="252" t="s">
+      <c r="AC15" s="293"/>
+      <c r="AD15" s="258" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23172,7 +23172,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="295"/>
+      <c r="H16" s="293"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23191,8 +23191,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="252"/>
+      <c r="AC16" s="293"/>
+      <c r="AD16" s="258"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23211,7 +23211,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="295"/>
+      <c r="H17" s="293"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23230,8 +23230,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="252"/>
+      <c r="AC17" s="293"/>
+      <c r="AD17" s="258"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23250,7 +23250,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="296"/>
+      <c r="H18" s="294"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23269,8 +23269,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="252"/>
+      <c r="AC18" s="293"/>
+      <c r="AD18" s="258"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23289,8 +23289,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="252"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="258"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23309,8 +23309,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="252" t="s">
+      <c r="AC20" s="293"/>
+      <c r="AD20" s="258" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23331,8 +23331,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="252"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="258"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23351,8 +23351,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="252"/>
+      <c r="AC22" s="293"/>
+      <c r="AD22" s="258"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23371,8 +23371,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="252" t="s">
+      <c r="AC23" s="293"/>
+      <c r="AD23" s="258" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23393,8 +23393,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="252"/>
+      <c r="AC24" s="293"/>
+      <c r="AD24" s="258"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23407,8 +23407,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="290"/>
+      <c r="AC25" s="294"/>
+      <c r="AD25" s="296"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23425,10 +23425,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="294" t="s">
+      <c r="AC27" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="289" t="s">
+      <c r="AD27" s="295" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23445,8 +23445,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="252"/>
+      <c r="AC28" s="293"/>
+      <c r="AD28" s="258"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23461,8 +23461,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="295"/>
-      <c r="AD29" s="252"/>
+      <c r="AC29" s="293"/>
+      <c r="AD29" s="258"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23474,8 +23474,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="295"/>
-      <c r="AD30" s="252"/>
+      <c r="AC30" s="293"/>
+      <c r="AD30" s="258"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23489,8 +23489,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="295"/>
-      <c r="AD31" s="252"/>
+      <c r="AC31" s="293"/>
+      <c r="AD31" s="258"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23502,8 +23502,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="295"/>
-      <c r="AD32" s="252"/>
+      <c r="AC32" s="293"/>
+      <c r="AD32" s="258"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23516,8 +23516,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="252"/>
+      <c r="AC33" s="293"/>
+      <c r="AD33" s="258"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23534,8 +23534,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="295"/>
-      <c r="AD34" s="252" t="s">
+      <c r="AC34" s="293"/>
+      <c r="AD34" s="258" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23554,8 +23554,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="295"/>
-      <c r="AD35" s="252"/>
+      <c r="AC35" s="293"/>
+      <c r="AD35" s="258"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23572,8 +23572,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="295"/>
-      <c r="AD36" s="252"/>
+      <c r="AC36" s="293"/>
+      <c r="AD36" s="258"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23590,8 +23590,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="295"/>
-      <c r="AD37" s="252"/>
+      <c r="AC37" s="293"/>
+      <c r="AD37" s="258"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23608,8 +23608,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="295"/>
-      <c r="AD38" s="252"/>
+      <c r="AC38" s="293"/>
+      <c r="AD38" s="258"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23626,8 +23626,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="295"/>
-      <c r="AD39" s="252"/>
+      <c r="AC39" s="293"/>
+      <c r="AD39" s="258"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23644,8 +23644,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="295"/>
-      <c r="AD40" s="252"/>
+      <c r="AC40" s="293"/>
+      <c r="AD40" s="258"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23662,8 +23662,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="295"/>
-      <c r="AD41" s="252" t="s">
+      <c r="AC41" s="293"/>
+      <c r="AD41" s="258" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23682,8 +23682,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="295"/>
-      <c r="AD42" s="252"/>
+      <c r="AC42" s="293"/>
+      <c r="AD42" s="258"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23700,8 +23700,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="295"/>
-      <c r="AD43" s="252"/>
+      <c r="AC43" s="293"/>
+      <c r="AD43" s="258"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23718,8 +23718,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="295"/>
-      <c r="AD44" s="252"/>
+      <c r="AC44" s="293"/>
+      <c r="AD44" s="258"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23736,8 +23736,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="295"/>
-      <c r="AD45" s="252"/>
+      <c r="AC45" s="293"/>
+      <c r="AD45" s="258"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23754,8 +23754,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="295"/>
-      <c r="AD46" s="252"/>
+      <c r="AC46" s="293"/>
+      <c r="AD46" s="258"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23772,8 +23772,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="295"/>
-      <c r="AD47" s="252"/>
+      <c r="AC47" s="293"/>
+      <c r="AD47" s="258"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23790,8 +23790,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="295"/>
-      <c r="AD48" s="252" t="s">
+      <c r="AC48" s="293"/>
+      <c r="AD48" s="258" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23810,8 +23810,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="295"/>
-      <c r="AD49" s="252"/>
+      <c r="AC49" s="293"/>
+      <c r="AD49" s="258"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23828,8 +23828,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="295"/>
-      <c r="AD50" s="252"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="258"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23846,8 +23846,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="295"/>
-      <c r="AD51" s="252" t="s">
+      <c r="AC51" s="293"/>
+      <c r="AD51" s="258" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23866,8 +23866,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="295"/>
-      <c r="AD52" s="252"/>
+      <c r="AC52" s="293"/>
+      <c r="AD52" s="258"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23884,8 +23884,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="295"/>
-      <c r="AD53" s="252"/>
+      <c r="AC53" s="293"/>
+      <c r="AD53" s="258"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23902,7 +23902,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="295"/>
+      <c r="AC54" s="293"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23922,7 +23922,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="296"/>
+      <c r="AC55" s="294"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24155,11 +24155,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24176,11 +24176,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24566,7 +24566,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24587,7 +24587,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24608,7 +24608,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24629,7 +24629,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24650,7 +24650,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24671,7 +24671,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24692,7 +24692,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="293"/>
+      <c r="A9" s="291"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24713,7 +24713,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="289" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24736,7 +24736,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24757,7 +24757,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24778,7 +24778,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24799,7 +24799,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24820,7 +24820,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24841,7 +24841,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24862,7 +24862,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="293"/>
+      <c r="A17" s="291"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25600,7 +25600,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25619,7 +25619,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25636,7 +25636,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="293"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25832,7 +25832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="289" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25858,7 +25858,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="292"/>
+      <c r="A2" s="290"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25880,7 +25880,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25902,7 +25902,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -25924,7 +25924,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -25946,7 +25946,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -25968,7 +25968,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -25990,7 +25990,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -26014,7 +26014,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
+      <c r="A9" s="290"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26036,7 +26036,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="292"/>
+      <c r="A10" s="290"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26058,7 +26058,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26080,7 +26080,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26102,7 +26102,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26124,7 +26124,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26148,7 +26148,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26170,7 +26170,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26192,7 +26192,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="292"/>
+      <c r="A17" s="290"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26214,7 +26214,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="292"/>
+      <c r="A18" s="290"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26236,7 +26236,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="292"/>
+      <c r="A19" s="290"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26260,7 +26260,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="292"/>
+      <c r="A20" s="290"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26282,7 +26282,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="292"/>
+      <c r="A21" s="290"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26304,7 +26304,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="292"/>
+      <c r="A22" s="290"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26328,7 +26328,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="292"/>
+      <c r="A23" s="290"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26350,7 +26350,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="293"/>
+      <c r="A24" s="291"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26372,7 +26372,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="294" t="s">
+      <c r="A25" s="292" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26398,7 +26398,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="295"/>
+      <c r="A26" s="293"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26420,7 +26420,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="295"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26442,7 +26442,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="295"/>
+      <c r="A28" s="293"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26464,7 +26464,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="295"/>
+      <c r="A29" s="293"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26486,7 +26486,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="295"/>
+      <c r="A30" s="293"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26508,7 +26508,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="295"/>
+      <c r="A31" s="293"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26530,7 +26530,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="295"/>
+      <c r="A32" s="293"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26554,7 +26554,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="295"/>
+      <c r="A33" s="293"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26576,7 +26576,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="295"/>
+      <c r="A34" s="293"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26598,7 +26598,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="295"/>
+      <c r="A35" s="293"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26620,7 +26620,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="295"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26642,7 +26642,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="295"/>
+      <c r="A37" s="293"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26664,7 +26664,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="295"/>
+      <c r="A38" s="293"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26686,7 +26686,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="295"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26710,7 +26710,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="295"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26732,7 +26732,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="295"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26754,7 +26754,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="295"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26776,7 +26776,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="295"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26798,7 +26798,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="295"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26820,7 +26820,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="295"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26842,7 +26842,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="295"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26866,7 +26866,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="295"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26888,7 +26888,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="295"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -26910,7 +26910,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="295"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -26934,7 +26934,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="295"/>
+      <c r="A50" s="293"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -26956,7 +26956,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
+      <c r="A51" s="293"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -26978,7 +26978,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="295"/>
+      <c r="A52" s="293"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27002,7 +27002,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="296"/>
+      <c r="A53" s="294"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27060,7 +27060,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27305,50 +27305,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="251"/>
-      <c r="AE1" s="251"/>
-      <c r="AF1" s="251"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="251"/>
-      <c r="AJ1" s="251"/>
-      <c r="AK1" s="251"/>
-      <c r="AL1" s="251"/>
-      <c r="AM1" s="251"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="265"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="251" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27385,33 +27385,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AG2" s="250"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="262"/>
+      <c r="A3" s="252"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27469,7 +27469,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
+      <c r="A4" s="252"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27530,7 +27530,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="263"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27680,7 +27680,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="251" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27735,7 +27735,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="262"/>
+      <c r="A9" s="252"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27786,7 +27786,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="262"/>
+      <c r="A10" s="252"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27833,7 +27833,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="262"/>
+      <c r="A11" s="252"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27857,7 +27857,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="262"/>
+      <c r="A12" s="252"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27881,7 +27881,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="262"/>
+      <c r="A13" s="252"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27905,7 +27905,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="262"/>
+      <c r="A14" s="252"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27929,7 +27929,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="263"/>
+      <c r="A15" s="253"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27962,7 +27962,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="258" t="s">
+      <c r="A17" s="248" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27988,7 +27988,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="259"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28012,7 +28012,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="259"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28036,7 +28036,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="259"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28060,7 +28060,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="259"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28084,7 +28084,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="259"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28108,7 +28108,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="259"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28132,7 +28132,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="260"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28176,7 +28176,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="251" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28199,7 +28199,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="262"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28220,7 +28220,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="263"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28270,10 +28270,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="258" t="s">
+      <c r="A34" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="254" t="str">
+      <c r="B34" s="260" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28294,8 +28294,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="259"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="249"/>
+      <c r="B35" s="261"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28310,8 +28310,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="259"/>
-      <c r="B36" s="255"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28326,8 +28326,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="259"/>
-      <c r="B37" s="255"/>
+      <c r="A37" s="249"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28342,8 +28342,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="259"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="249"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28358,8 +28358,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="259"/>
-      <c r="B39" s="255"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28371,8 +28371,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="259"/>
-      <c r="B40" s="255"/>
+      <c r="A40" s="249"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28384,8 +28384,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="259"/>
-      <c r="B41" s="255" t="str">
+      <c r="A41" s="249"/>
+      <c r="B41" s="261" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28400,8 +28400,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="259"/>
-      <c r="B42" s="255"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="261"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28413,8 +28413,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="259"/>
-      <c r="B43" s="255"/>
+      <c r="A43" s="249"/>
+      <c r="B43" s="261"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28426,8 +28426,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="259"/>
-      <c r="B44" s="255"/>
+      <c r="A44" s="249"/>
+      <c r="B44" s="261"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28439,8 +28439,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="259"/>
-      <c r="B45" s="255"/>
+      <c r="A45" s="249"/>
+      <c r="B45" s="261"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28452,8 +28452,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="259"/>
-      <c r="B46" s="255"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="261"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28465,8 +28465,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="259"/>
-      <c r="B47" s="255" t="str">
+      <c r="A47" s="249"/>
+      <c r="B47" s="261" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28481,8 +28481,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="259"/>
-      <c r="B48" s="255"/>
+      <c r="A48" s="249"/>
+      <c r="B48" s="261"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28494,8 +28494,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="259"/>
-      <c r="B49" s="255"/>
+      <c r="A49" s="249"/>
+      <c r="B49" s="261"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28507,8 +28507,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="259"/>
-      <c r="B50" s="255"/>
+      <c r="A50" s="249"/>
+      <c r="B50" s="261"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28520,8 +28520,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="259"/>
-      <c r="B51" s="255"/>
+      <c r="A51" s="249"/>
+      <c r="B51" s="261"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28533,8 +28533,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="259"/>
-      <c r="B52" s="255" t="str">
+      <c r="A52" s="249"/>
+      <c r="B52" s="261" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28549,8 +28549,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="259"/>
-      <c r="B53" s="255"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="261"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28562,8 +28562,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="259"/>
-      <c r="B54" s="255"/>
+      <c r="A54" s="249"/>
+      <c r="B54" s="261"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28575,8 +28575,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="259"/>
-      <c r="B55" s="255" t="str">
+      <c r="A55" s="249"/>
+      <c r="B55" s="261" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28591,8 +28591,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="259"/>
-      <c r="B56" s="255"/>
+      <c r="A56" s="249"/>
+      <c r="B56" s="261"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28604,8 +28604,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="260"/>
-      <c r="B57" s="256"/>
+      <c r="A57" s="250"/>
+      <c r="B57" s="262"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28620,10 +28620,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="264" t="s">
+      <c r="A59" s="254" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="263" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28640,8 +28640,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="265"/>
-      <c r="B60" s="252"/>
+      <c r="A60" s="255"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28659,8 +28659,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="265"/>
-      <c r="B61" s="252"/>
+      <c r="A61" s="255"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28675,8 +28675,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="265"/>
-      <c r="B62" s="252"/>
+      <c r="A62" s="255"/>
+      <c r="B62" s="258"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28691,8 +28691,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="265"/>
-      <c r="B63" s="252"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="258"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28707,8 +28707,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="265"/>
-      <c r="B64" s="252"/>
+      <c r="A64" s="255"/>
+      <c r="B64" s="258"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28723,8 +28723,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="265"/>
-      <c r="B65" s="252"/>
+      <c r="A65" s="255"/>
+      <c r="B65" s="258"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28737,8 +28737,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="265"/>
-      <c r="B66" s="252" t="str">
+      <c r="A66" s="255"/>
+      <c r="B66" s="258" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28754,8 +28754,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="265"/>
-      <c r="B67" s="252"/>
+      <c r="A67" s="255"/>
+      <c r="B67" s="258"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28767,8 +28767,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="265"/>
-      <c r="B68" s="252"/>
+      <c r="A68" s="255"/>
+      <c r="B68" s="258"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28780,8 +28780,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="265"/>
-      <c r="B69" s="252"/>
+      <c r="A69" s="255"/>
+      <c r="B69" s="258"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28793,8 +28793,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="265"/>
-      <c r="B70" s="252"/>
+      <c r="A70" s="255"/>
+      <c r="B70" s="258"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28806,8 +28806,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="265"/>
-      <c r="B71" s="252"/>
+      <c r="A71" s="255"/>
+      <c r="B71" s="258"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28819,8 +28819,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="265"/>
-      <c r="B72" s="252"/>
+      <c r="A72" s="255"/>
+      <c r="B72" s="258"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28832,8 +28832,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="265"/>
-      <c r="B73" s="252" t="str">
+      <c r="A73" s="255"/>
+      <c r="B73" s="258" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28848,8 +28848,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="265"/>
-      <c r="B74" s="252"/>
+      <c r="A74" s="255"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28861,8 +28861,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="265"/>
-      <c r="B75" s="252"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="258"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28874,8 +28874,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="265"/>
-      <c r="B76" s="252"/>
+      <c r="A76" s="255"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28887,8 +28887,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="265"/>
-      <c r="B77" s="252"/>
+      <c r="A77" s="255"/>
+      <c r="B77" s="258"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28900,8 +28900,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="265"/>
-      <c r="B78" s="252"/>
+      <c r="A78" s="255"/>
+      <c r="B78" s="258"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28913,8 +28913,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="265"/>
-      <c r="B79" s="252"/>
+      <c r="A79" s="255"/>
+      <c r="B79" s="258"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28926,8 +28926,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="265"/>
-      <c r="B80" s="252" t="str">
+      <c r="A80" s="255"/>
+      <c r="B80" s="258" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28942,8 +28942,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="265"/>
-      <c r="B81" s="252"/>
+      <c r="A81" s="255"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28955,8 +28955,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="265"/>
-      <c r="B82" s="252"/>
+      <c r="A82" s="255"/>
+      <c r="B82" s="258"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28968,8 +28968,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="265"/>
-      <c r="B83" s="252" t="str">
+      <c r="A83" s="255"/>
+      <c r="B83" s="258" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28984,8 +28984,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="265"/>
-      <c r="B84" s="252"/>
+      <c r="A84" s="255"/>
+      <c r="B84" s="258"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28997,8 +28997,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="266"/>
-      <c r="B85" s="253"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="259"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29025,13 +29025,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29044,21 +29052,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29777,11 +29777,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30006,20 +30007,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30044,9 +30042,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362281DE-7F8E-486D-8B8F-A4026B5990E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FE6373-16B7-445C-9805-6DA5FFD40376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="24" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="25" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,8 @@
     <sheet name="Rail" sheetId="9" r:id="rId23"/>
     <sheet name="Ship" sheetId="10" r:id="rId24"/>
     <sheet name="Usage" sheetId="23" r:id="rId25"/>
+    <sheet name="End-of-Life" sheetId="28" r:id="rId26"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="1195">
   <si>
     <t>Country</t>
   </si>
@@ -3799,6 +3801,21 @@
   </si>
   <si>
     <t>Categories</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Activities</t>
   </si>
 </sst>
 </file>
@@ -5767,6 +5784,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5793,36 +5840,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5878,6 +5895,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5895,12 +5918,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22304,20 +22321,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22336,7 +22353,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="289" t="s">
+      <c r="H2" s="291" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22358,7 +22375,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="289" t="s">
+      <c r="P2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22389,10 +22406,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="292" t="s">
+      <c r="AC2" s="294" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="295" t="s">
+      <c r="AD2" s="289" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22404,26 +22421,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22444,7 +22461,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="290"/>
+      <c r="H3" s="292"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22464,7 +22481,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="290"/>
+      <c r="P3" s="292"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22485,8 +22502,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="293"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="295"/>
+      <c r="AD3" s="252"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22531,7 +22548,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="290"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22551,7 +22568,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="291"/>
+      <c r="P4" s="293"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22571,8 +22588,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="293"/>
-      <c r="AD4" s="258"/>
+      <c r="AC4" s="295"/>
+      <c r="AD4" s="252"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22620,7 +22637,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="290"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22645,8 +22662,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="293"/>
-      <c r="AD5" s="258"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="252"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22679,7 +22696,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="290"/>
+      <c r="H6" s="292"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22706,8 +22723,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="293"/>
-      <c r="AD6" s="258"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="252"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22745,7 +22762,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="290"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22772,8 +22789,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="258"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="252"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22808,7 +22825,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="290"/>
+      <c r="H8" s="292"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22835,8 +22852,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="293"/>
-      <c r="AD8" s="258"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="252"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22871,7 +22888,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="291"/>
+      <c r="H9" s="293"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22898,8 +22915,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="293"/>
-      <c r="AD9" s="258" t="s">
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="252" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22942,8 +22959,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="293"/>
-      <c r="AD10" s="258"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="252"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22976,7 +22993,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="292" t="s">
+      <c r="H11" s="294" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22997,8 +23014,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="293"/>
-      <c r="AD11" s="258"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="252"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23017,7 +23034,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="293"/>
+      <c r="H12" s="295"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23036,8 +23053,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="293"/>
-      <c r="AD12" s="258"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="252"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23056,7 +23073,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="293"/>
+      <c r="H13" s="295"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23075,8 +23092,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="293"/>
-      <c r="AD13" s="258"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="252"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23095,7 +23112,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="293"/>
+      <c r="H14" s="295"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23114,8 +23131,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="293"/>
-      <c r="AD14" s="258"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="252"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23134,7 +23151,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="293"/>
+      <c r="H15" s="295"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23153,8 +23170,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="293"/>
-      <c r="AD15" s="258" t="s">
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="252" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23172,7 +23189,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="293"/>
+      <c r="H16" s="295"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23191,8 +23208,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="293"/>
-      <c r="AD16" s="258"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="252"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23211,7 +23228,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="293"/>
+      <c r="H17" s="295"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23230,8 +23247,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="293"/>
-      <c r="AD17" s="258"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="252"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23250,7 +23267,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="294"/>
+      <c r="H18" s="296"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23269,8 +23286,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="293"/>
-      <c r="AD18" s="258"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="252"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23289,8 +23306,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="258"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="252"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23309,8 +23326,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="293"/>
-      <c r="AD20" s="258" t="s">
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="252" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23331,8 +23348,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="258"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="252"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23351,8 +23368,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="293"/>
-      <c r="AD22" s="258"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="252"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23371,8 +23388,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="293"/>
-      <c r="AD23" s="258" t="s">
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="252" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23393,8 +23410,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="258"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="252"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23407,8 +23424,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="294"/>
-      <c r="AD25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="290"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23425,10 +23442,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="292" t="s">
+      <c r="AC27" s="294" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="295" t="s">
+      <c r="AD27" s="289" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23445,8 +23462,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="293"/>
-      <c r="AD28" s="258"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="252"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23461,8 +23478,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="293"/>
-      <c r="AD29" s="258"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="252"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23474,8 +23491,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="293"/>
-      <c r="AD30" s="258"/>
+      <c r="AC30" s="295"/>
+      <c r="AD30" s="252"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23489,8 +23506,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="293"/>
-      <c r="AD31" s="258"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="252"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23502,8 +23519,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="293"/>
-      <c r="AD32" s="258"/>
+      <c r="AC32" s="295"/>
+      <c r="AD32" s="252"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23516,8 +23533,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="293"/>
-      <c r="AD33" s="258"/>
+      <c r="AC33" s="295"/>
+      <c r="AD33" s="252"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23534,8 +23551,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="293"/>
-      <c r="AD34" s="258" t="s">
+      <c r="AC34" s="295"/>
+      <c r="AD34" s="252" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23554,8 +23571,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="293"/>
-      <c r="AD35" s="258"/>
+      <c r="AC35" s="295"/>
+      <c r="AD35" s="252"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23572,8 +23589,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="293"/>
-      <c r="AD36" s="258"/>
+      <c r="AC36" s="295"/>
+      <c r="AD36" s="252"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23590,8 +23607,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="293"/>
-      <c r="AD37" s="258"/>
+      <c r="AC37" s="295"/>
+      <c r="AD37" s="252"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23608,8 +23625,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="293"/>
-      <c r="AD38" s="258"/>
+      <c r="AC38" s="295"/>
+      <c r="AD38" s="252"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23626,8 +23643,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="293"/>
-      <c r="AD39" s="258"/>
+      <c r="AC39" s="295"/>
+      <c r="AD39" s="252"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23644,8 +23661,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="293"/>
-      <c r="AD40" s="258"/>
+      <c r="AC40" s="295"/>
+      <c r="AD40" s="252"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23662,8 +23679,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="293"/>
-      <c r="AD41" s="258" t="s">
+      <c r="AC41" s="295"/>
+      <c r="AD41" s="252" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23682,8 +23699,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="293"/>
-      <c r="AD42" s="258"/>
+      <c r="AC42" s="295"/>
+      <c r="AD42" s="252"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23700,8 +23717,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="293"/>
-      <c r="AD43" s="258"/>
+      <c r="AC43" s="295"/>
+      <c r="AD43" s="252"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23718,8 +23735,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="293"/>
-      <c r="AD44" s="258"/>
+      <c r="AC44" s="295"/>
+      <c r="AD44" s="252"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23736,8 +23753,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="293"/>
-      <c r="AD45" s="258"/>
+      <c r="AC45" s="295"/>
+      <c r="AD45" s="252"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23754,8 +23771,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="293"/>
-      <c r="AD46" s="258"/>
+      <c r="AC46" s="295"/>
+      <c r="AD46" s="252"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23772,8 +23789,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="293"/>
-      <c r="AD47" s="258"/>
+      <c r="AC47" s="295"/>
+      <c r="AD47" s="252"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23790,8 +23807,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="293"/>
-      <c r="AD48" s="258" t="s">
+      <c r="AC48" s="295"/>
+      <c r="AD48" s="252" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23810,8 +23827,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="293"/>
-      <c r="AD49" s="258"/>
+      <c r="AC49" s="295"/>
+      <c r="AD49" s="252"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23828,8 +23845,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="293"/>
-      <c r="AD50" s="258"/>
+      <c r="AC50" s="295"/>
+      <c r="AD50" s="252"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23846,8 +23863,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="293"/>
-      <c r="AD51" s="258" t="s">
+      <c r="AC51" s="295"/>
+      <c r="AD51" s="252" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23866,8 +23883,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="293"/>
-      <c r="AD52" s="258"/>
+      <c r="AC52" s="295"/>
+      <c r="AD52" s="252"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23884,8 +23901,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="293"/>
-      <c r="AD53" s="258"/>
+      <c r="AC53" s="295"/>
+      <c r="AD53" s="252"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23902,7 +23919,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="293"/>
+      <c r="AC54" s="295"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23922,7 +23939,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="294"/>
+      <c r="AC55" s="296"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24155,11 +24172,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24176,11 +24193,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24566,7 +24583,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24587,7 +24604,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24608,7 +24625,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24629,7 +24646,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24650,7 +24667,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24671,7 +24688,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24692,7 +24709,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="291"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24713,7 +24730,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="291" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24736,7 +24753,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24757,7 +24774,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24778,7 +24795,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24799,7 +24816,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24820,7 +24837,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24841,7 +24858,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24862,7 +24879,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="291"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25600,7 +25617,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25619,7 +25636,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25636,7 +25653,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="291"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25832,7 +25849,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="291" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25858,7 +25875,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="290"/>
+      <c r="A2" s="292"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25880,7 +25897,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25902,7 +25919,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -25924,7 +25941,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -25946,7 +25963,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -25968,7 +25985,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -25990,7 +26007,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -26014,7 +26031,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="290"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26036,7 +26053,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="290"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26058,7 +26075,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26080,7 +26097,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26102,7 +26119,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26124,7 +26141,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26148,7 +26165,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26170,7 +26187,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26192,7 +26209,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="290"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26214,7 +26231,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="290"/>
+      <c r="A18" s="292"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26236,7 +26253,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="290"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26260,7 +26277,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="290"/>
+      <c r="A20" s="292"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26282,7 +26299,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="290"/>
+      <c r="A21" s="292"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26304,7 +26321,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="290"/>
+      <c r="A22" s="292"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26328,7 +26345,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="290"/>
+      <c r="A23" s="292"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26350,7 +26367,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="291"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26372,7 +26389,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="292" t="s">
+      <c r="A25" s="294" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26398,7 +26415,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="293"/>
+      <c r="A26" s="295"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26420,7 +26437,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="293"/>
+      <c r="A27" s="295"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26442,7 +26459,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="293"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26464,7 +26481,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="293"/>
+      <c r="A29" s="295"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26486,7 +26503,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="293"/>
+      <c r="A30" s="295"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26508,7 +26525,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="293"/>
+      <c r="A31" s="295"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26530,7 +26547,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="293"/>
+      <c r="A32" s="295"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26554,7 +26571,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="293"/>
+      <c r="A33" s="295"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26576,7 +26593,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="293"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26598,7 +26615,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="293"/>
+      <c r="A35" s="295"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26620,7 +26637,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="293"/>
+      <c r="A36" s="295"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26642,7 +26659,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="293"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26664,7 +26681,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="293"/>
+      <c r="A38" s="295"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26686,7 +26703,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="293"/>
+      <c r="A39" s="295"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26710,7 +26727,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="293"/>
+      <c r="A40" s="295"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26732,7 +26749,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="293"/>
+      <c r="A41" s="295"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26754,7 +26771,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="293"/>
+      <c r="A42" s="295"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26776,7 +26793,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="293"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26798,7 +26815,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="293"/>
+      <c r="A44" s="295"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26820,7 +26837,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="293"/>
+      <c r="A45" s="295"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26842,7 +26859,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="293"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26866,7 +26883,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="293"/>
+      <c r="A47" s="295"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26888,7 +26905,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="293"/>
+      <c r="A48" s="295"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -26910,7 +26927,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="293"/>
+      <c r="A49" s="295"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -26934,7 +26951,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="293"/>
+      <c r="A50" s="295"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -26956,7 +26973,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="293"/>
+      <c r="A51" s="295"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -26978,7 +26995,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="293"/>
+      <c r="A52" s="295"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27002,7 +27019,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="294"/>
+      <c r="A53" s="296"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27059,7 +27076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -27221,6 +27238,76 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA6866-CC52-4B36-986B-C6BF1DEA1D59}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5117A25-748F-47E0-A945-CAB73D9169A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27305,50 +27392,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="265"/>
-      <c r="AM1" s="265"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="251"/>
+      <c r="AJ1" s="251"/>
+      <c r="AK1" s="251"/>
+      <c r="AL1" s="251"/>
+      <c r="AM1" s="251"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="261" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27385,33 +27472,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="250"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
+      <c r="A3" s="262"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27469,7 +27556,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="252"/>
+      <c r="A4" s="262"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27530,7 +27617,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="253"/>
+      <c r="A5" s="263"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27680,7 +27767,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="261" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27735,7 +27822,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="252"/>
+      <c r="A9" s="262"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27786,7 +27873,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="252"/>
+      <c r="A10" s="262"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27833,7 +27920,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="252"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27857,7 +27944,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="252"/>
+      <c r="A12" s="262"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27881,7 +27968,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="252"/>
+      <c r="A13" s="262"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27905,7 +27992,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="252"/>
+      <c r="A14" s="262"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27929,7 +28016,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="253"/>
+      <c r="A15" s="263"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27962,7 +28049,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="258" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27988,7 +28075,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="249"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28012,7 +28099,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="249"/>
+      <c r="A19" s="259"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28036,7 +28123,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="249"/>
+      <c r="A20" s="259"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28060,7 +28147,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="249"/>
+      <c r="A21" s="259"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28084,7 +28171,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="249"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28108,7 +28195,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
+      <c r="A23" s="259"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28132,7 +28219,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="250"/>
+      <c r="A24" s="260"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28176,7 +28263,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="261" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28199,7 +28286,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="252"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28220,7 +28307,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="253"/>
+      <c r="A29" s="263"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28270,10 +28357,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="248" t="s">
+      <c r="A34" s="258" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="260" t="str">
+      <c r="B34" s="254" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28294,8 +28381,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="249"/>
-      <c r="B35" s="261"/>
+      <c r="A35" s="259"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28310,8 +28397,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="261"/>
+      <c r="A36" s="259"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28326,8 +28413,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="249"/>
-      <c r="B37" s="261"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28342,8 +28429,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="249"/>
-      <c r="B38" s="261"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28358,8 +28445,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="249"/>
-      <c r="B39" s="261"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28371,8 +28458,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="249"/>
-      <c r="B40" s="261"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28384,8 +28471,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="249"/>
-      <c r="B41" s="261" t="str">
+      <c r="A41" s="259"/>
+      <c r="B41" s="255" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28400,8 +28487,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="249"/>
-      <c r="B42" s="261"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="255"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28413,8 +28500,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="249"/>
-      <c r="B43" s="261"/>
+      <c r="A43" s="259"/>
+      <c r="B43" s="255"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28426,8 +28513,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="249"/>
-      <c r="B44" s="261"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28439,8 +28526,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="249"/>
-      <c r="B45" s="261"/>
+      <c r="A45" s="259"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28452,8 +28539,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="249"/>
-      <c r="B46" s="261"/>
+      <c r="A46" s="259"/>
+      <c r="B46" s="255"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28465,8 +28552,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="249"/>
-      <c r="B47" s="261" t="str">
+      <c r="A47" s="259"/>
+      <c r="B47" s="255" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28481,8 +28568,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="249"/>
-      <c r="B48" s="261"/>
+      <c r="A48" s="259"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28494,8 +28581,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="249"/>
-      <c r="B49" s="261"/>
+      <c r="A49" s="259"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28507,8 +28594,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="249"/>
-      <c r="B50" s="261"/>
+      <c r="A50" s="259"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28520,8 +28607,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="249"/>
-      <c r="B51" s="261"/>
+      <c r="A51" s="259"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28533,8 +28620,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="249"/>
-      <c r="B52" s="261" t="str">
+      <c r="A52" s="259"/>
+      <c r="B52" s="255" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28549,8 +28636,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="249"/>
-      <c r="B53" s="261"/>
+      <c r="A53" s="259"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28562,8 +28649,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="249"/>
-      <c r="B54" s="261"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28575,8 +28662,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="249"/>
-      <c r="B55" s="261" t="str">
+      <c r="A55" s="259"/>
+      <c r="B55" s="255" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28591,8 +28678,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="249"/>
-      <c r="B56" s="261"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="255"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28604,8 +28691,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="250"/>
-      <c r="B57" s="262"/>
+      <c r="A57" s="260"/>
+      <c r="B57" s="256"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28620,10 +28707,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="254" t="s">
+      <c r="A59" s="264" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="263" t="s">
+      <c r="B59" s="257" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28640,8 +28727,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="255"/>
-      <c r="B60" s="258"/>
+      <c r="A60" s="265"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28659,8 +28746,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="255"/>
-      <c r="B61" s="258"/>
+      <c r="A61" s="265"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28675,8 +28762,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="255"/>
-      <c r="B62" s="258"/>
+      <c r="A62" s="265"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28691,8 +28778,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="255"/>
-      <c r="B63" s="258"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28707,8 +28794,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="255"/>
-      <c r="B64" s="258"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28723,8 +28810,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="255"/>
-      <c r="B65" s="258"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="252"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28737,8 +28824,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="255"/>
-      <c r="B66" s="258" t="str">
+      <c r="A66" s="265"/>
+      <c r="B66" s="252" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28754,8 +28841,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="255"/>
-      <c r="B67" s="258"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="252"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28767,8 +28854,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="255"/>
-      <c r="B68" s="258"/>
+      <c r="A68" s="265"/>
+      <c r="B68" s="252"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28780,8 +28867,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="255"/>
-      <c r="B69" s="258"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28793,8 +28880,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="255"/>
-      <c r="B70" s="258"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="252"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28806,8 +28893,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="255"/>
-      <c r="B71" s="258"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28819,8 +28906,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="255"/>
-      <c r="B72" s="258"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="252"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28832,8 +28919,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="255"/>
-      <c r="B73" s="258" t="str">
+      <c r="A73" s="265"/>
+      <c r="B73" s="252" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28848,8 +28935,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="255"/>
-      <c r="B74" s="258"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="252"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28861,8 +28948,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="255"/>
-      <c r="B75" s="258"/>
+      <c r="A75" s="265"/>
+      <c r="B75" s="252"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28874,8 +28961,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="255"/>
-      <c r="B76" s="258"/>
+      <c r="A76" s="265"/>
+      <c r="B76" s="252"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28887,8 +28974,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="255"/>
-      <c r="B77" s="258"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28900,8 +28987,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="255"/>
-      <c r="B78" s="258"/>
+      <c r="A78" s="265"/>
+      <c r="B78" s="252"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28913,8 +29000,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="255"/>
-      <c r="B79" s="258"/>
+      <c r="A79" s="265"/>
+      <c r="B79" s="252"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28926,8 +29013,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="255"/>
-      <c r="B80" s="258" t="str">
+      <c r="A80" s="265"/>
+      <c r="B80" s="252" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28942,8 +29029,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="255"/>
-      <c r="B81" s="258"/>
+      <c r="A81" s="265"/>
+      <c r="B81" s="252"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28955,8 +29042,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="255"/>
-      <c r="B82" s="258"/>
+      <c r="A82" s="265"/>
+      <c r="B82" s="252"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28968,8 +29055,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="255"/>
-      <c r="B83" s="258" t="str">
+      <c r="A83" s="265"/>
+      <c r="B83" s="252" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28984,8 +29071,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="255"/>
-      <c r="B84" s="258"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="252"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28997,8 +29084,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="256"/>
-      <c r="B85" s="259"/>
+      <c r="A85" s="266"/>
+      <c r="B85" s="253"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29025,21 +29112,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29052,13 +29131,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29777,12 +29864,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30007,17 +30093,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30042,11 +30131,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FE6373-16B7-445C-9805-6DA5FFD40376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992AA54-B39C-4CD6-82E8-4686E6B8C135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="25" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="1199">
   <si>
     <t>Country</t>
   </si>
@@ -3816,6 +3816,18 @@
   </si>
   <si>
     <t>Activities</t>
+  </si>
+  <si>
+    <t>Machine brands</t>
+  </si>
+  <si>
+    <t>YCM</t>
+  </si>
+  <si>
+    <t>Amada</t>
+  </si>
+  <si>
+    <t>Mazak</t>
   </si>
 </sst>
 </file>
@@ -5784,36 +5796,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5840,6 +5822,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5895,12 +5907,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5918,6 +5924,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8535,58 +8547,75 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40758563-BC2E-44F0-BF67-4E97AC986071}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="161" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" s="161" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="182" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2" s="182" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="182" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C3" s="182" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="182" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C4" s="182" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="182" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="182"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="182" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C6" s="182"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="182" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7" s="182"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="182" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C8" s="182"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="182" t="s">
         <v>625</v>
       </c>
@@ -22321,20 +22350,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22353,7 +22382,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="291" t="s">
+      <c r="H2" s="289" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22375,7 +22404,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="291" t="s">
+      <c r="P2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22406,10 +22435,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="294" t="s">
+      <c r="AC2" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="289" t="s">
+      <c r="AD2" s="295" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22421,26 +22450,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22461,7 +22490,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="292"/>
+      <c r="H3" s="290"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22481,7 +22510,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="292"/>
+      <c r="P3" s="290"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22502,8 +22531,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="252"/>
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="258"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22548,7 +22577,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="292"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22568,7 +22597,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="293"/>
+      <c r="P4" s="291"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22588,8 +22617,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="295"/>
-      <c r="AD4" s="252"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="258"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22637,7 +22666,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="292"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22662,8 +22691,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="252"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="258"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22696,7 +22725,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="292"/>
+      <c r="H6" s="290"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22723,8 +22752,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="252"/>
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="258"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22762,7 +22791,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="292"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22789,8 +22818,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="252"/>
+      <c r="AC7" s="293"/>
+      <c r="AD7" s="258"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22825,7 +22854,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="292"/>
+      <c r="H8" s="290"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22852,8 +22881,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="252"/>
+      <c r="AC8" s="293"/>
+      <c r="AD8" s="258"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22888,7 +22917,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="293"/>
+      <c r="H9" s="291"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22915,8 +22944,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="252" t="s">
+      <c r="AC9" s="293"/>
+      <c r="AD9" s="258" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22959,8 +22988,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="252"/>
+      <c r="AC10" s="293"/>
+      <c r="AD10" s="258"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22993,7 +23022,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="294" t="s">
+      <c r="H11" s="292" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23014,8 +23043,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="252"/>
+      <c r="AC11" s="293"/>
+      <c r="AD11" s="258"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23034,7 +23063,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="295"/>
+      <c r="H12" s="293"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23053,8 +23082,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="252"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="258"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23073,7 +23102,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="295"/>
+      <c r="H13" s="293"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23092,8 +23121,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="252"/>
+      <c r="AC13" s="293"/>
+      <c r="AD13" s="258"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23112,7 +23141,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="295"/>
+      <c r="H14" s="293"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23131,8 +23160,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="252"/>
+      <c r="AC14" s="293"/>
+      <c r="AD14" s="258"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23151,7 +23180,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="295"/>
+      <c r="H15" s="293"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23170,8 +23199,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="252" t="s">
+      <c r="AC15" s="293"/>
+      <c r="AD15" s="258" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23189,7 +23218,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="295"/>
+      <c r="H16" s="293"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23208,8 +23237,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="252"/>
+      <c r="AC16" s="293"/>
+      <c r="AD16" s="258"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23228,7 +23257,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="295"/>
+      <c r="H17" s="293"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23247,8 +23276,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="252"/>
+      <c r="AC17" s="293"/>
+      <c r="AD17" s="258"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23267,7 +23296,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="296"/>
+      <c r="H18" s="294"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23286,8 +23315,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="252"/>
+      <c r="AC18" s="293"/>
+      <c r="AD18" s="258"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23306,8 +23335,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="252"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="258"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23326,8 +23355,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="252" t="s">
+      <c r="AC20" s="293"/>
+      <c r="AD20" s="258" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23348,8 +23377,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="252"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="258"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23368,8 +23397,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="252"/>
+      <c r="AC22" s="293"/>
+      <c r="AD22" s="258"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23388,8 +23417,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="252" t="s">
+      <c r="AC23" s="293"/>
+      <c r="AD23" s="258" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23410,8 +23439,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="252"/>
+      <c r="AC24" s="293"/>
+      <c r="AD24" s="258"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23424,8 +23453,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="290"/>
+      <c r="AC25" s="294"/>
+      <c r="AD25" s="296"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23442,10 +23471,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="294" t="s">
+      <c r="AC27" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="289" t="s">
+      <c r="AD27" s="295" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23462,8 +23491,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="252"/>
+      <c r="AC28" s="293"/>
+      <c r="AD28" s="258"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23478,8 +23507,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="295"/>
-      <c r="AD29" s="252"/>
+      <c r="AC29" s="293"/>
+      <c r="AD29" s="258"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23491,8 +23520,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="295"/>
-      <c r="AD30" s="252"/>
+      <c r="AC30" s="293"/>
+      <c r="AD30" s="258"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23506,8 +23535,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="295"/>
-      <c r="AD31" s="252"/>
+      <c r="AC31" s="293"/>
+      <c r="AD31" s="258"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23519,8 +23548,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="295"/>
-      <c r="AD32" s="252"/>
+      <c r="AC32" s="293"/>
+      <c r="AD32" s="258"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23533,8 +23562,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="252"/>
+      <c r="AC33" s="293"/>
+      <c r="AD33" s="258"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23551,8 +23580,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="295"/>
-      <c r="AD34" s="252" t="s">
+      <c r="AC34" s="293"/>
+      <c r="AD34" s="258" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23571,8 +23600,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="295"/>
-      <c r="AD35" s="252"/>
+      <c r="AC35" s="293"/>
+      <c r="AD35" s="258"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23589,8 +23618,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="295"/>
-      <c r="AD36" s="252"/>
+      <c r="AC36" s="293"/>
+      <c r="AD36" s="258"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23607,8 +23636,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="295"/>
-      <c r="AD37" s="252"/>
+      <c r="AC37" s="293"/>
+      <c r="AD37" s="258"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23625,8 +23654,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="295"/>
-      <c r="AD38" s="252"/>
+      <c r="AC38" s="293"/>
+      <c r="AD38" s="258"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23643,8 +23672,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="295"/>
-      <c r="AD39" s="252"/>
+      <c r="AC39" s="293"/>
+      <c r="AD39" s="258"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23661,8 +23690,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="295"/>
-      <c r="AD40" s="252"/>
+      <c r="AC40" s="293"/>
+      <c r="AD40" s="258"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23679,8 +23708,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="295"/>
-      <c r="AD41" s="252" t="s">
+      <c r="AC41" s="293"/>
+      <c r="AD41" s="258" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23699,8 +23728,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="295"/>
-      <c r="AD42" s="252"/>
+      <c r="AC42" s="293"/>
+      <c r="AD42" s="258"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23717,8 +23746,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="295"/>
-      <c r="AD43" s="252"/>
+      <c r="AC43" s="293"/>
+      <c r="AD43" s="258"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23735,8 +23764,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="295"/>
-      <c r="AD44" s="252"/>
+      <c r="AC44" s="293"/>
+      <c r="AD44" s="258"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23753,8 +23782,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="295"/>
-      <c r="AD45" s="252"/>
+      <c r="AC45" s="293"/>
+      <c r="AD45" s="258"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23771,8 +23800,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="295"/>
-      <c r="AD46" s="252"/>
+      <c r="AC46" s="293"/>
+      <c r="AD46" s="258"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23789,8 +23818,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="295"/>
-      <c r="AD47" s="252"/>
+      <c r="AC47" s="293"/>
+      <c r="AD47" s="258"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23807,8 +23836,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="295"/>
-      <c r="AD48" s="252" t="s">
+      <c r="AC48" s="293"/>
+      <c r="AD48" s="258" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23827,8 +23856,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="295"/>
-      <c r="AD49" s="252"/>
+      <c r="AC49" s="293"/>
+      <c r="AD49" s="258"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23845,8 +23874,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="295"/>
-      <c r="AD50" s="252"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="258"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23863,8 +23892,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="295"/>
-      <c r="AD51" s="252" t="s">
+      <c r="AC51" s="293"/>
+      <c r="AD51" s="258" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23883,8 +23912,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="295"/>
-      <c r="AD52" s="252"/>
+      <c r="AC52" s="293"/>
+      <c r="AD52" s="258"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23901,8 +23930,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="295"/>
-      <c r="AD53" s="252"/>
+      <c r="AC53" s="293"/>
+      <c r="AD53" s="258"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23919,7 +23948,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="295"/>
+      <c r="AC54" s="293"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23939,7 +23968,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="296"/>
+      <c r="AC55" s="294"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24172,11 +24201,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24193,11 +24222,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24583,7 +24612,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24604,7 +24633,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24625,7 +24654,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24646,7 +24675,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24667,7 +24696,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24688,7 +24717,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24709,7 +24738,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="293"/>
+      <c r="A9" s="291"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24730,7 +24759,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="289" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24753,7 +24782,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24774,7 +24803,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24795,7 +24824,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24816,7 +24845,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24837,7 +24866,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24858,7 +24887,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24879,7 +24908,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="293"/>
+      <c r="A17" s="291"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25617,7 +25646,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25636,7 +25665,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25653,7 +25682,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="293"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25849,7 +25878,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="289" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25875,7 +25904,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="292"/>
+      <c r="A2" s="290"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25897,7 +25926,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25919,7 +25948,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -25941,7 +25970,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -25963,7 +25992,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -25985,7 +26014,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -26007,7 +26036,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -26031,7 +26060,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
+      <c r="A9" s="290"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26053,7 +26082,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="292"/>
+      <c r="A10" s="290"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26075,7 +26104,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26097,7 +26126,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26119,7 +26148,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26141,7 +26170,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26165,7 +26194,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26187,7 +26216,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26209,7 +26238,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="292"/>
+      <c r="A17" s="290"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26231,7 +26260,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="292"/>
+      <c r="A18" s="290"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26253,7 +26282,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="292"/>
+      <c r="A19" s="290"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26277,7 +26306,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="292"/>
+      <c r="A20" s="290"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26299,7 +26328,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="292"/>
+      <c r="A21" s="290"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26321,7 +26350,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="292"/>
+      <c r="A22" s="290"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26345,7 +26374,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="292"/>
+      <c r="A23" s="290"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26367,7 +26396,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="293"/>
+      <c r="A24" s="291"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26389,7 +26418,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="294" t="s">
+      <c r="A25" s="292" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26415,7 +26444,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="295"/>
+      <c r="A26" s="293"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26437,7 +26466,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="295"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26459,7 +26488,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="295"/>
+      <c r="A28" s="293"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26481,7 +26510,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="295"/>
+      <c r="A29" s="293"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26503,7 +26532,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="295"/>
+      <c r="A30" s="293"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26525,7 +26554,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="295"/>
+      <c r="A31" s="293"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26547,7 +26576,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="295"/>
+      <c r="A32" s="293"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26571,7 +26600,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="295"/>
+      <c r="A33" s="293"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26593,7 +26622,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="295"/>
+      <c r="A34" s="293"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26615,7 +26644,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="295"/>
+      <c r="A35" s="293"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26637,7 +26666,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="295"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26659,7 +26688,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="295"/>
+      <c r="A37" s="293"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26681,7 +26710,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="295"/>
+      <c r="A38" s="293"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26703,7 +26732,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="295"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26727,7 +26756,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="295"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26749,7 +26778,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="295"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26771,7 +26800,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="295"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26793,7 +26822,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="295"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26815,7 +26844,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="295"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26837,7 +26866,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="295"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26859,7 +26888,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="295"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26883,7 +26912,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="295"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26905,7 +26934,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="295"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -26927,7 +26956,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="295"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -26951,7 +26980,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="295"/>
+      <c r="A50" s="293"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -26973,7 +27002,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
+      <c r="A51" s="293"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -26995,7 +27024,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="295"/>
+      <c r="A52" s="293"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27019,7 +27048,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="296"/>
+      <c r="A53" s="294"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27246,7 +27275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA6866-CC52-4B36-986B-C6BF1DEA1D59}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -27392,50 +27421,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="251"/>
-      <c r="AE1" s="251"/>
-      <c r="AF1" s="251"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="251"/>
-      <c r="AJ1" s="251"/>
-      <c r="AK1" s="251"/>
-      <c r="AL1" s="251"/>
-      <c r="AM1" s="251"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="265"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="251" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27472,33 +27501,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AG2" s="250"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="262"/>
+      <c r="A3" s="252"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27556,7 +27585,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
+      <c r="A4" s="252"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27617,7 +27646,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="263"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27767,7 +27796,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="251" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27822,7 +27851,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="262"/>
+      <c r="A9" s="252"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27873,7 +27902,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="262"/>
+      <c r="A10" s="252"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27920,7 +27949,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="262"/>
+      <c r="A11" s="252"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27944,7 +27973,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="262"/>
+      <c r="A12" s="252"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27968,7 +27997,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="262"/>
+      <c r="A13" s="252"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27992,7 +28021,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="262"/>
+      <c r="A14" s="252"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28016,7 +28045,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="263"/>
+      <c r="A15" s="253"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28049,7 +28078,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="258" t="s">
+      <c r="A17" s="248" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28075,7 +28104,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="259"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28099,7 +28128,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="259"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28123,7 +28152,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="259"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28147,7 +28176,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="259"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28171,7 +28200,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="259"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28195,7 +28224,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="259"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28219,7 +28248,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="260"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28263,7 +28292,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="251" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28286,7 +28315,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="262"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28307,7 +28336,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="263"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28357,10 +28386,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="258" t="s">
+      <c r="A34" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="254" t="str">
+      <c r="B34" s="260" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28381,8 +28410,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="259"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="249"/>
+      <c r="B35" s="261"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28397,8 +28426,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="259"/>
-      <c r="B36" s="255"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28413,8 +28442,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="259"/>
-      <c r="B37" s="255"/>
+      <c r="A37" s="249"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28429,8 +28458,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="259"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="249"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28445,8 +28474,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="259"/>
-      <c r="B39" s="255"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28458,8 +28487,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="259"/>
-      <c r="B40" s="255"/>
+      <c r="A40" s="249"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28471,8 +28500,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="259"/>
-      <c r="B41" s="255" t="str">
+      <c r="A41" s="249"/>
+      <c r="B41" s="261" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28487,8 +28516,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="259"/>
-      <c r="B42" s="255"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="261"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28500,8 +28529,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="259"/>
-      <c r="B43" s="255"/>
+      <c r="A43" s="249"/>
+      <c r="B43" s="261"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28513,8 +28542,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="259"/>
-      <c r="B44" s="255"/>
+      <c r="A44" s="249"/>
+      <c r="B44" s="261"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28526,8 +28555,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="259"/>
-      <c r="B45" s="255"/>
+      <c r="A45" s="249"/>
+      <c r="B45" s="261"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28539,8 +28568,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="259"/>
-      <c r="B46" s="255"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="261"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28552,8 +28581,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="259"/>
-      <c r="B47" s="255" t="str">
+      <c r="A47" s="249"/>
+      <c r="B47" s="261" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28568,8 +28597,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="259"/>
-      <c r="B48" s="255"/>
+      <c r="A48" s="249"/>
+      <c r="B48" s="261"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28581,8 +28610,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="259"/>
-      <c r="B49" s="255"/>
+      <c r="A49" s="249"/>
+      <c r="B49" s="261"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28594,8 +28623,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="259"/>
-      <c r="B50" s="255"/>
+      <c r="A50" s="249"/>
+      <c r="B50" s="261"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28607,8 +28636,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="259"/>
-      <c r="B51" s="255"/>
+      <c r="A51" s="249"/>
+      <c r="B51" s="261"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28620,8 +28649,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="259"/>
-      <c r="B52" s="255" t="str">
+      <c r="A52" s="249"/>
+      <c r="B52" s="261" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28636,8 +28665,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="259"/>
-      <c r="B53" s="255"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="261"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28649,8 +28678,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="259"/>
-      <c r="B54" s="255"/>
+      <c r="A54" s="249"/>
+      <c r="B54" s="261"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28662,8 +28691,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="259"/>
-      <c r="B55" s="255" t="str">
+      <c r="A55" s="249"/>
+      <c r="B55" s="261" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28678,8 +28707,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="259"/>
-      <c r="B56" s="255"/>
+      <c r="A56" s="249"/>
+      <c r="B56" s="261"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28691,8 +28720,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="260"/>
-      <c r="B57" s="256"/>
+      <c r="A57" s="250"/>
+      <c r="B57" s="262"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28707,10 +28736,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="264" t="s">
+      <c r="A59" s="254" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="263" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28727,8 +28756,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="265"/>
-      <c r="B60" s="252"/>
+      <c r="A60" s="255"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28746,8 +28775,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="265"/>
-      <c r="B61" s="252"/>
+      <c r="A61" s="255"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28762,8 +28791,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="265"/>
-      <c r="B62" s="252"/>
+      <c r="A62" s="255"/>
+      <c r="B62" s="258"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28778,8 +28807,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="265"/>
-      <c r="B63" s="252"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="258"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28794,8 +28823,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="265"/>
-      <c r="B64" s="252"/>
+      <c r="A64" s="255"/>
+      <c r="B64" s="258"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28810,8 +28839,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="265"/>
-      <c r="B65" s="252"/>
+      <c r="A65" s="255"/>
+      <c r="B65" s="258"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28824,8 +28853,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="265"/>
-      <c r="B66" s="252" t="str">
+      <c r="A66" s="255"/>
+      <c r="B66" s="258" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28841,8 +28870,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="265"/>
-      <c r="B67" s="252"/>
+      <c r="A67" s="255"/>
+      <c r="B67" s="258"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28854,8 +28883,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="265"/>
-      <c r="B68" s="252"/>
+      <c r="A68" s="255"/>
+      <c r="B68" s="258"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28867,8 +28896,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="265"/>
-      <c r="B69" s="252"/>
+      <c r="A69" s="255"/>
+      <c r="B69" s="258"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28880,8 +28909,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="265"/>
-      <c r="B70" s="252"/>
+      <c r="A70" s="255"/>
+      <c r="B70" s="258"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28893,8 +28922,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="265"/>
-      <c r="B71" s="252"/>
+      <c r="A71" s="255"/>
+      <c r="B71" s="258"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28906,8 +28935,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="265"/>
-      <c r="B72" s="252"/>
+      <c r="A72" s="255"/>
+      <c r="B72" s="258"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28919,8 +28948,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="265"/>
-      <c r="B73" s="252" t="str">
+      <c r="A73" s="255"/>
+      <c r="B73" s="258" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28935,8 +28964,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="265"/>
-      <c r="B74" s="252"/>
+      <c r="A74" s="255"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28948,8 +28977,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="265"/>
-      <c r="B75" s="252"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="258"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28961,8 +28990,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="265"/>
-      <c r="B76" s="252"/>
+      <c r="A76" s="255"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28974,8 +29003,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="265"/>
-      <c r="B77" s="252"/>
+      <c r="A77" s="255"/>
+      <c r="B77" s="258"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28987,8 +29016,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="265"/>
-      <c r="B78" s="252"/>
+      <c r="A78" s="255"/>
+      <c r="B78" s="258"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29000,8 +29029,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="265"/>
-      <c r="B79" s="252"/>
+      <c r="A79" s="255"/>
+      <c r="B79" s="258"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29013,8 +29042,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="265"/>
-      <c r="B80" s="252" t="str">
+      <c r="A80" s="255"/>
+      <c r="B80" s="258" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29029,8 +29058,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="265"/>
-      <c r="B81" s="252"/>
+      <c r="A81" s="255"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29042,8 +29071,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="265"/>
-      <c r="B82" s="252"/>
+      <c r="A82" s="255"/>
+      <c r="B82" s="258"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29055,8 +29084,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="265"/>
-      <c r="B83" s="252" t="str">
+      <c r="A83" s="255"/>
+      <c r="B83" s="258" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29071,8 +29100,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="265"/>
-      <c r="B84" s="252"/>
+      <c r="A84" s="255"/>
+      <c r="B84" s="258"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29084,8 +29113,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="266"/>
-      <c r="B85" s="253"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="259"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29112,13 +29141,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29131,21 +29168,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29864,11 +29893,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30093,20 +30123,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30131,9 +30158,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C056CF3-FD78-49E1-872E-EDA13741805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D82522-A5B7-45A2-AD90-EC92458CE091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="19" activeTab="27" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <sheet name="Ship" sheetId="10" r:id="rId25"/>
     <sheet name="Usage" sheetId="23" r:id="rId26"/>
     <sheet name="End-of-Life" sheetId="28" r:id="rId27"/>
-    <sheet name="Sheet5" sheetId="33" r:id="rId28"/>
+    <sheet name="Assembly" sheetId="33" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
@@ -5809,36 +5809,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5865,6 +5835,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5920,12 +5920,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5943,6 +5937,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22448,20 +22448,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22480,7 +22480,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="291" t="s">
+      <c r="H2" s="289" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22502,7 +22502,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="291" t="s">
+      <c r="P2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22533,10 +22533,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="294" t="s">
+      <c r="AC2" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="289" t="s">
+      <c r="AD2" s="295" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22548,26 +22548,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22588,7 +22588,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="292"/>
+      <c r="H3" s="290"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="292"/>
+      <c r="P3" s="290"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22629,8 +22629,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="252"/>
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="258"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22675,7 +22675,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="292"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="293"/>
+      <c r="P4" s="291"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22715,8 +22715,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="295"/>
-      <c r="AD4" s="252"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="258"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22764,7 +22764,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="292"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22789,8 +22789,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="252"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="258"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22823,7 +22823,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="292"/>
+      <c r="H6" s="290"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22850,8 +22850,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="252"/>
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="258"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22889,7 +22889,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="292"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22916,8 +22916,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="252"/>
+      <c r="AC7" s="293"/>
+      <c r="AD7" s="258"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22952,7 +22952,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="292"/>
+      <c r="H8" s="290"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22979,8 +22979,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="252"/>
+      <c r="AC8" s="293"/>
+      <c r="AD8" s="258"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -23015,7 +23015,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="293"/>
+      <c r="H9" s="291"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -23042,8 +23042,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="252" t="s">
+      <c r="AC9" s="293"/>
+      <c r="AD9" s="258" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -23086,8 +23086,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="252"/>
+      <c r="AC10" s="293"/>
+      <c r="AD10" s="258"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23120,7 +23120,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="294" t="s">
+      <c r="H11" s="292" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23141,8 +23141,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="252"/>
+      <c r="AC11" s="293"/>
+      <c r="AD11" s="258"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23161,7 +23161,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="295"/>
+      <c r="H12" s="293"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23180,8 +23180,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="252"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="258"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23200,7 +23200,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="295"/>
+      <c r="H13" s="293"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23219,8 +23219,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="252"/>
+      <c r="AC13" s="293"/>
+      <c r="AD13" s="258"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23239,7 +23239,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="295"/>
+      <c r="H14" s="293"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23258,8 +23258,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="252"/>
+      <c r="AC14" s="293"/>
+      <c r="AD14" s="258"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23278,7 +23278,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="295"/>
+      <c r="H15" s="293"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23297,8 +23297,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="252" t="s">
+      <c r="AC15" s="293"/>
+      <c r="AD15" s="258" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23316,7 +23316,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="295"/>
+      <c r="H16" s="293"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23335,8 +23335,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="252"/>
+      <c r="AC16" s="293"/>
+      <c r="AD16" s="258"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23355,7 +23355,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="295"/>
+      <c r="H17" s="293"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23374,8 +23374,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="252"/>
+      <c r="AC17" s="293"/>
+      <c r="AD17" s="258"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23394,7 +23394,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="296"/>
+      <c r="H18" s="294"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23413,8 +23413,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="252"/>
+      <c r="AC18" s="293"/>
+      <c r="AD18" s="258"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23433,8 +23433,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="252"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="258"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23453,8 +23453,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="252" t="s">
+      <c r="AC20" s="293"/>
+      <c r="AD20" s="258" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23475,8 +23475,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="252"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="258"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23495,8 +23495,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="252"/>
+      <c r="AC22" s="293"/>
+      <c r="AD22" s="258"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23515,8 +23515,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="252" t="s">
+      <c r="AC23" s="293"/>
+      <c r="AD23" s="258" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23537,8 +23537,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="252"/>
+      <c r="AC24" s="293"/>
+      <c r="AD24" s="258"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23551,8 +23551,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="290"/>
+      <c r="AC25" s="294"/>
+      <c r="AD25" s="296"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23569,10 +23569,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="294" t="s">
+      <c r="AC27" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="289" t="s">
+      <c r="AD27" s="295" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23589,8 +23589,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="252"/>
+      <c r="AC28" s="293"/>
+      <c r="AD28" s="258"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23605,8 +23605,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="295"/>
-      <c r="AD29" s="252"/>
+      <c r="AC29" s="293"/>
+      <c r="AD29" s="258"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23618,8 +23618,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="295"/>
-      <c r="AD30" s="252"/>
+      <c r="AC30" s="293"/>
+      <c r="AD30" s="258"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23633,8 +23633,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="295"/>
-      <c r="AD31" s="252"/>
+      <c r="AC31" s="293"/>
+      <c r="AD31" s="258"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23646,8 +23646,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="295"/>
-      <c r="AD32" s="252"/>
+      <c r="AC32" s="293"/>
+      <c r="AD32" s="258"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23660,8 +23660,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="252"/>
+      <c r="AC33" s="293"/>
+      <c r="AD33" s="258"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23678,8 +23678,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="295"/>
-      <c r="AD34" s="252" t="s">
+      <c r="AC34" s="293"/>
+      <c r="AD34" s="258" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23698,8 +23698,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="295"/>
-      <c r="AD35" s="252"/>
+      <c r="AC35" s="293"/>
+      <c r="AD35" s="258"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23716,8 +23716,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="295"/>
-      <c r="AD36" s="252"/>
+      <c r="AC36" s="293"/>
+      <c r="AD36" s="258"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23734,8 +23734,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="295"/>
-      <c r="AD37" s="252"/>
+      <c r="AC37" s="293"/>
+      <c r="AD37" s="258"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23752,8 +23752,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="295"/>
-      <c r="AD38" s="252"/>
+      <c r="AC38" s="293"/>
+      <c r="AD38" s="258"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23770,8 +23770,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="295"/>
-      <c r="AD39" s="252"/>
+      <c r="AC39" s="293"/>
+      <c r="AD39" s="258"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23788,8 +23788,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="295"/>
-      <c r="AD40" s="252"/>
+      <c r="AC40" s="293"/>
+      <c r="AD40" s="258"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23806,8 +23806,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="295"/>
-      <c r="AD41" s="252" t="s">
+      <c r="AC41" s="293"/>
+      <c r="AD41" s="258" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23826,8 +23826,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="295"/>
-      <c r="AD42" s="252"/>
+      <c r="AC42" s="293"/>
+      <c r="AD42" s="258"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23844,8 +23844,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="295"/>
-      <c r="AD43" s="252"/>
+      <c r="AC43" s="293"/>
+      <c r="AD43" s="258"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23862,8 +23862,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="295"/>
-      <c r="AD44" s="252"/>
+      <c r="AC44" s="293"/>
+      <c r="AD44" s="258"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23880,8 +23880,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="295"/>
-      <c r="AD45" s="252"/>
+      <c r="AC45" s="293"/>
+      <c r="AD45" s="258"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23898,8 +23898,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="295"/>
-      <c r="AD46" s="252"/>
+      <c r="AC46" s="293"/>
+      <c r="AD46" s="258"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23916,8 +23916,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="295"/>
-      <c r="AD47" s="252"/>
+      <c r="AC47" s="293"/>
+      <c r="AD47" s="258"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23934,8 +23934,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="295"/>
-      <c r="AD48" s="252" t="s">
+      <c r="AC48" s="293"/>
+      <c r="AD48" s="258" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23954,8 +23954,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="295"/>
-      <c r="AD49" s="252"/>
+      <c r="AC49" s="293"/>
+      <c r="AD49" s="258"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23972,8 +23972,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="295"/>
-      <c r="AD50" s="252"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="258"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23990,8 +23990,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="295"/>
-      <c r="AD51" s="252" t="s">
+      <c r="AC51" s="293"/>
+      <c r="AD51" s="258" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -24010,8 +24010,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="295"/>
-      <c r="AD52" s="252"/>
+      <c r="AC52" s="293"/>
+      <c r="AD52" s="258"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -24028,8 +24028,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="295"/>
-      <c r="AD53" s="252"/>
+      <c r="AC53" s="293"/>
+      <c r="AD53" s="258"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24046,7 +24046,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="295"/>
+      <c r="AC54" s="293"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -24066,7 +24066,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="296"/>
+      <c r="AC55" s="294"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24299,11 +24299,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24320,11 +24320,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24661,7 +24661,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24682,7 +24682,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24703,7 +24703,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24724,7 +24724,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24745,7 +24745,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24766,7 +24766,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24787,7 +24787,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="293"/>
+      <c r="A9" s="291"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24808,7 +24808,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="289" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24831,7 +24831,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24852,7 +24852,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24873,7 +24873,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24894,7 +24894,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24915,7 +24915,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24936,7 +24936,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24957,7 +24957,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="293"/>
+      <c r="A17" s="291"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25695,7 +25695,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="289" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25714,7 +25714,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25731,7 +25731,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="293"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25927,7 +25927,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="289" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25953,7 +25953,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="292"/>
+      <c r="A2" s="290"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25975,7 +25975,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25997,7 +25997,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -26019,7 +26019,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -26041,7 +26041,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -26063,7 +26063,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -26085,7 +26085,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -26109,7 +26109,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
+      <c r="A9" s="290"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26131,7 +26131,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="292"/>
+      <c r="A10" s="290"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26153,7 +26153,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26175,7 +26175,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26197,7 +26197,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26219,7 +26219,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26243,7 +26243,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26265,7 +26265,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26287,7 +26287,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="292"/>
+      <c r="A17" s="290"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26309,7 +26309,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="292"/>
+      <c r="A18" s="290"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26331,7 +26331,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="292"/>
+      <c r="A19" s="290"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26355,7 +26355,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="292"/>
+      <c r="A20" s="290"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26377,7 +26377,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="292"/>
+      <c r="A21" s="290"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26399,7 +26399,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="292"/>
+      <c r="A22" s="290"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26423,7 +26423,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="292"/>
+      <c r="A23" s="290"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26445,7 +26445,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="293"/>
+      <c r="A24" s="291"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26467,7 +26467,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="294" t="s">
+      <c r="A25" s="292" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26493,7 +26493,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="295"/>
+      <c r="A26" s="293"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26515,7 +26515,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="295"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26537,7 +26537,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="295"/>
+      <c r="A28" s="293"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26559,7 +26559,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="295"/>
+      <c r="A29" s="293"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26581,7 +26581,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="295"/>
+      <c r="A30" s="293"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26603,7 +26603,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="295"/>
+      <c r="A31" s="293"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26625,7 +26625,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="295"/>
+      <c r="A32" s="293"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26649,7 +26649,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="295"/>
+      <c r="A33" s="293"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26671,7 +26671,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="295"/>
+      <c r="A34" s="293"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26693,7 +26693,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="295"/>
+      <c r="A35" s="293"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26715,7 +26715,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="295"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26737,7 +26737,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="295"/>
+      <c r="A37" s="293"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26759,7 +26759,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="295"/>
+      <c r="A38" s="293"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26781,7 +26781,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="295"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26805,7 +26805,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="295"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26827,7 +26827,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="295"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26849,7 +26849,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="295"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26871,7 +26871,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="295"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26893,7 +26893,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="295"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26915,7 +26915,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="295"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26937,7 +26937,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="295"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26961,7 +26961,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="295"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26983,7 +26983,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="295"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -27005,7 +27005,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="295"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -27029,7 +27029,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="295"/>
+      <c r="A50" s="293"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -27051,7 +27051,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
+      <c r="A51" s="293"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -27073,7 +27073,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="295"/>
+      <c r="A52" s="293"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27097,7 +27097,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="296"/>
+      <c r="A53" s="294"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27505,50 +27505,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="251"/>
-      <c r="AE1" s="251"/>
-      <c r="AF1" s="251"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="251"/>
-      <c r="AJ1" s="251"/>
-      <c r="AK1" s="251"/>
-      <c r="AL1" s="251"/>
-      <c r="AM1" s="251"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="265"/>
+      <c r="AN1" s="266"/>
+      <c r="AO1" s="266"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="266"/>
+      <c r="AR1" s="266"/>
+      <c r="AS1" s="266"/>
+      <c r="AT1" s="266"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="266"/>
+      <c r="AW1" s="266"/>
+      <c r="AX1" s="266"/>
+      <c r="AY1" s="266"/>
+      <c r="AZ1" s="266"/>
+      <c r="BA1" s="266"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="251" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27585,33 +27585,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AG2" s="250"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="266"/>
+      <c r="AJ2" s="266"/>
+      <c r="AK2" s="266"/>
+      <c r="AL2" s="266"/>
+      <c r="AM2" s="266"/>
+      <c r="AN2" s="266"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="266"/>
+      <c r="AQ2" s="266"/>
+      <c r="AR2" s="266"/>
+      <c r="AS2" s="266"/>
+      <c r="AT2" s="266"/>
+      <c r="AU2" s="266"/>
+      <c r="AV2" s="266"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="266"/>
+      <c r="AY2" s="266"/>
+      <c r="AZ2" s="266"/>
+      <c r="BA2" s="266"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="262"/>
+      <c r="A3" s="252"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27669,7 +27669,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
+      <c r="A4" s="252"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27730,7 +27730,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="263"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27880,7 +27880,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="251" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27935,7 +27935,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="262"/>
+      <c r="A9" s="252"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27986,7 +27986,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="262"/>
+      <c r="A10" s="252"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -28033,7 +28033,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="262"/>
+      <c r="A11" s="252"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -28057,7 +28057,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="262"/>
+      <c r="A12" s="252"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -28081,7 +28081,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="262"/>
+      <c r="A13" s="252"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -28105,7 +28105,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="262"/>
+      <c r="A14" s="252"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28129,7 +28129,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="263"/>
+      <c r="A15" s="253"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28162,7 +28162,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="258" t="s">
+      <c r="A17" s="248" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28188,7 +28188,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="259"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28212,7 +28212,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="259"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28236,7 +28236,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="259"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28260,7 +28260,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="259"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28284,7 +28284,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="259"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28308,7 +28308,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="259"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28332,7 +28332,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="260"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28376,7 +28376,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="251" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28399,7 +28399,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="262"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28420,7 +28420,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="263"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28470,10 +28470,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="258" t="s">
+      <c r="A34" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="254" t="str">
+      <c r="B34" s="260" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28494,8 +28494,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="259"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="249"/>
+      <c r="B35" s="261"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28510,8 +28510,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="259"/>
-      <c r="B36" s="255"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28526,8 +28526,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="259"/>
-      <c r="B37" s="255"/>
+      <c r="A37" s="249"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28542,8 +28542,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="259"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="249"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28558,8 +28558,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="259"/>
-      <c r="B39" s="255"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28571,8 +28571,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="259"/>
-      <c r="B40" s="255"/>
+      <c r="A40" s="249"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28584,8 +28584,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="259"/>
-      <c r="B41" s="255" t="str">
+      <c r="A41" s="249"/>
+      <c r="B41" s="261" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28600,8 +28600,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="259"/>
-      <c r="B42" s="255"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="261"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28613,8 +28613,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="259"/>
-      <c r="B43" s="255"/>
+      <c r="A43" s="249"/>
+      <c r="B43" s="261"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28626,8 +28626,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="259"/>
-      <c r="B44" s="255"/>
+      <c r="A44" s="249"/>
+      <c r="B44" s="261"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28639,8 +28639,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="259"/>
-      <c r="B45" s="255"/>
+      <c r="A45" s="249"/>
+      <c r="B45" s="261"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28652,8 +28652,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="259"/>
-      <c r="B46" s="255"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="261"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28665,8 +28665,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="259"/>
-      <c r="B47" s="255" t="str">
+      <c r="A47" s="249"/>
+      <c r="B47" s="261" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28681,8 +28681,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="259"/>
-      <c r="B48" s="255"/>
+      <c r="A48" s="249"/>
+      <c r="B48" s="261"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28694,8 +28694,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="259"/>
-      <c r="B49" s="255"/>
+      <c r="A49" s="249"/>
+      <c r="B49" s="261"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28707,8 +28707,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="259"/>
-      <c r="B50" s="255"/>
+      <c r="A50" s="249"/>
+      <c r="B50" s="261"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28720,8 +28720,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="259"/>
-      <c r="B51" s="255"/>
+      <c r="A51" s="249"/>
+      <c r="B51" s="261"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28733,8 +28733,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="259"/>
-      <c r="B52" s="255" t="str">
+      <c r="A52" s="249"/>
+      <c r="B52" s="261" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28749,8 +28749,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="259"/>
-      <c r="B53" s="255"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="261"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28762,8 +28762,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="259"/>
-      <c r="B54" s="255"/>
+      <c r="A54" s="249"/>
+      <c r="B54" s="261"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28775,8 +28775,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="259"/>
-      <c r="B55" s="255" t="str">
+      <c r="A55" s="249"/>
+      <c r="B55" s="261" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28791,8 +28791,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="259"/>
-      <c r="B56" s="255"/>
+      <c r="A56" s="249"/>
+      <c r="B56" s="261"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28804,8 +28804,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="260"/>
-      <c r="B57" s="256"/>
+      <c r="A57" s="250"/>
+      <c r="B57" s="262"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28820,10 +28820,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="264" t="s">
+      <c r="A59" s="254" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="263" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28840,8 +28840,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="265"/>
-      <c r="B60" s="252"/>
+      <c r="A60" s="255"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28859,8 +28859,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="265"/>
-      <c r="B61" s="252"/>
+      <c r="A61" s="255"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28875,8 +28875,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="265"/>
-      <c r="B62" s="252"/>
+      <c r="A62" s="255"/>
+      <c r="B62" s="258"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28891,8 +28891,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="265"/>
-      <c r="B63" s="252"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="258"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28907,8 +28907,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="265"/>
-      <c r="B64" s="252"/>
+      <c r="A64" s="255"/>
+      <c r="B64" s="258"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28923,8 +28923,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="265"/>
-      <c r="B65" s="252"/>
+      <c r="A65" s="255"/>
+      <c r="B65" s="258"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28937,8 +28937,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="265"/>
-      <c r="B66" s="252" t="str">
+      <c r="A66" s="255"/>
+      <c r="B66" s="258" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28954,8 +28954,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="265"/>
-      <c r="B67" s="252"/>
+      <c r="A67" s="255"/>
+      <c r="B67" s="258"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28967,8 +28967,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="265"/>
-      <c r="B68" s="252"/>
+      <c r="A68" s="255"/>
+      <c r="B68" s="258"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28980,8 +28980,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="265"/>
-      <c r="B69" s="252"/>
+      <c r="A69" s="255"/>
+      <c r="B69" s="258"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28993,8 +28993,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="265"/>
-      <c r="B70" s="252"/>
+      <c r="A70" s="255"/>
+      <c r="B70" s="258"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -29006,8 +29006,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="265"/>
-      <c r="B71" s="252"/>
+      <c r="A71" s="255"/>
+      <c r="B71" s="258"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -29019,8 +29019,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="265"/>
-      <c r="B72" s="252"/>
+      <c r="A72" s="255"/>
+      <c r="B72" s="258"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -29032,8 +29032,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="265"/>
-      <c r="B73" s="252" t="str">
+      <c r="A73" s="255"/>
+      <c r="B73" s="258" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -29048,8 +29048,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="265"/>
-      <c r="B74" s="252"/>
+      <c r="A74" s="255"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -29061,8 +29061,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="265"/>
-      <c r="B75" s="252"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="258"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -29074,8 +29074,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="265"/>
-      <c r="B76" s="252"/>
+      <c r="A76" s="255"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -29087,8 +29087,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="265"/>
-      <c r="B77" s="252"/>
+      <c r="A77" s="255"/>
+      <c r="B77" s="258"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -29100,8 +29100,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="265"/>
-      <c r="B78" s="252"/>
+      <c r="A78" s="255"/>
+      <c r="B78" s="258"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29113,8 +29113,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="265"/>
-      <c r="B79" s="252"/>
+      <c r="A79" s="255"/>
+      <c r="B79" s="258"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29126,8 +29126,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="265"/>
-      <c r="B80" s="252" t="str">
+      <c r="A80" s="255"/>
+      <c r="B80" s="258" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29142,8 +29142,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="265"/>
-      <c r="B81" s="252"/>
+      <c r="A81" s="255"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29155,8 +29155,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="265"/>
-      <c r="B82" s="252"/>
+      <c r="A82" s="255"/>
+      <c r="B82" s="258"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29168,8 +29168,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="265"/>
-      <c r="B83" s="252" t="str">
+      <c r="A83" s="255"/>
+      <c r="B83" s="258" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29184,8 +29184,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="265"/>
-      <c r="B84" s="252"/>
+      <c r="A84" s="255"/>
+      <c r="B84" s="258"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29197,8 +29197,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="266"/>
-      <c r="B85" s="253"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="259"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29225,13 +29225,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29244,21 +29252,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29979,14 +29979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -30207,6 +30199,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -30217,16 +30217,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30245,6 +30235,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>

--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1D062-E016-4D19-A8BB-2543F4EB68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D13ED09-23EB-406B-A9A4-EFA4F82FF90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="28" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="19" activeTab="27" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -24,27 +24,26 @@
     <sheet name="Facilities" sheetId="20" r:id="rId9"/>
     <sheet name="Process" sheetId="19" r:id="rId10"/>
     <sheet name="Machine_Process" sheetId="24" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId12"/>
-    <sheet name="YCM" sheetId="25" r:id="rId13"/>
-    <sheet name="Amada" sheetId="26" r:id="rId14"/>
-    <sheet name="Mazak" sheetId="27" r:id="rId15"/>
-    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId16"/>
-    <sheet name="Packaging" sheetId="16" r:id="rId17"/>
-    <sheet name="Manufacturing" sheetId="15" r:id="rId18"/>
-    <sheet name="Test Page" sheetId="3" r:id="rId19"/>
-    <sheet name="Transport Test Page" sheetId="5" r:id="rId20"/>
-    <sheet name="Van" sheetId="6" r:id="rId21"/>
-    <sheet name="HGV" sheetId="7" r:id="rId22"/>
-    <sheet name="Freight Flight" sheetId="8" r:id="rId23"/>
-    <sheet name="Rail" sheetId="9" r:id="rId24"/>
-    <sheet name="Ship" sheetId="10" r:id="rId25"/>
-    <sheet name="Usage" sheetId="23" r:id="rId26"/>
-    <sheet name="End-of-Life" sheetId="28" r:id="rId27"/>
-    <sheet name="Assembly" sheetId="33" r:id="rId28"/>
-    <sheet name="Waste" sheetId="34" r:id="rId29"/>
+    <sheet name="YCM" sheetId="25" r:id="rId12"/>
+    <sheet name="Amada" sheetId="26" r:id="rId13"/>
+    <sheet name="Mazak" sheetId="27" r:id="rId14"/>
+    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId15"/>
+    <sheet name="Packaging" sheetId="16" r:id="rId16"/>
+    <sheet name="Manufacturing" sheetId="15" r:id="rId17"/>
+    <sheet name="Test Page" sheetId="3" r:id="rId18"/>
+    <sheet name="Transport Test Page" sheetId="5" r:id="rId19"/>
+    <sheet name="Van" sheetId="6" r:id="rId20"/>
+    <sheet name="HGV" sheetId="7" r:id="rId21"/>
+    <sheet name="Freight Flight" sheetId="8" r:id="rId22"/>
+    <sheet name="Rail" sheetId="9" r:id="rId23"/>
+    <sheet name="Ship" sheetId="10" r:id="rId24"/>
+    <sheet name="Usage" sheetId="23" r:id="rId25"/>
+    <sheet name="End-of-Life" sheetId="28" r:id="rId26"/>
+    <sheet name="Assembly" sheetId="33" r:id="rId27"/>
+    <sheet name="Waste" sheetId="34" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
     <definedName name="wttTransport">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="1244">
   <si>
     <t>Country</t>
   </si>
@@ -3844,16 +3843,127 @@
     <t xml:space="preserve">Riveting             </t>
   </si>
   <si>
-    <t>WASTE</t>
-  </si>
-  <si>
-    <t>Coolant</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Water</t>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>WASTE_TYPE</t>
+  </si>
+  <si>
+    <t>Municipal Solid Waste (MSW)</t>
+  </si>
+  <si>
+    <t>Hazardous Waste</t>
+  </si>
+  <si>
+    <t>Organic  Waste</t>
+  </si>
+  <si>
+    <t>Energy-Related Waste</t>
+  </si>
+  <si>
+    <t>Organic waste</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>Mixed household waste</t>
+  </si>
+  <si>
+    <t>Recyclable fractions</t>
+  </si>
+  <si>
+    <t>Slag and ashes</t>
+  </si>
+  <si>
+    <t>e.g. Metal Production</t>
+  </si>
+  <si>
+    <t>Chemical residues</t>
+  </si>
+  <si>
+    <t>e.g.production processes</t>
+  </si>
+  <si>
+    <t>Spent solvents</t>
+  </si>
+  <si>
+    <t>e.g.paint or chemical manufacturing</t>
+  </si>
+  <si>
+    <t>Scrap metal</t>
+  </si>
+  <si>
+    <t>Concrete rubble</t>
+  </si>
+  <si>
+    <t>Bricks and masonry</t>
+  </si>
+  <si>
+    <t>Wood and timber waste</t>
+  </si>
+  <si>
+    <t>Asphalt and road construction waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical waste </t>
+  </si>
+  <si>
+    <t>e.g.acids, bases, solvents</t>
+  </si>
+  <si>
+    <t>Electronic waste</t>
+  </si>
+  <si>
+    <t>e.g. dismantling electronics</t>
+  </si>
+  <si>
+    <t>Contaminated soil</t>
+  </si>
+  <si>
+    <t>PCB-containing equipment</t>
+  </si>
+  <si>
+    <t>Sewage sludge</t>
+  </si>
+  <si>
+    <t>Manure</t>
+  </si>
+  <si>
+    <t>Agricultural residues</t>
+  </si>
+  <si>
+    <t>e.g.(crop residues, husks)</t>
+  </si>
+  <si>
+    <t>Material-specific waste</t>
+  </si>
+  <si>
+    <t>e.g.Paper,Plastic and other material specific waste</t>
+  </si>
+  <si>
+    <t>PET, HDPE, PVC scraps</t>
+  </si>
+  <si>
+    <t>Waste paper and cardboard</t>
+  </si>
+  <si>
+    <t>Glass cullet (broken glass)</t>
+  </si>
+  <si>
+    <t>Waste oil</t>
+  </si>
+  <si>
+    <t>Waste lubricants</t>
+  </si>
+  <si>
+    <t>Ash from biomass or coal combustion</t>
+  </si>
+  <si>
+    <t>Industrial&amp;Process Waste</t>
+  </si>
+  <si>
+    <t>Construction&amp;Demolition Waste</t>
   </si>
 </sst>
 </file>
@@ -5157,7 +5267,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5822,6 +5932,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5969,11 +6080,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8658,44 +8770,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F48FCBE-F0C2-4115-84CD-FF9218AB72F9}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
   <dimension ref="A1:E100"/>
   <sheetViews>
@@ -9822,7 +9896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9920F0A-7BF3-44E3-9D30-DF809E59ED17}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -10146,7 +10220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC407A-E4C2-4651-A59D-6A61F758042C}">
   <dimension ref="A1:E277"/>
   <sheetViews>
@@ -14875,7 +14949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A86444-194D-475C-A119-79201F84CD65}">
   <dimension ref="A1:C202"/>
   <sheetViews>
@@ -17122,12 +17196,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CF364-998B-474D-A19B-22FEFE188380}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17261,7 +17335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125FD3FB-F912-42B3-B605-31DC335FC9DA}">
   <dimension ref="A1:L258"/>
   <sheetViews>
@@ -21240,7 +21314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849DADDE-0FC9-4C51-8BB1-BFE5AFC7081B}">
   <dimension ref="A1:AS10"/>
   <sheetViews>
@@ -21297,65 +21371,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="278"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="287" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="286" t="s">
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="286" t="s">
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="287" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="286" t="s">
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="287" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="287"/>
-      <c r="V1" s="283" t="s">
+      <c r="U1" s="288"/>
+      <c r="V1" s="284" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="284"/>
-      <c r="X1" s="284"/>
-      <c r="Y1" s="284"/>
-      <c r="Z1" s="284"/>
-      <c r="AA1" s="284"/>
-      <c r="AB1" s="284"/>
-      <c r="AC1" s="284"/>
-      <c r="AD1" s="284"/>
-      <c r="AE1" s="285"/>
-      <c r="AF1" s="280" t="s">
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
+      <c r="Z1" s="285"/>
+      <c r="AA1" s="285"/>
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="285"/>
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="281" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="281"/>
-      <c r="AH1" s="281"/>
-      <c r="AI1" s="281"/>
-      <c r="AJ1" s="281"/>
-      <c r="AK1" s="281"/>
-      <c r="AL1" s="281"/>
-      <c r="AM1" s="281"/>
-      <c r="AN1" s="281"/>
-      <c r="AO1" s="281"/>
-      <c r="AP1" s="281"/>
-      <c r="AQ1" s="281"/>
-      <c r="AR1" s="281"/>
-      <c r="AS1" s="282"/>
+      <c r="AG1" s="282"/>
+      <c r="AH1" s="282"/>
+      <c r="AI1" s="282"/>
+      <c r="AJ1" s="282"/>
+      <c r="AK1" s="282"/>
+      <c r="AL1" s="282"/>
+      <c r="AM1" s="282"/>
+      <c r="AN1" s="282"/>
+      <c r="AO1" s="282"/>
+      <c r="AP1" s="282"/>
+      <c r="AQ1" s="282"/>
+      <c r="AR1" s="282"/>
+      <c r="AS1" s="283"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -22257,56 +22331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9393A-9557-43CE-B45F-3D30F980E3AF}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
@@ -22467,20 +22492,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="AN1" s="249"/>
+      <c r="AO1" s="249"/>
+      <c r="AP1" s="249"/>
+      <c r="AQ1" s="249"/>
+      <c r="AR1" s="249"/>
+      <c r="AS1" s="249"/>
+      <c r="AT1" s="249"/>
+      <c r="AU1" s="249"/>
+      <c r="AV1" s="249"/>
+      <c r="AW1" s="249"/>
+      <c r="AX1" s="249"/>
+      <c r="AY1" s="249"/>
+      <c r="AZ1" s="249"/>
+      <c r="BA1" s="249"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22499,7 +22524,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="291" t="s">
+      <c r="H2" s="292" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22521,7 +22546,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="291" t="s">
+      <c r="P2" s="292" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22552,10 +22577,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="294" t="s">
+      <c r="AC2" s="295" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="289" t="s">
+      <c r="AD2" s="290" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22567,26 +22592,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="249"/>
+      <c r="AM2" s="249"/>
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
+      <c r="AP2" s="249"/>
+      <c r="AQ2" s="249"/>
+      <c r="AR2" s="249"/>
+      <c r="AS2" s="249"/>
+      <c r="AT2" s="249"/>
+      <c r="AU2" s="249"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="249"/>
+      <c r="AX2" s="249"/>
+      <c r="AY2" s="249"/>
+      <c r="AZ2" s="249"/>
+      <c r="BA2" s="249"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22607,7 +22632,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="292"/>
+      <c r="H3" s="293"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22627,7 +22652,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="292"/>
+      <c r="P3" s="293"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22648,8 +22673,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="252"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="253"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22694,7 +22719,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="292"/>
+      <c r="H4" s="293"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22714,7 +22739,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="293"/>
+      <c r="P4" s="294"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22734,8 +22759,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="295"/>
-      <c r="AD4" s="252"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="253"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22783,7 +22808,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="292"/>
+      <c r="H5" s="293"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22808,8 +22833,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="252"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="253"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22842,7 +22867,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="292"/>
+      <c r="H6" s="293"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22869,8 +22894,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="252"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="253"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22908,7 +22933,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="292"/>
+      <c r="H7" s="293"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22935,8 +22960,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="252"/>
+      <c r="AC7" s="296"/>
+      <c r="AD7" s="253"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22971,7 +22996,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="292"/>
+      <c r="H8" s="293"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22998,8 +23023,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="252"/>
+      <c r="AC8" s="296"/>
+      <c r="AD8" s="253"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -23034,7 +23059,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="293"/>
+      <c r="H9" s="294"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -23061,8 +23086,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="252" t="s">
+      <c r="AC9" s="296"/>
+      <c r="AD9" s="253" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -23105,8 +23130,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="252"/>
+      <c r="AC10" s="296"/>
+      <c r="AD10" s="253"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23139,7 +23164,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="294" t="s">
+      <c r="H11" s="295" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23160,8 +23185,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="252"/>
+      <c r="AC11" s="296"/>
+      <c r="AD11" s="253"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23180,7 +23205,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="295"/>
+      <c r="H12" s="296"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23199,8 +23224,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="252"/>
+      <c r="AC12" s="296"/>
+      <c r="AD12" s="253"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23219,7 +23244,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="295"/>
+      <c r="H13" s="296"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23238,8 +23263,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="252"/>
+      <c r="AC13" s="296"/>
+      <c r="AD13" s="253"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23258,7 +23283,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="295"/>
+      <c r="H14" s="296"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23277,8 +23302,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="252"/>
+      <c r="AC14" s="296"/>
+      <c r="AD14" s="253"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23297,7 +23322,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="295"/>
+      <c r="H15" s="296"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23316,8 +23341,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="252" t="s">
+      <c r="AC15" s="296"/>
+      <c r="AD15" s="253" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23335,7 +23360,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="295"/>
+      <c r="H16" s="296"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23354,8 +23379,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="252"/>
+      <c r="AC16" s="296"/>
+      <c r="AD16" s="253"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23374,7 +23399,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="295"/>
+      <c r="H17" s="296"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23393,8 +23418,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="252"/>
+      <c r="AC17" s="296"/>
+      <c r="AD17" s="253"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23413,7 +23438,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="296"/>
+      <c r="H18" s="297"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23432,8 +23457,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="252"/>
+      <c r="AC18" s="296"/>
+      <c r="AD18" s="253"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23452,8 +23477,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="252"/>
+      <c r="AC19" s="296"/>
+      <c r="AD19" s="253"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23472,8 +23497,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="252" t="s">
+      <c r="AC20" s="296"/>
+      <c r="AD20" s="253" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23494,8 +23519,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="252"/>
+      <c r="AC21" s="296"/>
+      <c r="AD21" s="253"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23514,8 +23539,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="252"/>
+      <c r="AC22" s="296"/>
+      <c r="AD22" s="253"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23534,8 +23559,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="252" t="s">
+      <c r="AC23" s="296"/>
+      <c r="AD23" s="253" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23556,8 +23581,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="252"/>
+      <c r="AC24" s="296"/>
+      <c r="AD24" s="253"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23570,8 +23595,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="290"/>
+      <c r="AC25" s="297"/>
+      <c r="AD25" s="291"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23588,10 +23613,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="294" t="s">
+      <c r="AC27" s="295" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="289" t="s">
+      <c r="AD27" s="290" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23608,8 +23633,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="252"/>
+      <c r="AC28" s="296"/>
+      <c r="AD28" s="253"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23624,8 +23649,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="295"/>
-      <c r="AD29" s="252"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="253"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23637,8 +23662,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="295"/>
-      <c r="AD30" s="252"/>
+      <c r="AC30" s="296"/>
+      <c r="AD30" s="253"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23652,8 +23677,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="295"/>
-      <c r="AD31" s="252"/>
+      <c r="AC31" s="296"/>
+      <c r="AD31" s="253"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23665,8 +23690,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="295"/>
-      <c r="AD32" s="252"/>
+      <c r="AC32" s="296"/>
+      <c r="AD32" s="253"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23679,8 +23704,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="252"/>
+      <c r="AC33" s="296"/>
+      <c r="AD33" s="253"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23697,8 +23722,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="295"/>
-      <c r="AD34" s="252" t="s">
+      <c r="AC34" s="296"/>
+      <c r="AD34" s="253" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23717,8 +23742,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="295"/>
-      <c r="AD35" s="252"/>
+      <c r="AC35" s="296"/>
+      <c r="AD35" s="253"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23735,8 +23760,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="295"/>
-      <c r="AD36" s="252"/>
+      <c r="AC36" s="296"/>
+      <c r="AD36" s="253"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23753,8 +23778,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="295"/>
-      <c r="AD37" s="252"/>
+      <c r="AC37" s="296"/>
+      <c r="AD37" s="253"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23771,8 +23796,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="295"/>
-      <c r="AD38" s="252"/>
+      <c r="AC38" s="296"/>
+      <c r="AD38" s="253"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23789,8 +23814,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="295"/>
-      <c r="AD39" s="252"/>
+      <c r="AC39" s="296"/>
+      <c r="AD39" s="253"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23807,8 +23832,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="295"/>
-      <c r="AD40" s="252"/>
+      <c r="AC40" s="296"/>
+      <c r="AD40" s="253"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23825,8 +23850,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="295"/>
-      <c r="AD41" s="252" t="s">
+      <c r="AC41" s="296"/>
+      <c r="AD41" s="253" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23845,8 +23870,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="295"/>
-      <c r="AD42" s="252"/>
+      <c r="AC42" s="296"/>
+      <c r="AD42" s="253"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23863,8 +23888,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="295"/>
-      <c r="AD43" s="252"/>
+      <c r="AC43" s="296"/>
+      <c r="AD43" s="253"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23881,8 +23906,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="295"/>
-      <c r="AD44" s="252"/>
+      <c r="AC44" s="296"/>
+      <c r="AD44" s="253"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23899,8 +23924,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="295"/>
-      <c r="AD45" s="252"/>
+      <c r="AC45" s="296"/>
+      <c r="AD45" s="253"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23917,8 +23942,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="295"/>
-      <c r="AD46" s="252"/>
+      <c r="AC46" s="296"/>
+      <c r="AD46" s="253"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23935,8 +23960,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="295"/>
-      <c r="AD47" s="252"/>
+      <c r="AC47" s="296"/>
+      <c r="AD47" s="253"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23953,8 +23978,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="295"/>
-      <c r="AD48" s="252" t="s">
+      <c r="AC48" s="296"/>
+      <c r="AD48" s="253" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23973,8 +23998,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="295"/>
-      <c r="AD49" s="252"/>
+      <c r="AC49" s="296"/>
+      <c r="AD49" s="253"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23991,8 +24016,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="295"/>
-      <c r="AD50" s="252"/>
+      <c r="AC50" s="296"/>
+      <c r="AD50" s="253"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -24009,8 +24034,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="295"/>
-      <c r="AD51" s="252" t="s">
+      <c r="AC51" s="296"/>
+      <c r="AD51" s="253" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -24029,8 +24054,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="295"/>
-      <c r="AD52" s="252"/>
+      <c r="AC52" s="296"/>
+      <c r="AD52" s="253"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -24047,8 +24072,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="295"/>
-      <c r="AD53" s="252"/>
+      <c r="AC53" s="296"/>
+      <c r="AD53" s="253"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24065,7 +24090,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="295"/>
+      <c r="AC54" s="296"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -24085,7 +24110,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="296"/>
+      <c r="AC55" s="297"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24349,12 +24374,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24610,12 +24684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24657,7 +24731,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="298" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -24680,7 +24754,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="293"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24701,7 +24775,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24722,7 +24796,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24743,7 +24817,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24764,7 +24838,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24785,7 +24859,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24806,7 +24880,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="293"/>
+      <c r="A9" s="294"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24827,7 +24901,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="292" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24850,7 +24924,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24871,7 +24945,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24892,7 +24966,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24913,7 +24987,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
+      <c r="A14" s="293"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24934,7 +25008,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
+      <c r="A15" s="293"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24955,7 +25029,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
+      <c r="A16" s="293"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24976,7 +25050,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="293"/>
+      <c r="A17" s="294"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25673,7 +25747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -25714,7 +25788,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="292" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25733,7 +25807,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
+      <c r="A3" s="293"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25750,7 +25824,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="293"/>
+      <c r="A4" s="294"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25851,7 +25925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -25927,12 +26001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295B0C8-B8D2-4684-B32D-14EED3B83A5D}">
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25946,10 +26020,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="299" t="s">
+      <c r="B1" s="300" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25972,8 +26046,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="292"/>
-      <c r="B2" s="298"/>
+      <c r="A2" s="293"/>
+      <c r="B2" s="299"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25994,8 +26068,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
-      <c r="B3" s="298"/>
+      <c r="A3" s="293"/>
+      <c r="B3" s="299"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -26016,8 +26090,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
-      <c r="B4" s="298"/>
+      <c r="A4" s="293"/>
+      <c r="B4" s="299"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -26038,8 +26112,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="292"/>
-      <c r="B5" s="298"/>
+      <c r="A5" s="293"/>
+      <c r="B5" s="299"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -26060,8 +26134,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="292"/>
-      <c r="B6" s="298"/>
+      <c r="A6" s="293"/>
+      <c r="B6" s="299"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -26082,8 +26156,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="292"/>
-      <c r="B7" s="298"/>
+      <c r="A7" s="293"/>
+      <c r="B7" s="299"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -26104,8 +26178,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="292"/>
-      <c r="B8" s="298" t="s">
+      <c r="A8" s="293"/>
+      <c r="B8" s="299" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -26128,8 +26202,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
-      <c r="B9" s="298"/>
+      <c r="A9" s="293"/>
+      <c r="B9" s="299"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -26150,8 +26224,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="292"/>
-      <c r="B10" s="298"/>
+      <c r="A10" s="293"/>
+      <c r="B10" s="299"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -26172,8 +26246,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="292"/>
-      <c r="B11" s="298"/>
+      <c r="A11" s="293"/>
+      <c r="B11" s="299"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -26194,8 +26268,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="292"/>
-      <c r="B12" s="298"/>
+      <c r="A12" s="293"/>
+      <c r="B12" s="299"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -26216,8 +26290,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="292"/>
-      <c r="B13" s="298"/>
+      <c r="A13" s="293"/>
+      <c r="B13" s="299"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -26238,8 +26312,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="292"/>
-      <c r="B14" s="298" t="s">
+      <c r="A14" s="293"/>
+      <c r="B14" s="299" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -26262,8 +26336,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="292"/>
-      <c r="B15" s="298"/>
+      <c r="A15" s="293"/>
+      <c r="B15" s="299"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -26284,8 +26358,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="292"/>
-      <c r="B16" s="298"/>
+      <c r="A16" s="293"/>
+      <c r="B16" s="299"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -26306,8 +26380,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="292"/>
-      <c r="B17" s="298"/>
+      <c r="A17" s="293"/>
+      <c r="B17" s="299"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -26328,8 +26402,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="292"/>
-      <c r="B18" s="298"/>
+      <c r="A18" s="293"/>
+      <c r="B18" s="299"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -26350,8 +26424,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="292"/>
-      <c r="B19" s="298" t="s">
+      <c r="A19" s="293"/>
+      <c r="B19" s="299" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -26374,8 +26448,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="292"/>
-      <c r="B20" s="298"/>
+      <c r="A20" s="293"/>
+      <c r="B20" s="299"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -26396,8 +26470,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="292"/>
-      <c r="B21" s="298"/>
+      <c r="A21" s="293"/>
+      <c r="B21" s="299"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -26418,8 +26492,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="292"/>
-      <c r="B22" s="298" t="s">
+      <c r="A22" s="293"/>
+      <c r="B22" s="299" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -26442,8 +26516,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="292"/>
-      <c r="B23" s="298"/>
+      <c r="A23" s="293"/>
+      <c r="B23" s="299"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -26464,8 +26538,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="293"/>
-      <c r="B24" s="300"/>
+      <c r="A24" s="294"/>
+      <c r="B24" s="301"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -26486,10 +26560,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="294" t="s">
+      <c r="A25" s="295" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="299" t="s">
+      <c r="B25" s="300" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -26512,8 +26586,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="295"/>
-      <c r="B26" s="298"/>
+      <c r="A26" s="296"/>
+      <c r="B26" s="299"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -26534,8 +26608,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="295"/>
-      <c r="B27" s="298"/>
+      <c r="A27" s="296"/>
+      <c r="B27" s="299"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -26556,8 +26630,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="295"/>
-      <c r="B28" s="298"/>
+      <c r="A28" s="296"/>
+      <c r="B28" s="299"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -26578,8 +26652,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="295"/>
-      <c r="B29" s="298"/>
+      <c r="A29" s="296"/>
+      <c r="B29" s="299"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -26600,8 +26674,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="295"/>
-      <c r="B30" s="298"/>
+      <c r="A30" s="296"/>
+      <c r="B30" s="299"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -26622,8 +26696,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="295"/>
-      <c r="B31" s="298"/>
+      <c r="A31" s="296"/>
+      <c r="B31" s="299"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -26644,8 +26718,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="295"/>
-      <c r="B32" s="298" t="s">
+      <c r="A32" s="296"/>
+      <c r="B32" s="299" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -26668,8 +26742,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="295"/>
-      <c r="B33" s="298"/>
+      <c r="A33" s="296"/>
+      <c r="B33" s="299"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -26690,8 +26764,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="295"/>
-      <c r="B34" s="298"/>
+      <c r="A34" s="296"/>
+      <c r="B34" s="299"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -26712,8 +26786,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="295"/>
-      <c r="B35" s="298"/>
+      <c r="A35" s="296"/>
+      <c r="B35" s="299"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -26734,8 +26808,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="295"/>
-      <c r="B36" s="298"/>
+      <c r="A36" s="296"/>
+      <c r="B36" s="299"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -26756,8 +26830,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="295"/>
-      <c r="B37" s="298"/>
+      <c r="A37" s="296"/>
+      <c r="B37" s="299"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -26778,8 +26852,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="295"/>
-      <c r="B38" s="298"/>
+      <c r="A38" s="296"/>
+      <c r="B38" s="299"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -26800,8 +26874,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="295"/>
-      <c r="B39" s="298" t="s">
+      <c r="A39" s="296"/>
+      <c r="B39" s="299" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -26824,8 +26898,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="295"/>
-      <c r="B40" s="298"/>
+      <c r="A40" s="296"/>
+      <c r="B40" s="299"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26846,8 +26920,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="295"/>
-      <c r="B41" s="298"/>
+      <c r="A41" s="296"/>
+      <c r="B41" s="299"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26868,8 +26942,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="295"/>
-      <c r="B42" s="298"/>
+      <c r="A42" s="296"/>
+      <c r="B42" s="299"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26890,8 +26964,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="295"/>
-      <c r="B43" s="298"/>
+      <c r="A43" s="296"/>
+      <c r="B43" s="299"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26912,8 +26986,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="295"/>
-      <c r="B44" s="298"/>
+      <c r="A44" s="296"/>
+      <c r="B44" s="299"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26934,8 +27008,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="295"/>
-      <c r="B45" s="298"/>
+      <c r="A45" s="296"/>
+      <c r="B45" s="299"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26956,8 +27030,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="295"/>
-      <c r="B46" s="298" t="s">
+      <c r="A46" s="296"/>
+      <c r="B46" s="299" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26980,8 +27054,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="295"/>
-      <c r="B47" s="298"/>
+      <c r="A47" s="296"/>
+      <c r="B47" s="299"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -27002,8 +27076,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="295"/>
-      <c r="B48" s="298"/>
+      <c r="A48" s="296"/>
+      <c r="B48" s="299"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -27024,8 +27098,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="295"/>
-      <c r="B49" s="298" t="s">
+      <c r="A49" s="296"/>
+      <c r="B49" s="299" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -27048,8 +27122,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="295"/>
-      <c r="B50" s="298"/>
+      <c r="A50" s="296"/>
+      <c r="B50" s="299"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -27070,8 +27144,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
-      <c r="B51" s="298"/>
+      <c r="A51" s="296"/>
+      <c r="B51" s="299"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27092,7 +27166,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="295"/>
+      <c r="A52" s="296"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27116,7 +27190,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="296"/>
+      <c r="A53" s="297"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27169,7 +27243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -27339,7 +27413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA6866-CC52-4B36-986B-C6BF1DEA1D59}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -27397,7 +27471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC10D59-E4D1-471E-9848-DB3F19451A42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -27444,51 +27518,340 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389994AC-BE2B-4FC6-980E-91DE903DEF34}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="248" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="302" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="302" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="302" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="303" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="302"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="248" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B11" s="248" t="s">
         <v>1203</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B2" s="302">
-        <v>1.3</v>
-      </c>
-      <c r="C2" s="301"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B3">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="303"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="248" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B16" s="248" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="248" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B22" s="248" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="304" t="s">
         <v>1206</v>
       </c>
-      <c r="B4">
-        <v>2.2999999999999998</v>
+      <c r="B28" s="248" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="248" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B34" s="248" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="248" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B39" s="248" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="248" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B44" s="248" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27572,50 +27935,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="251"/>
-      <c r="AE1" s="251"/>
-      <c r="AF1" s="251"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="251"/>
-      <c r="AJ1" s="251"/>
-      <c r="AK1" s="251"/>
-      <c r="AL1" s="251"/>
-      <c r="AM1" s="251"/>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="248"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="248"/>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="248"/>
-      <c r="AV1" s="248"/>
-      <c r="AW1" s="248"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="248"/>
-      <c r="AZ1" s="248"/>
-      <c r="BA1" s="248"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="250"/>
+      <c r="T1" s="250"/>
+      <c r="U1" s="250"/>
+      <c r="V1" s="250"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
+      <c r="Y1" s="250"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="250"/>
+      <c r="AB1" s="250"/>
+      <c r="AC1" s="250"/>
+      <c r="AD1" s="252"/>
+      <c r="AE1" s="252"/>
+      <c r="AF1" s="252"/>
+      <c r="AG1" s="252"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="252"/>
+      <c r="AJ1" s="252"/>
+      <c r="AK1" s="252"/>
+      <c r="AL1" s="252"/>
+      <c r="AM1" s="252"/>
+      <c r="AN1" s="249"/>
+      <c r="AO1" s="249"/>
+      <c r="AP1" s="249"/>
+      <c r="AQ1" s="249"/>
+      <c r="AR1" s="249"/>
+      <c r="AS1" s="249"/>
+      <c r="AT1" s="249"/>
+      <c r="AU1" s="249"/>
+      <c r="AV1" s="249"/>
+      <c r="AW1" s="249"/>
+      <c r="AX1" s="249"/>
+      <c r="AY1" s="249"/>
+      <c r="AZ1" s="249"/>
+      <c r="BA1" s="249"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="262" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27652,33 +28015,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AG2" s="250"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AP2" s="248"/>
-      <c r="AQ2" s="248"/>
-      <c r="AR2" s="248"/>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
-      <c r="AZ2" s="248"/>
-      <c r="BA2" s="248"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="249"/>
+      <c r="AM2" s="249"/>
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
+      <c r="AP2" s="249"/>
+      <c r="AQ2" s="249"/>
+      <c r="AR2" s="249"/>
+      <c r="AS2" s="249"/>
+      <c r="AT2" s="249"/>
+      <c r="AU2" s="249"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="249"/>
+      <c r="AX2" s="249"/>
+      <c r="AY2" s="249"/>
+      <c r="AZ2" s="249"/>
+      <c r="BA2" s="249"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="262"/>
+      <c r="A3" s="263"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27736,7 +28099,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
+      <c r="A4" s="263"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27797,7 +28160,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="263"/>
+      <c r="A5" s="264"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27947,7 +28310,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="262" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -28002,7 +28365,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="262"/>
+      <c r="A9" s="263"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -28053,7 +28416,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="262"/>
+      <c r="A10" s="263"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -28100,7 +28463,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="262"/>
+      <c r="A11" s="263"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -28124,7 +28487,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="262"/>
+      <c r="A12" s="263"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -28148,7 +28511,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="262"/>
+      <c r="A13" s="263"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -28172,7 +28535,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="262"/>
+      <c r="A14" s="263"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28196,7 +28559,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="263"/>
+      <c r="A15" s="264"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28229,7 +28592,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="258" t="s">
+      <c r="A17" s="259" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28255,7 +28618,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="259"/>
+      <c r="A18" s="260"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28279,7 +28642,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="259"/>
+      <c r="A19" s="260"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28303,7 +28666,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="259"/>
+      <c r="A20" s="260"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28327,7 +28690,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="259"/>
+      <c r="A21" s="260"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28351,7 +28714,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="259"/>
+      <c r="A22" s="260"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28375,7 +28738,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="259"/>
+      <c r="A23" s="260"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28399,7 +28762,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="260"/>
+      <c r="A24" s="261"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28443,7 +28806,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="262" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28466,7 +28829,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="262"/>
+      <c r="A28" s="263"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28487,7 +28850,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="263"/>
+      <c r="A29" s="264"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28537,10 +28900,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="258" t="s">
+      <c r="A34" s="259" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="254" t="str">
+      <c r="B34" s="255" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28561,8 +28924,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="259"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="260"/>
+      <c r="B35" s="256"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28577,8 +28940,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="259"/>
-      <c r="B36" s="255"/>
+      <c r="A36" s="260"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28593,8 +28956,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="259"/>
-      <c r="B37" s="255"/>
+      <c r="A37" s="260"/>
+      <c r="B37" s="256"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28609,8 +28972,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="259"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="260"/>
+      <c r="B38" s="256"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28625,8 +28988,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="259"/>
-      <c r="B39" s="255"/>
+      <c r="A39" s="260"/>
+      <c r="B39" s="256"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28638,8 +29001,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="259"/>
-      <c r="B40" s="255"/>
+      <c r="A40" s="260"/>
+      <c r="B40" s="256"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28651,8 +29014,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="259"/>
-      <c r="B41" s="255" t="str">
+      <c r="A41" s="260"/>
+      <c r="B41" s="256" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28667,8 +29030,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="259"/>
-      <c r="B42" s="255"/>
+      <c r="A42" s="260"/>
+      <c r="B42" s="256"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28680,8 +29043,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="259"/>
-      <c r="B43" s="255"/>
+      <c r="A43" s="260"/>
+      <c r="B43" s="256"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28693,8 +29056,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="259"/>
-      <c r="B44" s="255"/>
+      <c r="A44" s="260"/>
+      <c r="B44" s="256"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28706,8 +29069,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="259"/>
-      <c r="B45" s="255"/>
+      <c r="A45" s="260"/>
+      <c r="B45" s="256"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28719,8 +29082,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="259"/>
-      <c r="B46" s="255"/>
+      <c r="A46" s="260"/>
+      <c r="B46" s="256"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28732,8 +29095,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="259"/>
-      <c r="B47" s="255" t="str">
+      <c r="A47" s="260"/>
+      <c r="B47" s="256" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28748,8 +29111,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="259"/>
-      <c r="B48" s="255"/>
+      <c r="A48" s="260"/>
+      <c r="B48" s="256"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28761,8 +29124,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="259"/>
-      <c r="B49" s="255"/>
+      <c r="A49" s="260"/>
+      <c r="B49" s="256"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28774,8 +29137,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="259"/>
-      <c r="B50" s="255"/>
+      <c r="A50" s="260"/>
+      <c r="B50" s="256"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28787,8 +29150,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="259"/>
-      <c r="B51" s="255"/>
+      <c r="A51" s="260"/>
+      <c r="B51" s="256"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28800,8 +29163,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="259"/>
-      <c r="B52" s="255" t="str">
+      <c r="A52" s="260"/>
+      <c r="B52" s="256" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28816,8 +29179,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="259"/>
-      <c r="B53" s="255"/>
+      <c r="A53" s="260"/>
+      <c r="B53" s="256"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28829,8 +29192,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="259"/>
-      <c r="B54" s="255"/>
+      <c r="A54" s="260"/>
+      <c r="B54" s="256"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28842,8 +29205,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="259"/>
-      <c r="B55" s="255" t="str">
+      <c r="A55" s="260"/>
+      <c r="B55" s="256" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28858,8 +29221,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="259"/>
-      <c r="B56" s="255"/>
+      <c r="A56" s="260"/>
+      <c r="B56" s="256"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28871,8 +29234,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="260"/>
-      <c r="B57" s="256"/>
+      <c r="A57" s="261"/>
+      <c r="B57" s="257"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28887,10 +29250,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="264" t="s">
+      <c r="A59" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="258" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28907,8 +29270,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="265"/>
-      <c r="B60" s="252"/>
+      <c r="A60" s="266"/>
+      <c r="B60" s="253"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28926,8 +29289,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="265"/>
-      <c r="B61" s="252"/>
+      <c r="A61" s="266"/>
+      <c r="B61" s="253"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28942,8 +29305,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="265"/>
-      <c r="B62" s="252"/>
+      <c r="A62" s="266"/>
+      <c r="B62" s="253"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28958,8 +29321,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="265"/>
-      <c r="B63" s="252"/>
+      <c r="A63" s="266"/>
+      <c r="B63" s="253"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28974,8 +29337,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="265"/>
-      <c r="B64" s="252"/>
+      <c r="A64" s="266"/>
+      <c r="B64" s="253"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28990,8 +29353,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="265"/>
-      <c r="B65" s="252"/>
+      <c r="A65" s="266"/>
+      <c r="B65" s="253"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -29004,8 +29367,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="265"/>
-      <c r="B66" s="252" t="str">
+      <c r="A66" s="266"/>
+      <c r="B66" s="253" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -29021,8 +29384,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="265"/>
-      <c r="B67" s="252"/>
+      <c r="A67" s="266"/>
+      <c r="B67" s="253"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -29034,8 +29397,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="265"/>
-      <c r="B68" s="252"/>
+      <c r="A68" s="266"/>
+      <c r="B68" s="253"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -29047,8 +29410,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="265"/>
-      <c r="B69" s="252"/>
+      <c r="A69" s="266"/>
+      <c r="B69" s="253"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -29060,8 +29423,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="265"/>
-      <c r="B70" s="252"/>
+      <c r="A70" s="266"/>
+      <c r="B70" s="253"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -29073,8 +29436,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="265"/>
-      <c r="B71" s="252"/>
+      <c r="A71" s="266"/>
+      <c r="B71" s="253"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -29086,8 +29449,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="265"/>
-      <c r="B72" s="252"/>
+      <c r="A72" s="266"/>
+      <c r="B72" s="253"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -29099,8 +29462,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="265"/>
-      <c r="B73" s="252" t="str">
+      <c r="A73" s="266"/>
+      <c r="B73" s="253" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -29115,8 +29478,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="265"/>
-      <c r="B74" s="252"/>
+      <c r="A74" s="266"/>
+      <c r="B74" s="253"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -29128,8 +29491,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="265"/>
-      <c r="B75" s="252"/>
+      <c r="A75" s="266"/>
+      <c r="B75" s="253"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -29141,8 +29504,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="265"/>
-      <c r="B76" s="252"/>
+      <c r="A76" s="266"/>
+      <c r="B76" s="253"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -29154,8 +29517,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="265"/>
-      <c r="B77" s="252"/>
+      <c r="A77" s="266"/>
+      <c r="B77" s="253"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -29167,8 +29530,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="265"/>
-      <c r="B78" s="252"/>
+      <c r="A78" s="266"/>
+      <c r="B78" s="253"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29180,8 +29543,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="265"/>
-      <c r="B79" s="252"/>
+      <c r="A79" s="266"/>
+      <c r="B79" s="253"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29193,8 +29556,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="265"/>
-      <c r="B80" s="252" t="str">
+      <c r="A80" s="266"/>
+      <c r="B80" s="253" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29209,8 +29572,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="265"/>
-      <c r="B81" s="252"/>
+      <c r="A81" s="266"/>
+      <c r="B81" s="253"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29222,8 +29585,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="265"/>
-      <c r="B82" s="252"/>
+      <c r="A82" s="266"/>
+      <c r="B82" s="253"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29235,8 +29598,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="265"/>
-      <c r="B83" s="252" t="str">
+      <c r="A83" s="266"/>
+      <c r="B83" s="253" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29251,8 +29614,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="265"/>
-      <c r="B84" s="252"/>
+      <c r="A84" s="266"/>
+      <c r="B84" s="253"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29264,8 +29627,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="266"/>
-      <c r="B85" s="253"/>
+      <c r="A85" s="267"/>
+      <c r="B85" s="254"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29422,7 +29785,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="268"/>
+      <c r="C2" s="269"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -29431,7 +29794,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="268"/>
+      <c r="C3" s="269"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -29440,7 +29803,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="268"/>
+      <c r="C4" s="269"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -29449,7 +29812,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="268"/>
+      <c r="C5" s="269"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -29458,7 +29821,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="268"/>
+      <c r="C6" s="269"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -29467,7 +29830,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="268"/>
+      <c r="C7" s="269"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -29476,7 +29839,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="268"/>
+      <c r="C8" s="269"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -29485,7 +29848,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="268"/>
+      <c r="C9" s="269"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -29494,7 +29857,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="268"/>
+      <c r="C10" s="269"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -29503,7 +29866,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="268"/>
+      <c r="C11" s="269"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -29512,112 +29875,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="268"/>
+      <c r="C12" s="269"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="268"/>
+      <c r="C13" s="269"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="268"/>
+      <c r="C14" s="269"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="268"/>
+      <c r="C15" s="269"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="268"/>
+      <c r="C16" s="269"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="268"/>
+      <c r="C17" s="269"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="268"/>
+      <c r="C18" s="269"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="268"/>
+      <c r="C19" s="269"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="268"/>
+      <c r="C20" s="269"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="268"/>
+      <c r="C21" s="269"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="268"/>
+      <c r="C22" s="269"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="269"/>
+      <c r="C23" s="270"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="269"/>
+      <c r="C24" s="270"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="269"/>
+      <c r="C25" s="270"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="269"/>
+      <c r="C26" s="270"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="269"/>
+      <c r="C27" s="270"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="269"/>
+      <c r="C28" s="270"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="267"/>
+      <c r="C29" s="268"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="267"/>
+      <c r="C30" s="268"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="267"/>
+      <c r="C31" s="268"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="267"/>
+      <c r="C32" s="268"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="267"/>
+      <c r="C33" s="268"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -29690,13 +30053,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="270"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="271"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -29705,79 +30068,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275"/>
-      <c r="I3" s="270"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="271"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="270"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="271"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="270"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="276"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="276"/>
+      <c r="H5" s="276"/>
+      <c r="I5" s="271"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="275"/>
-      <c r="F6" s="275"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="270"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="271"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="270"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="271"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="272"/>
-      <c r="D8" s="272"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="270"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="271"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="276"/>
-      <c r="H9" s="276"/>
-      <c r="I9" s="270"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="277"/>
+      <c r="H9" s="277"/>
+      <c r="I9" s="271"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -30046,6 +30409,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
@@ -30053,7 +30425,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -30274,16 +30646,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -30293,7 +30664,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30310,12 +30681,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htoom\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2536E1-1992-4AC5-9A7B-8D69F3571C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CADE12D-357F-4FF4-BC0C-0EC5065D8BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="19" activeTab="27" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="19" activeTab="24" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="1241">
   <si>
     <t>Country</t>
   </si>
@@ -3756,9 +3756,6 @@
     <t>Refrigerated cargo (All dwt)</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
@@ -3768,54 +3765,12 @@
     <t>Services</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Ef</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>ffs</t>
-  </si>
-  <si>
-    <t>fc</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>Categories</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Activities</t>
   </si>
   <si>
@@ -3979,6 +3934,27 @@
   </si>
   <si>
     <t>Energy-related Waste</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Smartphones</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>Kitchen Appliances</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Detergent/Chemicals</t>
+  </si>
+  <si>
+    <t>Food Items</t>
   </si>
 </sst>
 </file>
@@ -5954,6 +5930,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5980,36 +5986,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6065,6 +6041,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6082,12 +6064,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8722,7 +8698,7 @@
         <v>617</v>
       </c>
       <c r="C1" s="161" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -8730,7 +8706,7 @@
         <v>618</v>
       </c>
       <c r="C2" s="182" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -8738,7 +8714,7 @@
         <v>619</v>
       </c>
       <c r="C3" s="182" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -8746,7 +8722,7 @@
         <v>620</v>
       </c>
       <c r="C4" s="182" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -22506,20 +22482,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="269"/>
-      <c r="AO1" s="269"/>
-      <c r="AP1" s="269"/>
-      <c r="AQ1" s="269"/>
-      <c r="AR1" s="269"/>
-      <c r="AS1" s="269"/>
-      <c r="AT1" s="269"/>
-      <c r="AU1" s="269"/>
-      <c r="AV1" s="269"/>
-      <c r="AW1" s="269"/>
-      <c r="AX1" s="269"/>
-      <c r="AY1" s="269"/>
-      <c r="AZ1" s="269"/>
-      <c r="BA1" s="269"/>
+      <c r="AN1" s="251"/>
+      <c r="AO1" s="251"/>
+      <c r="AP1" s="251"/>
+      <c r="AQ1" s="251"/>
+      <c r="AR1" s="251"/>
+      <c r="AS1" s="251"/>
+      <c r="AT1" s="251"/>
+      <c r="AU1" s="251"/>
+      <c r="AV1" s="251"/>
+      <c r="AW1" s="251"/>
+      <c r="AX1" s="251"/>
+      <c r="AY1" s="251"/>
+      <c r="AZ1" s="251"/>
+      <c r="BA1" s="251"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="78"/>
@@ -22538,7 +22514,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="292" t="s">
+      <c r="H2" s="294" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22560,7 +22536,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="292" t="s">
+      <c r="P2" s="294" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22591,10 +22567,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="295" t="s">
+      <c r="AC2" s="297" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="298" t="s">
+      <c r="AD2" s="292" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22606,26 +22582,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="269"/>
-      <c r="AJ2" s="269"/>
-      <c r="AK2" s="269"/>
-      <c r="AL2" s="269"/>
-      <c r="AM2" s="269"/>
-      <c r="AN2" s="269"/>
-      <c r="AO2" s="269"/>
-      <c r="AP2" s="269"/>
-      <c r="AQ2" s="269"/>
-      <c r="AR2" s="269"/>
-      <c r="AS2" s="269"/>
-      <c r="AT2" s="269"/>
-      <c r="AU2" s="269"/>
-      <c r="AV2" s="269"/>
-      <c r="AW2" s="269"/>
-      <c r="AX2" s="269"/>
-      <c r="AY2" s="269"/>
-      <c r="AZ2" s="269"/>
-      <c r="BA2" s="269"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="251"/>
+      <c r="AK2" s="251"/>
+      <c r="AL2" s="251"/>
+      <c r="AM2" s="251"/>
+      <c r="AN2" s="251"/>
+      <c r="AO2" s="251"/>
+      <c r="AP2" s="251"/>
+      <c r="AQ2" s="251"/>
+      <c r="AR2" s="251"/>
+      <c r="AS2" s="251"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="251"/>
+      <c r="AV2" s="251"/>
+      <c r="AW2" s="251"/>
+      <c r="AX2" s="251"/>
+      <c r="AY2" s="251"/>
+      <c r="AZ2" s="251"/>
+      <c r="BA2" s="251"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="79" t="s">
@@ -22646,7 +22622,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="293"/>
+      <c r="H3" s="295"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22666,7 +22642,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="293"/>
+      <c r="P3" s="295"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22687,8 +22663,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="261"/>
+      <c r="AC3" s="298"/>
+      <c r="AD3" s="255"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22733,7 +22709,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="293"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22753,7 +22729,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="294"/>
+      <c r="P4" s="296"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22773,8 +22749,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="261"/>
+      <c r="AC4" s="298"/>
+      <c r="AD4" s="255"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22822,7 +22798,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="293"/>
+      <c r="H5" s="295"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22847,8 +22823,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="261"/>
+      <c r="AC5" s="298"/>
+      <c r="AD5" s="255"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22881,7 +22857,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="H6" s="293"/>
+      <c r="H6" s="295"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22908,8 +22884,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="296"/>
-      <c r="AD6" s="261"/>
+      <c r="AC6" s="298"/>
+      <c r="AD6" s="255"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22947,7 +22923,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="293"/>
+      <c r="H7" s="295"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22974,8 +22950,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="296"/>
-      <c r="AD7" s="261"/>
+      <c r="AC7" s="298"/>
+      <c r="AD7" s="255"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -23010,7 +22986,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="293"/>
+      <c r="H8" s="295"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -23037,8 +23013,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="296"/>
-      <c r="AD8" s="261"/>
+      <c r="AC8" s="298"/>
+      <c r="AD8" s="255"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -23073,7 +23049,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="294"/>
+      <c r="H9" s="296"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -23100,8 +23076,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="296"/>
-      <c r="AD9" s="261" t="s">
+      <c r="AC9" s="298"/>
+      <c r="AD9" s="255" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -23144,8 +23120,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="296"/>
-      <c r="AD10" s="261"/>
+      <c r="AC10" s="298"/>
+      <c r="AD10" s="255"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23178,7 +23154,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="295" t="s">
+      <c r="H11" s="297" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23199,8 +23175,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="296"/>
-      <c r="AD11" s="261"/>
+      <c r="AC11" s="298"/>
+      <c r="AD11" s="255"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23219,7 +23195,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="296"/>
+      <c r="H12" s="298"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23238,8 +23214,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="296"/>
-      <c r="AD12" s="261"/>
+      <c r="AC12" s="298"/>
+      <c r="AD12" s="255"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23258,7 +23234,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="296"/>
+      <c r="H13" s="298"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23277,8 +23253,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="296"/>
-      <c r="AD13" s="261"/>
+      <c r="AC13" s="298"/>
+      <c r="AD13" s="255"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23297,7 +23273,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="296"/>
+      <c r="H14" s="298"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23316,8 +23292,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="296"/>
-      <c r="AD14" s="261"/>
+      <c r="AC14" s="298"/>
+      <c r="AD14" s="255"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23336,7 +23312,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="296"/>
+      <c r="H15" s="298"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23355,8 +23331,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="296"/>
-      <c r="AD15" s="261" t="s">
+      <c r="AC15" s="298"/>
+      <c r="AD15" s="255" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23374,7 +23350,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="296"/>
+      <c r="H16" s="298"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23393,8 +23369,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="296"/>
-      <c r="AD16" s="261"/>
+      <c r="AC16" s="298"/>
+      <c r="AD16" s="255"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23413,7 +23389,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="296"/>
+      <c r="H17" s="298"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23432,8 +23408,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="296"/>
-      <c r="AD17" s="261"/>
+      <c r="AC17" s="298"/>
+      <c r="AD17" s="255"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23452,7 +23428,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="297"/>
+      <c r="H18" s="299"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23471,8 +23447,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="296"/>
-      <c r="AD18" s="261"/>
+      <c r="AC18" s="298"/>
+      <c r="AD18" s="255"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23491,8 +23467,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="296"/>
-      <c r="AD19" s="261"/>
+      <c r="AC19" s="298"/>
+      <c r="AD19" s="255"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23511,8 +23487,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="296"/>
-      <c r="AD20" s="261" t="s">
+      <c r="AC20" s="298"/>
+      <c r="AD20" s="255" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23533,8 +23509,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="296"/>
-      <c r="AD21" s="261"/>
+      <c r="AC21" s="298"/>
+      <c r="AD21" s="255"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23553,8 +23529,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="296"/>
-      <c r="AD22" s="261"/>
+      <c r="AC22" s="298"/>
+      <c r="AD22" s="255"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23573,8 +23549,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="296"/>
-      <c r="AD23" s="261" t="s">
+      <c r="AC23" s="298"/>
+      <c r="AD23" s="255" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23595,8 +23571,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="296"/>
-      <c r="AD24" s="261"/>
+      <c r="AC24" s="298"/>
+      <c r="AD24" s="255"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23609,8 +23585,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G25" s="6"/>
-      <c r="AC25" s="297"/>
-      <c r="AD25" s="299"/>
+      <c r="AC25" s="299"/>
+      <c r="AD25" s="293"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23627,10 +23603,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="295" t="s">
+      <c r="AC27" s="297" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="298" t="s">
+      <c r="AD27" s="292" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23647,8 +23623,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="296"/>
-      <c r="AD28" s="261"/>
+      <c r="AC28" s="298"/>
+      <c r="AD28" s="255"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23663,8 +23639,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="261"/>
+      <c r="AC29" s="298"/>
+      <c r="AD29" s="255"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23676,8 +23652,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC30" s="296"/>
-      <c r="AD30" s="261"/>
+      <c r="AC30" s="298"/>
+      <c r="AD30" s="255"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23691,8 +23667,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="296"/>
-      <c r="AD31" s="261"/>
+      <c r="AC31" s="298"/>
+      <c r="AD31" s="255"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23704,8 +23680,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC32" s="296"/>
-      <c r="AD32" s="261"/>
+      <c r="AC32" s="298"/>
+      <c r="AD32" s="255"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23718,8 +23694,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
-      <c r="AC33" s="296"/>
-      <c r="AD33" s="261"/>
+      <c r="AC33" s="298"/>
+      <c r="AD33" s="255"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23736,8 +23712,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="296"/>
-      <c r="AD34" s="261" t="s">
+      <c r="AC34" s="298"/>
+      <c r="AD34" s="255" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23756,8 +23732,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="296"/>
-      <c r="AD35" s="261"/>
+      <c r="AC35" s="298"/>
+      <c r="AD35" s="255"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23774,8 +23750,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="296"/>
-      <c r="AD36" s="261"/>
+      <c r="AC36" s="298"/>
+      <c r="AD36" s="255"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23792,8 +23768,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="296"/>
-      <c r="AD37" s="261"/>
+      <c r="AC37" s="298"/>
+      <c r="AD37" s="255"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23810,8 +23786,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="296"/>
-      <c r="AD38" s="261"/>
+      <c r="AC38" s="298"/>
+      <c r="AD38" s="255"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23828,8 +23804,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="296"/>
-      <c r="AD39" s="261"/>
+      <c r="AC39" s="298"/>
+      <c r="AD39" s="255"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23846,8 +23822,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="296"/>
-      <c r="AD40" s="261"/>
+      <c r="AC40" s="298"/>
+      <c r="AD40" s="255"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23864,8 +23840,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="296"/>
-      <c r="AD41" s="261" t="s">
+      <c r="AC41" s="298"/>
+      <c r="AD41" s="255" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23884,8 +23860,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="296"/>
-      <c r="AD42" s="261"/>
+      <c r="AC42" s="298"/>
+      <c r="AD42" s="255"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23902,8 +23878,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="296"/>
-      <c r="AD43" s="261"/>
+      <c r="AC43" s="298"/>
+      <c r="AD43" s="255"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23920,8 +23896,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="296"/>
-      <c r="AD44" s="261"/>
+      <c r="AC44" s="298"/>
+      <c r="AD44" s="255"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23938,8 +23914,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="296"/>
-      <c r="AD45" s="261"/>
+      <c r="AC45" s="298"/>
+      <c r="AD45" s="255"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23956,8 +23932,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="296"/>
-      <c r="AD46" s="261"/>
+      <c r="AC46" s="298"/>
+      <c r="AD46" s="255"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23974,8 +23950,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="296"/>
-      <c r="AD47" s="261"/>
+      <c r="AC47" s="298"/>
+      <c r="AD47" s="255"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23992,8 +23968,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="296"/>
-      <c r="AD48" s="261" t="s">
+      <c r="AC48" s="298"/>
+      <c r="AD48" s="255" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -24012,8 +23988,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="296"/>
-      <c r="AD49" s="261"/>
+      <c r="AC49" s="298"/>
+      <c r="AD49" s="255"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -24030,8 +24006,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="296"/>
-      <c r="AD50" s="261"/>
+      <c r="AC50" s="298"/>
+      <c r="AD50" s="255"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -24048,8 +24024,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="296"/>
-      <c r="AD51" s="261" t="s">
+      <c r="AC51" s="298"/>
+      <c r="AD51" s="255" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -24068,8 +24044,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="296"/>
-      <c r="AD52" s="261"/>
+      <c r="AC52" s="298"/>
+      <c r="AD52" s="255"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -24086,8 +24062,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="296"/>
-      <c r="AD53" s="261"/>
+      <c r="AC53" s="298"/>
+      <c r="AD53" s="255"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24104,7 +24080,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="296"/>
+      <c r="AC54" s="298"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -24124,7 +24100,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="297"/>
+      <c r="AC55" s="299"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24357,11 +24333,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24378,11 +24354,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24768,7 +24744,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="293"/>
+      <c r="A3" s="295"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24789,7 +24765,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="293"/>
+      <c r="A4" s="295"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24810,7 +24786,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="293"/>
+      <c r="A5" s="295"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24831,7 +24807,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="293"/>
+      <c r="A6" s="295"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24852,7 +24828,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="293"/>
+      <c r="A7" s="295"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24873,7 +24849,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="293"/>
+      <c r="A8" s="295"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24894,7 +24870,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="294"/>
+      <c r="A9" s="296"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24915,7 +24891,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="294" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24938,7 +24914,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="293"/>
+      <c r="A11" s="295"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24959,7 +24935,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="293"/>
+      <c r="A12" s="295"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24980,7 +24956,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="293"/>
+      <c r="A13" s="295"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -25001,7 +24977,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="293"/>
+      <c r="A14" s="295"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -25022,7 +24998,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="293"/>
+      <c r="A15" s="295"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -25043,7 +25019,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="293"/>
+      <c r="A16" s="295"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -25064,7 +25040,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="294"/>
+      <c r="A17" s="296"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25802,7 +25778,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="294" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25821,7 +25797,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="293"/>
+      <c r="A3" s="295"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25838,7 +25814,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="294"/>
+      <c r="A4" s="296"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -26034,7 +26010,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="294" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="302" t="s">
@@ -26060,7 +26036,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="293"/>
+      <c r="A2" s="295"/>
       <c r="B2" s="301"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -26082,7 +26058,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="293"/>
+      <c r="A3" s="295"/>
       <c r="B3" s="301"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -26104,7 +26080,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="293"/>
+      <c r="A4" s="295"/>
       <c r="B4" s="301"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -26126,7 +26102,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="293"/>
+      <c r="A5" s="295"/>
       <c r="B5" s="301"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -26148,7 +26124,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="293"/>
+      <c r="A6" s="295"/>
       <c r="B6" s="301"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -26170,7 +26146,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="293"/>
+      <c r="A7" s="295"/>
       <c r="B7" s="301"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -26192,7 +26168,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="293"/>
+      <c r="A8" s="295"/>
       <c r="B8" s="301" t="s">
         <v>141</v>
       </c>
@@ -26216,7 +26192,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="293"/>
+      <c r="A9" s="295"/>
       <c r="B9" s="301"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26238,7 +26214,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="293"/>
+      <c r="A10" s="295"/>
       <c r="B10" s="301"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26260,7 +26236,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="293"/>
+      <c r="A11" s="295"/>
       <c r="B11" s="301"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26282,7 +26258,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="293"/>
+      <c r="A12" s="295"/>
       <c r="B12" s="301"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26304,7 +26280,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="293"/>
+      <c r="A13" s="295"/>
       <c r="B13" s="301"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26326,7 +26302,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="293"/>
+      <c r="A14" s="295"/>
       <c r="B14" s="301" t="s">
         <v>147</v>
       </c>
@@ -26350,7 +26326,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="293"/>
+      <c r="A15" s="295"/>
       <c r="B15" s="301"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26372,7 +26348,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="293"/>
+      <c r="A16" s="295"/>
       <c r="B16" s="301"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26394,7 +26370,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="293"/>
+      <c r="A17" s="295"/>
       <c r="B17" s="301"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26416,7 +26392,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="293"/>
+      <c r="A18" s="295"/>
       <c r="B18" s="301"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26438,7 +26414,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="293"/>
+      <c r="A19" s="295"/>
       <c r="B19" s="301" t="s">
         <v>149</v>
       </c>
@@ -26462,7 +26438,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="293"/>
+      <c r="A20" s="295"/>
       <c r="B20" s="301"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26484,7 +26460,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="293"/>
+      <c r="A21" s="295"/>
       <c r="B21" s="301"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26506,7 +26482,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="293"/>
+      <c r="A22" s="295"/>
       <c r="B22" s="301" t="s">
         <v>152</v>
       </c>
@@ -26530,7 +26506,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="293"/>
+      <c r="A23" s="295"/>
       <c r="B23" s="301"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26552,7 +26528,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="294"/>
+      <c r="A24" s="296"/>
       <c r="B24" s="303"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26574,7 +26550,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="295" t="s">
+      <c r="A25" s="297" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="302" t="s">
@@ -26600,7 +26576,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="296"/>
+      <c r="A26" s="298"/>
       <c r="B26" s="301"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26622,7 +26598,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="296"/>
+      <c r="A27" s="298"/>
       <c r="B27" s="301"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26644,7 +26620,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="296"/>
+      <c r="A28" s="298"/>
       <c r="B28" s="301"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26666,7 +26642,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="296"/>
+      <c r="A29" s="298"/>
       <c r="B29" s="301"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26688,7 +26664,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="296"/>
+      <c r="A30" s="298"/>
       <c r="B30" s="301"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26710,7 +26686,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="296"/>
+      <c r="A31" s="298"/>
       <c r="B31" s="301"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26732,7 +26708,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="296"/>
+      <c r="A32" s="298"/>
       <c r="B32" s="301" t="s">
         <v>161</v>
       </c>
@@ -26756,7 +26732,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="296"/>
+      <c r="A33" s="298"/>
       <c r="B33" s="301"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26778,7 +26754,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="296"/>
+      <c r="A34" s="298"/>
       <c r="B34" s="301"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26800,7 +26776,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="296"/>
+      <c r="A35" s="298"/>
       <c r="B35" s="301"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26822,7 +26798,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="296"/>
+      <c r="A36" s="298"/>
       <c r="B36" s="301"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26844,7 +26820,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="296"/>
+      <c r="A37" s="298"/>
       <c r="B37" s="301"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26866,7 +26842,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="296"/>
+      <c r="A38" s="298"/>
       <c r="B38" s="301"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26888,7 +26864,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="296"/>
+      <c r="A39" s="298"/>
       <c r="B39" s="301" t="s">
         <v>166</v>
       </c>
@@ -26912,7 +26888,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="296"/>
+      <c r="A40" s="298"/>
       <c r="B40" s="301"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26934,7 +26910,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="296"/>
+      <c r="A41" s="298"/>
       <c r="B41" s="301"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26956,7 +26932,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="296"/>
+      <c r="A42" s="298"/>
       <c r="B42" s="301"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26978,7 +26954,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="296"/>
+      <c r="A43" s="298"/>
       <c r="B43" s="301"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -27000,7 +26976,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A44" s="296"/>
+      <c r="A44" s="298"/>
       <c r="B44" s="301"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -27022,7 +26998,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="296"/>
+      <c r="A45" s="298"/>
       <c r="B45" s="301"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -27044,7 +27020,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="296"/>
+      <c r="A46" s="298"/>
       <c r="B46" s="301" t="s">
         <v>173</v>
       </c>
@@ -27068,7 +27044,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="296"/>
+      <c r="A47" s="298"/>
       <c r="B47" s="301"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -27090,7 +27066,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="296"/>
+      <c r="A48" s="298"/>
       <c r="B48" s="301"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -27112,7 +27088,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49" s="296"/>
+      <c r="A49" s="298"/>
       <c r="B49" s="301" t="s">
         <v>176</v>
       </c>
@@ -27136,7 +27112,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="296"/>
+      <c r="A50" s="298"/>
       <c r="B50" s="301"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -27158,7 +27134,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51" s="296"/>
+      <c r="A51" s="298"/>
       <c r="B51" s="301"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -27180,7 +27156,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A52" s="296"/>
+      <c r="A52" s="298"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27204,7 +27180,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="297"/>
+      <c r="A53" s="299"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27261,20 +27237,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.1328125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" customWidth="1"/>
+    <col min="7" max="7" width="17.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="218" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="str">
@@ -27282,28 +27258,28 @@
         <v>Electronics</v>
       </c>
       <c r="D1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E1" t="str">
         <f>A3</f>
         <v>Energy</v>
       </c>
       <c r="F1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="G1" t="str">
         <f>A4</f>
         <v>Consumables</v>
       </c>
       <c r="H1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="I1" t="str">
         <f>A5</f>
         <v>Services</v>
       </c>
       <c r="J1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -27311,25 +27287,25 @@
         <v>613</v>
       </c>
       <c r="C2" t="s">
-        <v>1174</v>
+        <v>1234</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1180</v>
+        <v>1238</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>1183</v>
+        <v>1239</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>1187</v>
+        <v>1238</v>
       </c>
       <c r="J2">
         <v>43</v>
@@ -27337,28 +27313,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C3" t="s">
-        <v>1178</v>
+        <v>1235</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>1182</v>
+        <v>1238</v>
       </c>
       <c r="F3">
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>1184</v>
+        <v>1240</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>1179</v>
+        <v>1238</v>
       </c>
       <c r="J3">
         <v>34</v>
@@ -27366,28 +27342,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C4" t="s">
-        <v>1179</v>
+        <v>1236</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>1182</v>
+        <v>1238</v>
       </c>
       <c r="F4">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
-        <v>1183</v>
+        <v>1238</v>
       </c>
       <c r="J4">
         <v>43</v>
@@ -27395,28 +27365,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C5" t="s">
-        <v>1180</v>
+        <v>1237</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>1179</v>
+        <v>1238</v>
       </c>
       <c r="F5">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
       <c r="I5" t="s">
-        <v>1188</v>
+        <v>1238</v>
       </c>
       <c r="J5">
         <v>24</v>
@@ -27429,10 +27393,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA6866-CC52-4B36-986B-C6BF1DEA1D59}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27442,15 +27406,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="B1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1190</v>
+        <v>598</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -27458,26 +27422,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1191</v>
+        <v>600</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1192</v>
+        <v>599</v>
       </c>
       <c r="B4">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -27497,15 +27453,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="162" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="B1" s="162" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="B2">
         <v>2.21</v>
@@ -27513,7 +27469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="B3">
         <v>2.2999999999999998</v>
@@ -27521,7 +27477,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1202</v>
+        <v>1187</v>
       </c>
       <c r="B4">
         <v>1.2</v>
@@ -27536,7 +27492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389994AC-BE2B-4FC6-980E-91DE903DEF34}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -27552,58 +27508,58 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="248" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="249" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="D7" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="248" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="B11" s="248" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -27611,7 +27567,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -27620,7 +27576,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -27628,48 +27584,48 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="248" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="B16" s="248" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1218</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -27677,15 +27633,15 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="248" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="B22" s="248" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -27693,7 +27649,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -27701,7 +27657,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -27709,7 +27665,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -27717,37 +27673,37 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="250" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="B28" s="248" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -27755,7 +27711,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -27763,15 +27719,15 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="248" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="B34" s="248" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -27779,7 +27735,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -27787,26 +27743,26 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1233</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="248" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="B39" s="248" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -27814,7 +27770,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -27822,7 +27778,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -27830,15 +27786,15 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="248" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="B44" s="248" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -27846,7 +27802,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -27854,7 +27810,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -27946,50 +27902,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="260"/>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="260"/>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="260"/>
-      <c r="AD1" s="268"/>
-      <c r="AE1" s="268"/>
-      <c r="AF1" s="268"/>
-      <c r="AG1" s="268"/>
-      <c r="AH1" s="268"/>
-      <c r="AI1" s="268"/>
-      <c r="AJ1" s="268"/>
-      <c r="AK1" s="268"/>
-      <c r="AL1" s="268"/>
-      <c r="AM1" s="268"/>
-      <c r="AN1" s="269"/>
-      <c r="AO1" s="269"/>
-      <c r="AP1" s="269"/>
-      <c r="AQ1" s="269"/>
-      <c r="AR1" s="269"/>
-      <c r="AS1" s="269"/>
-      <c r="AT1" s="269"/>
-      <c r="AU1" s="269"/>
-      <c r="AV1" s="269"/>
-      <c r="AW1" s="269"/>
-      <c r="AX1" s="269"/>
-      <c r="AY1" s="269"/>
-      <c r="AZ1" s="269"/>
-      <c r="BA1" s="269"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="252"/>
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="252"/>
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="254"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="254"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="254"/>
+      <c r="AJ1" s="254"/>
+      <c r="AK1" s="254"/>
+      <c r="AL1" s="254"/>
+      <c r="AM1" s="254"/>
+      <c r="AN1" s="251"/>
+      <c r="AO1" s="251"/>
+      <c r="AP1" s="251"/>
+      <c r="AQ1" s="251"/>
+      <c r="AR1" s="251"/>
+      <c r="AS1" s="251"/>
+      <c r="AT1" s="251"/>
+      <c r="AU1" s="251"/>
+      <c r="AV1" s="251"/>
+      <c r="AW1" s="251"/>
+      <c r="AX1" s="251"/>
+      <c r="AY1" s="251"/>
+      <c r="AZ1" s="251"/>
+      <c r="BA1" s="251"/>
     </row>
     <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="264" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -28026,33 +27982,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="267"/>
-      <c r="AE2" s="267"/>
-      <c r="AF2" s="267"/>
-      <c r="AG2" s="267"/>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="269"/>
-      <c r="AJ2" s="269"/>
-      <c r="AK2" s="269"/>
-      <c r="AL2" s="269"/>
-      <c r="AM2" s="269"/>
-      <c r="AN2" s="269"/>
-      <c r="AO2" s="269"/>
-      <c r="AP2" s="269"/>
-      <c r="AQ2" s="269"/>
-      <c r="AR2" s="269"/>
-      <c r="AS2" s="269"/>
-      <c r="AT2" s="269"/>
-      <c r="AU2" s="269"/>
-      <c r="AV2" s="269"/>
-      <c r="AW2" s="269"/>
-      <c r="AX2" s="269"/>
-      <c r="AY2" s="269"/>
-      <c r="AZ2" s="269"/>
-      <c r="BA2" s="269"/>
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="253"/>
+      <c r="AG2" s="253"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="251"/>
+      <c r="AK2" s="251"/>
+      <c r="AL2" s="251"/>
+      <c r="AM2" s="251"/>
+      <c r="AN2" s="251"/>
+      <c r="AO2" s="251"/>
+      <c r="AP2" s="251"/>
+      <c r="AQ2" s="251"/>
+      <c r="AR2" s="251"/>
+      <c r="AS2" s="251"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="251"/>
+      <c r="AV2" s="251"/>
+      <c r="AW2" s="251"/>
+      <c r="AX2" s="251"/>
+      <c r="AY2" s="251"/>
+      <c r="AZ2" s="251"/>
+      <c r="BA2" s="251"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A3" s="255"/>
+      <c r="A3" s="265"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -28110,7 +28066,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A4" s="255"/>
+      <c r="A4" s="265"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -28171,7 +28127,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="256"/>
+      <c r="A5" s="266"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -28321,7 +28277,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A8" s="254" t="s">
+      <c r="A8" s="264" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -28376,7 +28332,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A9" s="255"/>
+      <c r="A9" s="265"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -28427,7 +28383,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A10" s="255"/>
+      <c r="A10" s="265"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -28474,7 +28430,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A11" s="255"/>
+      <c r="A11" s="265"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -28498,7 +28454,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A12" s="255"/>
+      <c r="A12" s="265"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -28522,7 +28478,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A13" s="255"/>
+      <c r="A13" s="265"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -28546,7 +28502,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A14" s="255"/>
+      <c r="A14" s="265"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28570,7 +28526,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A15" s="256"/>
+      <c r="A15" s="266"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28603,7 +28559,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="251" t="s">
+      <c r="A17" s="261" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28629,7 +28585,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="252"/>
+      <c r="A18" s="262"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28653,7 +28609,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="252"/>
+      <c r="A19" s="262"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28677,7 +28633,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="252"/>
+      <c r="A20" s="262"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28701,7 +28657,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="252"/>
+      <c r="A21" s="262"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28725,7 +28681,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="252"/>
+      <c r="A22" s="262"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28749,7 +28705,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="252"/>
+      <c r="A23" s="262"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28773,7 +28729,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="253"/>
+      <c r="A24" s="263"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28817,7 +28773,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="254" t="s">
+      <c r="A27" s="264" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28840,7 +28796,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="255"/>
+      <c r="A28" s="265"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28861,7 +28817,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="256"/>
+      <c r="A29" s="266"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28911,10 +28867,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="251" t="s">
+      <c r="A34" s="261" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="263" t="str">
+      <c r="B34" s="257" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28935,8 +28891,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="252"/>
-      <c r="B35" s="264"/>
+      <c r="A35" s="262"/>
+      <c r="B35" s="258"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28951,8 +28907,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="252"/>
-      <c r="B36" s="264"/>
+      <c r="A36" s="262"/>
+      <c r="B36" s="258"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28967,8 +28923,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="252"/>
-      <c r="B37" s="264"/>
+      <c r="A37" s="262"/>
+      <c r="B37" s="258"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28983,8 +28939,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="252"/>
-      <c r="B38" s="264"/>
+      <c r="A38" s="262"/>
+      <c r="B38" s="258"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28999,8 +28955,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="252"/>
-      <c r="B39" s="264"/>
+      <c r="A39" s="262"/>
+      <c r="B39" s="258"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -29012,8 +28968,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="252"/>
-      <c r="B40" s="264"/>
+      <c r="A40" s="262"/>
+      <c r="B40" s="258"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -29025,8 +28981,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="252"/>
-      <c r="B41" s="264" t="str">
+      <c r="A41" s="262"/>
+      <c r="B41" s="258" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -29041,8 +28997,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="252"/>
-      <c r="B42" s="264"/>
+      <c r="A42" s="262"/>
+      <c r="B42" s="258"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -29054,8 +29010,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="252"/>
-      <c r="B43" s="264"/>
+      <c r="A43" s="262"/>
+      <c r="B43" s="258"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -29067,8 +29023,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="252"/>
-      <c r="B44" s="264"/>
+      <c r="A44" s="262"/>
+      <c r="B44" s="258"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -29080,8 +29036,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="252"/>
-      <c r="B45" s="264"/>
+      <c r="A45" s="262"/>
+      <c r="B45" s="258"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -29093,8 +29049,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="252"/>
-      <c r="B46" s="264"/>
+      <c r="A46" s="262"/>
+      <c r="B46" s="258"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -29106,8 +29062,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="252"/>
-      <c r="B47" s="264" t="str">
+      <c r="A47" s="262"/>
+      <c r="B47" s="258" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -29122,8 +29078,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="252"/>
-      <c r="B48" s="264"/>
+      <c r="A48" s="262"/>
+      <c r="B48" s="258"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -29135,8 +29091,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="252"/>
-      <c r="B49" s="264"/>
+      <c r="A49" s="262"/>
+      <c r="B49" s="258"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -29148,8 +29104,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="252"/>
-      <c r="B50" s="264"/>
+      <c r="A50" s="262"/>
+      <c r="B50" s="258"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -29161,8 +29117,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="252"/>
-      <c r="B51" s="264"/>
+      <c r="A51" s="262"/>
+      <c r="B51" s="258"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -29174,8 +29130,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="252"/>
-      <c r="B52" s="264" t="str">
+      <c r="A52" s="262"/>
+      <c r="B52" s="258" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -29190,8 +29146,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="252"/>
-      <c r="B53" s="264"/>
+      <c r="A53" s="262"/>
+      <c r="B53" s="258"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -29203,8 +29159,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="252"/>
-      <c r="B54" s="264"/>
+      <c r="A54" s="262"/>
+      <c r="B54" s="258"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -29216,8 +29172,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="252"/>
-      <c r="B55" s="264" t="str">
+      <c r="A55" s="262"/>
+      <c r="B55" s="258" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -29232,8 +29188,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="252"/>
-      <c r="B56" s="264"/>
+      <c r="A56" s="262"/>
+      <c r="B56" s="258"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -29245,8 +29201,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="253"/>
-      <c r="B57" s="265"/>
+      <c r="A57" s="263"/>
+      <c r="B57" s="259"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -29261,10 +29217,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="257" t="s">
+      <c r="A59" s="267" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="266" t="s">
+      <c r="B59" s="260" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -29281,8 +29237,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="258"/>
-      <c r="B60" s="261"/>
+      <c r="A60" s="268"/>
+      <c r="B60" s="255"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -29300,8 +29256,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="258"/>
-      <c r="B61" s="261"/>
+      <c r="A61" s="268"/>
+      <c r="B61" s="255"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -29316,8 +29272,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="258"/>
-      <c r="B62" s="261"/>
+      <c r="A62" s="268"/>
+      <c r="B62" s="255"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -29332,8 +29288,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="258"/>
-      <c r="B63" s="261"/>
+      <c r="A63" s="268"/>
+      <c r="B63" s="255"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -29348,8 +29304,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="258"/>
-      <c r="B64" s="261"/>
+      <c r="A64" s="268"/>
+      <c r="B64" s="255"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -29364,8 +29320,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="258"/>
-      <c r="B65" s="261"/>
+      <c r="A65" s="268"/>
+      <c r="B65" s="255"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -29378,8 +29334,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="258"/>
-      <c r="B66" s="261" t="str">
+      <c r="A66" s="268"/>
+      <c r="B66" s="255" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -29395,8 +29351,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="258"/>
-      <c r="B67" s="261"/>
+      <c r="A67" s="268"/>
+      <c r="B67" s="255"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -29408,8 +29364,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="258"/>
-      <c r="B68" s="261"/>
+      <c r="A68" s="268"/>
+      <c r="B68" s="255"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -29421,8 +29377,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="258"/>
-      <c r="B69" s="261"/>
+      <c r="A69" s="268"/>
+      <c r="B69" s="255"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -29434,8 +29390,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="258"/>
-      <c r="B70" s="261"/>
+      <c r="A70" s="268"/>
+      <c r="B70" s="255"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -29447,8 +29403,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="258"/>
-      <c r="B71" s="261"/>
+      <c r="A71" s="268"/>
+      <c r="B71" s="255"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -29460,8 +29416,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="258"/>
-      <c r="B72" s="261"/>
+      <c r="A72" s="268"/>
+      <c r="B72" s="255"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -29473,8 +29429,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="258"/>
-      <c r="B73" s="261" t="str">
+      <c r="A73" s="268"/>
+      <c r="B73" s="255" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -29489,8 +29445,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="258"/>
-      <c r="B74" s="261"/>
+      <c r="A74" s="268"/>
+      <c r="B74" s="255"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -29502,8 +29458,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="258"/>
-      <c r="B75" s="261"/>
+      <c r="A75" s="268"/>
+      <c r="B75" s="255"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -29515,8 +29471,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="258"/>
-      <c r="B76" s="261"/>
+      <c r="A76" s="268"/>
+      <c r="B76" s="255"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -29528,8 +29484,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="258"/>
-      <c r="B77" s="261"/>
+      <c r="A77" s="268"/>
+      <c r="B77" s="255"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -29541,8 +29497,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="258"/>
-      <c r="B78" s="261"/>
+      <c r="A78" s="268"/>
+      <c r="B78" s="255"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29554,8 +29510,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="258"/>
-      <c r="B79" s="261"/>
+      <c r="A79" s="268"/>
+      <c r="B79" s="255"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29567,8 +29523,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="258"/>
-      <c r="B80" s="261" t="str">
+      <c r="A80" s="268"/>
+      <c r="B80" s="255" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29583,8 +29539,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="258"/>
-      <c r="B81" s="261"/>
+      <c r="A81" s="268"/>
+      <c r="B81" s="255"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29596,8 +29552,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="258"/>
-      <c r="B82" s="261"/>
+      <c r="A82" s="268"/>
+      <c r="B82" s="255"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29609,8 +29565,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="258"/>
-      <c r="B83" s="261" t="str">
+      <c r="A83" s="268"/>
+      <c r="B83" s="255" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29625,8 +29581,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="258"/>
-      <c r="B84" s="261"/>
+      <c r="A84" s="268"/>
+      <c r="B84" s="255"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29638,8 +29594,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="259"/>
-      <c r="B85" s="262"/>
+      <c r="A85" s="269"/>
+      <c r="B85" s="256"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29666,21 +29622,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29693,13 +29641,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -30429,6 +30385,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -30649,14 +30613,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
@@ -30666,6 +30622,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30682,14 +30648,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htoom\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CADE12D-357F-4FF4-BC0C-0EC5065D8BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE68CA0-580D-4BA9-B3A0-8BC7C685AD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="19" activeTab="24" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="19" activeTab="25" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="1243">
   <si>
     <t>Country</t>
   </si>
@@ -3955,6 +3955,12 @@
   </si>
   <si>
     <t>Food Items</t>
+  </si>
+  <si>
+    <t>Aluminium Recycling</t>
+  </si>
+  <si>
+    <t>Steel Recycling</t>
   </si>
 </sst>
 </file>
@@ -4182,7 +4188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4300,6 +4306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5258,7 +5270,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5930,36 +5942,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5986,6 +5968,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6041,12 +6053,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6065,6 +6071,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6076,6 +6088,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -22482,20 +22507,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="251"/>
-      <c r="AO1" s="251"/>
-      <c r="AP1" s="251"/>
-      <c r="AQ1" s="251"/>
-      <c r="AR1" s="251"/>
-      <c r="AS1" s="251"/>
-      <c r="AT1" s="251"/>
-      <c r="AU1" s="251"/>
-      <c r="AV1" s="251"/>
-      <c r="AW1" s="251"/>
-      <c r="AX1" s="251"/>
-      <c r="AY1" s="251"/>
-      <c r="AZ1" s="251"/>
-      <c r="BA1" s="251"/>
+      <c r="AN1" s="269"/>
+      <c r="AO1" s="269"/>
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="269"/>
+      <c r="AT1" s="269"/>
+      <c r="AU1" s="269"/>
+      <c r="AV1" s="269"/>
+      <c r="AW1" s="269"/>
+      <c r="AX1" s="269"/>
+      <c r="AY1" s="269"/>
+      <c r="AZ1" s="269"/>
+      <c r="BA1" s="269"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="78"/>
@@ -22514,7 +22539,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="294" t="s">
+      <c r="H2" s="292" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22536,7 +22561,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="294" t="s">
+      <c r="P2" s="292" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22567,10 +22592,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="297" t="s">
+      <c r="AC2" s="295" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="292" t="s">
+      <c r="AD2" s="298" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22582,26 +22607,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="251"/>
-      <c r="AJ2" s="251"/>
-      <c r="AK2" s="251"/>
-      <c r="AL2" s="251"/>
-      <c r="AM2" s="251"/>
-      <c r="AN2" s="251"/>
-      <c r="AO2" s="251"/>
-      <c r="AP2" s="251"/>
-      <c r="AQ2" s="251"/>
-      <c r="AR2" s="251"/>
-      <c r="AS2" s="251"/>
-      <c r="AT2" s="251"/>
-      <c r="AU2" s="251"/>
-      <c r="AV2" s="251"/>
-      <c r="AW2" s="251"/>
-      <c r="AX2" s="251"/>
-      <c r="AY2" s="251"/>
-      <c r="AZ2" s="251"/>
-      <c r="BA2" s="251"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="269"/>
+      <c r="AJ2" s="269"/>
+      <c r="AK2" s="269"/>
+      <c r="AL2" s="269"/>
+      <c r="AM2" s="269"/>
+      <c r="AN2" s="269"/>
+      <c r="AO2" s="269"/>
+      <c r="AP2" s="269"/>
+      <c r="AQ2" s="269"/>
+      <c r="AR2" s="269"/>
+      <c r="AS2" s="269"/>
+      <c r="AT2" s="269"/>
+      <c r="AU2" s="269"/>
+      <c r="AV2" s="269"/>
+      <c r="AW2" s="269"/>
+      <c r="AX2" s="269"/>
+      <c r="AY2" s="269"/>
+      <c r="AZ2" s="269"/>
+      <c r="BA2" s="269"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="79" t="s">
@@ -22622,7 +22647,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="295"/>
+      <c r="H3" s="293"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22642,7 +22667,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="295"/>
+      <c r="P3" s="293"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22663,8 +22688,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="298"/>
-      <c r="AD3" s="255"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="261"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22709,7 +22734,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="293"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22729,7 +22754,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="296"/>
+      <c r="P4" s="294"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22749,8 +22774,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="255"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="261"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22798,7 +22823,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="295"/>
+      <c r="H5" s="293"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22823,8 +22848,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="298"/>
-      <c r="AD5" s="255"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="261"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22857,7 +22882,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="H6" s="295"/>
+      <c r="H6" s="293"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22884,8 +22909,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="298"/>
-      <c r="AD6" s="255"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="261"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22923,7 +22948,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="295"/>
+      <c r="H7" s="293"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22950,8 +22975,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="298"/>
-      <c r="AD7" s="255"/>
+      <c r="AC7" s="296"/>
+      <c r="AD7" s="261"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22986,7 +23011,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="295"/>
+      <c r="H8" s="293"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -23013,8 +23038,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="298"/>
-      <c r="AD8" s="255"/>
+      <c r="AC8" s="296"/>
+      <c r="AD8" s="261"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -23049,7 +23074,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="296"/>
+      <c r="H9" s="294"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -23076,8 +23101,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="298"/>
-      <c r="AD9" s="255" t="s">
+      <c r="AC9" s="296"/>
+      <c r="AD9" s="261" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -23120,8 +23145,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="298"/>
-      <c r="AD10" s="255"/>
+      <c r="AC10" s="296"/>
+      <c r="AD10" s="261"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23154,7 +23179,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="297" t="s">
+      <c r="H11" s="295" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23175,8 +23200,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="298"/>
-      <c r="AD11" s="255"/>
+      <c r="AC11" s="296"/>
+      <c r="AD11" s="261"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23195,7 +23220,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="298"/>
+      <c r="H12" s="296"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23214,8 +23239,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="298"/>
-      <c r="AD12" s="255"/>
+      <c r="AC12" s="296"/>
+      <c r="AD12" s="261"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23234,7 +23259,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="298"/>
+      <c r="H13" s="296"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23253,8 +23278,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="298"/>
-      <c r="AD13" s="255"/>
+      <c r="AC13" s="296"/>
+      <c r="AD13" s="261"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23273,7 +23298,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="298"/>
+      <c r="H14" s="296"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23292,8 +23317,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="298"/>
-      <c r="AD14" s="255"/>
+      <c r="AC14" s="296"/>
+      <c r="AD14" s="261"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23312,7 +23337,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="298"/>
+      <c r="H15" s="296"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23331,8 +23356,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="298"/>
-      <c r="AD15" s="255" t="s">
+      <c r="AC15" s="296"/>
+      <c r="AD15" s="261" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23350,7 +23375,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="298"/>
+      <c r="H16" s="296"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23369,8 +23394,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="298"/>
-      <c r="AD16" s="255"/>
+      <c r="AC16" s="296"/>
+      <c r="AD16" s="261"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23389,7 +23414,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="298"/>
+      <c r="H17" s="296"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23408,8 +23433,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="298"/>
-      <c r="AD17" s="255"/>
+      <c r="AC17" s="296"/>
+      <c r="AD17" s="261"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23428,7 +23453,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="299"/>
+      <c r="H18" s="297"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23447,8 +23472,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="298"/>
-      <c r="AD18" s="255"/>
+      <c r="AC18" s="296"/>
+      <c r="AD18" s="261"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23467,8 +23492,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="298"/>
-      <c r="AD19" s="255"/>
+      <c r="AC19" s="296"/>
+      <c r="AD19" s="261"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23487,8 +23512,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="298"/>
-      <c r="AD20" s="255" t="s">
+      <c r="AC20" s="296"/>
+      <c r="AD20" s="261" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23509,8 +23534,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="298"/>
-      <c r="AD21" s="255"/>
+      <c r="AC21" s="296"/>
+      <c r="AD21" s="261"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23529,8 +23554,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="298"/>
-      <c r="AD22" s="255"/>
+      <c r="AC22" s="296"/>
+      <c r="AD22" s="261"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23549,8 +23574,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="298"/>
-      <c r="AD23" s="255" t="s">
+      <c r="AC23" s="296"/>
+      <c r="AD23" s="261" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23571,8 +23596,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="298"/>
-      <c r="AD24" s="255"/>
+      <c r="AC24" s="296"/>
+      <c r="AD24" s="261"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23585,8 +23610,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G25" s="6"/>
-      <c r="AC25" s="299"/>
-      <c r="AD25" s="293"/>
+      <c r="AC25" s="297"/>
+      <c r="AD25" s="299"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23603,10 +23628,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="297" t="s">
+      <c r="AC27" s="295" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="292" t="s">
+      <c r="AD27" s="298" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23623,8 +23648,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="298"/>
-      <c r="AD28" s="255"/>
+      <c r="AC28" s="296"/>
+      <c r="AD28" s="261"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23639,8 +23664,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="298"/>
-      <c r="AD29" s="255"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="261"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23652,8 +23677,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC30" s="298"/>
-      <c r="AD30" s="255"/>
+      <c r="AC30" s="296"/>
+      <c r="AD30" s="261"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23667,8 +23692,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="298"/>
-      <c r="AD31" s="255"/>
+      <c r="AC31" s="296"/>
+      <c r="AD31" s="261"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23680,8 +23705,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC32" s="298"/>
-      <c r="AD32" s="255"/>
+      <c r="AC32" s="296"/>
+      <c r="AD32" s="261"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23694,8 +23719,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
-      <c r="AC33" s="298"/>
-      <c r="AD33" s="255"/>
+      <c r="AC33" s="296"/>
+      <c r="AD33" s="261"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23712,8 +23737,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="298"/>
-      <c r="AD34" s="255" t="s">
+      <c r="AC34" s="296"/>
+      <c r="AD34" s="261" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23732,8 +23757,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="298"/>
-      <c r="AD35" s="255"/>
+      <c r="AC35" s="296"/>
+      <c r="AD35" s="261"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23750,8 +23775,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="298"/>
-      <c r="AD36" s="255"/>
+      <c r="AC36" s="296"/>
+      <c r="AD36" s="261"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23768,8 +23793,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="298"/>
-      <c r="AD37" s="255"/>
+      <c r="AC37" s="296"/>
+      <c r="AD37" s="261"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23786,8 +23811,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="298"/>
-      <c r="AD38" s="255"/>
+      <c r="AC38" s="296"/>
+      <c r="AD38" s="261"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23804,8 +23829,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="298"/>
-      <c r="AD39" s="255"/>
+      <c r="AC39" s="296"/>
+      <c r="AD39" s="261"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23822,8 +23847,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="298"/>
-      <c r="AD40" s="255"/>
+      <c r="AC40" s="296"/>
+      <c r="AD40" s="261"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23840,8 +23865,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="298"/>
-      <c r="AD41" s="255" t="s">
+      <c r="AC41" s="296"/>
+      <c r="AD41" s="261" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23860,8 +23885,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="298"/>
-      <c r="AD42" s="255"/>
+      <c r="AC42" s="296"/>
+      <c r="AD42" s="261"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23878,8 +23903,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="298"/>
-      <c r="AD43" s="255"/>
+      <c r="AC43" s="296"/>
+      <c r="AD43" s="261"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23896,8 +23921,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="298"/>
-      <c r="AD44" s="255"/>
+      <c r="AC44" s="296"/>
+      <c r="AD44" s="261"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23914,8 +23939,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="298"/>
-      <c r="AD45" s="255"/>
+      <c r="AC45" s="296"/>
+      <c r="AD45" s="261"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23932,8 +23957,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="298"/>
-      <c r="AD46" s="255"/>
+      <c r="AC46" s="296"/>
+      <c r="AD46" s="261"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23950,8 +23975,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="298"/>
-      <c r="AD47" s="255"/>
+      <c r="AC47" s="296"/>
+      <c r="AD47" s="261"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23968,8 +23993,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="298"/>
-      <c r="AD48" s="255" t="s">
+      <c r="AC48" s="296"/>
+      <c r="AD48" s="261" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23988,8 +24013,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="298"/>
-      <c r="AD49" s="255"/>
+      <c r="AC49" s="296"/>
+      <c r="AD49" s="261"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -24006,8 +24031,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="298"/>
-      <c r="AD50" s="255"/>
+      <c r="AC50" s="296"/>
+      <c r="AD50" s="261"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -24024,8 +24049,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="298"/>
-      <c r="AD51" s="255" t="s">
+      <c r="AC51" s="296"/>
+      <c r="AD51" s="261" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -24044,8 +24069,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="298"/>
-      <c r="AD52" s="255"/>
+      <c r="AC52" s="296"/>
+      <c r="AD52" s="261"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -24062,8 +24087,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="298"/>
-      <c r="AD53" s="255"/>
+      <c r="AC53" s="296"/>
+      <c r="AD53" s="261"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24080,7 +24105,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="298"/>
+      <c r="AC54" s="296"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -24100,7 +24125,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="299"/>
+      <c r="AC55" s="297"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24333,11 +24358,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24354,11 +24379,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24744,7 +24769,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="295"/>
+      <c r="A3" s="293"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24765,7 +24790,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="295"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24786,7 +24811,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="295"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24807,7 +24832,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="295"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24828,7 +24853,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="295"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24849,7 +24874,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="295"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24870,7 +24895,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="296"/>
+      <c r="A9" s="294"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24891,7 +24916,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="294" t="s">
+      <c r="A10" s="292" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24914,7 +24939,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="295"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24935,7 +24960,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="295"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24956,7 +24981,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="295"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24977,7 +25002,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="295"/>
+      <c r="A14" s="293"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24998,7 +25023,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="295"/>
+      <c r="A15" s="293"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -25019,7 +25044,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="295"/>
+      <c r="A16" s="293"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -25040,7 +25065,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="296"/>
+      <c r="A17" s="294"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25778,7 +25803,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="292" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25797,7 +25822,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="295"/>
+      <c r="A3" s="293"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25814,7 +25839,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="296"/>
+      <c r="A4" s="294"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -26010,7 +26035,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="292" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="302" t="s">
@@ -26036,7 +26061,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="295"/>
+      <c r="A2" s="293"/>
       <c r="B2" s="301"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -26058,7 +26083,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="295"/>
+      <c r="A3" s="293"/>
       <c r="B3" s="301"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -26080,7 +26105,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="295"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="301"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -26102,7 +26127,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="295"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="301"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -26124,7 +26149,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="295"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="301"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -26146,7 +26171,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="295"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="301"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -26168,7 +26193,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="295"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="301" t="s">
         <v>141</v>
       </c>
@@ -26192,7 +26217,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="295"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="301"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26214,7 +26239,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="295"/>
+      <c r="A10" s="293"/>
       <c r="B10" s="301"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26236,7 +26261,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="295"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="301"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26258,7 +26283,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="295"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="301"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26280,7 +26305,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="295"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="301"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26302,7 +26327,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="295"/>
+      <c r="A14" s="293"/>
       <c r="B14" s="301" t="s">
         <v>147</v>
       </c>
@@ -26326,7 +26351,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="295"/>
+      <c r="A15" s="293"/>
       <c r="B15" s="301"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26348,7 +26373,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="295"/>
+      <c r="A16" s="293"/>
       <c r="B16" s="301"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26370,7 +26395,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="295"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="301"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26392,7 +26417,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="295"/>
+      <c r="A18" s="293"/>
       <c r="B18" s="301"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26414,7 +26439,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="295"/>
+      <c r="A19" s="293"/>
       <c r="B19" s="301" t="s">
         <v>149</v>
       </c>
@@ -26438,7 +26463,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="295"/>
+      <c r="A20" s="293"/>
       <c r="B20" s="301"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26460,7 +26485,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="295"/>
+      <c r="A21" s="293"/>
       <c r="B21" s="301"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26482,7 +26507,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="295"/>
+      <c r="A22" s="293"/>
       <c r="B22" s="301" t="s">
         <v>152</v>
       </c>
@@ -26506,7 +26531,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="295"/>
+      <c r="A23" s="293"/>
       <c r="B23" s="301"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26528,7 +26553,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="296"/>
+      <c r="A24" s="294"/>
       <c r="B24" s="303"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26550,7 +26575,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="297" t="s">
+      <c r="A25" s="295" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="302" t="s">
@@ -26576,7 +26601,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="298"/>
+      <c r="A26" s="296"/>
       <c r="B26" s="301"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26598,7 +26623,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="298"/>
+      <c r="A27" s="296"/>
       <c r="B27" s="301"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26620,7 +26645,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="298"/>
+      <c r="A28" s="296"/>
       <c r="B28" s="301"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26642,7 +26667,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="298"/>
+      <c r="A29" s="296"/>
       <c r="B29" s="301"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26664,7 +26689,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="298"/>
+      <c r="A30" s="296"/>
       <c r="B30" s="301"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26686,7 +26711,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="298"/>
+      <c r="A31" s="296"/>
       <c r="B31" s="301"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26708,7 +26733,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="298"/>
+      <c r="A32" s="296"/>
       <c r="B32" s="301" t="s">
         <v>161</v>
       </c>
@@ -26732,7 +26757,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="298"/>
+      <c r="A33" s="296"/>
       <c r="B33" s="301"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26754,7 +26779,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="298"/>
+      <c r="A34" s="296"/>
       <c r="B34" s="301"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26776,7 +26801,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="298"/>
+      <c r="A35" s="296"/>
       <c r="B35" s="301"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26798,7 +26823,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="298"/>
+      <c r="A36" s="296"/>
       <c r="B36" s="301"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26820,7 +26845,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="298"/>
+      <c r="A37" s="296"/>
       <c r="B37" s="301"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26842,7 +26867,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="298"/>
+      <c r="A38" s="296"/>
       <c r="B38" s="301"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26864,7 +26889,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="298"/>
+      <c r="A39" s="296"/>
       <c r="B39" s="301" t="s">
         <v>166</v>
       </c>
@@ -26888,7 +26913,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="298"/>
+      <c r="A40" s="296"/>
       <c r="B40" s="301"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26910,7 +26935,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="298"/>
+      <c r="A41" s="296"/>
       <c r="B41" s="301"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26932,7 +26957,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="298"/>
+      <c r="A42" s="296"/>
       <c r="B42" s="301"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26954,7 +26979,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="298"/>
+      <c r="A43" s="296"/>
       <c r="B43" s="301"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26976,7 +27001,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A44" s="298"/>
+      <c r="A44" s="296"/>
       <c r="B44" s="301"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26998,7 +27023,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="298"/>
+      <c r="A45" s="296"/>
       <c r="B45" s="301"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -27020,7 +27045,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="298"/>
+      <c r="A46" s="296"/>
       <c r="B46" s="301" t="s">
         <v>173</v>
       </c>
@@ -27044,7 +27069,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="298"/>
+      <c r="A47" s="296"/>
       <c r="B47" s="301"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -27066,7 +27091,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="298"/>
+      <c r="A48" s="296"/>
       <c r="B48" s="301"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -27088,7 +27113,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49" s="298"/>
+      <c r="A49" s="296"/>
       <c r="B49" s="301" t="s">
         <v>176</v>
       </c>
@@ -27112,7 +27137,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="298"/>
+      <c r="A50" s="296"/>
       <c r="B50" s="301"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -27134,7 +27159,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51" s="298"/>
+      <c r="A51" s="296"/>
       <c r="B51" s="301"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -27156,7 +27181,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A52" s="298"/>
+      <c r="A52" s="296"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27180,7 +27205,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="299"/>
+      <c r="A53" s="297"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27237,7 +27262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -27393,15 +27418,15 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA6866-CC52-4B36-986B-C6BF1DEA1D59}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.53125" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -27416,7 +27441,7 @@
       <c r="A2" t="s">
         <v>598</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="306">
         <v>1</v>
       </c>
     </row>
@@ -27424,16 +27449,24 @@
       <c r="A3" t="s">
         <v>600</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="306">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="A4" s="304" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B4" s="307">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="305" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B5" s="308">
+        <v>0.36099999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -27492,7 +27525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389994AC-BE2B-4FC6-980E-91DE903DEF34}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -27902,50 +27935,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="252"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="252"/>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="252"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="252"/>
-      <c r="Y1" s="252"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="252"/>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="252"/>
-      <c r="AD1" s="254"/>
-      <c r="AE1" s="254"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="254"/>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="254"/>
-      <c r="AJ1" s="254"/>
-      <c r="AK1" s="254"/>
-      <c r="AL1" s="254"/>
-      <c r="AM1" s="254"/>
-      <c r="AN1" s="251"/>
-      <c r="AO1" s="251"/>
-      <c r="AP1" s="251"/>
-      <c r="AQ1" s="251"/>
-      <c r="AR1" s="251"/>
-      <c r="AS1" s="251"/>
-      <c r="AT1" s="251"/>
-      <c r="AU1" s="251"/>
-      <c r="AV1" s="251"/>
-      <c r="AW1" s="251"/>
-      <c r="AX1" s="251"/>
-      <c r="AY1" s="251"/>
-      <c r="AZ1" s="251"/>
-      <c r="BA1" s="251"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="260"/>
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="260"/>
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="268"/>
+      <c r="AK1" s="268"/>
+      <c r="AL1" s="268"/>
+      <c r="AM1" s="268"/>
+      <c r="AN1" s="269"/>
+      <c r="AO1" s="269"/>
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="269"/>
+      <c r="AT1" s="269"/>
+      <c r="AU1" s="269"/>
+      <c r="AV1" s="269"/>
+      <c r="AW1" s="269"/>
+      <c r="AX1" s="269"/>
+      <c r="AY1" s="269"/>
+      <c r="AZ1" s="269"/>
+      <c r="BA1" s="269"/>
     </row>
     <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="254" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27982,33 +28015,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="253"/>
-      <c r="AG2" s="253"/>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="251"/>
-      <c r="AJ2" s="251"/>
-      <c r="AK2" s="251"/>
-      <c r="AL2" s="251"/>
-      <c r="AM2" s="251"/>
-      <c r="AN2" s="251"/>
-      <c r="AO2" s="251"/>
-      <c r="AP2" s="251"/>
-      <c r="AQ2" s="251"/>
-      <c r="AR2" s="251"/>
-      <c r="AS2" s="251"/>
-      <c r="AT2" s="251"/>
-      <c r="AU2" s="251"/>
-      <c r="AV2" s="251"/>
-      <c r="AW2" s="251"/>
-      <c r="AX2" s="251"/>
-      <c r="AY2" s="251"/>
-      <c r="AZ2" s="251"/>
-      <c r="BA2" s="251"/>
+      <c r="AD2" s="267"/>
+      <c r="AE2" s="267"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="267"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="269"/>
+      <c r="AJ2" s="269"/>
+      <c r="AK2" s="269"/>
+      <c r="AL2" s="269"/>
+      <c r="AM2" s="269"/>
+      <c r="AN2" s="269"/>
+      <c r="AO2" s="269"/>
+      <c r="AP2" s="269"/>
+      <c r="AQ2" s="269"/>
+      <c r="AR2" s="269"/>
+      <c r="AS2" s="269"/>
+      <c r="AT2" s="269"/>
+      <c r="AU2" s="269"/>
+      <c r="AV2" s="269"/>
+      <c r="AW2" s="269"/>
+      <c r="AX2" s="269"/>
+      <c r="AY2" s="269"/>
+      <c r="AZ2" s="269"/>
+      <c r="BA2" s="269"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A3" s="265"/>
+      <c r="A3" s="255"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -28066,7 +28099,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A4" s="265"/>
+      <c r="A4" s="255"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -28127,7 +28160,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="266"/>
+      <c r="A5" s="256"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -28277,7 +28310,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A8" s="264" t="s">
+      <c r="A8" s="254" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -28332,7 +28365,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A9" s="265"/>
+      <c r="A9" s="255"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -28383,7 +28416,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A10" s="265"/>
+      <c r="A10" s="255"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -28430,7 +28463,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A11" s="265"/>
+      <c r="A11" s="255"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -28454,7 +28487,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A12" s="265"/>
+      <c r="A12" s="255"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -28478,7 +28511,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A13" s="265"/>
+      <c r="A13" s="255"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -28502,7 +28535,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A14" s="265"/>
+      <c r="A14" s="255"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28526,7 +28559,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A15" s="266"/>
+      <c r="A15" s="256"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28559,7 +28592,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="261" t="s">
+      <c r="A17" s="251" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28585,7 +28618,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="262"/>
+      <c r="A18" s="252"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28609,7 +28642,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="262"/>
+      <c r="A19" s="252"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28633,7 +28666,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="262"/>
+      <c r="A20" s="252"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28657,7 +28690,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="262"/>
+      <c r="A21" s="252"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28681,7 +28714,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="262"/>
+      <c r="A22" s="252"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28705,7 +28738,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="262"/>
+      <c r="A23" s="252"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28729,7 +28762,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="263"/>
+      <c r="A24" s="253"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28773,7 +28806,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="264" t="s">
+      <c r="A27" s="254" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28796,7 +28829,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="265"/>
+      <c r="A28" s="255"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28817,7 +28850,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="266"/>
+      <c r="A29" s="256"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28867,10 +28900,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="261" t="s">
+      <c r="A34" s="251" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="257" t="str">
+      <c r="B34" s="263" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28891,8 +28924,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="262"/>
-      <c r="B35" s="258"/>
+      <c r="A35" s="252"/>
+      <c r="B35" s="264"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28907,8 +28940,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="262"/>
-      <c r="B36" s="258"/>
+      <c r="A36" s="252"/>
+      <c r="B36" s="264"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28923,8 +28956,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="262"/>
-      <c r="B37" s="258"/>
+      <c r="A37" s="252"/>
+      <c r="B37" s="264"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28939,8 +28972,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="262"/>
-      <c r="B38" s="258"/>
+      <c r="A38" s="252"/>
+      <c r="B38" s="264"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28955,8 +28988,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="262"/>
-      <c r="B39" s="258"/>
+      <c r="A39" s="252"/>
+      <c r="B39" s="264"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28968,8 +29001,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="262"/>
-      <c r="B40" s="258"/>
+      <c r="A40" s="252"/>
+      <c r="B40" s="264"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28981,8 +29014,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="262"/>
-      <c r="B41" s="258" t="str">
+      <c r="A41" s="252"/>
+      <c r="B41" s="264" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28997,8 +29030,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="262"/>
-      <c r="B42" s="258"/>
+      <c r="A42" s="252"/>
+      <c r="B42" s="264"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -29010,8 +29043,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="262"/>
-      <c r="B43" s="258"/>
+      <c r="A43" s="252"/>
+      <c r="B43" s="264"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -29023,8 +29056,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="262"/>
-      <c r="B44" s="258"/>
+      <c r="A44" s="252"/>
+      <c r="B44" s="264"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -29036,8 +29069,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="262"/>
-      <c r="B45" s="258"/>
+      <c r="A45" s="252"/>
+      <c r="B45" s="264"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -29049,8 +29082,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="262"/>
-      <c r="B46" s="258"/>
+      <c r="A46" s="252"/>
+      <c r="B46" s="264"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -29062,8 +29095,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="262"/>
-      <c r="B47" s="258" t="str">
+      <c r="A47" s="252"/>
+      <c r="B47" s="264" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -29078,8 +29111,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="262"/>
-      <c r="B48" s="258"/>
+      <c r="A48" s="252"/>
+      <c r="B48" s="264"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -29091,8 +29124,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="262"/>
-      <c r="B49" s="258"/>
+      <c r="A49" s="252"/>
+      <c r="B49" s="264"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -29104,8 +29137,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="262"/>
-      <c r="B50" s="258"/>
+      <c r="A50" s="252"/>
+      <c r="B50" s="264"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -29117,8 +29150,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="262"/>
-      <c r="B51" s="258"/>
+      <c r="A51" s="252"/>
+      <c r="B51" s="264"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -29130,8 +29163,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="262"/>
-      <c r="B52" s="258" t="str">
+      <c r="A52" s="252"/>
+      <c r="B52" s="264" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -29146,8 +29179,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="262"/>
-      <c r="B53" s="258"/>
+      <c r="A53" s="252"/>
+      <c r="B53" s="264"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -29159,8 +29192,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="262"/>
-      <c r="B54" s="258"/>
+      <c r="A54" s="252"/>
+      <c r="B54" s="264"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -29172,8 +29205,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="262"/>
-      <c r="B55" s="258" t="str">
+      <c r="A55" s="252"/>
+      <c r="B55" s="264" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -29188,8 +29221,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="262"/>
-      <c r="B56" s="258"/>
+      <c r="A56" s="252"/>
+      <c r="B56" s="264"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -29201,8 +29234,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="263"/>
-      <c r="B57" s="259"/>
+      <c r="A57" s="253"/>
+      <c r="B57" s="265"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -29217,10 +29250,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="267" t="s">
+      <c r="A59" s="257" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="260" t="s">
+      <c r="B59" s="266" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -29237,8 +29270,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="268"/>
-      <c r="B60" s="255"/>
+      <c r="A60" s="258"/>
+      <c r="B60" s="261"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -29256,8 +29289,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="268"/>
-      <c r="B61" s="255"/>
+      <c r="A61" s="258"/>
+      <c r="B61" s="261"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -29272,8 +29305,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="268"/>
-      <c r="B62" s="255"/>
+      <c r="A62" s="258"/>
+      <c r="B62" s="261"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -29288,8 +29321,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="268"/>
-      <c r="B63" s="255"/>
+      <c r="A63" s="258"/>
+      <c r="B63" s="261"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -29304,8 +29337,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="268"/>
-      <c r="B64" s="255"/>
+      <c r="A64" s="258"/>
+      <c r="B64" s="261"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -29320,8 +29353,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="268"/>
-      <c r="B65" s="255"/>
+      <c r="A65" s="258"/>
+      <c r="B65" s="261"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -29334,8 +29367,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="268"/>
-      <c r="B66" s="255" t="str">
+      <c r="A66" s="258"/>
+      <c r="B66" s="261" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -29351,8 +29384,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="268"/>
-      <c r="B67" s="255"/>
+      <c r="A67" s="258"/>
+      <c r="B67" s="261"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -29364,8 +29397,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="268"/>
-      <c r="B68" s="255"/>
+      <c r="A68" s="258"/>
+      <c r="B68" s="261"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -29377,8 +29410,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="268"/>
-      <c r="B69" s="255"/>
+      <c r="A69" s="258"/>
+      <c r="B69" s="261"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -29390,8 +29423,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="268"/>
-      <c r="B70" s="255"/>
+      <c r="A70" s="258"/>
+      <c r="B70" s="261"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -29403,8 +29436,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="268"/>
-      <c r="B71" s="255"/>
+      <c r="A71" s="258"/>
+      <c r="B71" s="261"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -29416,8 +29449,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="268"/>
-      <c r="B72" s="255"/>
+      <c r="A72" s="258"/>
+      <c r="B72" s="261"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -29429,8 +29462,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="268"/>
-      <c r="B73" s="255" t="str">
+      <c r="A73" s="258"/>
+      <c r="B73" s="261" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -29445,8 +29478,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="268"/>
-      <c r="B74" s="255"/>
+      <c r="A74" s="258"/>
+      <c r="B74" s="261"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -29458,8 +29491,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="268"/>
-      <c r="B75" s="255"/>
+      <c r="A75" s="258"/>
+      <c r="B75" s="261"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -29471,8 +29504,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="268"/>
-      <c r="B76" s="255"/>
+      <c r="A76" s="258"/>
+      <c r="B76" s="261"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -29484,8 +29517,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="268"/>
-      <c r="B77" s="255"/>
+      <c r="A77" s="258"/>
+      <c r="B77" s="261"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -29497,8 +29530,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="268"/>
-      <c r="B78" s="255"/>
+      <c r="A78" s="258"/>
+      <c r="B78" s="261"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29510,8 +29543,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="268"/>
-      <c r="B79" s="255"/>
+      <c r="A79" s="258"/>
+      <c r="B79" s="261"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29523,8 +29556,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="268"/>
-      <c r="B80" s="255" t="str">
+      <c r="A80" s="258"/>
+      <c r="B80" s="261" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29539,8 +29572,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="268"/>
-      <c r="B81" s="255"/>
+      <c r="A81" s="258"/>
+      <c r="B81" s="261"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29552,8 +29585,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="268"/>
-      <c r="B82" s="255"/>
+      <c r="A82" s="258"/>
+      <c r="B82" s="261"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29565,8 +29598,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="268"/>
-      <c r="B83" s="255" t="str">
+      <c r="A83" s="258"/>
+      <c r="B83" s="261" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29581,8 +29614,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="268"/>
-      <c r="B84" s="255"/>
+      <c r="A84" s="258"/>
+      <c r="B84" s="261"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29594,8 +29627,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="269"/>
-      <c r="B85" s="256"/>
+      <c r="A85" s="259"/>
+      <c r="B85" s="262"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29622,13 +29655,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29641,21 +29682,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29988,7 +30021,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="B3" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30385,14 +30418,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -30613,6 +30638,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
@@ -30622,16 +30655,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30648,4 +30671,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htoom\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2BFFDB-D9A2-4108-8A65-D73276E527AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B4C8B-1785-426B-B27F-3898F7C4298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="9" activeTab="13" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -5878,35 +5878,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5934,6 +5914,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5989,12 +5999,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6013,6 +6017,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6024,16 +6034,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6373,7 +6373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044920B-C09C-4E88-827F-04E6A256EC2A}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
@@ -9128,10 +9128,10 @@
       <c r="A36" s="164" t="s">
         <v>668</v>
       </c>
-      <c r="B36" s="308" t="s">
-        <v>630</v>
-      </c>
-      <c r="C36" s="308" t="s">
+      <c r="B36" s="255" t="s">
+        <v>630</v>
+      </c>
+      <c r="C36" s="255" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9880,10 +9880,10 @@
       <c r="A2" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="B2" s="308" t="s">
-        <v>630</v>
-      </c>
-      <c r="C2" s="308" t="s">
+      <c r="B2" s="255" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="255" t="s">
         <v>630</v>
       </c>
       <c r="D2" s="183" t="s">
@@ -9948,10 +9948,10 @@
       <c r="A6" s="182" t="s">
         <v>732</v>
       </c>
-      <c r="B6" s="308" t="s">
-        <v>630</v>
-      </c>
-      <c r="C6" s="308" t="s">
+      <c r="B6" s="255" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="255" t="s">
         <v>630</v>
       </c>
       <c r="D6" s="183" t="s">
@@ -10101,7 +10101,7 @@
       <c r="A15" s="185" t="s">
         <v>742</v>
       </c>
-      <c r="B15" s="309" t="s">
+      <c r="B15" s="256" t="s">
         <v>630</v>
       </c>
       <c r="C15" s="170" t="s">
@@ -10118,7 +10118,7 @@
       <c r="A16" s="185" t="s">
         <v>743</v>
       </c>
-      <c r="B16" s="309" t="s">
+      <c r="B16" s="256" t="s">
         <v>630</v>
       </c>
       <c r="C16" s="170" t="s">
@@ -10135,7 +10135,7 @@
       <c r="A17" s="185" t="s">
         <v>744</v>
       </c>
-      <c r="B17" s="309" t="s">
+      <c r="B17" s="256" t="s">
         <v>630</v>
       </c>
       <c r="C17" s="170" t="s">
@@ -10174,7 +10174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C2F58C-42BB-4EE7-AAE5-3A78B5BC5F79}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -10201,50 +10201,50 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="257" t="s">
         <v>1209</v>
       </c>
-      <c r="B2" s="311" t="s">
+      <c r="B2" s="258" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="310" t="s">
+      <c r="A3" s="257" t="s">
         <v>1211</v>
       </c>
-      <c r="B3" s="311" t="s">
+      <c r="B3" s="258" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="310" t="s">
+      <c r="A4" s="257" t="s">
         <v>1212</v>
       </c>
-      <c r="B4" s="311" t="s">
+      <c r="B4" s="258" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="310" t="s">
+      <c r="A5" s="257" t="s">
         <v>1213</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="B5" s="258" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="257" t="s">
         <v>1214</v>
       </c>
-      <c r="B6" s="311" t="s">
+      <c r="B6" s="258" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="257" t="s">
         <v>1215</v>
       </c>
-      <c r="B7" s="311" t="s">
+      <c r="B7" s="258" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -21404,65 +21404,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="288" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="293" t="s">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="297" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="293" t="s">
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="297" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="293" t="s">
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="297" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="295"/>
-      <c r="Q1" s="295"/>
-      <c r="R1" s="295"/>
-      <c r="S1" s="294"/>
-      <c r="T1" s="293" t="s">
+      <c r="P1" s="299"/>
+      <c r="Q1" s="299"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="298"/>
+      <c r="T1" s="297" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="294"/>
-      <c r="V1" s="290" t="s">
+      <c r="U1" s="298"/>
+      <c r="V1" s="294" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="291"/>
-      <c r="X1" s="291"/>
-      <c r="Y1" s="291"/>
-      <c r="Z1" s="291"/>
-      <c r="AA1" s="291"/>
-      <c r="AB1" s="291"/>
-      <c r="AC1" s="291"/>
-      <c r="AD1" s="291"/>
-      <c r="AE1" s="292"/>
-      <c r="AF1" s="287" t="s">
+      <c r="W1" s="295"/>
+      <c r="X1" s="295"/>
+      <c r="Y1" s="295"/>
+      <c r="Z1" s="295"/>
+      <c r="AA1" s="295"/>
+      <c r="AB1" s="295"/>
+      <c r="AC1" s="295"/>
+      <c r="AD1" s="295"/>
+      <c r="AE1" s="296"/>
+      <c r="AF1" s="291" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="288"/>
-      <c r="AH1" s="288"/>
-      <c r="AI1" s="288"/>
-      <c r="AJ1" s="288"/>
-      <c r="AK1" s="288"/>
-      <c r="AL1" s="288"/>
-      <c r="AM1" s="288"/>
-      <c r="AN1" s="288"/>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
-      <c r="AS1" s="289"/>
+      <c r="AG1" s="292"/>
+      <c r="AH1" s="292"/>
+      <c r="AI1" s="292"/>
+      <c r="AJ1" s="292"/>
+      <c r="AK1" s="292"/>
+      <c r="AL1" s="292"/>
+      <c r="AM1" s="292"/>
+      <c r="AN1" s="292"/>
+      <c r="AO1" s="292"/>
+      <c r="AP1" s="292"/>
+      <c r="AQ1" s="292"/>
+      <c r="AR1" s="292"/>
+      <c r="AS1" s="293"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
@@ -22574,20 +22574,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="255"/>
-      <c r="AO1" s="255"/>
-      <c r="AP1" s="255"/>
-      <c r="AQ1" s="255"/>
-      <c r="AR1" s="255"/>
-      <c r="AS1" s="255"/>
-      <c r="AT1" s="255"/>
-      <c r="AU1" s="255"/>
-      <c r="AV1" s="255"/>
-      <c r="AW1" s="255"/>
-      <c r="AX1" s="255"/>
-      <c r="AY1" s="255"/>
-      <c r="AZ1" s="255"/>
-      <c r="BA1" s="255"/>
+      <c r="AN1" s="277"/>
+      <c r="AO1" s="277"/>
+      <c r="AP1" s="277"/>
+      <c r="AQ1" s="277"/>
+      <c r="AR1" s="277"/>
+      <c r="AS1" s="277"/>
+      <c r="AT1" s="277"/>
+      <c r="AU1" s="277"/>
+      <c r="AV1" s="277"/>
+      <c r="AW1" s="277"/>
+      <c r="AX1" s="277"/>
+      <c r="AY1" s="277"/>
+      <c r="AZ1" s="277"/>
+      <c r="BA1" s="277"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="78"/>
@@ -22606,7 +22606,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="298" t="s">
+      <c r="H2" s="300" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22628,7 +22628,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="298" t="s">
+      <c r="P2" s="300" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22659,10 +22659,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="301" t="s">
+      <c r="AC2" s="303" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="296" t="s">
+      <c r="AD2" s="306" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22674,26 +22674,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="255"/>
-      <c r="AI2" s="255"/>
-      <c r="AJ2" s="255"/>
-      <c r="AK2" s="255"/>
-      <c r="AL2" s="255"/>
-      <c r="AM2" s="255"/>
-      <c r="AN2" s="255"/>
-      <c r="AO2" s="255"/>
-      <c r="AP2" s="255"/>
-      <c r="AQ2" s="255"/>
-      <c r="AR2" s="255"/>
-      <c r="AS2" s="255"/>
-      <c r="AT2" s="255"/>
-      <c r="AU2" s="255"/>
-      <c r="AV2" s="255"/>
-      <c r="AW2" s="255"/>
-      <c r="AX2" s="255"/>
-      <c r="AY2" s="255"/>
-      <c r="AZ2" s="255"/>
-      <c r="BA2" s="255"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
+      <c r="AJ2" s="277"/>
+      <c r="AK2" s="277"/>
+      <c r="AL2" s="277"/>
+      <c r="AM2" s="277"/>
+      <c r="AN2" s="277"/>
+      <c r="AO2" s="277"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="277"/>
+      <c r="AR2" s="277"/>
+      <c r="AS2" s="277"/>
+      <c r="AT2" s="277"/>
+      <c r="AU2" s="277"/>
+      <c r="AV2" s="277"/>
+      <c r="AW2" s="277"/>
+      <c r="AX2" s="277"/>
+      <c r="AY2" s="277"/>
+      <c r="AZ2" s="277"/>
+      <c r="BA2" s="277"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="79" t="s">
@@ -22714,7 +22714,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="299"/>
+      <c r="H3" s="301"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="299"/>
+      <c r="P3" s="301"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22755,8 +22755,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="302"/>
-      <c r="AD3" s="259"/>
+      <c r="AC3" s="304"/>
+      <c r="AD3" s="269"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22801,7 +22801,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="299"/>
+      <c r="H4" s="301"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22821,7 +22821,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="300"/>
+      <c r="P4" s="302"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22841,8 +22841,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="302"/>
-      <c r="AD4" s="259"/>
+      <c r="AC4" s="304"/>
+      <c r="AD4" s="269"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22890,7 +22890,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="299"/>
+      <c r="H5" s="301"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22915,8 +22915,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="302"/>
-      <c r="AD5" s="259"/>
+      <c r="AC5" s="304"/>
+      <c r="AD5" s="269"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22949,7 +22949,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="H6" s="299"/>
+      <c r="H6" s="301"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22976,8 +22976,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="302"/>
-      <c r="AD6" s="259"/>
+      <c r="AC6" s="304"/>
+      <c r="AD6" s="269"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -23015,7 +23015,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="299"/>
+      <c r="H7" s="301"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -23042,8 +23042,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="302"/>
-      <c r="AD7" s="259"/>
+      <c r="AC7" s="304"/>
+      <c r="AD7" s="269"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -23078,7 +23078,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="299"/>
+      <c r="H8" s="301"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -23105,8 +23105,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="302"/>
-      <c r="AD8" s="259"/>
+      <c r="AC8" s="304"/>
+      <c r="AD8" s="269"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -23141,7 +23141,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="300"/>
+      <c r="H9" s="302"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -23168,8 +23168,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="302"/>
-      <c r="AD9" s="259" t="s">
+      <c r="AC9" s="304"/>
+      <c r="AD9" s="269" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -23212,8 +23212,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="302"/>
-      <c r="AD10" s="259"/>
+      <c r="AC10" s="304"/>
+      <c r="AD10" s="269"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23246,7 +23246,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="301" t="s">
+      <c r="H11" s="303" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23267,8 +23267,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="302"/>
-      <c r="AD11" s="259"/>
+      <c r="AC11" s="304"/>
+      <c r="AD11" s="269"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23287,7 +23287,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="302"/>
+      <c r="H12" s="304"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23306,8 +23306,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="302"/>
-      <c r="AD12" s="259"/>
+      <c r="AC12" s="304"/>
+      <c r="AD12" s="269"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23326,7 +23326,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="302"/>
+      <c r="H13" s="304"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23345,8 +23345,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="302"/>
-      <c r="AD13" s="259"/>
+      <c r="AC13" s="304"/>
+      <c r="AD13" s="269"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23365,7 +23365,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="302"/>
+      <c r="H14" s="304"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23384,8 +23384,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="302"/>
-      <c r="AD14" s="259"/>
+      <c r="AC14" s="304"/>
+      <c r="AD14" s="269"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23404,7 +23404,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="302"/>
+      <c r="H15" s="304"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23423,8 +23423,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="302"/>
-      <c r="AD15" s="259" t="s">
+      <c r="AC15" s="304"/>
+      <c r="AD15" s="269" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23442,7 +23442,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="302"/>
+      <c r="H16" s="304"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23461,8 +23461,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="302"/>
-      <c r="AD16" s="259"/>
+      <c r="AC16" s="304"/>
+      <c r="AD16" s="269"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23481,7 +23481,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="302"/>
+      <c r="H17" s="304"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23500,8 +23500,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="302"/>
-      <c r="AD17" s="259"/>
+      <c r="AC17" s="304"/>
+      <c r="AD17" s="269"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23520,7 +23520,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="303"/>
+      <c r="H18" s="305"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23539,8 +23539,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="302"/>
-      <c r="AD18" s="259"/>
+      <c r="AC18" s="304"/>
+      <c r="AD18" s="269"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23559,8 +23559,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="302"/>
-      <c r="AD19" s="259"/>
+      <c r="AC19" s="304"/>
+      <c r="AD19" s="269"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23579,8 +23579,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="302"/>
-      <c r="AD20" s="259" t="s">
+      <c r="AC20" s="304"/>
+      <c r="AD20" s="269" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23601,8 +23601,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="302"/>
-      <c r="AD21" s="259"/>
+      <c r="AC21" s="304"/>
+      <c r="AD21" s="269"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23621,8 +23621,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="302"/>
-      <c r="AD22" s="259"/>
+      <c r="AC22" s="304"/>
+      <c r="AD22" s="269"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23641,8 +23641,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="302"/>
-      <c r="AD23" s="259" t="s">
+      <c r="AC23" s="304"/>
+      <c r="AD23" s="269" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23663,8 +23663,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="302"/>
-      <c r="AD24" s="259"/>
+      <c r="AC24" s="304"/>
+      <c r="AD24" s="269"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23677,8 +23677,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G25" s="6"/>
-      <c r="AC25" s="303"/>
-      <c r="AD25" s="297"/>
+      <c r="AC25" s="305"/>
+      <c r="AD25" s="307"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23695,10 +23695,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="301" t="s">
+      <c r="AC27" s="303" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="296" t="s">
+      <c r="AD27" s="306" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23715,8 +23715,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="302"/>
-      <c r="AD28" s="259"/>
+      <c r="AC28" s="304"/>
+      <c r="AD28" s="269"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23731,8 +23731,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="302"/>
-      <c r="AD29" s="259"/>
+      <c r="AC29" s="304"/>
+      <c r="AD29" s="269"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23744,8 +23744,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC30" s="302"/>
-      <c r="AD30" s="259"/>
+      <c r="AC30" s="304"/>
+      <c r="AD30" s="269"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23759,8 +23759,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="302"/>
-      <c r="AD31" s="259"/>
+      <c r="AC31" s="304"/>
+      <c r="AD31" s="269"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23772,8 +23772,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC32" s="302"/>
-      <c r="AD32" s="259"/>
+      <c r="AC32" s="304"/>
+      <c r="AD32" s="269"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23786,8 +23786,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
-      <c r="AC33" s="302"/>
-      <c r="AD33" s="259"/>
+      <c r="AC33" s="304"/>
+      <c r="AD33" s="269"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23804,8 +23804,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="302"/>
-      <c r="AD34" s="259" t="s">
+      <c r="AC34" s="304"/>
+      <c r="AD34" s="269" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23824,8 +23824,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="302"/>
-      <c r="AD35" s="259"/>
+      <c r="AC35" s="304"/>
+      <c r="AD35" s="269"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23842,8 +23842,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="302"/>
-      <c r="AD36" s="259"/>
+      <c r="AC36" s="304"/>
+      <c r="AD36" s="269"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23860,8 +23860,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="302"/>
-      <c r="AD37" s="259"/>
+      <c r="AC37" s="304"/>
+      <c r="AD37" s="269"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23878,8 +23878,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="302"/>
-      <c r="AD38" s="259"/>
+      <c r="AC38" s="304"/>
+      <c r="AD38" s="269"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23896,8 +23896,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="302"/>
-      <c r="AD39" s="259"/>
+      <c r="AC39" s="304"/>
+      <c r="AD39" s="269"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23914,8 +23914,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="302"/>
-      <c r="AD40" s="259"/>
+      <c r="AC40" s="304"/>
+      <c r="AD40" s="269"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23932,8 +23932,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="302"/>
-      <c r="AD41" s="259" t="s">
+      <c r="AC41" s="304"/>
+      <c r="AD41" s="269" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23952,8 +23952,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="302"/>
-      <c r="AD42" s="259"/>
+      <c r="AC42" s="304"/>
+      <c r="AD42" s="269"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23970,8 +23970,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="302"/>
-      <c r="AD43" s="259"/>
+      <c r="AC43" s="304"/>
+      <c r="AD43" s="269"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23988,8 +23988,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="302"/>
-      <c r="AD44" s="259"/>
+      <c r="AC44" s="304"/>
+      <c r="AD44" s="269"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -24006,8 +24006,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="302"/>
-      <c r="AD45" s="259"/>
+      <c r="AC45" s="304"/>
+      <c r="AD45" s="269"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -24024,8 +24024,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="302"/>
-      <c r="AD46" s="259"/>
+      <c r="AC46" s="304"/>
+      <c r="AD46" s="269"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -24042,8 +24042,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="302"/>
-      <c r="AD47" s="259"/>
+      <c r="AC47" s="304"/>
+      <c r="AD47" s="269"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -24060,8 +24060,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="302"/>
-      <c r="AD48" s="259" t="s">
+      <c r="AC48" s="304"/>
+      <c r="AD48" s="269" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -24080,8 +24080,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="302"/>
-      <c r="AD49" s="259"/>
+      <c r="AC49" s="304"/>
+      <c r="AD49" s="269"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -24098,8 +24098,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="302"/>
-      <c r="AD50" s="259"/>
+      <c r="AC50" s="304"/>
+      <c r="AD50" s="269"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -24116,8 +24116,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="302"/>
-      <c r="AD51" s="259" t="s">
+      <c r="AC51" s="304"/>
+      <c r="AD51" s="269" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -24136,8 +24136,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="302"/>
-      <c r="AD52" s="259"/>
+      <c r="AC52" s="304"/>
+      <c r="AD52" s="269"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -24154,8 +24154,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="302"/>
-      <c r="AD53" s="259"/>
+      <c r="AC53" s="304"/>
+      <c r="AD53" s="269"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24172,7 +24172,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="302"/>
+      <c r="AC54" s="304"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -24192,7 +24192,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="303"/>
+      <c r="AC55" s="305"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24425,11 +24425,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24446,11 +24446,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24764,7 +24764,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="308" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -24787,7 +24787,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="299"/>
+      <c r="A3" s="301"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24808,7 +24808,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="299"/>
+      <c r="A4" s="301"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24829,7 +24829,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="299"/>
+      <c r="A5" s="301"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24850,7 +24850,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="299"/>
+      <c r="A6" s="301"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24871,7 +24871,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="299"/>
+      <c r="A7" s="301"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24892,7 +24892,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="299"/>
+      <c r="A8" s="301"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24913,7 +24913,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="300"/>
+      <c r="A9" s="302"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24934,7 +24934,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="298" t="s">
+      <c r="A10" s="300" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24957,7 +24957,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="299"/>
+      <c r="A11" s="301"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24978,7 +24978,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="299"/>
+      <c r="A12" s="301"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24999,7 +24999,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="299"/>
+      <c r="A13" s="301"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -25020,7 +25020,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="299"/>
+      <c r="A14" s="301"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -25041,7 +25041,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="299"/>
+      <c r="A15" s="301"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -25062,7 +25062,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="299"/>
+      <c r="A16" s="301"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -25083,7 +25083,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="300"/>
+      <c r="A17" s="302"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25821,7 +25821,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="300" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25840,7 +25840,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="299"/>
+      <c r="A3" s="301"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25857,7 +25857,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="300"/>
+      <c r="A4" s="302"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -26053,10 +26053,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="300" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="306" t="s">
+      <c r="B1" s="310" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -26079,8 +26079,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="299"/>
-      <c r="B2" s="305"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="309"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -26101,8 +26101,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="299"/>
-      <c r="B3" s="305"/>
+      <c r="A3" s="301"/>
+      <c r="B3" s="309"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -26123,8 +26123,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="299"/>
-      <c r="B4" s="305"/>
+      <c r="A4" s="301"/>
+      <c r="B4" s="309"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -26145,8 +26145,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="299"/>
-      <c r="B5" s="305"/>
+      <c r="A5" s="301"/>
+      <c r="B5" s="309"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -26167,8 +26167,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="299"/>
-      <c r="B6" s="305"/>
+      <c r="A6" s="301"/>
+      <c r="B6" s="309"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -26189,8 +26189,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="299"/>
-      <c r="B7" s="305"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="309"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -26211,8 +26211,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="299"/>
-      <c r="B8" s="305" t="s">
+      <c r="A8" s="301"/>
+      <c r="B8" s="309" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -26235,8 +26235,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="299"/>
-      <c r="B9" s="305"/>
+      <c r="A9" s="301"/>
+      <c r="B9" s="309"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -26257,8 +26257,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="299"/>
-      <c r="B10" s="305"/>
+      <c r="A10" s="301"/>
+      <c r="B10" s="309"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -26279,8 +26279,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="299"/>
-      <c r="B11" s="305"/>
+      <c r="A11" s="301"/>
+      <c r="B11" s="309"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -26301,8 +26301,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="299"/>
-      <c r="B12" s="305"/>
+      <c r="A12" s="301"/>
+      <c r="B12" s="309"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -26323,8 +26323,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="299"/>
-      <c r="B13" s="305"/>
+      <c r="A13" s="301"/>
+      <c r="B13" s="309"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -26345,8 +26345,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="299"/>
-      <c r="B14" s="305" t="s">
+      <c r="A14" s="301"/>
+      <c r="B14" s="309" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -26369,8 +26369,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="299"/>
-      <c r="B15" s="305"/>
+      <c r="A15" s="301"/>
+      <c r="B15" s="309"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -26391,8 +26391,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="299"/>
-      <c r="B16" s="305"/>
+      <c r="A16" s="301"/>
+      <c r="B16" s="309"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -26413,8 +26413,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="299"/>
-      <c r="B17" s="305"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="309"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -26435,8 +26435,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="299"/>
-      <c r="B18" s="305"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="309"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -26457,8 +26457,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="299"/>
-      <c r="B19" s="305" t="s">
+      <c r="A19" s="301"/>
+      <c r="B19" s="309" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -26481,8 +26481,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="299"/>
-      <c r="B20" s="305"/>
+      <c r="A20" s="301"/>
+      <c r="B20" s="309"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -26503,8 +26503,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="299"/>
-      <c r="B21" s="305"/>
+      <c r="A21" s="301"/>
+      <c r="B21" s="309"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -26525,8 +26525,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="299"/>
-      <c r="B22" s="305" t="s">
+      <c r="A22" s="301"/>
+      <c r="B22" s="309" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -26549,8 +26549,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="299"/>
-      <c r="B23" s="305"/>
+      <c r="A23" s="301"/>
+      <c r="B23" s="309"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -26571,8 +26571,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="300"/>
-      <c r="B24" s="307"/>
+      <c r="A24" s="302"/>
+      <c r="B24" s="311"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -26593,10 +26593,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="301" t="s">
+      <c r="A25" s="303" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="310" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -26619,8 +26619,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="302"/>
-      <c r="B26" s="305"/>
+      <c r="A26" s="304"/>
+      <c r="B26" s="309"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -26641,8 +26641,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="302"/>
-      <c r="B27" s="305"/>
+      <c r="A27" s="304"/>
+      <c r="B27" s="309"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -26663,8 +26663,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="302"/>
-      <c r="B28" s="305"/>
+      <c r="A28" s="304"/>
+      <c r="B28" s="309"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -26685,8 +26685,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="302"/>
-      <c r="B29" s="305"/>
+      <c r="A29" s="304"/>
+      <c r="B29" s="309"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -26707,8 +26707,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="302"/>
-      <c r="B30" s="305"/>
+      <c r="A30" s="304"/>
+      <c r="B30" s="309"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -26729,8 +26729,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="302"/>
-      <c r="B31" s="305"/>
+      <c r="A31" s="304"/>
+      <c r="B31" s="309"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -26751,8 +26751,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="302"/>
-      <c r="B32" s="305" t="s">
+      <c r="A32" s="304"/>
+      <c r="B32" s="309" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -26775,8 +26775,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="302"/>
-      <c r="B33" s="305"/>
+      <c r="A33" s="304"/>
+      <c r="B33" s="309"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -26797,8 +26797,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="302"/>
-      <c r="B34" s="305"/>
+      <c r="A34" s="304"/>
+      <c r="B34" s="309"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -26819,8 +26819,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="302"/>
-      <c r="B35" s="305"/>
+      <c r="A35" s="304"/>
+      <c r="B35" s="309"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -26841,8 +26841,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="302"/>
-      <c r="B36" s="305"/>
+      <c r="A36" s="304"/>
+      <c r="B36" s="309"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -26863,8 +26863,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="302"/>
-      <c r="B37" s="305"/>
+      <c r="A37" s="304"/>
+      <c r="B37" s="309"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -26885,8 +26885,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="302"/>
-      <c r="B38" s="305"/>
+      <c r="A38" s="304"/>
+      <c r="B38" s="309"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -26907,8 +26907,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="302"/>
-      <c r="B39" s="305" t="s">
+      <c r="A39" s="304"/>
+      <c r="B39" s="309" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -26931,8 +26931,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="302"/>
-      <c r="B40" s="305"/>
+      <c r="A40" s="304"/>
+      <c r="B40" s="309"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26953,8 +26953,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="302"/>
-      <c r="B41" s="305"/>
+      <c r="A41" s="304"/>
+      <c r="B41" s="309"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26975,8 +26975,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="302"/>
-      <c r="B42" s="305"/>
+      <c r="A42" s="304"/>
+      <c r="B42" s="309"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26997,8 +26997,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="302"/>
-      <c r="B43" s="305"/>
+      <c r="A43" s="304"/>
+      <c r="B43" s="309"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -27019,8 +27019,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A44" s="302"/>
-      <c r="B44" s="305"/>
+      <c r="A44" s="304"/>
+      <c r="B44" s="309"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -27041,8 +27041,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="302"/>
-      <c r="B45" s="305"/>
+      <c r="A45" s="304"/>
+      <c r="B45" s="309"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -27063,8 +27063,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="302"/>
-      <c r="B46" s="305" t="s">
+      <c r="A46" s="304"/>
+      <c r="B46" s="309" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -27087,8 +27087,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="302"/>
-      <c r="B47" s="305"/>
+      <c r="A47" s="304"/>
+      <c r="B47" s="309"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -27109,8 +27109,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="302"/>
-      <c r="B48" s="305"/>
+      <c r="A48" s="304"/>
+      <c r="B48" s="309"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -27131,8 +27131,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49" s="302"/>
-      <c r="B49" s="305" t="s">
+      <c r="A49" s="304"/>
+      <c r="B49" s="309" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -27155,8 +27155,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="302"/>
-      <c r="B50" s="305"/>
+      <c r="A50" s="304"/>
+      <c r="B50" s="309"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -27177,8 +27177,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51" s="302"/>
-      <c r="B51" s="305"/>
+      <c r="A51" s="304"/>
+      <c r="B51" s="309"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27199,7 +27199,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A52" s="302"/>
+      <c r="A52" s="304"/>
       <c r="B52" s="245" t="s">
         <v>179</v>
       </c>
@@ -27223,7 +27223,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="303"/>
+      <c r="A53" s="305"/>
       <c r="B53" s="246" t="s">
         <v>180</v>
       </c>
@@ -27953,50 +27953,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="256"/>
-      <c r="N1" s="256"/>
-      <c r="O1" s="256"/>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="256"/>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="256"/>
-      <c r="AA1" s="256"/>
-      <c r="AB1" s="256"/>
-      <c r="AC1" s="256"/>
-      <c r="AD1" s="258"/>
-      <c r="AE1" s="258"/>
-      <c r="AF1" s="258"/>
-      <c r="AG1" s="258"/>
-      <c r="AH1" s="258"/>
-      <c r="AI1" s="258"/>
-      <c r="AJ1" s="258"/>
-      <c r="AK1" s="258"/>
-      <c r="AL1" s="258"/>
-      <c r="AM1" s="258"/>
-      <c r="AN1" s="255"/>
-      <c r="AO1" s="255"/>
-      <c r="AP1" s="255"/>
-      <c r="AQ1" s="255"/>
-      <c r="AR1" s="255"/>
-      <c r="AS1" s="255"/>
-      <c r="AT1" s="255"/>
-      <c r="AU1" s="255"/>
-      <c r="AV1" s="255"/>
-      <c r="AW1" s="255"/>
-      <c r="AX1" s="255"/>
-      <c r="AY1" s="255"/>
-      <c r="AZ1" s="255"/>
-      <c r="BA1" s="255"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="268"/>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="268"/>
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="276"/>
+      <c r="AJ1" s="276"/>
+      <c r="AK1" s="276"/>
+      <c r="AL1" s="276"/>
+      <c r="AM1" s="276"/>
+      <c r="AN1" s="277"/>
+      <c r="AO1" s="277"/>
+      <c r="AP1" s="277"/>
+      <c r="AQ1" s="277"/>
+      <c r="AR1" s="277"/>
+      <c r="AS1" s="277"/>
+      <c r="AT1" s="277"/>
+      <c r="AU1" s="277"/>
+      <c r="AV1" s="277"/>
+      <c r="AW1" s="277"/>
+      <c r="AX1" s="277"/>
+      <c r="AY1" s="277"/>
+      <c r="AZ1" s="277"/>
+      <c r="BA1" s="277"/>
     </row>
     <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="262" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -28033,33 +28033,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="257"/>
-      <c r="AE2" s="257"/>
-      <c r="AF2" s="257"/>
-      <c r="AG2" s="257"/>
-      <c r="AH2" s="255"/>
-      <c r="AI2" s="255"/>
-      <c r="AJ2" s="255"/>
-      <c r="AK2" s="255"/>
-      <c r="AL2" s="255"/>
-      <c r="AM2" s="255"/>
-      <c r="AN2" s="255"/>
-      <c r="AO2" s="255"/>
-      <c r="AP2" s="255"/>
-      <c r="AQ2" s="255"/>
-      <c r="AR2" s="255"/>
-      <c r="AS2" s="255"/>
-      <c r="AT2" s="255"/>
-      <c r="AU2" s="255"/>
-      <c r="AV2" s="255"/>
-      <c r="AW2" s="255"/>
-      <c r="AX2" s="255"/>
-      <c r="AY2" s="255"/>
-      <c r="AZ2" s="255"/>
-      <c r="BA2" s="255"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
+      <c r="AJ2" s="277"/>
+      <c r="AK2" s="277"/>
+      <c r="AL2" s="277"/>
+      <c r="AM2" s="277"/>
+      <c r="AN2" s="277"/>
+      <c r="AO2" s="277"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="277"/>
+      <c r="AR2" s="277"/>
+      <c r="AS2" s="277"/>
+      <c r="AT2" s="277"/>
+      <c r="AU2" s="277"/>
+      <c r="AV2" s="277"/>
+      <c r="AW2" s="277"/>
+      <c r="AX2" s="277"/>
+      <c r="AY2" s="277"/>
+      <c r="AZ2" s="277"/>
+      <c r="BA2" s="277"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A3" s="269"/>
+      <c r="A3" s="263"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -28117,7 +28117,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A4" s="269"/>
+      <c r="A4" s="263"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -28178,7 +28178,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="270"/>
+      <c r="A5" s="264"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -28328,7 +28328,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A8" s="268" t="s">
+      <c r="A8" s="262" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -28383,7 +28383,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A9" s="269"/>
+      <c r="A9" s="263"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -28434,7 +28434,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A10" s="269"/>
+      <c r="A10" s="263"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -28481,7 +28481,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A11" s="269"/>
+      <c r="A11" s="263"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -28505,7 +28505,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A12" s="269"/>
+      <c r="A12" s="263"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -28529,7 +28529,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A13" s="269"/>
+      <c r="A13" s="263"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -28553,7 +28553,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A14" s="269"/>
+      <c r="A14" s="263"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28577,7 +28577,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A15" s="270"/>
+      <c r="A15" s="264"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28610,7 +28610,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="265" t="s">
+      <c r="A17" s="259" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28636,7 +28636,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="266"/>
+      <c r="A18" s="260"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28660,7 +28660,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="266"/>
+      <c r="A19" s="260"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28684,7 +28684,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="266"/>
+      <c r="A20" s="260"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28708,7 +28708,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="266"/>
+      <c r="A21" s="260"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28732,7 +28732,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="266"/>
+      <c r="A22" s="260"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28756,7 +28756,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="266"/>
+      <c r="A23" s="260"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28780,7 +28780,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="267"/>
+      <c r="A24" s="261"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28824,7 +28824,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="268" t="s">
+      <c r="A27" s="262" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28847,7 +28847,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="269"/>
+      <c r="A28" s="263"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28868,7 +28868,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="270"/>
+      <c r="A29" s="264"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28918,10 +28918,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="265" t="s">
+      <c r="A34" s="259" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="261" t="str">
+      <c r="B34" s="271" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28942,8 +28942,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="266"/>
-      <c r="B35" s="262"/>
+      <c r="A35" s="260"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28958,8 +28958,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="266"/>
-      <c r="B36" s="262"/>
+      <c r="A36" s="260"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28974,8 +28974,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="266"/>
-      <c r="B37" s="262"/>
+      <c r="A37" s="260"/>
+      <c r="B37" s="272"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28990,8 +28990,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="266"/>
-      <c r="B38" s="262"/>
+      <c r="A38" s="260"/>
+      <c r="B38" s="272"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -29006,8 +29006,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="266"/>
-      <c r="B39" s="262"/>
+      <c r="A39" s="260"/>
+      <c r="B39" s="272"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -29019,8 +29019,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="266"/>
-      <c r="B40" s="262"/>
+      <c r="A40" s="260"/>
+      <c r="B40" s="272"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -29032,8 +29032,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="266"/>
-      <c r="B41" s="262" t="str">
+      <c r="A41" s="260"/>
+      <c r="B41" s="272" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -29048,8 +29048,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="266"/>
-      <c r="B42" s="262"/>
+      <c r="A42" s="260"/>
+      <c r="B42" s="272"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -29061,8 +29061,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="266"/>
-      <c r="B43" s="262"/>
+      <c r="A43" s="260"/>
+      <c r="B43" s="272"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -29074,8 +29074,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="266"/>
-      <c r="B44" s="262"/>
+      <c r="A44" s="260"/>
+      <c r="B44" s="272"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -29087,8 +29087,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="266"/>
-      <c r="B45" s="262"/>
+      <c r="A45" s="260"/>
+      <c r="B45" s="272"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -29100,8 +29100,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="266"/>
-      <c r="B46" s="262"/>
+      <c r="A46" s="260"/>
+      <c r="B46" s="272"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -29113,8 +29113,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="266"/>
-      <c r="B47" s="262" t="str">
+      <c r="A47" s="260"/>
+      <c r="B47" s="272" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -29129,8 +29129,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="266"/>
-      <c r="B48" s="262"/>
+      <c r="A48" s="260"/>
+      <c r="B48" s="272"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -29142,8 +29142,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="266"/>
-      <c r="B49" s="262"/>
+      <c r="A49" s="260"/>
+      <c r="B49" s="272"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -29155,8 +29155,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="266"/>
-      <c r="B50" s="262"/>
+      <c r="A50" s="260"/>
+      <c r="B50" s="272"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -29168,8 +29168,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="266"/>
-      <c r="B51" s="262"/>
+      <c r="A51" s="260"/>
+      <c r="B51" s="272"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -29181,8 +29181,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="266"/>
-      <c r="B52" s="262" t="str">
+      <c r="A52" s="260"/>
+      <c r="B52" s="272" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -29197,8 +29197,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="266"/>
-      <c r="B53" s="262"/>
+      <c r="A53" s="260"/>
+      <c r="B53" s="272"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -29210,8 +29210,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="266"/>
-      <c r="B54" s="262"/>
+      <c r="A54" s="260"/>
+      <c r="B54" s="272"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -29223,8 +29223,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="266"/>
-      <c r="B55" s="262" t="str">
+      <c r="A55" s="260"/>
+      <c r="B55" s="272" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -29239,8 +29239,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="266"/>
-      <c r="B56" s="262"/>
+      <c r="A56" s="260"/>
+      <c r="B56" s="272"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -29252,8 +29252,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="267"/>
-      <c r="B57" s="263"/>
+      <c r="A57" s="261"/>
+      <c r="B57" s="273"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -29268,10 +29268,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="271" t="s">
+      <c r="A59" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="264" t="s">
+      <c r="B59" s="274" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -29288,8 +29288,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="272"/>
-      <c r="B60" s="259"/>
+      <c r="A60" s="266"/>
+      <c r="B60" s="269"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -29307,8 +29307,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="272"/>
-      <c r="B61" s="259"/>
+      <c r="A61" s="266"/>
+      <c r="B61" s="269"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -29323,8 +29323,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="272"/>
-      <c r="B62" s="259"/>
+      <c r="A62" s="266"/>
+      <c r="B62" s="269"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -29339,8 +29339,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="272"/>
-      <c r="B63" s="259"/>
+      <c r="A63" s="266"/>
+      <c r="B63" s="269"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -29355,8 +29355,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="272"/>
-      <c r="B64" s="259"/>
+      <c r="A64" s="266"/>
+      <c r="B64" s="269"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -29371,8 +29371,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="272"/>
-      <c r="B65" s="259"/>
+      <c r="A65" s="266"/>
+      <c r="B65" s="269"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -29385,8 +29385,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="272"/>
-      <c r="B66" s="259" t="str">
+      <c r="A66" s="266"/>
+      <c r="B66" s="269" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -29402,8 +29402,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="272"/>
-      <c r="B67" s="259"/>
+      <c r="A67" s="266"/>
+      <c r="B67" s="269"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -29415,8 +29415,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="272"/>
-      <c r="B68" s="259"/>
+      <c r="A68" s="266"/>
+      <c r="B68" s="269"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -29428,8 +29428,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="272"/>
-      <c r="B69" s="259"/>
+      <c r="A69" s="266"/>
+      <c r="B69" s="269"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -29441,8 +29441,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="272"/>
-      <c r="B70" s="259"/>
+      <c r="A70" s="266"/>
+      <c r="B70" s="269"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -29454,8 +29454,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="272"/>
-      <c r="B71" s="259"/>
+      <c r="A71" s="266"/>
+      <c r="B71" s="269"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -29467,8 +29467,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="272"/>
-      <c r="B72" s="259"/>
+      <c r="A72" s="266"/>
+      <c r="B72" s="269"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -29480,8 +29480,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="272"/>
-      <c r="B73" s="259" t="str">
+      <c r="A73" s="266"/>
+      <c r="B73" s="269" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -29496,8 +29496,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="272"/>
-      <c r="B74" s="259"/>
+      <c r="A74" s="266"/>
+      <c r="B74" s="269"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -29509,8 +29509,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="272"/>
-      <c r="B75" s="259"/>
+      <c r="A75" s="266"/>
+      <c r="B75" s="269"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -29522,8 +29522,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="272"/>
-      <c r="B76" s="259"/>
+      <c r="A76" s="266"/>
+      <c r="B76" s="269"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -29535,8 +29535,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="272"/>
-      <c r="B77" s="259"/>
+      <c r="A77" s="266"/>
+      <c r="B77" s="269"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -29548,8 +29548,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="272"/>
-      <c r="B78" s="259"/>
+      <c r="A78" s="266"/>
+      <c r="B78" s="269"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29561,8 +29561,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="272"/>
-      <c r="B79" s="259"/>
+      <c r="A79" s="266"/>
+      <c r="B79" s="269"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29574,8 +29574,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="272"/>
-      <c r="B80" s="259" t="str">
+      <c r="A80" s="266"/>
+      <c r="B80" s="269" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29590,8 +29590,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="272"/>
-      <c r="B81" s="259"/>
+      <c r="A81" s="266"/>
+      <c r="B81" s="269"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29603,8 +29603,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="272"/>
-      <c r="B82" s="259"/>
+      <c r="A82" s="266"/>
+      <c r="B82" s="269"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29616,8 +29616,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="272"/>
-      <c r="B83" s="259" t="str">
+      <c r="A83" s="266"/>
+      <c r="B83" s="269" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29632,8 +29632,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="272"/>
-      <c r="B84" s="259"/>
+      <c r="A84" s="266"/>
+      <c r="B84" s="269"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29645,8 +29645,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="273"/>
-      <c r="B85" s="260"/>
+      <c r="A85" s="267"/>
+      <c r="B85" s="270"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29673,13 +29673,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29692,21 +29700,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29803,7 +29803,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="275"/>
+      <c r="C2" s="279"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="121" t="s">
@@ -29812,7 +29812,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="275"/>
+      <c r="C3" s="279"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="121" t="s">
@@ -29821,7 +29821,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="275"/>
+      <c r="C4" s="279"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="121" t="s">
@@ -29830,7 +29830,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="275"/>
+      <c r="C5" s="279"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="121" t="s">
@@ -29839,7 +29839,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="275"/>
+      <c r="C6" s="279"/>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="121" t="s">
@@ -29848,7 +29848,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="275"/>
+      <c r="C7" s="279"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="122" t="s">
@@ -29857,7 +29857,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="275"/>
+      <c r="C8" s="279"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
@@ -29866,7 +29866,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="275"/>
+      <c r="C9" s="279"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="125" t="s">
@@ -29875,7 +29875,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="275"/>
+      <c r="C10" s="279"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="125" t="s">
@@ -29884,7 +29884,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="275"/>
+      <c r="C11" s="279"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="153" t="s">
@@ -29893,112 +29893,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="275"/>
+      <c r="C12" s="279"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="275"/>
+      <c r="C13" s="279"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="275"/>
+      <c r="C14" s="279"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="275"/>
+      <c r="C15" s="279"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="275"/>
+      <c r="C16" s="279"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="275"/>
+      <c r="C17" s="279"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="275"/>
+      <c r="C18" s="279"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="275"/>
+      <c r="C19" s="279"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="275"/>
+      <c r="C20" s="279"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="275"/>
+      <c r="C21" s="279"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="275"/>
+      <c r="C22" s="279"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="276"/>
+      <c r="C23" s="280"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="276"/>
+      <c r="C24" s="280"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="276"/>
+      <c r="C25" s="280"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="276"/>
+      <c r="C26" s="280"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="276"/>
+      <c r="C27" s="280"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="276"/>
+      <c r="C28" s="280"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="274"/>
+      <c r="C29" s="278"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="274"/>
+      <c r="C30" s="278"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="274"/>
+      <c r="C31" s="278"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="274"/>
+      <c r="C32" s="278"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="274"/>
+      <c r="C33" s="278"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="113"/>
@@ -30071,13 +30071,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="277"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="281"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="111" t="s">
@@ -30086,79 +30086,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="277"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="281"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="277"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286"/>
+      <c r="H4" s="286"/>
+      <c r="I4" s="281"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="277"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="281"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="277"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="281"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="277"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="281"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="279"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="277"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="281"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="283"/>
-      <c r="H9" s="283"/>
-      <c r="I9" s="277"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="287"/>
+      <c r="I9" s="281"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="111"/>
@@ -30427,23 +30427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -30664,25 +30647,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30699,4 +30681,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -1,50 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htoom\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B4C8B-1785-426B-B27F-3898F7C4298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99B3E4-0650-46BB-9ADD-12062D7EAD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="21" activeTab="28" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Materials" sheetId="17" r:id="rId2"/>
-    <sheet name="Transport WTT" sheetId="2" r:id="rId3"/>
-    <sheet name="Transport" sheetId="12" r:id="rId4"/>
-    <sheet name="Machine Types" sheetId="13" r:id="rId5"/>
-    <sheet name="Recycling" sheetId="14" r:id="rId6"/>
-    <sheet name="Disassembly by Industry" sheetId="22" r:id="rId7"/>
-    <sheet name="Usage Types" sheetId="21" r:id="rId8"/>
-    <sheet name="Facilities" sheetId="20" r:id="rId9"/>
-    <sheet name="Process" sheetId="19" r:id="rId10"/>
-    <sheet name="Machine_Process" sheetId="24" r:id="rId11"/>
-    <sheet name="YCM" sheetId="25" r:id="rId12"/>
-    <sheet name="Amada" sheetId="26" r:id="rId13"/>
-    <sheet name="Roku Roku" sheetId="35" r:id="rId14"/>
-    <sheet name="Mazak" sheetId="27" r:id="rId15"/>
-    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId16"/>
-    <sheet name="Packaging" sheetId="16" r:id="rId17"/>
-    <sheet name="Manufacturing" sheetId="15" r:id="rId18"/>
-    <sheet name="Test Page" sheetId="3" r:id="rId19"/>
-    <sheet name="Transport Test Page" sheetId="5" r:id="rId20"/>
-    <sheet name="Van" sheetId="6" r:id="rId21"/>
-    <sheet name="HGV" sheetId="7" r:id="rId22"/>
-    <sheet name="Freight Flight" sheetId="8" r:id="rId23"/>
-    <sheet name="Rail" sheetId="9" r:id="rId24"/>
-    <sheet name="Ship" sheetId="10" r:id="rId25"/>
-    <sheet name="Usage" sheetId="23" r:id="rId26"/>
-    <sheet name="End-of-Life" sheetId="28" r:id="rId27"/>
-    <sheet name="Assembly" sheetId="33" r:id="rId28"/>
-    <sheet name="Waste" sheetId="34" r:id="rId29"/>
+    <sheet name="As" sheetId="36" r:id="rId2"/>
+    <sheet name="Materials" sheetId="17" r:id="rId3"/>
+    <sheet name="Transport WTT" sheetId="2" r:id="rId4"/>
+    <sheet name="Transport" sheetId="12" r:id="rId5"/>
+    <sheet name="Machine Types" sheetId="13" r:id="rId6"/>
+    <sheet name="Recycling" sheetId="14" r:id="rId7"/>
+    <sheet name="Disassembly by Industry" sheetId="22" r:id="rId8"/>
+    <sheet name="Usage Types" sheetId="21" r:id="rId9"/>
+    <sheet name="Facilities" sheetId="20" r:id="rId10"/>
+    <sheet name="Process" sheetId="19" r:id="rId11"/>
+    <sheet name="Machine_Process" sheetId="24" r:id="rId12"/>
+    <sheet name="YCM" sheetId="25" r:id="rId13"/>
+    <sheet name="Amada" sheetId="26" r:id="rId14"/>
+    <sheet name="Roku Roku" sheetId="35" r:id="rId15"/>
+    <sheet name="Mazak" sheetId="27" r:id="rId16"/>
+    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId17"/>
+    <sheet name="Packaging" sheetId="16" r:id="rId18"/>
+    <sheet name="Manufacturing" sheetId="15" r:id="rId19"/>
+    <sheet name="Test Page" sheetId="3" r:id="rId20"/>
+    <sheet name="Transport Test Page" sheetId="5" r:id="rId21"/>
+    <sheet name="Van" sheetId="6" r:id="rId22"/>
+    <sheet name="HGV" sheetId="7" r:id="rId23"/>
+    <sheet name="Freight Flight" sheetId="8" r:id="rId24"/>
+    <sheet name="Rail" sheetId="9" r:id="rId25"/>
+    <sheet name="Ship" sheetId="10" r:id="rId26"/>
+    <sheet name="Usage" sheetId="23" r:id="rId27"/>
+    <sheet name="End-of-Life" sheetId="28" r:id="rId28"/>
+    <sheet name="Assembly" sheetId="33" r:id="rId29"/>
+    <sheet name="Waste" sheetId="34" r:id="rId30"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
     <definedName name="wttTransport">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -5888,6 +5889,36 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5914,36 +5945,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5999,6 +6000,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6016,12 +6023,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6373,7 +6374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044920B-C09C-4E88-827F-04E6A256EC2A}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
@@ -8580,6 +8581,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E235567-E41B-41D3-B781-DFF2A5801EBF}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74F2BC8-9C70-4496-B939-32341A5E3203}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -8637,7 +8679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40758563-BC2E-44F0-BF67-4E97AC986071}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -8717,7 +8759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
   <dimension ref="A1:E100"/>
   <sheetViews>
@@ -9844,7 +9886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9920F0A-7BF3-44E3-9D30-DF809E59ED17}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -10170,7 +10212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C2F58C-42BB-4EE7-AAE5-3A78B5BC5F79}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -10253,7 +10295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC407A-E4C2-4651-A59D-6A61F758042C}">
   <dimension ref="A1:E277"/>
   <sheetViews>
@@ -14982,7 +15024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A86444-194D-475C-A119-79201F84CD65}">
   <dimension ref="A1:C202"/>
   <sheetViews>
@@ -17229,7 +17271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CF364-998B-474D-A19B-22FEFE188380}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -17368,7 +17410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125FD3FB-F912-42B3-B605-31DC335FC9DA}">
   <dimension ref="A1:L258"/>
   <sheetViews>
@@ -21347,7 +21389,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565E3024-3C10-45B0-A73B-40F35B17CE46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849DADDE-0FC9-4C51-8BB1-BFE5AFC7081B}">
   <dimension ref="A1:AS10"/>
   <sheetViews>
@@ -22364,56 +22420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9393A-9557-43CE-B45F-3D30F980E3AF}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
@@ -22574,20 +22581,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="277"/>
-      <c r="AO1" s="277"/>
-      <c r="AP1" s="277"/>
-      <c r="AQ1" s="277"/>
-      <c r="AR1" s="277"/>
-      <c r="AS1" s="277"/>
-      <c r="AT1" s="277"/>
-      <c r="AU1" s="277"/>
-      <c r="AV1" s="277"/>
-      <c r="AW1" s="277"/>
-      <c r="AX1" s="277"/>
-      <c r="AY1" s="277"/>
-      <c r="AZ1" s="277"/>
-      <c r="BA1" s="277"/>
+      <c r="AN1" s="259"/>
+      <c r="AO1" s="259"/>
+      <c r="AP1" s="259"/>
+      <c r="AQ1" s="259"/>
+      <c r="AR1" s="259"/>
+      <c r="AS1" s="259"/>
+      <c r="AT1" s="259"/>
+      <c r="AU1" s="259"/>
+      <c r="AV1" s="259"/>
+      <c r="AW1" s="259"/>
+      <c r="AX1" s="259"/>
+      <c r="AY1" s="259"/>
+      <c r="AZ1" s="259"/>
+      <c r="BA1" s="259"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="78"/>
@@ -22606,7 +22613,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="300" t="s">
+      <c r="H2" s="302" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22628,7 +22635,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="300" t="s">
+      <c r="P2" s="302" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22659,10 +22666,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="303" t="s">
+      <c r="AC2" s="305" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="306" t="s">
+      <c r="AD2" s="300" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22674,26 +22681,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="277"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="277"/>
-      <c r="AL2" s="277"/>
-      <c r="AM2" s="277"/>
-      <c r="AN2" s="277"/>
-      <c r="AO2" s="277"/>
-      <c r="AP2" s="277"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="277"/>
-      <c r="AS2" s="277"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="277"/>
-      <c r="AV2" s="277"/>
-      <c r="AW2" s="277"/>
-      <c r="AX2" s="277"/>
-      <c r="AY2" s="277"/>
-      <c r="AZ2" s="277"/>
-      <c r="BA2" s="277"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="259"/>
+      <c r="AJ2" s="259"/>
+      <c r="AK2" s="259"/>
+      <c r="AL2" s="259"/>
+      <c r="AM2" s="259"/>
+      <c r="AN2" s="259"/>
+      <c r="AO2" s="259"/>
+      <c r="AP2" s="259"/>
+      <c r="AQ2" s="259"/>
+      <c r="AR2" s="259"/>
+      <c r="AS2" s="259"/>
+      <c r="AT2" s="259"/>
+      <c r="AU2" s="259"/>
+      <c r="AV2" s="259"/>
+      <c r="AW2" s="259"/>
+      <c r="AX2" s="259"/>
+      <c r="AY2" s="259"/>
+      <c r="AZ2" s="259"/>
+      <c r="BA2" s="259"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="79" t="s">
@@ -22714,7 +22721,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="301"/>
+      <c r="H3" s="303"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22734,7 +22741,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="301"/>
+      <c r="P3" s="303"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22755,8 +22762,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="304"/>
-      <c r="AD3" s="269"/>
+      <c r="AC3" s="306"/>
+      <c r="AD3" s="263"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22801,7 +22808,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="301"/>
+      <c r="H4" s="303"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22821,7 +22828,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="302"/>
+      <c r="P4" s="304"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22841,8 +22848,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="304"/>
-      <c r="AD4" s="269"/>
+      <c r="AC4" s="306"/>
+      <c r="AD4" s="263"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22890,7 +22897,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="301"/>
+      <c r="H5" s="303"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22915,8 +22922,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="304"/>
-      <c r="AD5" s="269"/>
+      <c r="AC5" s="306"/>
+      <c r="AD5" s="263"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22949,7 +22956,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="H6" s="301"/>
+      <c r="H6" s="303"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22976,8 +22983,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="304"/>
-      <c r="AD6" s="269"/>
+      <c r="AC6" s="306"/>
+      <c r="AD6" s="263"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -23015,7 +23022,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="301"/>
+      <c r="H7" s="303"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -23042,8 +23049,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="304"/>
-      <c r="AD7" s="269"/>
+      <c r="AC7" s="306"/>
+      <c r="AD7" s="263"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -23078,7 +23085,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="301"/>
+      <c r="H8" s="303"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -23105,8 +23112,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="304"/>
-      <c r="AD8" s="269"/>
+      <c r="AC8" s="306"/>
+      <c r="AD8" s="263"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -23141,7 +23148,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="302"/>
+      <c r="H9" s="304"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -23168,8 +23175,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="304"/>
-      <c r="AD9" s="269" t="s">
+      <c r="AC9" s="306"/>
+      <c r="AD9" s="263" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -23212,8 +23219,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="304"/>
-      <c r="AD10" s="269"/>
+      <c r="AC10" s="306"/>
+      <c r="AD10" s="263"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23246,7 +23253,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="303" t="s">
+      <c r="H11" s="305" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23267,8 +23274,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="304"/>
-      <c r="AD11" s="269"/>
+      <c r="AC11" s="306"/>
+      <c r="AD11" s="263"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23287,7 +23294,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="304"/>
+      <c r="H12" s="306"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23306,8 +23313,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="304"/>
-      <c r="AD12" s="269"/>
+      <c r="AC12" s="306"/>
+      <c r="AD12" s="263"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23326,7 +23333,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="304"/>
+      <c r="H13" s="306"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23345,8 +23352,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="304"/>
-      <c r="AD13" s="269"/>
+      <c r="AC13" s="306"/>
+      <c r="AD13" s="263"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23365,7 +23372,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="304"/>
+      <c r="H14" s="306"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23384,8 +23391,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="304"/>
-      <c r="AD14" s="269"/>
+      <c r="AC14" s="306"/>
+      <c r="AD14" s="263"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23404,7 +23411,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="304"/>
+      <c r="H15" s="306"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23423,8 +23430,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="304"/>
-      <c r="AD15" s="269" t="s">
+      <c r="AC15" s="306"/>
+      <c r="AD15" s="263" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23442,7 +23449,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="304"/>
+      <c r="H16" s="306"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23461,8 +23468,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="304"/>
-      <c r="AD16" s="269"/>
+      <c r="AC16" s="306"/>
+      <c r="AD16" s="263"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23481,7 +23488,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="304"/>
+      <c r="H17" s="306"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23500,8 +23507,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="304"/>
-      <c r="AD17" s="269"/>
+      <c r="AC17" s="306"/>
+      <c r="AD17" s="263"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23520,7 +23527,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="305"/>
+      <c r="H18" s="307"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23539,8 +23546,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="304"/>
-      <c r="AD18" s="269"/>
+      <c r="AC18" s="306"/>
+      <c r="AD18" s="263"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23559,8 +23566,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="304"/>
-      <c r="AD19" s="269"/>
+      <c r="AC19" s="306"/>
+      <c r="AD19" s="263"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23579,8 +23586,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="304"/>
-      <c r="AD20" s="269" t="s">
+      <c r="AC20" s="306"/>
+      <c r="AD20" s="263" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23601,8 +23608,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="304"/>
-      <c r="AD21" s="269"/>
+      <c r="AC21" s="306"/>
+      <c r="AD21" s="263"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23621,8 +23628,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="304"/>
-      <c r="AD22" s="269"/>
+      <c r="AC22" s="306"/>
+      <c r="AD22" s="263"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23641,8 +23648,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="304"/>
-      <c r="AD23" s="269" t="s">
+      <c r="AC23" s="306"/>
+      <c r="AD23" s="263" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23663,8 +23670,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="304"/>
-      <c r="AD24" s="269"/>
+      <c r="AC24" s="306"/>
+      <c r="AD24" s="263"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23677,8 +23684,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G25" s="6"/>
-      <c r="AC25" s="305"/>
-      <c r="AD25" s="307"/>
+      <c r="AC25" s="307"/>
+      <c r="AD25" s="301"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23695,10 +23702,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="303" t="s">
+      <c r="AC27" s="305" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="306" t="s">
+      <c r="AD27" s="300" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23715,8 +23722,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="304"/>
-      <c r="AD28" s="269"/>
+      <c r="AC28" s="306"/>
+      <c r="AD28" s="263"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23731,8 +23738,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="304"/>
-      <c r="AD29" s="269"/>
+      <c r="AC29" s="306"/>
+      <c r="AD29" s="263"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23744,8 +23751,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC30" s="304"/>
-      <c r="AD30" s="269"/>
+      <c r="AC30" s="306"/>
+      <c r="AD30" s="263"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23759,8 +23766,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="304"/>
-      <c r="AD31" s="269"/>
+      <c r="AC31" s="306"/>
+      <c r="AD31" s="263"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23772,8 +23779,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="AC32" s="304"/>
-      <c r="AD32" s="269"/>
+      <c r="AC32" s="306"/>
+      <c r="AD32" s="263"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23786,8 +23793,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
-      <c r="AC33" s="304"/>
-      <c r="AD33" s="269"/>
+      <c r="AC33" s="306"/>
+      <c r="AD33" s="263"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23804,8 +23811,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="304"/>
-      <c r="AD34" s="269" t="s">
+      <c r="AC34" s="306"/>
+      <c r="AD34" s="263" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23824,8 +23831,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="304"/>
-      <c r="AD35" s="269"/>
+      <c r="AC35" s="306"/>
+      <c r="AD35" s="263"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23842,8 +23849,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="304"/>
-      <c r="AD36" s="269"/>
+      <c r="AC36" s="306"/>
+      <c r="AD36" s="263"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23860,8 +23867,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="304"/>
-      <c r="AD37" s="269"/>
+      <c r="AC37" s="306"/>
+      <c r="AD37" s="263"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23878,8 +23885,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="304"/>
-      <c r="AD38" s="269"/>
+      <c r="AC38" s="306"/>
+      <c r="AD38" s="263"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23896,8 +23903,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="304"/>
-      <c r="AD39" s="269"/>
+      <c r="AC39" s="306"/>
+      <c r="AD39" s="263"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23914,8 +23921,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="304"/>
-      <c r="AD40" s="269"/>
+      <c r="AC40" s="306"/>
+      <c r="AD40" s="263"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23932,8 +23939,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="304"/>
-      <c r="AD41" s="269" t="s">
+      <c r="AC41" s="306"/>
+      <c r="AD41" s="263" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23952,8 +23959,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="304"/>
-      <c r="AD42" s="269"/>
+      <c r="AC42" s="306"/>
+      <c r="AD42" s="263"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23970,8 +23977,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="304"/>
-      <c r="AD43" s="269"/>
+      <c r="AC43" s="306"/>
+      <c r="AD43" s="263"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23988,8 +23995,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="304"/>
-      <c r="AD44" s="269"/>
+      <c r="AC44" s="306"/>
+      <c r="AD44" s="263"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -24006,8 +24013,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="304"/>
-      <c r="AD45" s="269"/>
+      <c r="AC45" s="306"/>
+      <c r="AD45" s="263"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -24024,8 +24031,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="304"/>
-      <c r="AD46" s="269"/>
+      <c r="AC46" s="306"/>
+      <c r="AD46" s="263"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -24042,8 +24049,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="304"/>
-      <c r="AD47" s="269"/>
+      <c r="AC47" s="306"/>
+      <c r="AD47" s="263"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -24060,8 +24067,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="304"/>
-      <c r="AD48" s="269" t="s">
+      <c r="AC48" s="306"/>
+      <c r="AD48" s="263" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -24080,8 +24087,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="304"/>
-      <c r="AD49" s="269"/>
+      <c r="AC49" s="306"/>
+      <c r="AD49" s="263"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -24098,8 +24105,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="304"/>
-      <c r="AD50" s="269"/>
+      <c r="AC50" s="306"/>
+      <c r="AD50" s="263"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -24116,8 +24123,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="304"/>
-      <c r="AD51" s="269" t="s">
+      <c r="AC51" s="306"/>
+      <c r="AD51" s="263" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -24136,8 +24143,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="304"/>
-      <c r="AD52" s="269"/>
+      <c r="AC52" s="306"/>
+      <c r="AD52" s="263"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -24154,8 +24161,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="304"/>
-      <c r="AD53" s="269"/>
+      <c r="AC53" s="306"/>
+      <c r="AD53" s="263"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24172,7 +24179,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="304"/>
+      <c r="AC54" s="306"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -24192,7 +24199,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="305"/>
+      <c r="AC55" s="307"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24425,11 +24432,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24446,17 +24453,17 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -24717,7 +24724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -24787,7 +24794,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="301"/>
+      <c r="A3" s="303"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24808,7 +24815,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="301"/>
+      <c r="A4" s="303"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24829,7 +24836,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="301"/>
+      <c r="A5" s="303"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24850,7 +24857,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="301"/>
+      <c r="A6" s="303"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24871,7 +24878,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="301"/>
+      <c r="A7" s="303"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24892,7 +24899,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="301"/>
+      <c r="A8" s="303"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24913,7 +24920,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="302"/>
+      <c r="A9" s="304"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24934,7 +24941,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="300" t="s">
+      <c r="A10" s="302" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24957,7 +24964,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="301"/>
+      <c r="A11" s="303"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24978,7 +24985,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="301"/>
+      <c r="A12" s="303"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24999,7 +25006,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="301"/>
+      <c r="A13" s="303"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -25020,7 +25027,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="301"/>
+      <c r="A14" s="303"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -25041,7 +25048,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="301"/>
+      <c r="A15" s="303"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -25062,7 +25069,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="301"/>
+      <c r="A16" s="303"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -25083,7 +25090,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="302"/>
+      <c r="A17" s="304"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25780,7 +25787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -25821,7 +25828,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="302" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25840,7 +25847,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="301"/>
+      <c r="A3" s="303"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25857,7 +25864,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="302"/>
+      <c r="A4" s="304"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25958,7 +25965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -26034,7 +26041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295B0C8-B8D2-4684-B32D-14EED3B83A5D}">
   <dimension ref="A1:N54"/>
   <sheetViews>
@@ -26053,7 +26060,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="302" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="310" t="s">
@@ -26079,7 +26086,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="301"/>
+      <c r="A2" s="303"/>
       <c r="B2" s="309"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -26101,7 +26108,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="301"/>
+      <c r="A3" s="303"/>
       <c r="B3" s="309"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -26123,7 +26130,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="301"/>
+      <c r="A4" s="303"/>
       <c r="B4" s="309"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -26145,7 +26152,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="301"/>
+      <c r="A5" s="303"/>
       <c r="B5" s="309"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -26167,7 +26174,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="301"/>
+      <c r="A6" s="303"/>
       <c r="B6" s="309"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -26189,7 +26196,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="301"/>
+      <c r="A7" s="303"/>
       <c r="B7" s="309"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -26211,7 +26218,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="301"/>
+      <c r="A8" s="303"/>
       <c r="B8" s="309" t="s">
         <v>141</v>
       </c>
@@ -26235,7 +26242,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="301"/>
+      <c r="A9" s="303"/>
       <c r="B9" s="309"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26257,7 +26264,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="301"/>
+      <c r="A10" s="303"/>
       <c r="B10" s="309"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26279,7 +26286,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="301"/>
+      <c r="A11" s="303"/>
       <c r="B11" s="309"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26301,7 +26308,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="301"/>
+      <c r="A12" s="303"/>
       <c r="B12" s="309"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26323,7 +26330,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="301"/>
+      <c r="A13" s="303"/>
       <c r="B13" s="309"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26345,7 +26352,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="301"/>
+      <c r="A14" s="303"/>
       <c r="B14" s="309" t="s">
         <v>147</v>
       </c>
@@ -26369,7 +26376,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="301"/>
+      <c r="A15" s="303"/>
       <c r="B15" s="309"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26391,7 +26398,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="301"/>
+      <c r="A16" s="303"/>
       <c r="B16" s="309"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26413,7 +26420,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="301"/>
+      <c r="A17" s="303"/>
       <c r="B17" s="309"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26435,7 +26442,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="301"/>
+      <c r="A18" s="303"/>
       <c r="B18" s="309"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26457,7 +26464,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="301"/>
+      <c r="A19" s="303"/>
       <c r="B19" s="309" t="s">
         <v>149</v>
       </c>
@@ -26481,7 +26488,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="301"/>
+      <c r="A20" s="303"/>
       <c r="B20" s="309"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26503,7 +26510,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="301"/>
+      <c r="A21" s="303"/>
       <c r="B21" s="309"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26525,7 +26532,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="301"/>
+      <c r="A22" s="303"/>
       <c r="B22" s="309" t="s">
         <v>152</v>
       </c>
@@ -26549,7 +26556,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="301"/>
+      <c r="A23" s="303"/>
       <c r="B23" s="309"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26571,7 +26578,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="302"/>
+      <c r="A24" s="304"/>
       <c r="B24" s="311"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26593,7 +26600,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="303" t="s">
+      <c r="A25" s="305" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="310" t="s">
@@ -26619,7 +26626,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="304"/>
+      <c r="A26" s="306"/>
       <c r="B26" s="309"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26641,7 +26648,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="304"/>
+      <c r="A27" s="306"/>
       <c r="B27" s="309"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26663,7 +26670,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="304"/>
+      <c r="A28" s="306"/>
       <c r="B28" s="309"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26685,7 +26692,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="304"/>
+      <c r="A29" s="306"/>
       <c r="B29" s="309"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26707,7 +26714,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="304"/>
+      <c r="A30" s="306"/>
       <c r="B30" s="309"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26729,7 +26736,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="304"/>
+      <c r="A31" s="306"/>
       <c r="B31" s="309"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26751,7 +26758,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="304"/>
+      <c r="A32" s="306"/>
       <c r="B32" s="309" t="s">
         <v>161</v>
       </c>
@@ -26775,7 +26782,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="304"/>
+      <c r="A33" s="306"/>
       <c r="B33" s="309"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26797,7 +26804,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="304"/>
+      <c r="A34" s="306"/>
       <c r="B34" s="309"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26819,7 +26826,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="304"/>
+      <c r="A35" s="306"/>
       <c r="B35" s="309"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26841,7 +26848,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="304"/>
+      <c r="A36" s="306"/>
       <c r="B36" s="309"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26863,7 +26870,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="304"/>
+      <c r="A37" s="306"/>
       <c r="B37" s="309"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26885,7 +26892,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="304"/>
+      <c r="A38" s="306"/>
       <c r="B38" s="309"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26907,7 +26914,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="304"/>
+      <c r="A39" s="306"/>
       <c r="B39" s="309" t="s">
         <v>166</v>
       </c>
@@ -26931,7 +26938,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="304"/>
+      <c r="A40" s="306"/>
       <c r="B40" s="309"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26953,7 +26960,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="304"/>
+      <c r="A41" s="306"/>
       <c r="B41" s="309"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26975,7 +26982,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="304"/>
+      <c r="A42" s="306"/>
       <c r="B42" s="309"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26997,7 +27004,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="304"/>
+      <c r="A43" s="306"/>
       <c r="B43" s="309"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -27019,7 +27026,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A44" s="304"/>
+      <c r="A44" s="306"/>
       <c r="B44" s="309"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -27041,7 +27048,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="304"/>
+      <c r="A45" s="306"/>
       <c r="B45" s="309"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -27063,7 +27070,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="304"/>
+      <c r="A46" s="306"/>
       <c r="B46" s="309" t="s">
         <v>173</v>
       </c>
@@ -27087,7 +27094,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="304"/>
+      <c r="A47" s="306"/>
       <c r="B47" s="309"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -27109,7 +27116,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="304"/>
+      <c r="A48" s="306"/>
       <c r="B48" s="309"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -27131,7 +27138,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49" s="304"/>
+      <c r="A49" s="306"/>
       <c r="B49" s="309" t="s">
         <v>176</v>
       </c>
@@ -27155,7 +27162,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="304"/>
+      <c r="A50" s="306"/>
       <c r="B50" s="309"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -27177,7 +27184,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51" s="304"/>
+      <c r="A51" s="306"/>
       <c r="B51" s="309"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -27199,7 +27206,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A52" s="304"/>
+      <c r="A52" s="306"/>
       <c r="B52" s="245" t="s">
         <v>179</v>
       </c>
@@ -27223,7 +27230,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="305"/>
+      <c r="A53" s="307"/>
       <c r="B53" s="246" t="s">
         <v>180</v>
       </c>
@@ -27276,7 +27283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -27434,7 +27441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revi